--- a/revision.xlsx
+++ b/revision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13380"/>
+    <workbookView windowWidth="11195" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="102">
   <si>
     <t>（填充为蓝色表示已修订）</t>
   </si>
@@ -288,6 +288,27 @@
   </si>
   <si>
     <t>week2</t>
+  </si>
+  <si>
+    <t>之后标题画完后挪动下点的位置不要遮住线</t>
+  </si>
+  <si>
+    <t>之后保存为.ggb文件</t>
+  </si>
+  <si>
+    <t>直线需隐藏，只保留构图语句中能表示的线段</t>
+  </si>
+  <si>
+    <t>平行符号具有方向性，按照条件从上到下从左往右，应K指向L，J指向M</t>
+  </si>
+  <si>
+    <t>同1480</t>
+  </si>
+  <si>
+    <t>平行符号应居中，若中间有点则另在左上角写BL//EK</t>
+  </si>
+  <si>
+    <t>平行符号应居中，若中间有点则另在左上角写BP//GF</t>
   </si>
   <si>
     <t>平行符号需居中，若有歧义则在左上角文本写出</t>
@@ -490,7 +511,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -500,6 +521,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,7 +872,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -869,16 +896,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -887,89 +914,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1045,12 +1072,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1066,7 +1102,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1388,10 +1442,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N133"/>
+  <dimension ref="A1:N144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1667,61 +1721,61 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="10"/>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="25" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="10"/>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="26" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="10"/>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="26" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="10"/>
-      <c r="B27" s="1">
+      <c r="B27" s="26">
         <v>462</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="26" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="10"/>
-      <c r="B28" s="1">
+      <c r="B28" s="26">
         <v>464</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="26" t="s">
         <v>26</v>
       </c>
       <c r="L28" s="1"/>
@@ -1730,25 +1784,25 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="10"/>
-      <c r="B29" s="1">
+      <c r="B29" s="26">
         <v>478</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="26" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="10"/>
-      <c r="B30" s="25">
+      <c r="B30" s="27">
         <v>484</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="27" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1856,7 +1910,7 @@
       <c r="C39" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="28" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2096,67 +2150,67 @@
       <c r="C59" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="26" t="s">
+      <c r="D59" s="28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="10"/>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="26" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="10"/>
-      <c r="B61" s="1">
+      <c r="B61" s="26">
         <v>730</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="26" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="10"/>
-      <c r="B62" s="1">
+      <c r="B62" s="26">
         <v>763</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="26" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="10"/>
-      <c r="B63" s="1">
+      <c r="B63" s="26">
         <v>772</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="26" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="10"/>
-      <c r="B64" s="25">
+      <c r="B64" s="27">
         <v>792</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="26" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2259,13 +2313,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="10"/>
-      <c r="B73" s="25">
+      <c r="B73" s="29">
         <v>843</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D73" s="25" t="s">
+      <c r="D73" s="29" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2416,13 +2470,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="10"/>
-      <c r="B86" s="25">
+      <c r="B86" s="29">
         <v>939</v>
       </c>
-      <c r="C86" s="25" t="s">
+      <c r="C86" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D86" s="25" t="s">
+      <c r="D86" s="29" t="s">
         <v>64</v>
       </c>
       <c r="E86" s="1"/>
@@ -2545,11 +2599,11 @@
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="25"/>
-      <c r="B96" s="25">
+      <c r="A96" s="29"/>
+      <c r="B96" s="29">
         <v>1010</v>
       </c>
-      <c r="C96" s="25" t="s">
+      <c r="C96" s="29" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -2561,11 +2615,11 @@
       <c r="A97" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B97" s="27"/>
-      <c r="C97" s="27" t="s">
+      <c r="B97" s="30"/>
+      <c r="C97" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D97" s="28" t="s">
+      <c r="D97" s="31" t="s">
         <v>7</v>
       </c>
       <c r="E97" s="1"/>
@@ -2587,17 +2641,17 @@
       <c r="C99" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D99" s="29" t="s">
+      <c r="D99" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1"/>
-      <c r="B100" s="27"/>
-      <c r="C100" s="27" t="s">
+      <c r="B100" s="30"/>
+      <c r="C100" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D100" s="28" t="s">
+      <c r="D100" s="31" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2607,7 +2661,7 @@
       <c r="C101" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D101" s="29" t="s">
+      <c r="D101" s="32" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2619,7 +2673,7 @@
       <c r="C102" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D102" s="30" t="s">
+      <c r="D102" s="33" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2631,7 +2685,7 @@
       <c r="C103" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D103" s="30" t="s">
+      <c r="D103" s="33" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2643,7 +2697,7 @@
       <c r="C104" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D104" s="30" t="s">
+      <c r="D104" s="33" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2655,7 +2709,7 @@
       <c r="C105" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D105" s="30" t="s">
+      <c r="D105" s="33" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2667,7 +2721,7 @@
       <c r="C106" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D106" s="30" t="s">
+      <c r="D106" s="33" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2679,309 +2733,443 @@
       <c r="C107" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D107" s="30" t="s">
+      <c r="D107" s="33" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1"/>
-      <c r="B108" s="25">
+      <c r="B108" s="29">
         <v>1451</v>
       </c>
-      <c r="C108" s="25" t="s">
+      <c r="C108" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D108" s="31" t="s">
+      <c r="D108" s="34" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D109" s="29" t="s">
+      <c r="B109" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D109" s="36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1"/>
-      <c r="B110" s="1">
-        <v>1559</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D110" s="30" t="s">
-        <v>32</v>
+      <c r="B110" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D110" s="37" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1"/>
-      <c r="B111" s="25">
-        <v>1572</v>
-      </c>
-      <c r="C111" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D111" s="31" t="s">
-        <v>32</v>
+      <c r="B111" s="38">
+        <v>1466</v>
+      </c>
+      <c r="C111" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D111" s="37" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1"/>
-      <c r="B112" s="1">
-        <v>1613</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D112" s="30" t="s">
-        <v>40</v>
+      <c r="B112" s="38">
+        <v>1467</v>
+      </c>
+      <c r="C112" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D112" s="37" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1"/>
-      <c r="B113" s="1">
-        <v>1624</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D113" s="30" t="s">
-        <v>40</v>
+      <c r="B113" s="38">
+        <v>1477</v>
+      </c>
+      <c r="C113" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D113" s="37" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1"/>
-      <c r="B114" s="1">
-        <v>1658</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D114" s="30" t="s">
-        <v>40</v>
+      <c r="B114" s="38">
+        <v>1480</v>
+      </c>
+      <c r="C114" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D114" s="37" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1"/>
-      <c r="B115" s="10">
-        <v>1663</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D115" s="30" t="s">
-        <v>40</v>
+      <c r="B115" s="38">
+        <v>1483</v>
+      </c>
+      <c r="C115" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D115" s="37" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1"/>
-      <c r="B116" s="25">
-        <v>1669</v>
-      </c>
-      <c r="C116" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D116" s="31" t="s">
-        <v>40</v>
+      <c r="B116" s="38">
+        <v>1486</v>
+      </c>
+      <c r="C116" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D116" s="37" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1"/>
-      <c r="B117" s="10">
-        <v>1677</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D117" s="30" t="s">
-        <v>46</v>
+      <c r="B117" s="35">
+        <v>1493</v>
+      </c>
+      <c r="C117" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D117" s="37" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1"/>
-      <c r="B118" s="1">
-        <v>1694</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D118" s="30" t="s">
-        <v>46</v>
+      <c r="B118" s="35">
+        <v>1494</v>
+      </c>
+      <c r="C118" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D118" s="37" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1"/>
-      <c r="B119" s="1">
-        <v>1704</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D119" s="30" t="s">
-        <v>46</v>
+      <c r="B119" s="35">
+        <v>1502</v>
+      </c>
+      <c r="C119" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D119" s="37" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1"/>
-      <c r="B120" s="1">
-        <v>1708</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D120" s="30" t="s">
-        <v>46</v>
+      <c r="B120" s="35">
+        <v>1510</v>
+      </c>
+      <c r="C120" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D120" s="37" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1"/>
-      <c r="B121" s="1">
-        <v>1709</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D121" s="30" t="s">
-        <v>46</v>
+      <c r="B121" s="26">
+        <v>1559</v>
+      </c>
+      <c r="C121" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D121" s="39" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1"/>
-      <c r="B122" s="1">
-        <v>1710</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D122" s="30" t="s">
-        <v>46</v>
+      <c r="B122" s="27">
+        <v>1572</v>
+      </c>
+      <c r="C122" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D122" s="40" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1"/>
-      <c r="B123" s="1">
-        <v>1718</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D123" s="30" t="s">
-        <v>46</v>
+      <c r="B123" s="26">
+        <v>1613</v>
+      </c>
+      <c r="C123" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D123" s="39" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1"/>
-      <c r="B124" s="1">
-        <v>1719</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D124" s="30" t="s">
-        <v>46</v>
+      <c r="B124" s="26">
+        <v>1624</v>
+      </c>
+      <c r="C124" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D124" s="39" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1"/>
-      <c r="B125" s="1">
-        <v>1720</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D125" s="30" t="s">
-        <v>46</v>
+      <c r="B125" s="26">
+        <v>1658</v>
+      </c>
+      <c r="C125" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D125" s="39" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1"/>
-      <c r="B126" s="1">
-        <v>1722</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D126" s="30" t="s">
-        <v>46</v>
+      <c r="B126" s="41">
+        <v>1663</v>
+      </c>
+      <c r="C126" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D126" s="39" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1"/>
-      <c r="B127" s="1">
-        <v>1732</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D127" s="30" t="s">
-        <v>46</v>
+      <c r="B127" s="27">
+        <v>1669</v>
+      </c>
+      <c r="C127" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D127" s="40" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1"/>
       <c r="B128" s="10">
-        <v>1734</v>
+        <v>1677</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D128" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D128" s="33" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1"/>
-      <c r="B129" s="25">
-        <v>1736</v>
-      </c>
-      <c r="C129" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D129" s="31" t="s">
+      <c r="B129" s="1">
+        <v>1694</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D129" s="33" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D130" s="29" t="s">
-        <v>56</v>
+      <c r="B130" s="1">
+        <v>1704</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D130" s="33" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D131" s="29" t="s">
-        <v>59</v>
+      <c r="B131" s="1">
+        <v>1708</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D131" s="33" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="21" t="s">
+      <c r="B132" s="1">
+        <v>1709</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D132" s="33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1">
+        <v>1710</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D133" s="33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1">
+        <v>1718</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D134" s="33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1">
+        <v>1719</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D135" s="33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1">
+        <v>1720</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D136" s="33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D137" s="33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1">
+        <v>1732</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D138" s="33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1"/>
+      <c r="B139" s="10">
+        <v>1734</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D139" s="33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1"/>
+      <c r="B140" s="29">
+        <v>1736</v>
+      </c>
+      <c r="C140" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D140" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D132" s="29" t="s">
+      <c r="D141" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" s="32" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="32"/>
-      <c r="B133" s="25"/>
-      <c r="C133" s="21" t="s">
+    <row r="144" spans="1:4">
+      <c r="A144" s="29"/>
+      <c r="B144" s="29"/>
+      <c r="C144" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D133" s="31" t="s">
+      <c r="D144" s="34" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2990,7 +3178,7 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A4:A96"/>
-    <mergeCell ref="A97:A133"/>
+    <mergeCell ref="A97:A144"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/revision.xlsx
+++ b/revision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11195" windowHeight="9600"/>
+    <workbookView windowWidth="11411" windowHeight="10164"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="126">
   <si>
     <t>（填充为蓝色表示已修订）</t>
   </si>
@@ -209,6 +209,9 @@
     <t>朱方震</t>
   </si>
   <si>
+    <t>在不发生歧义时*省略，如(3*y+1)°改为(3y+1)°</t>
+  </si>
+  <si>
     <t>文本放不下时可调小文本字号</t>
   </si>
   <si>
@@ -257,12 +260,51 @@
     <t>3x°改为(3x)°</t>
   </si>
   <si>
+    <t>垂直条件未标出</t>
+  </si>
+  <si>
+    <t>AB长为x条件未标出</t>
+  </si>
+  <si>
+    <t>长度条件均未标出、O点未显示、多对边相等应用不同符号</t>
+  </si>
+  <si>
+    <t>点序和构图语句不相符</t>
+  </si>
+  <si>
+    <t>Y改为N</t>
+  </si>
+  <si>
+    <t>92°为弧所对圆心角</t>
+  </si>
+  <si>
+    <t>长度值未标全</t>
+  </si>
+  <si>
+    <t>改成英文的括号</t>
+  </si>
+  <si>
+    <t>I改为J、J改为K</t>
+  </si>
+  <si>
+    <t>角相等用度量表示并保留阴影、改为英文括号</t>
+  </si>
+  <si>
+    <t>角相等用度量表示并保留阴影</t>
+  </si>
+  <si>
+    <t>长度条件未标出、平行符号具有方向性要X指向Y W指向Z</t>
+  </si>
+  <si>
     <t>之后字号调整为48号</t>
   </si>
   <si>
     <t>邹佳</t>
   </si>
   <si>
+    <t>941-950图像未保留为正方形</t>
+  </si>
+  <si>
     <t>不要完全参考原图，cdl中CN为12</t>
   </si>
   <si>
@@ -333,6 +375,36 @@
   </si>
   <si>
     <t>不要选中对象导出图片（在导出图片时小图检查一下）</t>
+  </si>
+  <si>
+    <t>平行符号具有方向性，按照条件从上到下从左往右，应E指向B，D指向C</t>
+  </si>
+  <si>
+    <t>同1823</t>
+  </si>
+  <si>
+    <t>平行符号应居中</t>
+  </si>
+  <si>
+    <t>垂直符号未标出</t>
+  </si>
+  <si>
+    <t>AC、JL线段未画出</t>
+  </si>
+  <si>
+    <t>75是弧度</t>
+  </si>
+  <si>
+    <t>图和题目对不上</t>
+  </si>
+  <si>
+    <t>1909-1950未提交</t>
+  </si>
+  <si>
+    <t>WEEK3</t>
+  </si>
+  <si>
+    <t>部分提交2611-2630</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1068,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1084,9 +1156,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1102,25 +1183,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1442,10 +1547,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N144"/>
+  <dimension ref="A1:N177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2216,13 +2321,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="10"/>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="25" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2232,7 +2337,7 @@
         <v>801</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>59</v>
@@ -2240,13 +2345,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="10"/>
-      <c r="B67" s="1">
+      <c r="B67" s="26">
         <v>803</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D67" s="1" t="s">
+      <c r="C67" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" s="26" t="s">
         <v>59</v>
       </c>
       <c r="E67" s="1"/>
@@ -2269,7 +2374,7 @@
         <v>806</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>59</v>
@@ -2277,194 +2382,194 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="10"/>
-      <c r="B70" s="1">
+      <c r="B70" s="26">
         <v>808</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D70" s="1" t="s">
+      <c r="C70" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" s="26" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="10"/>
-      <c r="B71" s="1">
+      <c r="B71" s="26">
         <v>814</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D71" s="1" t="s">
+      <c r="C71" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D71" s="26" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="10"/>
-      <c r="B72" s="1">
+      <c r="B72" s="26">
         <v>833</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="26" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="10"/>
-      <c r="B73" s="29">
+      <c r="B73" s="27">
         <v>843</v>
       </c>
-      <c r="C73" s="29" t="s">
+      <c r="C73" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D73" s="29" t="s">
+      <c r="D73" s="27" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="10"/>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>64</v>
+      <c r="D74" s="26" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="10"/>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>64</v>
+      <c r="D75" s="26" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="10"/>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D76" s="26" t="s">
         <v>65</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="10"/>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>64</v>
+      <c r="C77" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="10"/>
-      <c r="B78" s="1">
+      <c r="B78" s="26">
         <v>872</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>64</v>
+      <c r="C78" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="10"/>
-      <c r="B79" s="1">
+      <c r="B79" s="26">
         <v>873</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>64</v>
+      <c r="C79" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="10"/>
-      <c r="B80" s="1">
+      <c r="B80" s="26">
         <v>875</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>64</v>
+      <c r="C80" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="10"/>
-      <c r="B81" s="1">
+      <c r="B81" s="26">
         <v>881</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>64</v>
+      <c r="C81" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="10"/>
-      <c r="B82" s="1">
+      <c r="B82" s="26">
         <v>882</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>64</v>
+      <c r="C82" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="10"/>
-      <c r="B83" s="1">
+      <c r="B83" s="26">
         <v>888</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>64</v>
+      <c r="C83" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="10"/>
-      <c r="B84" s="1">
+      <c r="B84" s="26">
         <v>896</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>64</v>
+      <c r="C84" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="10"/>
-      <c r="B85" s="1">
+      <c r="B85" s="26">
         <v>894</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>64</v>
+      <c r="C85" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D85" s="26" t="s">
+        <v>65</v>
       </c>
       <c r="E85" s="1"/>
     </row>
@@ -2474,711 +2579,1103 @@
         <v>939</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="10"/>
-      <c r="B87" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D87" s="1" t="s">
+      <c r="B87" s="30">
+        <v>877</v>
+      </c>
+      <c r="C87" s="30" t="s">
         <v>77</v>
+      </c>
+      <c r="D87" s="30" t="s">
+        <v>65</v>
       </c>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="10"/>
-      <c r="B88" s="1" t="s">
-        <v>19</v>
+      <c r="B88" s="1">
+        <v>879</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="D88" s="30" t="s">
+        <v>65</v>
       </c>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="10"/>
       <c r="B89" s="1">
-        <v>940</v>
+        <v>881</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="D89" s="30" t="s">
+        <v>65</v>
       </c>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="10"/>
       <c r="B90" s="1">
-        <v>950</v>
+        <v>887</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>65</v>
       </c>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="10"/>
       <c r="B91" s="1">
-        <v>951</v>
+        <v>890</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
+      </c>
+      <c r="D91" s="30" t="s">
+        <v>65</v>
       </c>
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="10"/>
       <c r="B92" s="1">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
+      </c>
+      <c r="D92" s="30" t="s">
+        <v>65</v>
       </c>
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="10"/>
       <c r="B93" s="1">
-        <v>987</v>
+        <v>903</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+      <c r="D93" s="30" t="s">
+        <v>65</v>
       </c>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="10"/>
       <c r="B94" s="1">
-        <v>1007</v>
+        <v>919</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
+      </c>
+      <c r="D94" s="30" t="s">
+        <v>65</v>
       </c>
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="10"/>
       <c r="B95" s="1">
+        <v>921</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D95" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="10"/>
+      <c r="B96" s="1">
+        <v>926</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D96" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="10"/>
+      <c r="B97" s="1">
+        <v>928</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D97" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="10"/>
+      <c r="B98" s="31">
+        <v>938</v>
+      </c>
+      <c r="C98" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D98" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="10"/>
+      <c r="B99" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="10"/>
+      <c r="B100" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="10"/>
+      <c r="B101" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="10"/>
+      <c r="B102" s="1">
+        <v>940</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="10"/>
+      <c r="B103" s="1">
+        <v>950</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="10"/>
+      <c r="B104" s="1">
+        <v>951</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="10"/>
+      <c r="B105" s="1">
+        <v>975</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="10"/>
+      <c r="B106" s="1">
+        <v>987</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="10"/>
+      <c r="B107" s="1">
+        <v>1007</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="10"/>
+      <c r="B108" s="1">
         <v>1008</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="29"/>
-      <c r="B96" s="29">
+      <c r="C108" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="32"/>
+      <c r="B109" s="32">
         <v>1010</v>
       </c>
-      <c r="C96" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B97" s="30"/>
-      <c r="C97" s="30" t="s">
+      <c r="C109" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B110" s="33"/>
+      <c r="C110" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D97" s="31" t="s">
+      <c r="D110" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E97" s="1"/>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="1"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="21" t="s">
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D98" s="22" t="s">
+      <c r="D111" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="1"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D99" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="1"/>
-      <c r="B100" s="30"/>
-      <c r="C100" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" s="31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="1"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D101" s="32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1">
-        <v>1413</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D102" s="33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1">
-        <v>1417</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D103" s="33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1">
-        <v>1424</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D104" s="33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1">
-        <v>1435</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D105" s="33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1">
-        <v>1437</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D106" s="33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1">
-        <v>1446</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D107" s="33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="1"/>
-      <c r="B108" s="29">
-        <v>1451</v>
-      </c>
-      <c r="C108" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D108" s="34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="1"/>
-      <c r="B109" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C109" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D109" s="36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="1"/>
-      <c r="B110" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C110" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="D110" s="37" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="1"/>
-      <c r="B111" s="38">
-        <v>1466</v>
-      </c>
-      <c r="C111" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D111" s="37" t="s">
-        <v>26</v>
-      </c>
+      <c r="E111" s="1"/>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1"/>
-      <c r="B112" s="38">
-        <v>1467</v>
-      </c>
-      <c r="C112" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D112" s="37" t="s">
-        <v>26</v>
+      <c r="B112" s="5"/>
+      <c r="C112" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="35" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1"/>
-      <c r="B113" s="38">
-        <v>1477</v>
-      </c>
-      <c r="C113" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D113" s="37" t="s">
-        <v>26</v>
+      <c r="B113" s="33"/>
+      <c r="C113" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="34" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1"/>
-      <c r="B114" s="38">
-        <v>1480</v>
-      </c>
-      <c r="C114" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="D114" s="37" t="s">
-        <v>26</v>
+      <c r="B114" s="5"/>
+      <c r="C114" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" s="35" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1"/>
-      <c r="B115" s="38">
-        <v>1483</v>
-      </c>
-      <c r="C115" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="D115" s="37" t="s">
-        <v>26</v>
+      <c r="B115" s="1">
+        <v>1413</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D115" s="36" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1"/>
-      <c r="B116" s="38">
-        <v>1486</v>
-      </c>
-      <c r="C116" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="D116" s="37" t="s">
-        <v>26</v>
+      <c r="B116" s="1">
+        <v>1417</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D116" s="36" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1"/>
-      <c r="B117" s="35">
-        <v>1493</v>
-      </c>
-      <c r="C117" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D117" s="37" t="s">
-        <v>26</v>
+      <c r="B117" s="1">
+        <v>1424</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D117" s="36" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1"/>
-      <c r="B118" s="35">
-        <v>1494</v>
-      </c>
-      <c r="C118" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="D118" s="37" t="s">
-        <v>26</v>
+      <c r="B118" s="1">
+        <v>1435</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D118" s="36" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1"/>
-      <c r="B119" s="35">
-        <v>1502</v>
-      </c>
-      <c r="C119" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D119" s="37" t="s">
-        <v>26</v>
+      <c r="B119" s="1">
+        <v>1437</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D119" s="36" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1"/>
-      <c r="B120" s="35">
-        <v>1510</v>
-      </c>
-      <c r="C120" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="D120" s="37" t="s">
-        <v>26</v>
+      <c r="B120" s="1">
+        <v>1446</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120" s="36" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1"/>
-      <c r="B121" s="26">
-        <v>1559</v>
-      </c>
-      <c r="C121" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D121" s="39" t="s">
-        <v>32</v>
+      <c r="B121" s="32">
+        <v>1451</v>
+      </c>
+      <c r="C121" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D121" s="37" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1"/>
-      <c r="B122" s="27">
-        <v>1572</v>
-      </c>
-      <c r="C122" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D122" s="40" t="s">
-        <v>32</v>
+      <c r="B122" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D122" s="36" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1"/>
-      <c r="B123" s="26">
-        <v>1613</v>
-      </c>
-      <c r="C123" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D123" s="39" t="s">
-        <v>40</v>
+      <c r="B123" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D123" s="36" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1"/>
-      <c r="B124" s="26">
-        <v>1624</v>
-      </c>
-      <c r="C124" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D124" s="39" t="s">
-        <v>40</v>
+      <c r="B124" s="10">
+        <v>1466</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D124" s="36" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1"/>
-      <c r="B125" s="26">
-        <v>1658</v>
-      </c>
-      <c r="C125" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D125" s="39" t="s">
-        <v>40</v>
+      <c r="B125" s="10">
+        <v>1467</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D125" s="36" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1"/>
-      <c r="B126" s="41">
-        <v>1663</v>
-      </c>
-      <c r="C126" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="D126" s="39" t="s">
-        <v>40</v>
+      <c r="B126" s="10">
+        <v>1477</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D126" s="36" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1"/>
-      <c r="B127" s="27">
-        <v>1669</v>
-      </c>
-      <c r="C127" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D127" s="40" t="s">
-        <v>40</v>
+      <c r="B127" s="10">
+        <v>1480</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D127" s="36" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1"/>
       <c r="B128" s="10">
-        <v>1677</v>
+        <v>1483</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D128" s="33" t="s">
-        <v>46</v>
+        <v>104</v>
+      </c>
+      <c r="D128" s="36" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1"/>
-      <c r="B129" s="1">
-        <v>1694</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D129" s="33" t="s">
-        <v>46</v>
+      <c r="B129" s="10">
+        <v>1486</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D129" s="36" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1"/>
-      <c r="B130" s="1">
-        <v>1704</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D130" s="33" t="s">
-        <v>46</v>
+      <c r="B130" s="10">
+        <v>1493</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D130" s="36" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1"/>
-      <c r="B131" s="1">
-        <v>1708</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D131" s="33" t="s">
-        <v>46</v>
+      <c r="B131" s="10">
+        <v>1494</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D131" s="36" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1"/>
-      <c r="B132" s="1">
-        <v>1709</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D132" s="33" t="s">
-        <v>46</v>
+      <c r="B132" s="10">
+        <v>1502</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D132" s="36" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1"/>
-      <c r="B133" s="1">
-        <v>1710</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D133" s="33" t="s">
-        <v>46</v>
+      <c r="B133" s="10">
+        <v>1510</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D133" s="36" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="1"/>
-      <c r="B134" s="1">
-        <v>1718</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D134" s="33" t="s">
-        <v>46</v>
+      <c r="B134" s="25">
+        <v>1559</v>
+      </c>
+      <c r="C134" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D134" s="38" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1"/>
-      <c r="B135" s="1">
-        <v>1719</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D135" s="33" t="s">
-        <v>46</v>
+      <c r="B135" s="27">
+        <v>1572</v>
+      </c>
+      <c r="C135" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D135" s="39" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1"/>
-      <c r="B136" s="1">
-        <v>1720</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D136" s="33" t="s">
-        <v>46</v>
+      <c r="B136" s="26">
+        <v>1613</v>
+      </c>
+      <c r="C136" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D136" s="40" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1"/>
-      <c r="B137" s="1">
-        <v>1722</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D137" s="33" t="s">
-        <v>46</v>
+      <c r="B137" s="26">
+        <v>1624</v>
+      </c>
+      <c r="C137" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D137" s="40" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1"/>
-      <c r="B138" s="1">
-        <v>1732</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D138" s="33" t="s">
-        <v>46</v>
+      <c r="B138" s="26">
+        <v>1658</v>
+      </c>
+      <c r="C138" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D138" s="40" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1"/>
-      <c r="B139" s="10">
-        <v>1734</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D139" s="33" t="s">
-        <v>46</v>
+      <c r="B139" s="29">
+        <v>1663</v>
+      </c>
+      <c r="C139" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D139" s="40" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1"/>
-      <c r="B140" s="29">
-        <v>1736</v>
-      </c>
-      <c r="C140" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="D140" s="34" t="s">
-        <v>46</v>
+      <c r="B140" s="27">
+        <v>1669</v>
+      </c>
+      <c r="C140" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D140" s="39" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1"/>
-      <c r="B141" s="5"/>
-      <c r="C141" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D141" s="32" t="s">
-        <v>56</v>
+      <c r="B141" s="10">
+        <v>1677</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D141" s="36" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1"/>
-      <c r="B142" s="5"/>
-      <c r="C142" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D142" s="32" t="s">
-        <v>59</v>
+      <c r="B142" s="1">
+        <v>1694</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D142" s="36" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1"/>
-      <c r="B143" s="5"/>
-      <c r="C143" s="21" t="s">
+      <c r="B143" s="1">
+        <v>1704</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D143" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1">
+        <v>1708</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D144" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1">
+        <v>1709</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D145" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1">
+        <v>1710</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D146" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1">
+        <v>1718</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D147" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1">
+        <v>1719</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D148" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1">
+        <v>1720</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D149" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D150" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1">
+        <v>1732</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D151" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1"/>
+      <c r="B152" s="10">
+        <v>1734</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D152" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1"/>
+      <c r="B153" s="32">
+        <v>1736</v>
+      </c>
+      <c r="C153" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D153" s="37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1"/>
+      <c r="B154" s="41">
+        <v>1741</v>
+      </c>
+      <c r="C154" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" s="42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1"/>
+      <c r="B155" s="6">
+        <v>1823</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D155" s="43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1"/>
+      <c r="B156" s="10">
+        <v>1829</v>
+      </c>
+      <c r="C156" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D156" s="36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1"/>
+      <c r="B157" s="32">
+        <v>1831</v>
+      </c>
+      <c r="C157" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D157" s="37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1"/>
+      <c r="B158" s="44">
+        <v>1881</v>
+      </c>
+      <c r="C158" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="D158" s="46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1"/>
+      <c r="B159" s="44">
+        <v>1895</v>
+      </c>
+      <c r="C159" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="D159" s="46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1"/>
+      <c r="B160" s="44">
+        <v>1897</v>
+      </c>
+      <c r="C160" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="D160" s="46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1"/>
+      <c r="B161" s="44">
+        <v>1906</v>
+      </c>
+      <c r="C161" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="D161" s="46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1"/>
+      <c r="B162" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C162" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="D162" s="48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="32"/>
+      <c r="B163" s="32"/>
+      <c r="C163" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D143" s="32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="29"/>
-      <c r="B144" s="29"/>
-      <c r="C144" s="21" t="s">
+      <c r="D163" s="37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="B164" s="50"/>
+      <c r="C164" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="49"/>
+      <c r="B165" s="31"/>
+      <c r="C165" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D144" s="34" t="s">
-        <v>77</v>
+      <c r="D165" s="31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="49"/>
+      <c r="B166" s="31"/>
+      <c r="C166" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166" s="31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="49"/>
+      <c r="B167" s="31"/>
+      <c r="C167" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="49"/>
+      <c r="B168" s="31"/>
+      <c r="C168" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" s="31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="49"/>
+      <c r="B169" s="31"/>
+      <c r="C169" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="49"/>
+      <c r="B170" s="31"/>
+      <c r="C170" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="49"/>
+      <c r="B171" s="31"/>
+      <c r="C171" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D171" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="49"/>
+      <c r="B172" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C172" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D172" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="49"/>
+      <c r="B173" s="31"/>
+      <c r="C173" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D173" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="49"/>
+      <c r="B174" s="31"/>
+      <c r="C174" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D174" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="49"/>
+      <c r="B175" s="31"/>
+      <c r="C175" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175" s="31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="49"/>
+      <c r="B176" s="31"/>
+      <c r="C176" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D176" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="52"/>
+      <c r="B177" s="31"/>
+      <c r="C177" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" s="31" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A4:A96"/>
-    <mergeCell ref="A97:A144"/>
+    <mergeCell ref="A4:A109"/>
+    <mergeCell ref="A110:A163"/>
+    <mergeCell ref="A164:A177"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/revision.xlsx
+++ b/revision.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="260">
   <si>
     <t>（填充为蓝色表示已修订）</t>
   </si>
@@ -426,6 +426,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>角</t>
     </r>
     <r>
@@ -577,10 +584,256 @@
     <t>图和题目对不上</t>
   </si>
   <si>
-    <t>WEEK3</t>
-  </si>
-  <si>
-    <t>部分提交2611-2630</t>
+    <t>week3</t>
+  </si>
+  <si>
+    <t>角EJB值标注有误</t>
+  </si>
+  <si>
+    <t>构图有问题 和图像不符</t>
+  </si>
+  <si>
+    <t>平行有方向应由I指向C,A指向D</t>
+  </si>
+  <si>
+    <t>网格未去掉</t>
+  </si>
+  <si>
+    <t>平行有方向应由E指向B,D指向C,且位于线段中间</t>
+  </si>
+  <si>
+    <t>平行符号应位于线段CO,BH之间</t>
+  </si>
+  <si>
+    <t>与构图语句不符，应连接EC</t>
+  </si>
+  <si>
+    <t>漏了BCA角度值</t>
+  </si>
+  <si>
+    <t>与构图语句不符，应连接AC</t>
+  </si>
+  <si>
+    <t>与构图语句和条件不符，而且90°要另用文本标出</t>
+  </si>
+  <si>
+    <t>多对线段相等要用不同的符号</t>
+  </si>
+  <si>
+    <t>点序和构图语句不符</t>
+  </si>
+  <si>
+    <t>和构图语句不符</t>
+  </si>
+  <si>
+    <t>线段长度的几个条件没标上</t>
+  </si>
+  <si>
+    <t>要和json文件保持一致，按原图标有很多细节对不上，剩下的你自己检查重标吧</t>
+  </si>
+  <si>
+    <t>text_cdl中直径长的条件不用标出</t>
+  </si>
+  <si>
+    <t>多余的线段不用标出，且AF长为10</t>
+  </si>
+  <si>
+    <t>条件中写1/2就不要标称小数0.5</t>
+  </si>
+  <si>
+    <t>和构图语句不一致</t>
+  </si>
+  <si>
+    <t>和构图语句不一致，有点未描出</t>
+  </si>
+  <si>
+    <t>和构图语句不一致,应连接AB,DC</t>
+  </si>
+  <si>
+    <t>2611-2628像素过小需重新导出png</t>
+  </si>
+  <si>
+    <t>漏了FB垂直AB</t>
+  </si>
+  <si>
+    <t>和构图语句，应连接CD,EB</t>
+  </si>
+  <si>
+    <t>PR平行KL未标出</t>
+  </si>
+  <si>
+    <t>与构图语句对不上，B,C应互换</t>
+  </si>
+  <si>
+    <t>E点未标出，且应左上角标出AB,DC长度</t>
+  </si>
+  <si>
+    <t>与构图不符，应连接AD,AC，且是∠DAC为218°</t>
+  </si>
+  <si>
+    <t>LN长度未标出</t>
+  </si>
+  <si>
+    <t>和构图语句对不上，可改图也可改构图语句</t>
+  </si>
+  <si>
+    <t>和构图语句不符，有点未标出，且应左上角标出GH=KJ</t>
+  </si>
+  <si>
+    <t>与构图语句不符</t>
+  </si>
+  <si>
+    <t>QT是2*x-6</t>
+  </si>
+  <si>
+    <t>角相等没有标</t>
+  </si>
+  <si>
+    <t>TZ=18没标出来</t>
+  </si>
+  <si>
+    <t>OC,OF为x没标出来</t>
+  </si>
+  <si>
+    <t>cdl条件没标全</t>
+  </si>
+  <si>
+    <t>和构图语句对不上，应连接FB,BG</t>
+  </si>
+  <si>
+    <t>条件中不包含平行</t>
+  </si>
+  <si>
+    <t>多对平行应用不同的符号</t>
+  </si>
+  <si>
+    <t>平行符号未标在线段中间</t>
+  </si>
+  <si>
+    <t>与构图语句不符，应连接AB</t>
+  </si>
+  <si>
+    <t>平行没标</t>
+  </si>
+  <si>
+    <t>B,C标反了</t>
+  </si>
+  <si>
+    <t>多对平行用不同符号表示</t>
+  </si>
+  <si>
+    <t>与构图语句不符，多余的线段不要标出</t>
+  </si>
+  <si>
+    <t>平行符号的名称标签要隐藏</t>
+  </si>
+  <si>
+    <t>M未标出</t>
+  </si>
+  <si>
+    <t>需连接OC</t>
+  </si>
+  <si>
+    <t>需连接AC</t>
+  </si>
+  <si>
+    <t>90°需用文本标出，不用垂直符号</t>
+  </si>
+  <si>
+    <t>有多余的线段、垂直没标</t>
+  </si>
+  <si>
+    <t>week4</t>
+  </si>
+  <si>
+    <t>与构图语句对不上，M,N应互换</t>
+  </si>
+  <si>
+    <t>与构图语句不符，条件没标全</t>
+  </si>
+  <si>
+    <t>平行有方向应由A指向B,C指向D,且位于线段中间</t>
+  </si>
+  <si>
+    <t>条件中没有垂直</t>
+  </si>
+  <si>
+    <t>DEN角度没标</t>
+  </si>
+  <si>
+    <t>打开是条直线</t>
+  </si>
+  <si>
+    <t>ECD角度没标</t>
+  </si>
+  <si>
+    <t>与构图语句不符，不连接AB</t>
+  </si>
+  <si>
+    <t>角度值为90°用文本，不用垂直符号，且平行未标出</t>
+  </si>
+  <si>
+    <t>有多余线段标出</t>
+  </si>
+  <si>
+    <t>与构图语句不符，应连接BC</t>
+  </si>
+  <si>
+    <t>没连接PB</t>
+  </si>
+  <si>
+    <t>没连接CA</t>
+  </si>
+  <si>
+    <t>线段相等未标出</t>
+  </si>
+  <si>
+    <t>平行未标出</t>
+  </si>
+  <si>
+    <t>与构图语句不符,线段多余</t>
+  </si>
+  <si>
+    <t>与构图语句不符，圆没画全</t>
+  </si>
+  <si>
+    <t>与构图语句不符，应连接OB</t>
+  </si>
+  <si>
+    <t>与构图语句不符，共线点对不上</t>
+  </si>
+  <si>
+    <t>点没标全</t>
+  </si>
+  <si>
+    <t>3631-像素低需导出png</t>
+  </si>
+  <si>
+    <t>角相等未标出</t>
+  </si>
+  <si>
+    <t>与构图语句不符，不连接AC,BC</t>
+  </si>
+  <si>
+    <t>需连接OB,BC，且50°挡线了需左上角另标</t>
+  </si>
+  <si>
+    <t>与构图语句不符，不连接GH</t>
+  </si>
+  <si>
+    <t>E点未标出，且需连接OD</t>
+  </si>
+  <si>
+    <t>与构图语句不符，连接OA,OB</t>
+  </si>
+  <si>
+    <t>同3712</t>
+  </si>
+  <si>
+    <t>OAB是35°</t>
+  </si>
+  <si>
+    <t>E没标出</t>
   </si>
 </sst>
 </file>
@@ -593,8 +846,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -609,6 +870,14 @@
     </font>
     <font>
       <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1126,137 +1395,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1278,202 +1547,166 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1795,10 +2028,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N251"/>
+  <dimension ref="A1:N359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
+      <selection activeCell="C341" sqref="C341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>
@@ -2041,7 +2274,7 @@
       <c r="B21" s="31">
         <v>427</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="28" t="s">
@@ -2101,7 +2334,7 @@
       <c r="B26" s="31">
         <v>449</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="31" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="28" t="s">
@@ -2110,109 +2343,109 @@
     </row>
     <row r="27" hidden="1" spans="1:4">
       <c r="A27" s="11"/>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="33" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" hidden="1" spans="1:4">
       <c r="A28" s="11"/>
-      <c r="B28" s="33">
+      <c r="B28" s="32">
         <v>381</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="33" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" hidden="1" spans="1:4">
       <c r="A29" s="11"/>
-      <c r="B29" s="33">
+      <c r="B29" s="32">
         <v>383</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="33" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="30" hidden="1" spans="1:4">
       <c r="A30" s="11"/>
-      <c r="B30" s="33">
+      <c r="B30" s="32">
         <v>388</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="33" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="31" hidden="1" spans="1:4">
       <c r="A31" s="11"/>
-      <c r="B31" s="33">
+      <c r="B31" s="32">
         <v>395</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D31" s="33" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="32" hidden="1" spans="1:4">
       <c r="A32" s="11"/>
-      <c r="B32" s="33">
+      <c r="B32" s="32">
         <v>396</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="33" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="33" hidden="1" spans="1:4">
       <c r="A33" s="11"/>
-      <c r="B33" s="33">
+      <c r="B33" s="32">
         <v>425</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="33" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="34" hidden="1" spans="1:4">
       <c r="A34" s="11"/>
-      <c r="B34" s="33">
+      <c r="B34" s="32">
         <v>426</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="33" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="35" hidden="1" spans="1:4">
       <c r="A35" s="11"/>
-      <c r="B35" s="33">
+      <c r="B35" s="32">
         <v>427</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="33" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2230,49 +2463,49 @@
     </row>
     <row r="37" hidden="1" spans="1:4">
       <c r="A37" s="11"/>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="35" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="38" hidden="1" spans="1:4">
       <c r="A38" s="11"/>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="35" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="39" hidden="1" spans="1:4">
       <c r="A39" s="11"/>
-      <c r="B39" s="36">
+      <c r="B39" s="35">
         <v>462</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="35" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="40" hidden="1" spans="1:14">
       <c r="A40" s="11"/>
-      <c r="B40" s="36">
+      <c r="B40" s="35">
         <v>464</v>
       </c>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="35" t="s">
         <v>34</v>
       </c>
       <c r="L40" s="2"/>
@@ -2281,85 +2514,85 @@
     </row>
     <row r="41" hidden="1" spans="1:4">
       <c r="A41" s="11"/>
-      <c r="B41" s="36">
+      <c r="B41" s="35">
         <v>478</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="35" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="42" hidden="1" spans="1:4">
       <c r="A42" s="11"/>
-      <c r="B42" s="37">
+      <c r="B42" s="36">
         <v>484</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="36" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="11"/>
-      <c r="B43" s="38">
+      <c r="B43" s="37">
         <v>524</v>
       </c>
       <c r="C43" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="38" t="s">
+      <c r="D43" s="37" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="11"/>
-      <c r="B44" s="39">
+      <c r="B44" s="14">
         <v>544</v>
       </c>
-      <c r="C44" s="39" t="s">
+      <c r="C44" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="39" t="s">
+      <c r="D44" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="11"/>
-      <c r="B45" s="39">
+      <c r="B45" s="14">
         <v>546</v>
       </c>
       <c r="C45" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="39" t="s">
+      <c r="D45" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="11"/>
-      <c r="B46" s="39">
+      <c r="B46" s="14">
         <v>556</v>
       </c>
-      <c r="C46" s="39" t="s">
+      <c r="C46" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="39" t="s">
+      <c r="D46" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="11"/>
-      <c r="B47" s="39">
+      <c r="B47" s="14">
         <v>571</v>
       </c>
-      <c r="C47" s="39" t="s">
+      <c r="C47" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="39" t="s">
+      <c r="D47" s="14" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2467,7 +2700,7 @@
       <c r="C56" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D56" s="40" t="s">
+      <c r="D56" s="38" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2557,37 +2790,37 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="11"/>
-      <c r="B64" s="41">
+      <c r="B64" s="37">
         <v>663</v>
       </c>
       <c r="C64" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="41" t="s">
+      <c r="D64" s="37" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="11"/>
-      <c r="B65" s="42">
+      <c r="B65" s="31">
         <v>671</v>
       </c>
-      <c r="C65" s="43" t="s">
+      <c r="C65" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="D65" s="42" t="s">
+      <c r="D65" s="31" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="11"/>
-      <c r="B66" s="42">
+      <c r="B66" s="31">
         <v>711</v>
       </c>
-      <c r="C66" s="43" t="s">
+      <c r="C66" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D66" s="42" t="s">
+      <c r="D66" s="31" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2599,7 +2832,7 @@
       <c r="C67" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D67" s="44" t="s">
+      <c r="D67" s="40" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2743,79 +2976,79 @@
       <c r="C79" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D79" s="40" t="s">
+      <c r="D79" s="38" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="80" hidden="1" spans="1:4">
       <c r="A80" s="11"/>
-      <c r="B80" s="36" t="s">
+      <c r="B80" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C80" s="36" t="s">
+      <c r="C80" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="D80" s="36" t="s">
+      <c r="D80" s="35" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="81" hidden="1" spans="1:4">
       <c r="A81" s="11"/>
-      <c r="B81" s="36">
+      <c r="B81" s="35">
         <v>730</v>
       </c>
-      <c r="C81" s="36" t="s">
+      <c r="C81" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D81" s="36" t="s">
+      <c r="D81" s="35" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="82" hidden="1" spans="1:4">
       <c r="A82" s="11"/>
-      <c r="B82" s="36">
+      <c r="B82" s="35">
         <v>763</v>
       </c>
-      <c r="C82" s="36" t="s">
+      <c r="C82" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D82" s="36" t="s">
+      <c r="D82" s="35" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="83" hidden="1" spans="1:4">
       <c r="A83" s="11"/>
-      <c r="B83" s="36">
+      <c r="B83" s="35">
         <v>772</v>
       </c>
-      <c r="C83" s="36" t="s">
+      <c r="C83" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D83" s="36" t="s">
+      <c r="D83" s="35" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="84" hidden="1" spans="1:4">
       <c r="A84" s="11"/>
-      <c r="B84" s="37">
+      <c r="B84" s="36">
         <v>792</v>
       </c>
-      <c r="C84" s="37" t="s">
+      <c r="C84" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D84" s="36" t="s">
+      <c r="D84" s="35" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="11"/>
-      <c r="B85" s="45" t="s">
+      <c r="B85" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C85" s="45" t="s">
+      <c r="C85" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D85" s="45" t="s">
+      <c r="D85" s="37" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2870,25 +3103,25 @@
     </row>
     <row r="90" hidden="1" spans="1:4">
       <c r="A90" s="11"/>
-      <c r="B90" s="36">
+      <c r="B90" s="35">
         <v>808</v>
       </c>
-      <c r="C90" s="36" t="s">
+      <c r="C90" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D90" s="36" t="s">
+      <c r="D90" s="35" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="91" hidden="1" spans="1:4">
       <c r="A91" s="11"/>
-      <c r="B91" s="36">
+      <c r="B91" s="35">
         <v>814</v>
       </c>
-      <c r="C91" s="36" t="s">
+      <c r="C91" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="D91" s="36" t="s">
+      <c r="D91" s="35" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2990,338 +3223,338 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="11"/>
-      <c r="B100" s="46">
+      <c r="B100" s="41">
         <v>870</v>
       </c>
-      <c r="C100" s="46" t="s">
+      <c r="C100" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="D100" s="47" t="s">
+      <c r="D100" s="42" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="101" hidden="1" spans="1:4">
       <c r="A101" s="11"/>
-      <c r="B101" s="37">
+      <c r="B101" s="36">
         <v>843</v>
       </c>
-      <c r="C101" s="37" t="s">
+      <c r="C101" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D101" s="37" t="s">
+      <c r="D101" s="36" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="102" hidden="1" spans="1:4">
       <c r="A102" s="11"/>
-      <c r="B102" s="36" t="s">
+      <c r="B102" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C102" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D102" s="36" t="s">
+      <c r="D102" s="35" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="103" hidden="1" spans="1:4">
       <c r="A103" s="11"/>
-      <c r="B103" s="36" t="s">
+      <c r="B103" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="36" t="s">
+      <c r="C103" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D103" s="36" t="s">
+      <c r="D103" s="35" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="104" hidden="1" spans="1:4">
       <c r="A104" s="11"/>
-      <c r="B104" s="36" t="s">
+      <c r="B104" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C104" s="36" t="s">
+      <c r="C104" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="D104" s="36" t="s">
+      <c r="D104" s="35" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="105" hidden="1" spans="1:4">
       <c r="A105" s="11"/>
-      <c r="B105" s="36" t="s">
+      <c r="B105" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C105" s="36" t="s">
+      <c r="C105" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D105" s="36" t="s">
+      <c r="D105" s="35" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="106" hidden="1" spans="1:4">
       <c r="A106" s="11"/>
-      <c r="B106" s="36">
+      <c r="B106" s="35">
         <v>872</v>
       </c>
-      <c r="C106" s="36" t="s">
+      <c r="C106" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D106" s="36" t="s">
+      <c r="D106" s="35" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="107" hidden="1" spans="1:4">
       <c r="A107" s="11"/>
-      <c r="B107" s="36">
+      <c r="B107" s="35">
         <v>873</v>
       </c>
-      <c r="C107" s="36" t="s">
+      <c r="C107" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="D107" s="36" t="s">
+      <c r="D107" s="35" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="108" hidden="1" spans="1:4">
       <c r="A108" s="11"/>
-      <c r="B108" s="36">
+      <c r="B108" s="35">
         <v>875</v>
       </c>
-      <c r="C108" s="36" t="s">
+      <c r="C108" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D108" s="36" t="s">
+      <c r="D108" s="35" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="109" hidden="1" spans="1:4">
       <c r="A109" s="11"/>
-      <c r="B109" s="36">
+      <c r="B109" s="35">
         <v>881</v>
       </c>
-      <c r="C109" s="36" t="s">
+      <c r="C109" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D109" s="36" t="s">
+      <c r="D109" s="35" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="110" hidden="1" spans="1:4">
       <c r="A110" s="11"/>
-      <c r="B110" s="36">
+      <c r="B110" s="35">
         <v>882</v>
       </c>
-      <c r="C110" s="36" t="s">
+      <c r="C110" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="D110" s="36" t="s">
+      <c r="D110" s="35" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="111" hidden="1" spans="1:4">
       <c r="A111" s="11"/>
-      <c r="B111" s="36">
+      <c r="B111" s="35">
         <v>888</v>
       </c>
-      <c r="C111" s="36" t="s">
+      <c r="C111" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D111" s="36" t="s">
+      <c r="D111" s="35" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="112" hidden="1" spans="1:4">
       <c r="A112" s="11"/>
-      <c r="B112" s="36">
+      <c r="B112" s="35">
         <v>896</v>
       </c>
-      <c r="C112" s="36" t="s">
+      <c r="C112" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="D112" s="36" t="s">
+      <c r="D112" s="35" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="113" hidden="1" spans="1:5">
       <c r="A113" s="11"/>
-      <c r="B113" s="36">
+      <c r="B113" s="35">
         <v>894</v>
       </c>
-      <c r="C113" s="36" t="s">
+      <c r="C113" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="D113" s="36" t="s">
+      <c r="D113" s="35" t="s">
         <v>87</v>
       </c>
       <c r="E113" s="2"/>
     </row>
     <row r="114" hidden="1" spans="1:5">
       <c r="A114" s="11"/>
-      <c r="B114" s="33">
+      <c r="B114" s="32">
         <v>939</v>
       </c>
-      <c r="C114" s="33" t="s">
+      <c r="C114" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="D114" s="33" t="s">
+      <c r="D114" s="32" t="s">
         <v>87</v>
       </c>
       <c r="E114" s="2"/>
     </row>
     <row r="115" hidden="1" spans="1:5">
       <c r="A115" s="11"/>
-      <c r="B115" s="33">
+      <c r="B115" s="32">
         <v>877</v>
       </c>
-      <c r="C115" s="33" t="s">
+      <c r="C115" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="D115" s="33" t="s">
+      <c r="D115" s="32" t="s">
         <v>87</v>
       </c>
       <c r="E115" s="2"/>
     </row>
     <row r="116" hidden="1" spans="1:5">
       <c r="A116" s="11"/>
-      <c r="B116" s="36">
+      <c r="B116" s="35">
         <v>879</v>
       </c>
-      <c r="C116" s="36" t="s">
+      <c r="C116" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="D116" s="33" t="s">
+      <c r="D116" s="32" t="s">
         <v>87</v>
       </c>
       <c r="E116" s="2"/>
     </row>
     <row r="117" hidden="1" spans="1:5">
       <c r="A117" s="11"/>
-      <c r="B117" s="36">
+      <c r="B117" s="35">
         <v>881</v>
       </c>
-      <c r="C117" s="36" t="s">
+      <c r="C117" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="D117" s="33" t="s">
+      <c r="D117" s="32" t="s">
         <v>87</v>
       </c>
       <c r="E117" s="2"/>
     </row>
     <row r="118" hidden="1" spans="1:5">
       <c r="A118" s="11"/>
-      <c r="B118" s="36">
+      <c r="B118" s="35">
         <v>887</v>
       </c>
-      <c r="C118" s="36" t="s">
+      <c r="C118" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D118" s="33" t="s">
+      <c r="D118" s="32" t="s">
         <v>87</v>
       </c>
       <c r="E118" s="2"/>
     </row>
     <row r="119" hidden="1" spans="1:5">
       <c r="A119" s="11"/>
-      <c r="B119" s="36">
+      <c r="B119" s="35">
         <v>890</v>
       </c>
-      <c r="C119" s="36" t="s">
+      <c r="C119" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D119" s="33" t="s">
+      <c r="D119" s="32" t="s">
         <v>87</v>
       </c>
       <c r="E119" s="2"/>
     </row>
     <row r="120" hidden="1" spans="1:5">
       <c r="A120" s="11"/>
-      <c r="B120" s="36">
+      <c r="B120" s="35">
         <v>901</v>
       </c>
-      <c r="C120" s="36" t="s">
+      <c r="C120" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D120" s="33" t="s">
+      <c r="D120" s="32" t="s">
         <v>87</v>
       </c>
       <c r="E120" s="2"/>
     </row>
     <row r="121" hidden="1" spans="1:5">
       <c r="A121" s="11"/>
-      <c r="B121" s="36">
+      <c r="B121" s="35">
         <v>903</v>
       </c>
-      <c r="C121" s="36" t="s">
+      <c r="C121" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="D121" s="33" t="s">
+      <c r="D121" s="32" t="s">
         <v>87</v>
       </c>
       <c r="E121" s="2"/>
     </row>
     <row r="122" hidden="1" spans="1:5">
       <c r="A122" s="11"/>
-      <c r="B122" s="36">
+      <c r="B122" s="35">
         <v>919</v>
       </c>
-      <c r="C122" s="36" t="s">
+      <c r="C122" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D122" s="33" t="s">
+      <c r="D122" s="32" t="s">
         <v>87</v>
       </c>
       <c r="E122" s="2"/>
     </row>
     <row r="123" hidden="1" spans="1:5">
       <c r="A123" s="11"/>
-      <c r="B123" s="36">
+      <c r="B123" s="35">
         <v>921</v>
       </c>
-      <c r="C123" s="36" t="s">
+      <c r="C123" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="D123" s="33" t="s">
+      <c r="D123" s="32" t="s">
         <v>87</v>
       </c>
       <c r="E123" s="2"/>
     </row>
     <row r="124" hidden="1" spans="1:5">
       <c r="A124" s="11"/>
-      <c r="B124" s="36">
+      <c r="B124" s="35">
         <v>926</v>
       </c>
-      <c r="C124" s="36" t="s">
+      <c r="C124" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D124" s="33" t="s">
+      <c r="D124" s="32" t="s">
         <v>87</v>
       </c>
       <c r="E124" s="2"/>
     </row>
     <row r="125" hidden="1" spans="1:5">
       <c r="A125" s="11"/>
-      <c r="B125" s="36">
+      <c r="B125" s="35">
         <v>928</v>
       </c>
-      <c r="C125" s="36" t="s">
+      <c r="C125" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="D125" s="33" t="s">
+      <c r="D125" s="32" t="s">
         <v>87</v>
       </c>
       <c r="E125" s="2"/>
     </row>
     <row r="126" hidden="1" spans="1:5">
       <c r="A126" s="11"/>
-      <c r="B126" s="37">
+      <c r="B126" s="36">
         <v>938</v>
       </c>
-      <c r="C126" s="37" t="s">
+      <c r="C126" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="D126" s="37" t="s">
+      <c r="D126" s="36" t="s">
         <v>87</v>
       </c>
       <c r="E126" s="2"/>
@@ -3457,11 +3690,11 @@
       <c r="E136" s="2"/>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="47"/>
-      <c r="B137" s="47">
+      <c r="A137" s="43"/>
+      <c r="B137" s="42">
         <v>1010</v>
       </c>
-      <c r="C137" s="47" t="s">
+      <c r="C137" s="42" t="s">
         <v>121</v>
       </c>
       <c r="D137" s="2" t="s">
@@ -3470,1359 +3703,2656 @@
       <c r="E137" s="2"/>
     </row>
     <row r="138" hidden="1" spans="1:5">
-      <c r="A138" s="2" t="s">
+      <c r="A138" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="B138" s="48"/>
-      <c r="C138" s="48" t="s">
+      <c r="B138" s="45"/>
+      <c r="C138" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D138" s="49" t="s">
+      <c r="D138" s="46" t="s">
         <v>7</v>
       </c>
       <c r="E138" s="2"/>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="2"/>
-      <c r="B139" s="50">
+      <c r="A139" s="44"/>
+      <c r="B139" s="37">
         <v>1111</v>
       </c>
       <c r="C139" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D139" s="51" t="s">
+      <c r="D139" s="47" t="s">
         <v>9</v>
       </c>
       <c r="E139" s="2"/>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="2"/>
-      <c r="B140" s="52">
+      <c r="A140" s="44"/>
+      <c r="B140" s="31">
         <v>1115</v>
       </c>
-      <c r="C140" s="52" t="s">
+      <c r="C140" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="D140" s="53" t="s">
+      <c r="D140" s="48" t="s">
         <v>9</v>
       </c>
       <c r="E140" s="2"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="2"/>
-      <c r="B141" s="52">
+      <c r="A141" s="44"/>
+      <c r="B141" s="31">
         <v>1125</v>
       </c>
-      <c r="C141" s="52" t="s">
+      <c r="C141" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="D141" s="53" t="s">
+      <c r="D141" s="48" t="s">
         <v>9</v>
       </c>
       <c r="E141" s="2"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="2"/>
-      <c r="B142" s="52">
+      <c r="A142" s="44"/>
+      <c r="B142" s="31">
         <v>1126</v>
       </c>
-      <c r="C142" s="52" t="s">
+      <c r="C142" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="D142" s="53" t="s">
+      <c r="D142" s="48" t="s">
         <v>9</v>
       </c>
       <c r="E142" s="2"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="2"/>
-      <c r="B143" s="52">
+      <c r="A143" s="44"/>
+      <c r="B143" s="31">
         <v>1129</v>
       </c>
-      <c r="C143" s="52" t="s">
+      <c r="C143" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="D143" s="53" t="s">
+      <c r="D143" s="48" t="s">
         <v>9</v>
       </c>
       <c r="E143" s="2"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="2"/>
-      <c r="B144" s="32">
+      <c r="A144" s="44"/>
+      <c r="B144" s="31">
         <v>1134</v>
       </c>
-      <c r="C144" s="32" t="s">
+      <c r="C144" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="D144" s="53" t="s">
+      <c r="D144" s="48" t="s">
         <v>9</v>
       </c>
       <c r="E144" s="2"/>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="2"/>
-      <c r="B145" s="32">
+      <c r="A145" s="44"/>
+      <c r="B145" s="31">
         <v>1143</v>
       </c>
-      <c r="C145" s="32" t="s">
+      <c r="C145" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="D145" s="53" t="s">
+      <c r="D145" s="48" t="s">
         <v>9</v>
       </c>
       <c r="E145" s="2"/>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="2"/>
-      <c r="B146" s="32">
+      <c r="A146" s="44"/>
+      <c r="B146" s="31">
         <v>1150</v>
       </c>
-      <c r="C146" s="32" t="s">
+      <c r="C146" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="D146" s="53" t="s">
+      <c r="D146" s="48" t="s">
         <v>9</v>
       </c>
       <c r="E146" s="2"/>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="2"/>
-      <c r="B147" s="32">
+      <c r="A147" s="44"/>
+      <c r="B147" s="31">
         <v>1167</v>
       </c>
-      <c r="C147" s="32" t="s">
+      <c r="C147" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="D147" s="53" t="s">
+      <c r="D147" s="48" t="s">
         <v>9</v>
       </c>
       <c r="E147" s="2"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="2"/>
-      <c r="B148" s="32">
+      <c r="A148" s="44"/>
+      <c r="B148" s="31">
         <v>1171</v>
       </c>
-      <c r="C148" s="32" t="s">
+      <c r="C148" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="D148" s="53" t="s">
+      <c r="D148" s="48" t="s">
         <v>9</v>
       </c>
       <c r="E148" s="2"/>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="2"/>
+      <c r="A149" s="44"/>
       <c r="B149" s="6"/>
       <c r="C149" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D149" s="54" t="s">
+      <c r="D149" s="49" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="150" hidden="1" spans="1:4">
-      <c r="A150" s="2"/>
-      <c r="B150" s="48"/>
-      <c r="C150" s="48" t="s">
+      <c r="A150" s="44"/>
+      <c r="B150" s="45"/>
+      <c r="C150" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D150" s="49" t="s">
+      <c r="D150" s="46" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="2"/>
+      <c r="A151" s="44"/>
       <c r="B151" s="6"/>
       <c r="C151" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D151" s="54" t="s">
+      <c r="D151" s="49" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="2"/>
+      <c r="A152" s="44"/>
       <c r="B152" s="2">
         <v>1391</v>
       </c>
       <c r="C152" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="D152" s="55" t="s">
+      <c r="D152" s="48" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="2"/>
+      <c r="A153" s="44"/>
       <c r="B153" s="2">
         <v>1395</v>
       </c>
       <c r="C153" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="D153" s="55" t="s">
+      <c r="D153" s="48" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="154" ht="15.75" spans="1:4">
-      <c r="A154" s="2"/>
+      <c r="A154" s="44"/>
       <c r="B154" s="2">
         <v>1397</v>
       </c>
-      <c r="C154" s="56" t="s">
+      <c r="C154" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="D154" s="57" t="s">
+      <c r="D154" s="48" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="2"/>
+      <c r="A155" s="44"/>
       <c r="B155" s="2">
         <v>1409</v>
       </c>
       <c r="C155" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="D155" s="57" t="s">
+      <c r="D155" s="48" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="2"/>
+      <c r="A156" s="44"/>
       <c r="B156" s="2">
         <v>1413</v>
       </c>
       <c r="C156" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="D156" s="57" t="s">
+      <c r="D156" s="48" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="2"/>
+      <c r="A157" s="44"/>
       <c r="B157" s="2">
         <v>1417</v>
       </c>
       <c r="C157" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="D157" s="57" t="s">
+      <c r="D157" s="48" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="2"/>
+      <c r="A158" s="44"/>
       <c r="B158" s="2">
         <v>1429</v>
       </c>
       <c r="C158" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="D158" s="57" t="s">
+      <c r="D158" s="48" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="159" hidden="1" spans="1:4">
-      <c r="A159" s="2"/>
-      <c r="B159" s="36">
+      <c r="A159" s="44"/>
+      <c r="B159" s="35">
         <v>1413</v>
       </c>
-      <c r="C159" s="33" t="s">
+      <c r="C159" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D159" s="58" t="s">
+      <c r="D159" s="51" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="160" hidden="1" spans="1:4">
-      <c r="A160" s="2"/>
-      <c r="B160" s="36">
+      <c r="A160" s="44"/>
+      <c r="B160" s="35">
         <v>1417</v>
       </c>
-      <c r="C160" s="33" t="s">
+      <c r="C160" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D160" s="58" t="s">
+      <c r="D160" s="51" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="161" hidden="1" spans="1:4">
-      <c r="A161" s="2"/>
-      <c r="B161" s="36">
+      <c r="A161" s="44"/>
+      <c r="B161" s="35">
         <v>1424</v>
       </c>
-      <c r="C161" s="33" t="s">
+      <c r="C161" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D161" s="58" t="s">
+      <c r="D161" s="51" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="2"/>
+      <c r="A162" s="44"/>
       <c r="B162" s="2">
         <v>1435</v>
       </c>
-      <c r="C162" s="11" t="s">
+      <c r="C162" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="D162" s="57" t="s">
+      <c r="D162" s="48" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="2"/>
+      <c r="A163" s="44"/>
       <c r="B163" s="2">
         <v>1437</v>
       </c>
-      <c r="C163" s="11" t="s">
+      <c r="C163" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="D163" s="57" t="s">
+      <c r="D163" s="48" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="2"/>
+      <c r="A164" s="44"/>
       <c r="B164" s="2">
         <v>1441</v>
       </c>
-      <c r="C164" s="11" t="s">
+      <c r="C164" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="D164" s="57" t="s">
+      <c r="D164" s="48" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="2"/>
+      <c r="A165" s="44"/>
       <c r="B165" s="2">
         <v>1446</v>
       </c>
-      <c r="C165" s="11" t="s">
+      <c r="C165" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="D165" s="57" t="s">
+      <c r="D165" s="48" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="166" hidden="1" spans="1:4">
-      <c r="A166" s="2"/>
-      <c r="B166" s="33">
+      <c r="A166" s="44"/>
+      <c r="B166" s="32">
         <v>1451</v>
       </c>
-      <c r="C166" s="33" t="s">
+      <c r="C166" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D166" s="58" t="s">
+      <c r="D166" s="51" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="2"/>
-      <c r="B167" s="47">
+      <c r="A167" s="44"/>
+      <c r="B167" s="42">
         <v>1453</v>
       </c>
-      <c r="C167" s="47" t="s">
+      <c r="C167" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="D167" s="59" t="s">
+      <c r="D167" s="52" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="2"/>
-      <c r="B168" s="11" t="s">
+      <c r="A168" s="44"/>
+      <c r="B168" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C168" s="11" t="s">
+      <c r="C168" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D168" s="57" t="s">
+      <c r="D168" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="2"/>
-      <c r="B169" s="11" t="s">
+      <c r="A169" s="44"/>
+      <c r="B169" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C169" s="11" t="s">
+      <c r="C169" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="D169" s="57" t="s">
+      <c r="D169" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="2"/>
-      <c r="B170" s="11">
+      <c r="A170" s="44"/>
+      <c r="B170" s="26">
         <v>1462</v>
       </c>
-      <c r="C170" s="11" t="s">
+      <c r="C170" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="D170" s="57" t="s">
+      <c r="D170" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="2"/>
-      <c r="B171" s="11">
+      <c r="A171" s="44"/>
+      <c r="B171" s="26">
         <v>1466</v>
       </c>
-      <c r="C171" s="11" t="s">
+      <c r="C171" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D171" s="57" t="s">
+      <c r="D171" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="2"/>
-      <c r="B172" s="11">
+      <c r="A172" s="44"/>
+      <c r="B172" s="26">
         <v>1467</v>
       </c>
-      <c r="C172" s="11" t="s">
+      <c r="C172" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D172" s="57" t="s">
+      <c r="D172" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="2"/>
-      <c r="B173" s="11">
+      <c r="A173" s="44"/>
+      <c r="B173" s="26">
         <v>1469</v>
       </c>
-      <c r="C173" s="11" t="s">
+      <c r="C173" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D173" s="57" t="s">
+      <c r="D173" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="2"/>
-      <c r="B174" s="11">
+      <c r="A174" s="44"/>
+      <c r="B174" s="26">
         <v>1470</v>
       </c>
-      <c r="C174" s="11" t="s">
+      <c r="C174" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D174" s="57" t="s">
+      <c r="D174" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="2"/>
-      <c r="B175" s="11">
+      <c r="A175" s="44"/>
+      <c r="B175" s="26">
         <v>1472</v>
       </c>
-      <c r="C175" s="11" t="s">
+      <c r="C175" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D175" s="57" t="s">
+      <c r="D175" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="2"/>
-      <c r="B176" s="11">
+      <c r="A176" s="44"/>
+      <c r="B176" s="26">
         <v>1474</v>
       </c>
-      <c r="C176" s="11" t="s">
+      <c r="C176" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="D176" s="57" t="s">
+      <c r="D176" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="2"/>
-      <c r="B177" s="11">
+      <c r="A177" s="44"/>
+      <c r="B177" s="26">
         <v>1477</v>
       </c>
-      <c r="C177" s="11" t="s">
+      <c r="C177" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D177" s="57" t="s">
+      <c r="D177" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="2"/>
-      <c r="B178" s="11">
+      <c r="A178" s="44"/>
+      <c r="B178" s="26">
         <v>1480</v>
       </c>
-      <c r="C178" s="11" t="s">
+      <c r="C178" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D178" s="57" t="s">
+      <c r="D178" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="179" spans="1:4">
-      <c r="A179" s="2"/>
-      <c r="B179" s="11">
+      <c r="A179" s="44"/>
+      <c r="B179" s="26">
         <v>1481</v>
       </c>
-      <c r="C179" s="11" t="s">
+      <c r="C179" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D179" s="57" t="s">
+      <c r="D179" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="2"/>
-      <c r="B180" s="11">
+      <c r="A180" s="44"/>
+      <c r="B180" s="26">
         <v>1482</v>
       </c>
-      <c r="C180" s="11" t="s">
+      <c r="C180" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D180" s="57" t="s">
+      <c r="D180" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" s="2"/>
-      <c r="B181" s="11">
+      <c r="A181" s="44"/>
+      <c r="B181" s="26">
         <v>1483</v>
       </c>
-      <c r="C181" s="11" t="s">
+      <c r="C181" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="D181" s="57" t="s">
+      <c r="D181" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="2"/>
-      <c r="B182" s="11">
+      <c r="A182" s="44"/>
+      <c r="B182" s="26">
         <v>1486</v>
       </c>
-      <c r="C182" s="11" t="s">
+      <c r="C182" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D182" s="57" t="s">
+      <c r="D182" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="2"/>
-      <c r="B183" s="11">
+      <c r="A183" s="44"/>
+      <c r="B183" s="26">
         <v>1490</v>
       </c>
-      <c r="C183" s="11" t="s">
+      <c r="C183" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D183" s="57" t="s">
+      <c r="D183" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="2"/>
-      <c r="B184" s="11">
+      <c r="A184" s="44"/>
+      <c r="B184" s="26">
         <v>1491</v>
       </c>
-      <c r="C184" s="11" t="s">
+      <c r="C184" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D184" s="57" t="s">
+      <c r="D184" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="185" spans="1:4">
-      <c r="A185" s="2"/>
-      <c r="B185" s="11">
+      <c r="A185" s="44"/>
+      <c r="B185" s="26">
         <v>1493</v>
       </c>
-      <c r="C185" s="11" t="s">
+      <c r="C185" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="D185" s="57" t="s">
+      <c r="D185" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="186" spans="1:4">
-      <c r="A186" s="2"/>
-      <c r="B186" s="11">
+      <c r="A186" s="44"/>
+      <c r="B186" s="26">
         <v>1494</v>
       </c>
-      <c r="C186" s="11" t="s">
+      <c r="C186" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="D186" s="57" t="s">
+      <c r="D186" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="187" spans="1:4">
-      <c r="A187" s="2"/>
-      <c r="B187" s="11">
+      <c r="A187" s="44"/>
+      <c r="B187" s="26">
         <v>1496</v>
       </c>
-      <c r="C187" s="11" t="s">
+      <c r="C187" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D187" s="57" t="s">
+      <c r="D187" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="188" spans="1:4">
-      <c r="A188" s="2"/>
-      <c r="B188" s="11">
+      <c r="A188" s="44"/>
+      <c r="B188" s="26">
         <v>1501</v>
       </c>
-      <c r="C188" s="11" t="s">
+      <c r="C188" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D188" s="57" t="s">
+      <c r="D188" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="2"/>
-      <c r="B189" s="11">
+      <c r="A189" s="44"/>
+      <c r="B189" s="26">
         <v>1502</v>
       </c>
-      <c r="C189" s="11" t="s">
+      <c r="C189" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D189" s="57" t="s">
+      <c r="D189" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="190" spans="1:4">
-      <c r="A190" s="2"/>
-      <c r="B190" s="11">
+      <c r="A190" s="44"/>
+      <c r="B190" s="26">
         <v>1503</v>
       </c>
-      <c r="C190" s="11" t="s">
+      <c r="C190" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D190" s="57" t="s">
+      <c r="D190" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="191" spans="1:4">
-      <c r="A191" s="2"/>
-      <c r="B191" s="11">
+      <c r="A191" s="44"/>
+      <c r="B191" s="26">
         <v>1506</v>
       </c>
-      <c r="C191" s="11" t="s">
+      <c r="C191" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D191" s="57" t="s">
+      <c r="D191" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="192" spans="1:4">
-      <c r="A192" s="2"/>
-      <c r="B192" s="11">
+      <c r="A192" s="44"/>
+      <c r="B192" s="26">
         <v>1508</v>
       </c>
-      <c r="C192" s="11" t="s">
+      <c r="C192" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D192" s="57" t="s">
+      <c r="D192" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" s="2"/>
-      <c r="B193" s="11">
+      <c r="A193" s="44"/>
+      <c r="B193" s="26">
         <v>1509</v>
       </c>
-      <c r="C193" s="11" t="s">
+      <c r="C193" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="D193" s="57" t="s">
+      <c r="D193" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="194" spans="1:4">
-      <c r="A194" s="2"/>
-      <c r="B194" s="11">
+      <c r="A194" s="44"/>
+      <c r="B194" s="26">
         <v>1510</v>
       </c>
-      <c r="C194" s="11" t="s">
+      <c r="C194" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="D194" s="57" t="s">
+      <c r="D194" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="195" spans="1:4">
-      <c r="A195" s="2"/>
-      <c r="B195" s="60">
+      <c r="A195" s="44"/>
+      <c r="B195" s="31">
         <v>1518</v>
       </c>
-      <c r="C195" s="60" t="s">
+      <c r="C195" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="D195" s="61" t="s">
+      <c r="D195" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="196" spans="1:4">
-      <c r="A196" s="2"/>
-      <c r="B196" s="60">
+      <c r="A196" s="44"/>
+      <c r="B196" s="31">
         <v>1530</v>
       </c>
-      <c r="C196" s="60" t="s">
+      <c r="C196" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="D196" s="61" t="s">
+      <c r="D196" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="197" spans="1:4">
-      <c r="A197" s="2"/>
-      <c r="B197" s="50">
+      <c r="A197" s="44"/>
+      <c r="B197" s="37">
         <v>1543</v>
       </c>
-      <c r="C197" s="50" t="s">
+      <c r="C197" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="D197" s="51" t="s">
+      <c r="D197" s="47" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="198" spans="1:4">
-      <c r="A198" s="2"/>
-      <c r="B198" s="60">
+      <c r="A198" s="44"/>
+      <c r="B198" s="31">
         <v>1545</v>
       </c>
-      <c r="C198" s="60" t="s">
+      <c r="C198" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="D198" s="61" t="s">
+      <c r="D198" s="48" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="199" spans="1:4">
-      <c r="A199" s="2"/>
-      <c r="B199" s="60">
+      <c r="A199" s="44"/>
+      <c r="B199" s="31">
         <v>1550</v>
       </c>
-      <c r="C199" s="60" t="s">
+      <c r="C199" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="D199" s="61" t="s">
+      <c r="D199" s="48" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="200" spans="1:4">
-      <c r="A200" s="2"/>
-      <c r="B200" s="60">
+      <c r="A200" s="44"/>
+      <c r="B200" s="31">
         <v>1565</v>
       </c>
-      <c r="C200" s="60" t="s">
+      <c r="C200" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="D200" s="61" t="s">
+      <c r="D200" s="48" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="201" spans="1:4">
-      <c r="A201" s="2"/>
-      <c r="B201" s="60">
+      <c r="A201" s="44"/>
+      <c r="B201" s="31">
         <v>1591</v>
       </c>
-      <c r="C201" s="60" t="s">
+      <c r="C201" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="D201" s="61" t="s">
+      <c r="D201" s="48" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="202" spans="1:4">
-      <c r="A202" s="2"/>
-      <c r="B202" s="60">
+      <c r="A202" s="44"/>
+      <c r="B202" s="31">
         <v>1596</v>
       </c>
-      <c r="C202" s="32" t="s">
+      <c r="C202" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="D202" s="61" t="s">
+      <c r="D202" s="48" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="2"/>
-      <c r="B203" s="60">
+      <c r="A203" s="44"/>
+      <c r="B203" s="31">
         <v>1597</v>
       </c>
-      <c r="C203" s="32" t="s">
+      <c r="C203" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="D203" s="61" t="s">
+      <c r="D203" s="48" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="204" hidden="1" spans="1:4">
-      <c r="A204" s="2"/>
-      <c r="B204" s="33">
+      <c r="A204" s="44"/>
+      <c r="B204" s="32">
         <v>1559</v>
       </c>
-      <c r="C204" s="33" t="s">
+      <c r="C204" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="D204" s="58" t="s">
+      <c r="D204" s="51" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="205" hidden="1" spans="1:4">
-      <c r="A205" s="2"/>
-      <c r="B205" s="37">
+      <c r="A205" s="44"/>
+      <c r="B205" s="36">
         <v>1572</v>
       </c>
-      <c r="C205" s="37" t="s">
+      <c r="C205" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="D205" s="62" t="s">
+      <c r="D205" s="53" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="206" hidden="1" spans="1:4">
-      <c r="A206" s="2"/>
-      <c r="B206" s="36">
+      <c r="A206" s="44"/>
+      <c r="B206" s="35">
         <v>1613</v>
       </c>
-      <c r="C206" s="36" t="s">
+      <c r="C206" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="D206" s="58" t="s">
+      <c r="D206" s="51" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="207" hidden="1" spans="1:4">
-      <c r="A207" s="2"/>
-      <c r="B207" s="36">
+      <c r="A207" s="44"/>
+      <c r="B207" s="35">
         <v>1624</v>
       </c>
-      <c r="C207" s="36" t="s">
+      <c r="C207" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="D207" s="58" t="s">
+      <c r="D207" s="51" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="208" hidden="1" spans="1:4">
-      <c r="A208" s="2"/>
-      <c r="B208" s="36">
+      <c r="A208" s="44"/>
+      <c r="B208" s="35">
         <v>1658</v>
       </c>
-      <c r="C208" s="36" t="s">
+      <c r="C208" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="D208" s="58" t="s">
+      <c r="D208" s="51" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="209" hidden="1" spans="1:4">
-      <c r="A209" s="2"/>
-      <c r="B209" s="33">
+      <c r="A209" s="44"/>
+      <c r="B209" s="32">
         <v>1663</v>
       </c>
-      <c r="C209" s="33" t="s">
+      <c r="C209" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="D209" s="58" t="s">
+      <c r="D209" s="51" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="210" hidden="1" spans="1:4">
-      <c r="A210" s="2"/>
-      <c r="B210" s="37">
+      <c r="A210" s="44"/>
+      <c r="B210" s="36">
         <v>1669</v>
       </c>
-      <c r="C210" s="37" t="s">
+      <c r="C210" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="D210" s="62" t="s">
+      <c r="D210" s="53" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="211" hidden="1" spans="1:4">
-      <c r="A211" s="2"/>
+      <c r="A211" s="44"/>
       <c r="B211" s="12">
         <v>1677</v>
       </c>
       <c r="C211" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="D211" s="63" t="s">
+      <c r="D211" s="54" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="212" spans="1:4">
-      <c r="A212" s="2"/>
-      <c r="B212" s="64">
+      <c r="A212" s="44"/>
+      <c r="B212" s="55">
         <v>1694</v>
       </c>
-      <c r="C212" s="64" t="s">
+      <c r="C212" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="D212" s="65" t="s">
+      <c r="D212" s="47" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="213" spans="1:4">
-      <c r="A213" s="2"/>
+      <c r="A213" s="44"/>
       <c r="B213" s="2">
         <v>1704</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D213" s="57" t="s">
+      <c r="D213" s="48" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="214" spans="1:4">
-      <c r="A214" s="2"/>
+      <c r="A214" s="44"/>
       <c r="B214" s="2">
         <v>1708</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D214" s="57" t="s">
+      <c r="D214" s="48" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="215" spans="1:4">
-      <c r="A215" s="2"/>
+      <c r="A215" s="44"/>
       <c r="B215" s="2">
         <v>1709</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D215" s="57" t="s">
+      <c r="D215" s="48" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="216" spans="1:4">
-      <c r="A216" s="2"/>
+      <c r="A216" s="44"/>
       <c r="B216" s="2">
         <v>1710</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D216" s="57" t="s">
+      <c r="D216" s="48" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="217" hidden="1" spans="1:4">
-      <c r="A217" s="2"/>
-      <c r="B217" s="36">
+      <c r="A217" s="44"/>
+      <c r="B217" s="35">
         <v>1718</v>
       </c>
-      <c r="C217" s="36" t="s">
+      <c r="C217" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="D217" s="58" t="s">
+      <c r="D217" s="51" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="218" spans="1:4">
-      <c r="A218" s="2"/>
+      <c r="A218" s="44"/>
       <c r="B218" s="2">
         <v>1719</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D218" s="57" t="s">
+      <c r="D218" s="48" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="219" spans="1:4">
-      <c r="A219" s="2"/>
+      <c r="A219" s="44"/>
       <c r="B219" s="2">
         <v>1720</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D219" s="57" t="s">
+      <c r="D219" s="48" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="220" spans="1:4">
-      <c r="A220" s="2"/>
+      <c r="A220" s="44"/>
       <c r="B220" s="2">
         <v>1722</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D220" s="57" t="s">
+      <c r="D220" s="48" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="221" spans="1:4">
-      <c r="A221" s="2"/>
+      <c r="A221" s="44"/>
       <c r="B221" s="2">
         <v>1726</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D221" s="57" t="s">
+      <c r="D221" s="48" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="222" spans="1:4">
-      <c r="A222" s="2"/>
+      <c r="A222" s="44"/>
       <c r="B222" s="2">
         <v>1732</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D222" s="57" t="s">
+      <c r="D222" s="48" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="2"/>
-      <c r="B223" s="11">
+      <c r="A223" s="44"/>
+      <c r="B223" s="26">
         <v>1734</v>
       </c>
-      <c r="C223" s="11" t="s">
+      <c r="C223" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="D223" s="57" t="s">
+      <c r="D223" s="48" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="224" spans="1:4">
-      <c r="A224" s="2"/>
-      <c r="B224" s="47">
+      <c r="A224" s="44"/>
+      <c r="B224" s="42">
         <v>1736</v>
       </c>
-      <c r="C224" s="47" t="s">
+      <c r="C224" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="D224" s="59" t="s">
+      <c r="D224" s="52" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="225" hidden="1" spans="1:4">
-      <c r="A225" s="2"/>
-      <c r="B225" s="33" t="s">
+      <c r="A225" s="44"/>
+      <c r="B225" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="C225" s="37" t="s">
+      <c r="C225" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D225" s="58" t="s">
+      <c r="D225" s="51" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="226" s="1" customFormat="1" spans="1:4">
-      <c r="A226" s="66"/>
-      <c r="B226" s="60">
+      <c r="A226" s="56"/>
+      <c r="B226" s="31">
         <v>1812</v>
       </c>
-      <c r="C226" s="32" t="s">
+      <c r="C226" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D226" s="61" t="s">
+      <c r="D226" s="48" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="227" s="1" customFormat="1" spans="1:4">
-      <c r="A227" s="66"/>
-      <c r="B227" s="11">
+      <c r="A227" s="56"/>
+      <c r="B227" s="26">
         <v>1829</v>
       </c>
-      <c r="C227" s="67" t="s">
+      <c r="C227" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="D227" s="57" t="s">
+      <c r="D227" s="48" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="228" s="1" customFormat="1" spans="1:4">
-      <c r="A228" s="66"/>
-      <c r="B228" s="11">
+      <c r="A228" s="56"/>
+      <c r="B228" s="26">
         <v>1831</v>
       </c>
-      <c r="C228" s="67" t="s">
+      <c r="C228" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="D228" s="57" t="s">
+      <c r="D228" s="48" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="229" s="1" customFormat="1" spans="1:4">
-      <c r="A229" s="66"/>
-      <c r="B229" s="60">
+      <c r="A229" s="56"/>
+      <c r="B229" s="31">
         <v>1846</v>
       </c>
-      <c r="C229" s="32" t="s">
+      <c r="C229" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D229" s="61" t="s">
+      <c r="D229" s="48" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="230" s="1" customFormat="1" spans="1:4">
-      <c r="A230" s="66"/>
-      <c r="B230" s="68">
+      <c r="A230" s="56"/>
+      <c r="B230" s="41">
         <v>1852</v>
       </c>
-      <c r="C230" s="69" t="s">
+      <c r="C230" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="D230" s="70" t="s">
+      <c r="D230" s="52" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="231" spans="1:4">
-      <c r="A231" s="2"/>
-      <c r="B231" s="11">
+      <c r="A231" s="44"/>
+      <c r="B231" s="26">
         <v>1881</v>
       </c>
-      <c r="C231" s="67" t="s">
+      <c r="C231" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="D231" s="57" t="s">
+      <c r="D231" s="48" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="232" spans="1:4">
-      <c r="A232" s="2"/>
-      <c r="B232" s="11">
+      <c r="A232" s="44"/>
+      <c r="B232" s="26">
         <v>1895</v>
       </c>
-      <c r="C232" s="67" t="s">
+      <c r="C232" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="D232" s="57" t="s">
+      <c r="D232" s="48" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="233" spans="1:4">
-      <c r="A233" s="2"/>
-      <c r="B233" s="11">
+      <c r="A233" s="44"/>
+      <c r="B233" s="26">
         <v>1897</v>
       </c>
-      <c r="C233" s="67" t="s">
+      <c r="C233" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="D233" s="57" t="s">
+      <c r="D233" s="48" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="234" spans="1:4">
-      <c r="A234" s="2"/>
-      <c r="B234" s="11">
+      <c r="A234" s="44"/>
+      <c r="B234" s="26">
         <v>1906</v>
       </c>
-      <c r="C234" s="67" t="s">
+      <c r="C234" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="D234" s="57" t="s">
+      <c r="D234" s="48" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="235" spans="1:4">
-      <c r="A235" s="2"/>
-      <c r="B235" s="71">
+      <c r="A235" s="44"/>
+      <c r="B235" s="26">
         <v>1910</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D235" s="57" t="s">
+      <c r="D235" s="48" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="236" spans="1:4">
-      <c r="A236" s="2"/>
-      <c r="B236" s="47">
+      <c r="A236" s="44"/>
+      <c r="B236" s="42">
         <v>1924</v>
       </c>
       <c r="C236" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="D236" s="59" t="s">
+      <c r="D236" s="52" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="237" spans="1:4">
-      <c r="A237" s="47"/>
-      <c r="B237" s="47"/>
+      <c r="A237" s="43"/>
+      <c r="B237" s="42"/>
       <c r="C237" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D237" s="59" t="s">
+      <c r="D237" s="52" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
-      <c r="A238" s="2" t="s">
+    <row r="238" hidden="1" spans="1:4">
+      <c r="A238" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="B238" s="37"/>
-      <c r="C238" s="37" t="s">
+      <c r="B238" s="36"/>
+      <c r="C238" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D238" s="72" t="s">
+      <c r="D238" s="57" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="239" spans="1:4">
-      <c r="A239" s="2"/>
-      <c r="B239" s="47"/>
-      <c r="C239" s="47" t="s">
+      <c r="A239" s="44"/>
+      <c r="B239" s="42"/>
+      <c r="C239" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D239" s="47" t="s">
+      <c r="D239" s="42" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="240" spans="1:4">
-      <c r="A240" s="2"/>
-      <c r="B240" s="47"/>
-      <c r="C240" s="47" t="s">
+      <c r="A240" s="44"/>
+      <c r="B240" s="42"/>
+      <c r="C240" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D240" s="47" t="s">
+      <c r="D240" s="42" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="241" spans="1:4">
-      <c r="A241" s="2"/>
-      <c r="B241" s="47"/>
-      <c r="C241" s="47" t="s">
+      <c r="A241" s="44"/>
+      <c r="B241" s="26">
+        <v>2268</v>
+      </c>
+      <c r="C241" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="D241" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="44"/>
+      <c r="B242" s="26">
+        <v>2275</v>
+      </c>
+      <c r="C242" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="D242" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="44"/>
+      <c r="B243" s="26">
+        <v>2276</v>
+      </c>
+      <c r="C243" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="D243" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="44"/>
+      <c r="B244" s="42">
+        <v>2295</v>
+      </c>
+      <c r="C244" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="D244" s="42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="44"/>
+      <c r="B245" s="42"/>
+      <c r="C245" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D241" s="47" t="s">
+      <c r="D245" s="42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="44"/>
+      <c r="B246" s="26">
+        <v>2404</v>
+      </c>
+      <c r="C246" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D246" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="44"/>
+      <c r="B247" s="26">
+        <v>2407</v>
+      </c>
+      <c r="C247" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D247" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="44"/>
+      <c r="B248" s="26">
+        <v>2434</v>
+      </c>
+      <c r="C248" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D248" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="44"/>
+      <c r="B249" s="26">
+        <v>2437</v>
+      </c>
+      <c r="C249" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D249" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="44"/>
+      <c r="B250" s="26">
+        <v>2440</v>
+      </c>
+      <c r="C250" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D250" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="44"/>
+      <c r="B251" s="26">
+        <v>2449</v>
+      </c>
+      <c r="C251" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D251" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="44"/>
+      <c r="B252" s="26">
+        <v>2453</v>
+      </c>
+      <c r="C252" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D252" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="44"/>
+      <c r="B253" s="26">
+        <v>2457</v>
+      </c>
+      <c r="C253" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="D253" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="44"/>
+      <c r="B254" s="42">
+        <v>2461</v>
+      </c>
+      <c r="C254" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="D254" s="42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="44"/>
+      <c r="B255" s="26">
+        <v>2474</v>
+      </c>
+      <c r="C255" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="D255" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="44"/>
+      <c r="B256" s="26">
+        <v>2477</v>
+      </c>
+      <c r="C256" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="D256" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="44"/>
+      <c r="B257" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C257" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="D257" s="42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="44"/>
+      <c r="B258" s="26">
+        <v>2560</v>
+      </c>
+      <c r="C258" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D258" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="44"/>
+      <c r="B259" s="26">
+        <v>2564</v>
+      </c>
+      <c r="C259" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D259" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="44"/>
+      <c r="B260" s="26">
+        <v>2568</v>
+      </c>
+      <c r="C260" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="D260" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="44"/>
+      <c r="B261" s="26">
+        <v>2578</v>
+      </c>
+      <c r="C261" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="D261" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="44"/>
+      <c r="B262" s="26">
+        <v>2581</v>
+      </c>
+      <c r="C262" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="D262" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="44"/>
+      <c r="B263" s="26">
+        <v>2591</v>
+      </c>
+      <c r="C263" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="D263" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="44"/>
+      <c r="B264" s="26">
+        <v>2597</v>
+      </c>
+      <c r="C264" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="D264" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="44"/>
+      <c r="B265" s="26">
+        <v>2603</v>
+      </c>
+      <c r="C265" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D265" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="44"/>
+      <c r="B266" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C266" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="D266" s="55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="44"/>
+      <c r="B267" s="42">
+        <v>2642</v>
+      </c>
+      <c r="C267" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="D267" s="42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="44"/>
+      <c r="B268" s="26">
+        <v>2692</v>
+      </c>
+      <c r="C268" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="D268" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="44"/>
+      <c r="B269" s="26">
+        <v>2695</v>
+      </c>
+      <c r="C269" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="D269" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="44"/>
+      <c r="B270" s="26">
+        <v>2724</v>
+      </c>
+      <c r="C270" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="D270" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="44"/>
+      <c r="B271" s="26">
+        <v>2726</v>
+      </c>
+      <c r="C271" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D271" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="44"/>
+      <c r="B272" s="26">
+        <v>2727</v>
+      </c>
+      <c r="C272" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D272" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="44"/>
+      <c r="B273" s="26">
+        <v>2729</v>
+      </c>
+      <c r="C273" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="D273" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="44"/>
+      <c r="B274" s="26">
+        <v>2731</v>
+      </c>
+      <c r="C274" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D274" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="44"/>
+      <c r="B275" s="26">
+        <v>2735</v>
+      </c>
+      <c r="C275" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D275" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="44"/>
+      <c r="B276" s="26">
+        <v>2736</v>
+      </c>
+      <c r="C276" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="D276" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="44"/>
+      <c r="B277" s="42">
+        <v>2739</v>
+      </c>
+      <c r="C277" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="D277" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="44"/>
+      <c r="B278" s="26">
+        <v>2770</v>
+      </c>
+      <c r="C278" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="D278" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="44"/>
+      <c r="B279" s="26">
+        <v>2805</v>
+      </c>
+      <c r="C279" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="D279" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="44"/>
+      <c r="B280" s="42">
+        <v>2807</v>
+      </c>
+      <c r="C280" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="D280" s="42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="44"/>
+      <c r="B281" s="26">
+        <v>2823</v>
+      </c>
+      <c r="C281" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D281" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="44"/>
+      <c r="B282" s="26">
+        <v>2826</v>
+      </c>
+      <c r="C282" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="D282" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="44"/>
+      <c r="B283" s="26">
+        <v>2839</v>
+      </c>
+      <c r="C283" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="D283" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="44"/>
+      <c r="B284" s="26">
+        <v>2844</v>
+      </c>
+      <c r="C284" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="D284" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="44"/>
+      <c r="B285" s="26">
+        <v>2852</v>
+      </c>
+      <c r="C285" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="D285" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="44"/>
+      <c r="B286" s="26">
+        <v>2867</v>
+      </c>
+      <c r="C286" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D286" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="44"/>
+      <c r="B287" s="42">
+        <v>2890</v>
+      </c>
+      <c r="C287" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="D287" s="42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="44"/>
+      <c r="B288" s="26">
+        <v>2892</v>
+      </c>
+      <c r="C288" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="D288" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="44"/>
+      <c r="B289" s="26">
+        <v>2894</v>
+      </c>
+      <c r="C289" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D289" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="44"/>
+      <c r="B290" s="26">
+        <v>2896</v>
+      </c>
+      <c r="C290" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="D290" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="44"/>
+      <c r="B291" s="26">
+        <v>2907</v>
+      </c>
+      <c r="C291" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="D291" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="44"/>
+      <c r="B292" s="26">
+        <v>2918</v>
+      </c>
+      <c r="C292" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="D292" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="44"/>
+      <c r="B293" s="26">
+        <v>2923</v>
+      </c>
+      <c r="C293" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="D293" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="44"/>
+      <c r="B294" s="26">
+        <v>2929</v>
+      </c>
+      <c r="C294" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D294" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="44"/>
+      <c r="B295" s="26">
+        <v>2938</v>
+      </c>
+      <c r="C295" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D295" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="44"/>
+      <c r="B296" s="26">
+        <v>2946</v>
+      </c>
+      <c r="C296" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D296" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="44"/>
+      <c r="B297" s="26">
+        <v>2952</v>
+      </c>
+      <c r="C297" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="D297" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="44"/>
+      <c r="B298" s="26">
+        <v>2956</v>
+      </c>
+      <c r="C298" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="D298" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="44"/>
+      <c r="B299" s="42">
+        <v>2960</v>
+      </c>
+      <c r="C299" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="D299" s="42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="43"/>
+      <c r="B300" s="42"/>
+      <c r="C300" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D300" s="42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="B301" s="58"/>
+      <c r="C301" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D301" s="59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="44"/>
+      <c r="B302" s="42"/>
+      <c r="C302" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D302" s="41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="44"/>
+      <c r="B303" s="42"/>
+      <c r="C303" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D303" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="44"/>
+      <c r="B304" s="42">
+        <v>3285</v>
+      </c>
+      <c r="C304" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="D304" s="41" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
-      <c r="A242" s="2"/>
-      <c r="B242" s="47"/>
-      <c r="C242" s="47" t="s">
+    <row r="305" spans="1:4">
+      <c r="A305" s="44"/>
+      <c r="B305" s="42"/>
+      <c r="C305" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D242" s="47" t="s">
+      <c r="D305" s="41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
-      <c r="A243" s="2"/>
-      <c r="B243" s="47"/>
-      <c r="C243" s="47" t="s">
+    <row r="306" spans="1:4">
+      <c r="A306" s="44"/>
+      <c r="B306" s="2">
+        <v>3419</v>
+      </c>
+      <c r="C306" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D306" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="44"/>
+      <c r="B307" s="2">
+        <v>3422</v>
+      </c>
+      <c r="C307" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D307" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="44"/>
+      <c r="B308" s="2">
+        <v>3424</v>
+      </c>
+      <c r="C308" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="D308" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="44"/>
+      <c r="B309" s="2">
+        <v>3428</v>
+      </c>
+      <c r="C309" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D309" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="44"/>
+      <c r="B310" s="2">
+        <v>3430</v>
+      </c>
+      <c r="C310" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="D310" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="44"/>
+      <c r="B311" s="2">
+        <v>3442</v>
+      </c>
+      <c r="C311" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D311" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="44"/>
+      <c r="B312" s="2">
+        <v>3450</v>
+      </c>
+      <c r="C312" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D312" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="44"/>
+      <c r="B313" s="2">
+        <v>3456</v>
+      </c>
+      <c r="C313" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="D313" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="44"/>
+      <c r="B314" s="2">
+        <v>3457</v>
+      </c>
+      <c r="C314" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="D314" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="44"/>
+      <c r="B315" s="2">
+        <v>3472</v>
+      </c>
+      <c r="C315" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="D315" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="44"/>
+      <c r="B316" s="42">
+        <v>3476</v>
+      </c>
+      <c r="C316" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="D316" s="41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="44"/>
+      <c r="B317" s="42"/>
+      <c r="C317" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D243" s="47" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
-      <c r="A244" s="2"/>
-      <c r="B244" s="47"/>
-      <c r="C244" s="47" t="s">
+      <c r="D317" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="44"/>
+      <c r="B318" s="26">
+        <v>3553</v>
+      </c>
+      <c r="C318" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="D318" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="44"/>
+      <c r="B319" s="26">
+        <v>3554</v>
+      </c>
+      <c r="C319" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="D319" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="44"/>
+      <c r="B320" s="26">
+        <v>3555</v>
+      </c>
+      <c r="C320" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D320" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="44"/>
+      <c r="B321" s="26">
+        <v>3558</v>
+      </c>
+      <c r="C321" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="D321" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="44"/>
+      <c r="B322" s="26">
+        <v>3561</v>
+      </c>
+      <c r="C322" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D322" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="44"/>
+      <c r="B323" s="2">
+        <v>3563</v>
+      </c>
+      <c r="C323" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="D323" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="44"/>
+      <c r="B324" s="2">
+        <v>3564</v>
+      </c>
+      <c r="C324" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="D324" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="44"/>
+      <c r="B325" s="2">
+        <v>3565</v>
+      </c>
+      <c r="C325" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D325" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="44"/>
+      <c r="B326" s="2">
+        <v>3567</v>
+      </c>
+      <c r="C326" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D326" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="44"/>
+      <c r="B327" s="2">
+        <v>3570</v>
+      </c>
+      <c r="C327" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D327" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="44"/>
+      <c r="B328" s="2">
+        <v>3574</v>
+      </c>
+      <c r="C328" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="D328" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="44"/>
+      <c r="B329" s="2">
+        <v>3576</v>
+      </c>
+      <c r="C329" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D329" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="44"/>
+      <c r="B330" s="2">
+        <v>3581</v>
+      </c>
+      <c r="C330" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D330" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="44"/>
+      <c r="B331" s="2">
+        <v>3584</v>
+      </c>
+      <c r="C331" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D331" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="44"/>
+      <c r="B332" s="2">
+        <v>3585</v>
+      </c>
+      <c r="C332" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="D332" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="44"/>
+      <c r="B333" s="2">
+        <v>3586</v>
+      </c>
+      <c r="C333" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="D333" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="44"/>
+      <c r="B334" s="2">
+        <v>3587</v>
+      </c>
+      <c r="C334" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="D334" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="44"/>
+      <c r="B335" s="2">
+        <v>3589</v>
+      </c>
+      <c r="C335" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D335" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="44"/>
+      <c r="B336" s="2">
+        <v>3596</v>
+      </c>
+      <c r="C336" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="D336" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="44"/>
+      <c r="B337" s="2">
+        <v>3611</v>
+      </c>
+      <c r="C337" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="D337" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="44"/>
+      <c r="B338" s="2">
+        <v>3615</v>
+      </c>
+      <c r="C338" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D338" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="44"/>
+      <c r="B339" s="42">
+        <v>3516</v>
+      </c>
+      <c r="C339" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="D339" s="41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="44"/>
+      <c r="B340" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C340" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="D340" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="44"/>
+      <c r="B341" s="26">
+        <v>3628</v>
+      </c>
+      <c r="C341" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D341" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="44"/>
+      <c r="B342" s="26">
+        <v>3640</v>
+      </c>
+      <c r="C342" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="D342" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="44"/>
+      <c r="B343" s="2">
+        <v>3647</v>
+      </c>
+      <c r="C343" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D343" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="44"/>
+      <c r="B344" s="2">
+        <v>3660</v>
+      </c>
+      <c r="C344" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D344" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="44"/>
+      <c r="B345" s="42">
+        <v>3666</v>
+      </c>
+      <c r="C345" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="D345" s="41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="44"/>
+      <c r="B346" s="26">
+        <v>3693</v>
+      </c>
+      <c r="C346" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="D346" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="44"/>
+      <c r="B347" s="26">
+        <v>3702</v>
+      </c>
+      <c r="C347" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="D347" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="44"/>
+      <c r="B348" s="26">
+        <v>3704</v>
+      </c>
+      <c r="C348" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="D348" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="44"/>
+      <c r="B349" s="26">
+        <v>3711</v>
+      </c>
+      <c r="C349" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="D349" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="44"/>
+      <c r="B350" s="26">
+        <v>3712</v>
+      </c>
+      <c r="C350" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="D350" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="44"/>
+      <c r="B351" s="60">
+        <v>3713</v>
+      </c>
+      <c r="C351" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="D351" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="44"/>
+      <c r="B352" s="60">
+        <v>3719</v>
+      </c>
+      <c r="C352" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="D352" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="44"/>
+      <c r="B353" s="60">
+        <v>3736</v>
+      </c>
+      <c r="C353" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D353" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="44"/>
+      <c r="B354" s="60">
+        <v>3738</v>
+      </c>
+      <c r="C354" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="D354" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="44"/>
+      <c r="B355" s="42">
+        <v>3750</v>
+      </c>
+      <c r="C355" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="D355" s="41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="44"/>
+      <c r="B356" s="42"/>
+      <c r="C356" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D244" s="47" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
-      <c r="A245" s="2"/>
-      <c r="B245" s="47"/>
-      <c r="C245" s="47" t="s">
+      <c r="D356" s="41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="44"/>
+      <c r="B357" s="42"/>
+      <c r="C357" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D245" s="47" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
-      <c r="A246" s="2"/>
-      <c r="B246" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="C246" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="D246" s="47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
-      <c r="A247" s="2"/>
-      <c r="B247" s="47"/>
-      <c r="C247" s="47" t="s">
+      <c r="D357" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="44"/>
+      <c r="B358" s="42"/>
+      <c r="C358" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D247" s="47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
-      <c r="A248" s="2"/>
-      <c r="B248" s="47"/>
-      <c r="C248" s="47" t="s">
+      <c r="D358" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="44"/>
+      <c r="B359" s="42"/>
+      <c r="C359" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D248" s="47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
-      <c r="A249" s="2"/>
-      <c r="B249" s="47"/>
-      <c r="C249" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D249" s="47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
-      <c r="A250" s="2"/>
-      <c r="B250" s="47"/>
-      <c r="C250" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D250" s="47" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
-      <c r="A251" s="47"/>
-      <c r="B251" s="47"/>
-      <c r="C251" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D251" s="47" t="s">
+      <c r="D359" s="41" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A4:A137"/>
     <mergeCell ref="A138:A237"/>
-    <mergeCell ref="A238:A251"/>
+    <mergeCell ref="A238:A300"/>
+    <mergeCell ref="A301:A359"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/revision.xlsx
+++ b/revision.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="297">
   <si>
     <t>（填充为蓝色表示已修订）</t>
   </si>
@@ -806,7 +806,7 @@
     <t>点没标全</t>
   </si>
   <si>
-    <t>3631-像素低需导出png</t>
+    <t>3631-3690像素低需导出png</t>
   </si>
   <si>
     <t>角相等未标出</t>
@@ -834,6 +834,117 @@
   </si>
   <si>
     <t>E没标出</t>
+  </si>
+  <si>
+    <t>平行没标哦</t>
+  </si>
+  <si>
+    <t>与构图语句不符，不连接AC</t>
+  </si>
+  <si>
+    <t>与构图语句不符，连接OC</t>
+  </si>
+  <si>
+    <t>与构图语句不符，连接AP</t>
+  </si>
+  <si>
+    <t>与构图语句不符，连接DB</t>
+  </si>
+  <si>
+    <t>D没标出</t>
+  </si>
+  <si>
+    <t>与构图语句不符，连接FB</t>
+  </si>
+  <si>
+    <t>BCA是35°</t>
+  </si>
+  <si>
+    <t>与构图语句不符，连接BC</t>
+  </si>
+  <si>
+    <t>与构图语句不符，连接BD</t>
+  </si>
+  <si>
+    <t>与构图语句不符，连接OA</t>
+  </si>
+  <si>
+    <t>是平行不是相等</t>
+  </si>
+  <si>
+    <t>长度没标</t>
+  </si>
+  <si>
+    <t>与构图语句不符，连接AB,OC，且BCA是35°</t>
+  </si>
+  <si>
+    <t>与构图语句不符，连接BC，且弧相等没标</t>
+  </si>
+  <si>
+    <t>D没标，连接OC</t>
+  </si>
+  <si>
+    <t>与构图语句不符，不连接OP</t>
+  </si>
+  <si>
+    <t>与构图语句不符，不连接BC</t>
+  </si>
+  <si>
+    <t>导出的图像超出画幅了</t>
+  </si>
+  <si>
+    <t>垂直没标</t>
+  </si>
+  <si>
+    <t>与构图语句不符(还有构图之前也是你标的不符合最小构图原则啊一起改下吧)</t>
+  </si>
+  <si>
+    <t>交点标C</t>
+  </si>
+  <si>
+    <t>交点标E</t>
+  </si>
+  <si>
+    <t>连接BC，交点标E</t>
+  </si>
+  <si>
+    <t>连接BD，交点标E</t>
+  </si>
+  <si>
+    <t>连接OA交DC于G，且DC交AB于F</t>
+  </si>
+  <si>
+    <t>交点标E，连接OC</t>
+  </si>
+  <si>
+    <t>连接DC交OE于F</t>
+  </si>
+  <si>
+    <t>交点标F</t>
+  </si>
+  <si>
+    <t>同3908</t>
+  </si>
+  <si>
+    <t>根据共线把交点标上</t>
+  </si>
+  <si>
+    <t>连接OD交BC于F，且连接BD</t>
+  </si>
+  <si>
+    <t>连接BC</t>
+  </si>
+  <si>
+    <t>连接DO交AC于E，且连接OC</t>
+  </si>
+  <si>
+    <t>连接OE，且交点F没标</t>
+  </si>
+  <si>
+    <t>连接OD</t>
+  </si>
+  <si>
+    <t>连接OC</t>
   </si>
 </sst>
 </file>
@@ -2028,10 +2139,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N359"/>
+  <dimension ref="A1:N418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="C341" sqref="C341"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>
@@ -5653,7 +5764,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" hidden="1" spans="1:4">
       <c r="A301" s="44" t="s">
         <v>229</v>
       </c>
@@ -6307,41 +6418,755 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="44"/>
-      <c r="B356" s="42"/>
-      <c r="C356" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D356" s="41" t="s">
+      <c r="B356" s="26">
+        <v>3763</v>
+      </c>
+      <c r="C356" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="D356" s="31" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="44"/>
-      <c r="B357" s="42"/>
-      <c r="C357" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D357" s="41" t="s">
-        <v>73</v>
+      <c r="B357" s="26">
+        <v>3782</v>
+      </c>
+      <c r="C357" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D357" s="31" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="44"/>
-      <c r="B358" s="42"/>
-      <c r="C358" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D358" s="41" t="s">
-        <v>87</v>
+      <c r="B358" s="26">
+        <v>2820</v>
+      </c>
+      <c r="C358" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="D358" s="31" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="44"/>
-      <c r="B359" s="42"/>
+      <c r="B359" s="42">
+        <v>3825</v>
+      </c>
       <c r="C359" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="D359" s="41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="44"/>
+      <c r="B360" s="26">
+        <v>3832</v>
+      </c>
+      <c r="C360" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="D360" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="44"/>
+      <c r="B361" s="26">
+        <v>3838</v>
+      </c>
+      <c r="C361" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="D361" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="44"/>
+      <c r="B362" s="26">
+        <v>3841</v>
+      </c>
+      <c r="C362" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D362" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="44"/>
+      <c r="B363" s="26">
+        <v>3844</v>
+      </c>
+      <c r="C363" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="D363" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="44"/>
+      <c r="B364" s="26">
+        <v>3846</v>
+      </c>
+      <c r="C364" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="D364" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="44"/>
+      <c r="B365" s="60">
+        <v>3849</v>
+      </c>
+      <c r="C365" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="D365" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="44"/>
+      <c r="B366" s="60">
+        <v>3850</v>
+      </c>
+      <c r="C366" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D366" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="44"/>
+      <c r="B367" s="60">
+        <v>3855</v>
+      </c>
+      <c r="C367" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="D367" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="44"/>
+      <c r="B368" s="60">
+        <v>3857</v>
+      </c>
+      <c r="C368" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="D368" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="44"/>
+      <c r="B369" s="60">
+        <v>3858</v>
+      </c>
+      <c r="C369" s="60" t="s">
+        <v>271</v>
+      </c>
+      <c r="D369" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="44"/>
+      <c r="B370" s="60">
+        <v>3865</v>
+      </c>
+      <c r="C370" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="D370" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="44"/>
+      <c r="B371" s="60">
+        <v>3868</v>
+      </c>
+      <c r="C371" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="D371" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="44"/>
+      <c r="B372" s="60">
+        <v>3872</v>
+      </c>
+      <c r="C372" s="60" t="s">
+        <v>272</v>
+      </c>
+      <c r="D372" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="44"/>
+      <c r="B373" s="60">
+        <v>3873</v>
+      </c>
+      <c r="C373" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="D373" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="44"/>
+      <c r="B374" s="60">
+        <v>3874</v>
+      </c>
+      <c r="C374" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="D374" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="44"/>
+      <c r="B375" s="60">
+        <v>3875</v>
+      </c>
+      <c r="C375" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="D375" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="44"/>
+      <c r="B376" s="60">
+        <v>3876</v>
+      </c>
+      <c r="C376" s="60" t="s">
+        <v>275</v>
+      </c>
+      <c r="D376" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="44"/>
+      <c r="B377" s="60">
+        <v>3881</v>
+      </c>
+      <c r="C377" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="D377" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="44"/>
+      <c r="B378" s="60">
+        <v>3884</v>
+      </c>
+      <c r="C378" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="D378" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="44"/>
+      <c r="B379" s="60">
+        <v>3886</v>
+      </c>
+      <c r="C379" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="D379" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="44"/>
+      <c r="B380" s="60">
+        <v>3888</v>
+      </c>
+      <c r="C380" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="D380" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="44"/>
+      <c r="B381" s="60">
+        <v>3889</v>
+      </c>
+      <c r="C381" s="60" t="s">
+        <v>278</v>
+      </c>
+      <c r="D381" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="44"/>
+      <c r="B382" s="60">
+        <v>3891</v>
+      </c>
+      <c r="C382" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D382" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="44"/>
+      <c r="B383" s="60">
+        <v>3893</v>
+      </c>
+      <c r="C383" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="D383" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="44"/>
+      <c r="B384" s="60">
+        <v>3896</v>
+      </c>
+      <c r="C384" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D384" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="44"/>
+      <c r="B385" s="60">
+        <v>3897</v>
+      </c>
+      <c r="C385" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D385" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="44"/>
+      <c r="B386" s="26">
+        <v>3898</v>
+      </c>
+      <c r="C386" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="D386" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="44"/>
+      <c r="B387" s="26">
+        <v>3899</v>
+      </c>
+      <c r="C387" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D387" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="44"/>
+      <c r="B388" s="42">
+        <v>3900</v>
+      </c>
+      <c r="C388" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="D388" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="44"/>
+      <c r="B389" s="26">
+        <v>3901</v>
+      </c>
+      <c r="C389" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="D389" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="44"/>
+      <c r="B390" s="26">
+        <v>3902</v>
+      </c>
+      <c r="C390" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="D390" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="44"/>
+      <c r="B391" s="26">
+        <v>3904</v>
+      </c>
+      <c r="C391" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="D391" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="44"/>
+      <c r="B392" s="26">
+        <v>3906</v>
+      </c>
+      <c r="C392" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="D392" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" s="44"/>
+      <c r="B393" s="26">
+        <v>3908</v>
+      </c>
+      <c r="C393" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="D393" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" s="44"/>
+      <c r="B394" s="26">
+        <v>3910</v>
+      </c>
+      <c r="C394" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="D394" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" s="44"/>
+      <c r="B395" s="60">
+        <v>3911</v>
+      </c>
+      <c r="C395" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="D395" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" s="44"/>
+      <c r="B396" s="60">
+        <v>3912</v>
+      </c>
+      <c r="C396" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="D396" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" s="44"/>
+      <c r="B397" s="60">
+        <v>3914</v>
+      </c>
+      <c r="C397" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="D397" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" s="44"/>
+      <c r="B398" s="60">
+        <v>3918</v>
+      </c>
+      <c r="C398" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="D398" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" s="44"/>
+      <c r="B399" s="60">
+        <v>3920</v>
+      </c>
+      <c r="C399" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="D399" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" s="44"/>
+      <c r="B400" s="60">
+        <v>3922</v>
+      </c>
+      <c r="C400" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="D400" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" s="44"/>
+      <c r="B401" s="60">
+        <v>3924</v>
+      </c>
+      <c r="C401" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="D401" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" s="44"/>
+      <c r="B402" s="60">
+        <v>3925</v>
+      </c>
+      <c r="C402" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="D402" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" s="44"/>
+      <c r="B403" s="60">
+        <v>3929</v>
+      </c>
+      <c r="C403" s="60" t="s">
+        <v>268</v>
+      </c>
+      <c r="D403" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" s="44"/>
+      <c r="B404" s="60">
+        <v>3933</v>
+      </c>
+      <c r="C404" s="60" t="s">
+        <v>268</v>
+      </c>
+      <c r="D404" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" s="44"/>
+      <c r="B405" s="60">
+        <v>3934</v>
+      </c>
+      <c r="C405" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="D405" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="44"/>
+      <c r="B406" s="60">
+        <v>3935</v>
+      </c>
+      <c r="C406" s="60" t="s">
+        <v>289</v>
+      </c>
+      <c r="D406" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" s="44"/>
+      <c r="B407" s="60">
+        <v>3936</v>
+      </c>
+      <c r="C407" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="D407" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="44"/>
+      <c r="B408" s="60">
+        <v>3937</v>
+      </c>
+      <c r="C408" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="D408" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="44"/>
+      <c r="B409" s="60">
+        <v>3938</v>
+      </c>
+      <c r="C409" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="D409" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" s="44"/>
+      <c r="B410" s="60">
+        <v>3939</v>
+      </c>
+      <c r="C410" s="60" t="s">
+        <v>291</v>
+      </c>
+      <c r="D410" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" s="44"/>
+      <c r="B411" s="60">
+        <v>3944</v>
+      </c>
+      <c r="C411" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="D411" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" s="44"/>
+      <c r="B412" s="60">
+        <v>3945</v>
+      </c>
+      <c r="C412" s="60" t="s">
+        <v>293</v>
+      </c>
+      <c r="D412" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" s="44"/>
+      <c r="B413" s="60">
+        <v>3949</v>
+      </c>
+      <c r="C413" s="60" t="s">
+        <v>294</v>
+      </c>
+      <c r="D413" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" s="44"/>
+      <c r="B414" s="60">
+        <v>3952</v>
+      </c>
+      <c r="C414" s="60" t="s">
+        <v>295</v>
+      </c>
+      <c r="D414" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" s="44"/>
+      <c r="B415" s="60">
+        <v>3963</v>
+      </c>
+      <c r="C415" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="D415" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="44"/>
+      <c r="B416" s="60">
+        <v>3964</v>
+      </c>
+      <c r="C416" s="60" t="s">
+        <v>296</v>
+      </c>
+      <c r="D416" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="44"/>
+      <c r="B417" s="42">
+        <v>3969</v>
+      </c>
+      <c r="C417" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="D417" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="44"/>
+      <c r="B418" s="42"/>
+      <c r="C418" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D359" s="41" t="s">
+      <c r="D418" s="41" t="s">
         <v>112</v>
       </c>
     </row>
@@ -6352,7 +7177,7 @@
     <mergeCell ref="A4:A137"/>
     <mergeCell ref="A138:A237"/>
     <mergeCell ref="A238:A300"/>
-    <mergeCell ref="A301:A359"/>
+    <mergeCell ref="A301:A418"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/revision.xlsx
+++ b/revision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9555"/>
+    <workbookView windowWidth="30720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1636,7 +1636,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1815,9 +1815,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2141,15 +2138,15 @@
   <sheetPr/>
   <dimension ref="A1:N418"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="D394" sqref="D394"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="12.6637168141593" style="2" customWidth="1"/>
-    <col min="3" max="3" width="62.5575221238938" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.5575221238938" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.6666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="62.5555555555556" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.5555555555556" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4010,7 +4007,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="154" ht="15.75" spans="1:4">
+    <row r="154" ht="15.6" spans="1:4">
       <c r="A154" s="44"/>
       <c r="B154" s="2">
         <v>1397</v>
@@ -6358,10 +6355,10 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="44"/>
-      <c r="B351" s="60">
+      <c r="B351" s="26">
         <v>3713</v>
       </c>
-      <c r="C351" s="60" t="s">
+      <c r="C351" s="26" t="s">
         <v>257</v>
       </c>
       <c r="D351" s="31" t="s">
@@ -6370,10 +6367,10 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="44"/>
-      <c r="B352" s="60">
+      <c r="B352" s="26">
         <v>3719</v>
       </c>
-      <c r="C352" s="60" t="s">
+      <c r="C352" s="26" t="s">
         <v>258</v>
       </c>
       <c r="D352" s="31" t="s">
@@ -6382,7 +6379,7 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="44"/>
-      <c r="B353" s="60">
+      <c r="B353" s="26">
         <v>3736</v>
       </c>
       <c r="C353" s="26" t="s">
@@ -6394,10 +6391,10 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="44"/>
-      <c r="B354" s="60">
+      <c r="B354" s="26">
         <v>3738</v>
       </c>
-      <c r="C354" s="60" t="s">
+      <c r="C354" s="26" t="s">
         <v>259</v>
       </c>
       <c r="D354" s="31" t="s">
@@ -6526,7 +6523,7 @@
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="44"/>
-      <c r="B365" s="60">
+      <c r="B365" s="26">
         <v>3849</v>
       </c>
       <c r="C365" s="26" t="s">
@@ -6538,7 +6535,7 @@
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="44"/>
-      <c r="B366" s="60">
+      <c r="B366" s="26">
         <v>3850</v>
       </c>
       <c r="C366" s="26" t="s">
@@ -6550,7 +6547,7 @@
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="44"/>
-      <c r="B367" s="60">
+      <c r="B367" s="26">
         <v>3855</v>
       </c>
       <c r="C367" s="26" t="s">
@@ -6562,7 +6559,7 @@
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="44"/>
-      <c r="B368" s="60">
+      <c r="B368" s="26">
         <v>3857</v>
       </c>
       <c r="C368" s="26" t="s">
@@ -6574,10 +6571,10 @@
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="44"/>
-      <c r="B369" s="60">
+      <c r="B369" s="26">
         <v>3858</v>
       </c>
-      <c r="C369" s="60" t="s">
+      <c r="C369" s="26" t="s">
         <v>271</v>
       </c>
       <c r="D369" s="31" t="s">
@@ -6586,7 +6583,7 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="44"/>
-      <c r="B370" s="60">
+      <c r="B370" s="26">
         <v>3865</v>
       </c>
       <c r="C370" s="26" t="s">
@@ -6598,7 +6595,7 @@
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="44"/>
-      <c r="B371" s="60">
+      <c r="B371" s="26">
         <v>3868</v>
       </c>
       <c r="C371" s="26" t="s">
@@ -6610,10 +6607,10 @@
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="44"/>
-      <c r="B372" s="60">
+      <c r="B372" s="26">
         <v>3872</v>
       </c>
-      <c r="C372" s="60" t="s">
+      <c r="C372" s="26" t="s">
         <v>272</v>
       </c>
       <c r="D372" s="31" t="s">
@@ -6622,7 +6619,7 @@
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="44"/>
-      <c r="B373" s="60">
+      <c r="B373" s="26">
         <v>3873</v>
       </c>
       <c r="C373" s="26" t="s">
@@ -6634,7 +6631,7 @@
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="44"/>
-      <c r="B374" s="60">
+      <c r="B374" s="26">
         <v>3874</v>
       </c>
       <c r="C374" s="26" t="s">
@@ -6646,7 +6643,7 @@
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="44"/>
-      <c r="B375" s="60">
+      <c r="B375" s="26">
         <v>3875</v>
       </c>
       <c r="C375" s="26" t="s">
@@ -6658,10 +6655,10 @@
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="44"/>
-      <c r="B376" s="60">
+      <c r="B376" s="26">
         <v>3876</v>
       </c>
-      <c r="C376" s="60" t="s">
+      <c r="C376" s="26" t="s">
         <v>275</v>
       </c>
       <c r="D376" s="31" t="s">
@@ -6670,7 +6667,7 @@
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="44"/>
-      <c r="B377" s="60">
+      <c r="B377" s="26">
         <v>3881</v>
       </c>
       <c r="C377" s="26" t="s">
@@ -6682,7 +6679,7 @@
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="44"/>
-      <c r="B378" s="60">
+      <c r="B378" s="26">
         <v>3884</v>
       </c>
       <c r="C378" s="26" t="s">
@@ -6694,7 +6691,7 @@
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="44"/>
-      <c r="B379" s="60">
+      <c r="B379" s="26">
         <v>3886</v>
       </c>
       <c r="C379" s="26" t="s">
@@ -6706,7 +6703,7 @@
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="44"/>
-      <c r="B380" s="60">
+      <c r="B380" s="26">
         <v>3888</v>
       </c>
       <c r="C380" s="26" t="s">
@@ -6718,10 +6715,10 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="44"/>
-      <c r="B381" s="60">
+      <c r="B381" s="26">
         <v>3889</v>
       </c>
-      <c r="C381" s="60" t="s">
+      <c r="C381" s="26" t="s">
         <v>278</v>
       </c>
       <c r="D381" s="31" t="s">
@@ -6730,7 +6727,7 @@
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="44"/>
-      <c r="B382" s="60">
+      <c r="B382" s="26">
         <v>3891</v>
       </c>
       <c r="C382" s="26" t="s">
@@ -6742,7 +6739,7 @@
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="44"/>
-      <c r="B383" s="60">
+      <c r="B383" s="26">
         <v>3893</v>
       </c>
       <c r="C383" s="26" t="s">
@@ -6754,7 +6751,7 @@
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="44"/>
-      <c r="B384" s="60">
+      <c r="B384" s="26">
         <v>3896</v>
       </c>
       <c r="C384" s="26" t="s">
@@ -6766,7 +6763,7 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="44"/>
-      <c r="B385" s="60">
+      <c r="B385" s="26">
         <v>3897</v>
       </c>
       <c r="C385" s="26" t="s">
@@ -6886,7 +6883,7 @@
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="44"/>
-      <c r="B395" s="60">
+      <c r="B395" s="26">
         <v>3911</v>
       </c>
       <c r="C395" s="26" t="s">
@@ -6898,7 +6895,7 @@
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="44"/>
-      <c r="B396" s="60">
+      <c r="B396" s="26">
         <v>3912</v>
       </c>
       <c r="C396" s="26" t="s">
@@ -6910,7 +6907,7 @@
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="44"/>
-      <c r="B397" s="60">
+      <c r="B397" s="26">
         <v>3914</v>
       </c>
       <c r="C397" s="26" t="s">
@@ -6922,10 +6919,10 @@
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="44"/>
-      <c r="B398" s="60">
+      <c r="B398" s="26">
         <v>3918</v>
       </c>
-      <c r="C398" s="60" t="s">
+      <c r="C398" s="26" t="s">
         <v>287</v>
       </c>
       <c r="D398" s="31" t="s">
@@ -6934,7 +6931,7 @@
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="44"/>
-      <c r="B399" s="60">
+      <c r="B399" s="26">
         <v>3920</v>
       </c>
       <c r="C399" s="26" t="s">
@@ -6946,7 +6943,7 @@
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="44"/>
-      <c r="B400" s="60">
+      <c r="B400" s="26">
         <v>3922</v>
       </c>
       <c r="C400" s="26" t="s">
@@ -6958,7 +6955,7 @@
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="44"/>
-      <c r="B401" s="60">
+      <c r="B401" s="26">
         <v>3924</v>
       </c>
       <c r="C401" s="26" t="s">
@@ -6970,7 +6967,7 @@
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="44"/>
-      <c r="B402" s="60">
+      <c r="B402" s="26">
         <v>3925</v>
       </c>
       <c r="C402" s="26" t="s">
@@ -6982,10 +6979,10 @@
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="44"/>
-      <c r="B403" s="60">
+      <c r="B403" s="26">
         <v>3929</v>
       </c>
-      <c r="C403" s="60" t="s">
+      <c r="C403" s="26" t="s">
         <v>268</v>
       </c>
       <c r="D403" s="31" t="s">
@@ -6994,10 +6991,10 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="44"/>
-      <c r="B404" s="60">
+      <c r="B404" s="26">
         <v>3933</v>
       </c>
-      <c r="C404" s="60" t="s">
+      <c r="C404" s="26" t="s">
         <v>268</v>
       </c>
       <c r="D404" s="31" t="s">
@@ -7006,7 +7003,7 @@
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="44"/>
-      <c r="B405" s="60">
+      <c r="B405" s="26">
         <v>3934</v>
       </c>
       <c r="C405" s="26" t="s">
@@ -7018,10 +7015,10 @@
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="44"/>
-      <c r="B406" s="60">
+      <c r="B406" s="26">
         <v>3935</v>
       </c>
-      <c r="C406" s="60" t="s">
+      <c r="C406" s="26" t="s">
         <v>289</v>
       </c>
       <c r="D406" s="31" t="s">
@@ -7030,7 +7027,7 @@
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="44"/>
-      <c r="B407" s="60">
+      <c r="B407" s="26">
         <v>3936</v>
       </c>
       <c r="C407" s="26" t="s">
@@ -7042,10 +7039,10 @@
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="44"/>
-      <c r="B408" s="60">
+      <c r="B408" s="26">
         <v>3937</v>
       </c>
-      <c r="C408" s="60" t="s">
+      <c r="C408" s="26" t="s">
         <v>290</v>
       </c>
       <c r="D408" s="31" t="s">
@@ -7054,10 +7051,10 @@
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="44"/>
-      <c r="B409" s="60">
+      <c r="B409" s="26">
         <v>3938</v>
       </c>
-      <c r="C409" s="60" t="s">
+      <c r="C409" s="26" t="s">
         <v>269</v>
       </c>
       <c r="D409" s="31" t="s">
@@ -7066,10 +7063,10 @@
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="44"/>
-      <c r="B410" s="60">
+      <c r="B410" s="26">
         <v>3939</v>
       </c>
-      <c r="C410" s="60" t="s">
+      <c r="C410" s="26" t="s">
         <v>291</v>
       </c>
       <c r="D410" s="31" t="s">
@@ -7078,10 +7075,10 @@
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="44"/>
-      <c r="B411" s="60">
+      <c r="B411" s="26">
         <v>3944</v>
       </c>
-      <c r="C411" s="60" t="s">
+      <c r="C411" s="26" t="s">
         <v>292</v>
       </c>
       <c r="D411" s="31" t="s">
@@ -7090,10 +7087,10 @@
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="44"/>
-      <c r="B412" s="60">
+      <c r="B412" s="26">
         <v>3945</v>
       </c>
-      <c r="C412" s="60" t="s">
+      <c r="C412" s="26" t="s">
         <v>293</v>
       </c>
       <c r="D412" s="31" t="s">
@@ -7102,10 +7099,10 @@
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="44"/>
-      <c r="B413" s="60">
+      <c r="B413" s="26">
         <v>3949</v>
       </c>
-      <c r="C413" s="60" t="s">
+      <c r="C413" s="26" t="s">
         <v>294</v>
       </c>
       <c r="D413" s="31" t="s">
@@ -7114,10 +7111,10 @@
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="44"/>
-      <c r="B414" s="60">
+      <c r="B414" s="26">
         <v>3952</v>
       </c>
-      <c r="C414" s="60" t="s">
+      <c r="C414" s="26" t="s">
         <v>295</v>
       </c>
       <c r="D414" s="31" t="s">
@@ -7126,7 +7123,7 @@
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="44"/>
-      <c r="B415" s="60">
+      <c r="B415" s="26">
         <v>3963</v>
       </c>
       <c r="C415" s="26" t="s">
@@ -7138,10 +7135,10 @@
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="44"/>
-      <c r="B416" s="60">
+      <c r="B416" s="26">
         <v>3964</v>
       </c>
-      <c r="C416" s="60" t="s">
+      <c r="C416" s="26" t="s">
         <v>296</v>
       </c>
       <c r="D416" s="31" t="s">

--- a/revision.xlsx
+++ b/revision.xlsx
@@ -1951,7 +1951,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2010,6 +2010,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2546,8 +2552,8 @@
   <sheetPr/>
   <dimension ref="A1:N729"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A584" workbookViewId="0">
-      <selection activeCell="C595" sqref="C595"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -2648,11 +2654,11 @@
     </row>
     <row r="9" ht="13.8" spans="1:4">
       <c r="A9" s="14"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="23" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2664,307 +2670,307 @@
       <c r="C10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" hidden="1" spans="1:4">
       <c r="A11" s="14"/>
-      <c r="B11" s="23">
+      <c r="B11" s="25">
         <v>242</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="26" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" hidden="1" spans="1:4">
       <c r="A12" s="14"/>
-      <c r="B12" s="23">
+      <c r="B12" s="25">
         <v>243</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="26" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" hidden="1" spans="1:4">
       <c r="A13" s="14"/>
-      <c r="B13" s="23">
+      <c r="B13" s="25">
         <v>246</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="26" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" hidden="1" spans="1:4">
       <c r="A14" s="14"/>
-      <c r="B14" s="26">
+      <c r="B14" s="28">
         <v>265</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="26" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" ht="13.8" hidden="1" spans="1:4">
       <c r="A15" s="14"/>
-      <c r="B15" s="27">
+      <c r="B15" s="29">
         <v>315</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="31" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" ht="13.8" spans="1:4">
       <c r="A16" s="14"/>
-      <c r="B16" s="30">
+      <c r="B16" s="32">
         <v>393</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="14"/>
-      <c r="B17" s="30">
+      <c r="B17" s="32">
         <v>398</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="13.8" spans="1:4">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36">
         <v>410</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="13.8" spans="1:4">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36">
         <v>415</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="13.8" spans="1:4">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36">
         <v>420</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="13.8" spans="1:4">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36">
         <v>427</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="13.8" spans="1:4">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36">
         <v>428</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="13.8" spans="1:4">
       <c r="A23" s="14"/>
-      <c r="B23" s="34">
+      <c r="B23" s="36">
         <v>431</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="13.8" spans="1:4">
       <c r="A24" s="14"/>
-      <c r="B24" s="34">
+      <c r="B24" s="36">
         <v>441</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="13.8" spans="1:4">
       <c r="A25" s="14"/>
-      <c r="B25" s="34">
+      <c r="B25" s="36">
         <v>443</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="13.8" spans="1:4">
       <c r="A26" s="14"/>
-      <c r="B26" s="34">
+      <c r="B26" s="36">
         <v>449</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="27" hidden="1" spans="1:4">
       <c r="A27" s="14"/>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" hidden="1" spans="1:4">
       <c r="A28" s="14"/>
-      <c r="B28" s="35">
+      <c r="B28" s="37">
         <v>381</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="29" hidden="1" spans="1:4">
       <c r="A29" s="14"/>
-      <c r="B29" s="35">
+      <c r="B29" s="37">
         <v>383</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" hidden="1" spans="1:4">
       <c r="A30" s="14"/>
-      <c r="B30" s="35">
+      <c r="B30" s="37">
         <v>388</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="31" hidden="1" spans="1:4">
       <c r="A31" s="14"/>
-      <c r="B31" s="35">
+      <c r="B31" s="37">
         <v>395</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="32" hidden="1" spans="1:4">
       <c r="A32" s="14"/>
-      <c r="B32" s="35">
+      <c r="B32" s="37">
         <v>396</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" hidden="1" spans="1:4">
       <c r="A33" s="14"/>
-      <c r="B33" s="35">
+      <c r="B33" s="37">
         <v>425</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="34" hidden="1" spans="1:4">
       <c r="A34" s="14"/>
-      <c r="B34" s="35">
+      <c r="B34" s="37">
         <v>426</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="35" hidden="1" spans="1:4">
       <c r="A35" s="14"/>
-      <c r="B35" s="35">
+      <c r="B35" s="37">
         <v>427</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="38" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2982,49 +2988,49 @@
     </row>
     <row r="37" hidden="1" spans="1:4">
       <c r="A37" s="14"/>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="D37" s="40" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" hidden="1" spans="1:4">
       <c r="A38" s="14"/>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="38" t="s">
+      <c r="D38" s="40" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="39" hidden="1" spans="1:4">
       <c r="A39" s="14"/>
-      <c r="B39" s="38">
+      <c r="B39" s="40">
         <v>462</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="38" t="s">
+      <c r="D39" s="40" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="40" hidden="1" spans="1:14">
       <c r="A40" s="14"/>
-      <c r="B40" s="38">
+      <c r="B40" s="40">
         <v>464</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="C40" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="38" t="s">
+      <c r="D40" s="40" t="s">
         <v>35</v>
       </c>
       <c r="L40" s="3"/>
@@ -3033,37 +3039,37 @@
     </row>
     <row r="41" hidden="1" spans="1:4">
       <c r="A41" s="14"/>
-      <c r="B41" s="38">
+      <c r="B41" s="40">
         <v>478</v>
       </c>
-      <c r="C41" s="38" t="s">
+      <c r="C41" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="D41" s="40" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="42" hidden="1" spans="1:4">
       <c r="A42" s="14"/>
-      <c r="B42" s="39">
+      <c r="B42" s="41">
         <v>484</v>
       </c>
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="39" t="s">
+      <c r="D42" s="41" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="14"/>
-      <c r="B43" s="40">
+      <c r="B43" s="42">
         <v>524</v>
       </c>
-      <c r="C43" s="41" t="s">
+      <c r="C43" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="40" t="s">
+      <c r="D43" s="42" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3084,7 +3090,7 @@
       <c r="B45" s="17">
         <v>546</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="33" t="s">
         <v>44</v>
       </c>
       <c r="D45" s="17" t="s">
@@ -3117,229 +3123,229 @@
     </row>
     <row r="48" hidden="1" spans="1:4">
       <c r="A48" s="14"/>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="49" hidden="1" spans="1:4">
       <c r="A49" s="14"/>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D49" s="26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="50" hidden="1" spans="1:4">
       <c r="A50" s="14"/>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="D50" s="26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="51" hidden="1" spans="1:4">
       <c r="A51" s="14"/>
-      <c r="B51" s="23">
+      <c r="B51" s="25">
         <v>523</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="52" hidden="1" spans="1:4">
       <c r="A52" s="14"/>
-      <c r="B52" s="23">
+      <c r="B52" s="25">
         <v>532</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C52" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D52" s="26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="53" hidden="1" spans="1:4">
       <c r="A53" s="14"/>
-      <c r="B53" s="23">
+      <c r="B53" s="25">
         <v>534</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="54" hidden="1" spans="1:4">
       <c r="A54" s="14"/>
-      <c r="B54" s="23">
+      <c r="B54" s="25">
         <v>545</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="55" hidden="1" spans="1:4">
       <c r="A55" s="14"/>
-      <c r="B55" s="23">
+      <c r="B55" s="25">
         <v>566</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C55" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="56" hidden="1" spans="1:4">
       <c r="A56" s="14"/>
-      <c r="B56" s="26">
+      <c r="B56" s="28">
         <v>569</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="C56" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D56" s="42" t="s">
+      <c r="D56" s="44" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="57" hidden="1" spans="1:4">
       <c r="A57" s="14"/>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="23" t="s">
+      <c r="D57" s="25" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="58" hidden="1" spans="1:4">
       <c r="A58" s="14"/>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="25" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="59" hidden="1" spans="1:4">
       <c r="A59" s="14"/>
-      <c r="B59" s="23">
+      <c r="B59" s="25">
         <v>593</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D59" s="23" t="s">
+      <c r="D59" s="25" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="60" hidden="1" spans="1:4">
       <c r="A60" s="14"/>
-      <c r="B60" s="23">
+      <c r="B60" s="25">
         <v>603</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="23" t="s">
+      <c r="D60" s="25" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="61" hidden="1" spans="1:4">
       <c r="A61" s="14"/>
-      <c r="B61" s="23">
+      <c r="B61" s="25">
         <v>606</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C61" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="23" t="s">
+      <c r="D61" s="25" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="62" hidden="1" spans="1:4">
       <c r="A62" s="14"/>
-      <c r="B62" s="23">
+      <c r="B62" s="25">
         <v>607</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="C62" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D62" s="23" t="s">
+      <c r="D62" s="25" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="63" hidden="1" spans="1:4">
       <c r="A63" s="14"/>
-      <c r="B63" s="23">
+      <c r="B63" s="25">
         <v>653</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C63" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="23" t="s">
+      <c r="D63" s="25" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="64" hidden="1" spans="1:4">
       <c r="A64" s="14"/>
-      <c r="B64" s="43">
+      <c r="B64" s="45">
         <v>663</v>
       </c>
-      <c r="C64" s="44" t="s">
+      <c r="C64" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D64" s="43" t="s">
+      <c r="D64" s="45" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="65" hidden="1" spans="1:4">
       <c r="A65" s="14"/>
-      <c r="B65" s="45">
+      <c r="B65" s="47">
         <v>671</v>
       </c>
-      <c r="C65" s="46" t="s">
+      <c r="C65" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D65" s="45" t="s">
+      <c r="D65" s="47" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="66" hidden="1" spans="1:4">
       <c r="A66" s="14"/>
-      <c r="B66" s="45">
+      <c r="B66" s="47">
         <v>711</v>
       </c>
-      <c r="C66" s="46" t="s">
+      <c r="C66" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D66" s="45" t="s">
+      <c r="D66" s="47" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3351,223 +3357,223 @@
       <c r="C67" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D67" s="47" t="s">
+      <c r="D67" s="49" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="68" hidden="1" spans="1:4">
       <c r="A68" s="14"/>
-      <c r="B68" s="23" t="s">
+      <c r="B68" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C68" s="23" t="s">
+      <c r="C68" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D68" s="24" t="s">
+      <c r="D68" s="26" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="69" hidden="1" spans="1:4">
       <c r="A69" s="14"/>
-      <c r="B69" s="23" t="s">
+      <c r="B69" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C69" s="23" t="s">
+      <c r="C69" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D69" s="24" t="s">
+      <c r="D69" s="26" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="70" hidden="1" spans="1:4">
       <c r="A70" s="14"/>
-      <c r="B70" s="23" t="s">
+      <c r="B70" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C70" s="23" t="s">
+      <c r="C70" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="24" t="s">
+      <c r="D70" s="26" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="71" hidden="1" spans="1:4">
       <c r="A71" s="14"/>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C71" s="23" t="s">
+      <c r="C71" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D71" s="24" t="s">
+      <c r="D71" s="26" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="72" hidden="1" spans="1:4">
       <c r="A72" s="14"/>
-      <c r="B72" s="23" t="s">
+      <c r="B72" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C72" s="23" t="s">
+      <c r="C72" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="24" t="s">
+      <c r="D72" s="26" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="73" hidden="1" spans="1:4">
       <c r="A73" s="14"/>
-      <c r="B73" s="23">
+      <c r="B73" s="25">
         <v>664</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C73" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D73" s="24" t="s">
+      <c r="D73" s="26" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="74" hidden="1" spans="1:4">
       <c r="A74" s="14"/>
-      <c r="B74" s="23">
+      <c r="B74" s="25">
         <v>666</v>
       </c>
-      <c r="C74" s="23" t="s">
+      <c r="C74" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D74" s="24" t="s">
+      <c r="D74" s="26" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="75" hidden="1" spans="1:4">
       <c r="A75" s="14"/>
-      <c r="B75" s="23">
+      <c r="B75" s="25">
         <v>697</v>
       </c>
-      <c r="C75" s="23" t="s">
+      <c r="C75" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D75" s="24" t="s">
+      <c r="D75" s="26" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="76" hidden="1" spans="1:4">
       <c r="A76" s="14"/>
-      <c r="B76" s="23">
+      <c r="B76" s="25">
         <v>711</v>
       </c>
-      <c r="C76" s="23" t="s">
+      <c r="C76" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="24" t="s">
+      <c r="D76" s="26" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="77" hidden="1" spans="1:4">
       <c r="A77" s="14"/>
-      <c r="B77" s="23">
+      <c r="B77" s="25">
         <v>716</v>
       </c>
-      <c r="C77" s="23" t="s">
+      <c r="C77" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="D77" s="24" t="s">
+      <c r="D77" s="26" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="78" hidden="1" spans="1:4">
       <c r="A78" s="14"/>
-      <c r="B78" s="23">
+      <c r="B78" s="25">
         <v>717</v>
       </c>
-      <c r="C78" s="23" t="s">
+      <c r="C78" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="D78" s="24" t="s">
+      <c r="D78" s="26" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="79" hidden="1" spans="1:4">
       <c r="A79" s="14"/>
-      <c r="B79" s="26">
+      <c r="B79" s="28">
         <v>719</v>
       </c>
-      <c r="C79" s="26" t="s">
+      <c r="C79" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D79" s="42" t="s">
+      <c r="D79" s="44" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="80" hidden="1" spans="1:4">
       <c r="A80" s="14"/>
-      <c r="B80" s="38" t="s">
+      <c r="B80" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C80" s="38" t="s">
+      <c r="C80" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="D80" s="38" t="s">
+      <c r="D80" s="40" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="81" hidden="1" spans="1:4">
       <c r="A81" s="14"/>
-      <c r="B81" s="38">
+      <c r="B81" s="40">
         <v>730</v>
       </c>
-      <c r="C81" s="38" t="s">
+      <c r="C81" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="D81" s="38" t="s">
+      <c r="D81" s="40" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="82" hidden="1" spans="1:4">
       <c r="A82" s="14"/>
-      <c r="B82" s="38">
+      <c r="B82" s="40">
         <v>763</v>
       </c>
-      <c r="C82" s="38" t="s">
+      <c r="C82" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D82" s="38" t="s">
+      <c r="D82" s="40" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="83" hidden="1" spans="1:4">
       <c r="A83" s="14"/>
-      <c r="B83" s="38">
+      <c r="B83" s="40">
         <v>772</v>
       </c>
-      <c r="C83" s="38" t="s">
+      <c r="C83" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D83" s="38" t="s">
+      <c r="D83" s="40" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="84" hidden="1" spans="1:4">
       <c r="A84" s="14"/>
-      <c r="B84" s="39">
+      <c r="B84" s="41">
         <v>792</v>
       </c>
-      <c r="C84" s="39" t="s">
+      <c r="C84" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="D84" s="38" t="s">
+      <c r="D84" s="40" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="85" ht="13.8" spans="1:4">
       <c r="A85" s="14"/>
-      <c r="B85" s="40" t="s">
+      <c r="B85" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C85" s="40" t="s">
+      <c r="C85" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D85" s="40" t="s">
+      <c r="D85" s="42" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3622,25 +3628,25 @@
     </row>
     <row r="90" hidden="1" spans="1:4">
       <c r="A90" s="14"/>
-      <c r="B90" s="38">
+      <c r="B90" s="40">
         <v>808</v>
       </c>
-      <c r="C90" s="38" t="s">
+      <c r="C90" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="D90" s="38" t="s">
+      <c r="D90" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="91" hidden="1" spans="1:4">
       <c r="A91" s="14"/>
-      <c r="B91" s="38">
+      <c r="B91" s="40">
         <v>814</v>
       </c>
-      <c r="C91" s="38" t="s">
+      <c r="C91" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D91" s="38" t="s">
+      <c r="D91" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3742,390 +3748,390 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="14"/>
-      <c r="B100" s="48">
+      <c r="B100" s="50">
         <v>870</v>
       </c>
-      <c r="C100" s="48" t="s">
+      <c r="C100" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="D100" s="49" t="s">
+      <c r="D100" s="51" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="101" hidden="1" spans="1:4">
       <c r="A101" s="14"/>
-      <c r="B101" s="39">
+      <c r="B101" s="41">
         <v>843</v>
       </c>
-      <c r="C101" s="39" t="s">
+      <c r="C101" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D101" s="39" t="s">
+      <c r="D101" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="102" hidden="1" spans="1:4">
       <c r="A102" s="14"/>
-      <c r="B102" s="38" t="s">
+      <c r="B102" s="40" t="s">
         <v>29</v>
       </c>
       <c r="C102" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D102" s="38" t="s">
+      <c r="D102" s="40" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="103" hidden="1" spans="1:4">
       <c r="A103" s="14"/>
-      <c r="B103" s="38" t="s">
+      <c r="B103" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C103" s="38" t="s">
+      <c r="C103" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D103" s="38" t="s">
+      <c r="D103" s="40" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="104" hidden="1" spans="1:4">
       <c r="A104" s="14"/>
-      <c r="B104" s="38" t="s">
+      <c r="B104" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C104" s="38" t="s">
+      <c r="C104" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="D104" s="38" t="s">
+      <c r="D104" s="40" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="105" hidden="1" spans="1:4">
       <c r="A105" s="14"/>
-      <c r="B105" s="38" t="s">
+      <c r="B105" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C105" s="38" t="s">
+      <c r="C105" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="D105" s="38" t="s">
+      <c r="D105" s="40" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="106" hidden="1" spans="1:4">
       <c r="A106" s="14"/>
-      <c r="B106" s="38">
+      <c r="B106" s="40">
         <v>872</v>
       </c>
-      <c r="C106" s="38" t="s">
+      <c r="C106" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="D106" s="38" t="s">
+      <c r="D106" s="40" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="107" hidden="1" spans="1:4">
       <c r="A107" s="14"/>
-      <c r="B107" s="38">
+      <c r="B107" s="40">
         <v>873</v>
       </c>
-      <c r="C107" s="38" t="s">
+      <c r="C107" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="D107" s="38" t="s">
+      <c r="D107" s="40" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="108" hidden="1" spans="1:4">
       <c r="A108" s="14"/>
-      <c r="B108" s="38">
+      <c r="B108" s="40">
         <v>875</v>
       </c>
-      <c r="C108" s="38" t="s">
+      <c r="C108" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="D108" s="38" t="s">
+      <c r="D108" s="40" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="109" hidden="1" spans="1:4">
       <c r="A109" s="14"/>
-      <c r="B109" s="38">
+      <c r="B109" s="40">
         <v>881</v>
       </c>
-      <c r="C109" s="38" t="s">
+      <c r="C109" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="D109" s="38" t="s">
+      <c r="D109" s="40" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="110" hidden="1" spans="1:4">
       <c r="A110" s="14"/>
-      <c r="B110" s="38">
+      <c r="B110" s="40">
         <v>882</v>
       </c>
-      <c r="C110" s="38" t="s">
+      <c r="C110" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="D110" s="38" t="s">
+      <c r="D110" s="40" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="111" hidden="1" spans="1:4">
       <c r="A111" s="14"/>
-      <c r="B111" s="38">
+      <c r="B111" s="40">
         <v>888</v>
       </c>
-      <c r="C111" s="38" t="s">
+      <c r="C111" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D111" s="38" t="s">
+      <c r="D111" s="40" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="112" hidden="1" spans="1:4">
       <c r="A112" s="14"/>
-      <c r="B112" s="38">
+      <c r="B112" s="40">
         <v>896</v>
       </c>
-      <c r="C112" s="38" t="s">
+      <c r="C112" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="D112" s="38" t="s">
+      <c r="D112" s="40" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="113" hidden="1" spans="1:5">
       <c r="A113" s="14"/>
-      <c r="B113" s="38">
+      <c r="B113" s="40">
         <v>894</v>
       </c>
-      <c r="C113" s="38" t="s">
+      <c r="C113" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="D113" s="38" t="s">
+      <c r="D113" s="40" t="s">
         <v>88</v>
       </c>
       <c r="E113" s="3"/>
     </row>
     <row r="114" hidden="1" spans="1:5">
       <c r="A114" s="14"/>
-      <c r="B114" s="35">
+      <c r="B114" s="37">
         <v>939</v>
       </c>
-      <c r="C114" s="35" t="s">
+      <c r="C114" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D114" s="35" t="s">
+      <c r="D114" s="37" t="s">
         <v>88</v>
       </c>
       <c r="E114" s="3"/>
     </row>
     <row r="115" hidden="1" spans="1:5">
       <c r="A115" s="14"/>
-      <c r="B115" s="35">
+      <c r="B115" s="37">
         <v>877</v>
       </c>
-      <c r="C115" s="35" t="s">
+      <c r="C115" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="D115" s="35" t="s">
+      <c r="D115" s="37" t="s">
         <v>88</v>
       </c>
       <c r="E115" s="3"/>
     </row>
     <row r="116" hidden="1" spans="1:5">
       <c r="A116" s="14"/>
-      <c r="B116" s="38">
+      <c r="B116" s="40">
         <v>879</v>
       </c>
-      <c r="C116" s="38" t="s">
+      <c r="C116" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="D116" s="35" t="s">
+      <c r="D116" s="37" t="s">
         <v>88</v>
       </c>
       <c r="E116" s="3"/>
     </row>
     <row r="117" hidden="1" spans="1:5">
       <c r="A117" s="14"/>
-      <c r="B117" s="38">
+      <c r="B117" s="40">
         <v>881</v>
       </c>
-      <c r="C117" s="38" t="s">
+      <c r="C117" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="D117" s="35" t="s">
+      <c r="D117" s="37" t="s">
         <v>88</v>
       </c>
       <c r="E117" s="3"/>
     </row>
     <row r="118" hidden="1" spans="1:5">
       <c r="A118" s="14"/>
-      <c r="B118" s="38">
+      <c r="B118" s="40">
         <v>887</v>
       </c>
-      <c r="C118" s="38" t="s">
+      <c r="C118" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="D118" s="35" t="s">
+      <c r="D118" s="37" t="s">
         <v>88</v>
       </c>
       <c r="E118" s="3"/>
     </row>
     <row r="119" hidden="1" spans="1:5">
       <c r="A119" s="14"/>
-      <c r="B119" s="38">
+      <c r="B119" s="40">
         <v>890</v>
       </c>
-      <c r="C119" s="38" t="s">
+      <c r="C119" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="D119" s="35" t="s">
+      <c r="D119" s="37" t="s">
         <v>88</v>
       </c>
       <c r="E119" s="3"/>
     </row>
     <row r="120" hidden="1" spans="1:5">
       <c r="A120" s="14"/>
-      <c r="B120" s="38">
+      <c r="B120" s="40">
         <v>901</v>
       </c>
-      <c r="C120" s="38" t="s">
+      <c r="C120" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="D120" s="35" t="s">
+      <c r="D120" s="37" t="s">
         <v>88</v>
       </c>
       <c r="E120" s="3"/>
     </row>
     <row r="121" hidden="1" spans="1:5">
       <c r="A121" s="14"/>
-      <c r="B121" s="38">
+      <c r="B121" s="40">
         <v>903</v>
       </c>
-      <c r="C121" s="38" t="s">
+      <c r="C121" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="D121" s="35" t="s">
+      <c r="D121" s="37" t="s">
         <v>88</v>
       </c>
       <c r="E121" s="3"/>
     </row>
     <row r="122" hidden="1" spans="1:5">
       <c r="A122" s="14"/>
-      <c r="B122" s="38">
+      <c r="B122" s="40">
         <v>919</v>
       </c>
-      <c r="C122" s="38" t="s">
+      <c r="C122" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="D122" s="35" t="s">
+      <c r="D122" s="37" t="s">
         <v>88</v>
       </c>
       <c r="E122" s="3"/>
     </row>
     <row r="123" hidden="1" spans="1:5">
       <c r="A123" s="14"/>
-      <c r="B123" s="38">
+      <c r="B123" s="40">
         <v>921</v>
       </c>
-      <c r="C123" s="38" t="s">
+      <c r="C123" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="D123" s="35" t="s">
+      <c r="D123" s="37" t="s">
         <v>88</v>
       </c>
       <c r="E123" s="3"/>
     </row>
     <row r="124" hidden="1" spans="1:5">
       <c r="A124" s="14"/>
-      <c r="B124" s="38">
+      <c r="B124" s="40">
         <v>926</v>
       </c>
-      <c r="C124" s="38" t="s">
+      <c r="C124" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="D124" s="35" t="s">
+      <c r="D124" s="37" t="s">
         <v>88</v>
       </c>
       <c r="E124" s="3"/>
     </row>
     <row r="125" hidden="1" spans="1:5">
       <c r="A125" s="14"/>
-      <c r="B125" s="38">
+      <c r="B125" s="40">
         <v>928</v>
       </c>
-      <c r="C125" s="38" t="s">
+      <c r="C125" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="D125" s="35" t="s">
+      <c r="D125" s="37" t="s">
         <v>88</v>
       </c>
       <c r="E125" s="3"/>
     </row>
     <row r="126" hidden="1" spans="1:5">
       <c r="A126" s="14"/>
-      <c r="B126" s="39">
+      <c r="B126" s="41">
         <v>938</v>
       </c>
-      <c r="C126" s="39" t="s">
+      <c r="C126" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="D126" s="39" t="s">
+      <c r="D126" s="41" t="s">
         <v>88</v>
       </c>
       <c r="E126" s="3"/>
     </row>
     <row r="127" hidden="1" spans="1:5">
       <c r="A127" s="14"/>
-      <c r="B127" s="38" t="s">
+      <c r="B127" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C127" s="38" t="s">
+      <c r="C127" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="D127" s="38" t="s">
+      <c r="D127" s="40" t="s">
         <v>113</v>
       </c>
       <c r="E127" s="3"/>
     </row>
     <row r="128" hidden="1" spans="1:5">
       <c r="A128" s="14"/>
-      <c r="B128" s="38" t="s">
+      <c r="B128" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C128" s="38" t="s">
+      <c r="C128" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D128" s="38" t="s">
+      <c r="D128" s="40" t="s">
         <v>113</v>
       </c>
       <c r="E128" s="3"/>
     </row>
     <row r="129" hidden="1" spans="1:5">
       <c r="A129" s="14"/>
-      <c r="B129" s="38" t="s">
+      <c r="B129" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C129" s="38" t="s">
+      <c r="C129" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="D129" s="38" t="s">
+      <c r="D129" s="40" t="s">
         <v>113</v>
       </c>
       <c r="E129" s="3"/>
     </row>
     <row r="130" hidden="1" spans="1:5">
       <c r="A130" s="14"/>
-      <c r="B130" s="38">
+      <c r="B130" s="40">
         <v>941</v>
       </c>
-      <c r="C130" s="38" t="s">
+      <c r="C130" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="D130" s="38" t="s">
+      <c r="D130" s="40" t="s">
         <v>113</v>
       </c>
       <c r="E130" s="3"/>
@@ -4171,13 +4177,13 @@
     </row>
     <row r="134" hidden="1" spans="1:5">
       <c r="A134" s="14"/>
-      <c r="B134" s="38">
+      <c r="B134" s="40">
         <v>950</v>
       </c>
-      <c r="C134" s="38" t="s">
+      <c r="C134" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="D134" s="38" t="s">
+      <c r="D134" s="40" t="s">
         <v>113</v>
       </c>
       <c r="E134" s="3"/>
@@ -4262,13 +4268,13 @@
     </row>
     <row r="141" hidden="1" spans="1:5">
       <c r="A141" s="14"/>
-      <c r="B141" s="35">
+      <c r="B141" s="37">
         <v>975</v>
       </c>
-      <c r="C141" s="35" t="s">
+      <c r="C141" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="D141" s="35" t="s">
+      <c r="D141" s="37" t="s">
         <v>113</v>
       </c>
       <c r="E141" s="3"/>
@@ -4356,7 +4362,7 @@
       <c r="B148" s="3">
         <v>998</v>
       </c>
-      <c r="C148" s="50" t="s">
+      <c r="C148" s="52" t="s">
         <v>130</v>
       </c>
       <c r="D148" s="3" t="s">
@@ -4417,14 +4423,14 @@
       <c r="E152" s="3"/>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="51"/>
-      <c r="B153" s="49">
+      <c r="A153" s="53"/>
+      <c r="B153" s="51">
         <v>1008</v>
       </c>
-      <c r="C153" s="49" t="s">
+      <c r="C153" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="D153" s="49" t="s">
+      <c r="D153" s="51" t="s">
         <v>113</v>
       </c>
       <c r="E153" s="3"/>
@@ -4433,157 +4439,157 @@
       <c r="A154" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B154" s="52"/>
-      <c r="C154" s="52" t="s">
+      <c r="B154" s="54"/>
+      <c r="C154" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D154" s="53" t="s">
+      <c r="D154" s="55" t="s">
         <v>7</v>
       </c>
       <c r="E154" s="3"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="54"/>
-      <c r="B155" s="40">
+      <c r="A155" s="56"/>
+      <c r="B155" s="42">
         <v>1111</v>
       </c>
       <c r="C155" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D155" s="55" t="s">
+      <c r="D155" s="57" t="s">
         <v>9</v>
       </c>
       <c r="E155" s="3"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="54"/>
-      <c r="B156" s="34">
+      <c r="A156" s="56"/>
+      <c r="B156" s="36">
         <v>1115</v>
       </c>
-      <c r="C156" s="34" t="s">
+      <c r="C156" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D156" s="56" t="s">
+      <c r="D156" s="58" t="s">
         <v>9</v>
       </c>
       <c r="E156" s="3"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="54"/>
-      <c r="B157" s="34">
+      <c r="A157" s="56"/>
+      <c r="B157" s="36">
         <v>1125</v>
       </c>
-      <c r="C157" s="34" t="s">
+      <c r="C157" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="D157" s="56" t="s">
+      <c r="D157" s="58" t="s">
         <v>9</v>
       </c>
       <c r="E157" s="3"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="54"/>
-      <c r="B158" s="34">
+      <c r="A158" s="56"/>
+      <c r="B158" s="36">
         <v>1126</v>
       </c>
-      <c r="C158" s="34" t="s">
+      <c r="C158" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="D158" s="56" t="s">
+      <c r="D158" s="58" t="s">
         <v>9</v>
       </c>
       <c r="E158" s="3"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="54"/>
-      <c r="B159" s="34">
+      <c r="A159" s="56"/>
+      <c r="B159" s="36">
         <v>1129</v>
       </c>
-      <c r="C159" s="34" t="s">
+      <c r="C159" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="D159" s="56" t="s">
+      <c r="D159" s="58" t="s">
         <v>9</v>
       </c>
       <c r="E159" s="3"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="54"/>
-      <c r="B160" s="34">
+      <c r="A160" s="56"/>
+      <c r="B160" s="36">
         <v>1134</v>
       </c>
-      <c r="C160" s="34" t="s">
+      <c r="C160" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="D160" s="56" t="s">
+      <c r="D160" s="58" t="s">
         <v>9</v>
       </c>
       <c r="E160" s="3"/>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="54"/>
-      <c r="B161" s="34">
+      <c r="A161" s="56"/>
+      <c r="B161" s="36">
         <v>1143</v>
       </c>
-      <c r="C161" s="34" t="s">
+      <c r="C161" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="D161" s="56" t="s">
+      <c r="D161" s="58" t="s">
         <v>9</v>
       </c>
       <c r="E161" s="3"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="54"/>
-      <c r="B162" s="34">
+      <c r="A162" s="56"/>
+      <c r="B162" s="36">
         <v>1150</v>
       </c>
-      <c r="C162" s="34" t="s">
+      <c r="C162" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="D162" s="56" t="s">
+      <c r="D162" s="58" t="s">
         <v>9</v>
       </c>
       <c r="E162" s="3"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="54"/>
-      <c r="B163" s="34">
+      <c r="A163" s="56"/>
+      <c r="B163" s="36">
         <v>1167</v>
       </c>
-      <c r="C163" s="34" t="s">
+      <c r="C163" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="D163" s="56" t="s">
+      <c r="D163" s="58" t="s">
         <v>9</v>
       </c>
       <c r="E163" s="3"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="54"/>
-      <c r="B164" s="34">
+      <c r="A164" s="56"/>
+      <c r="B164" s="36">
         <v>1171</v>
       </c>
-      <c r="C164" s="34" t="s">
+      <c r="C164" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="D164" s="56" t="s">
+      <c r="D164" s="58" t="s">
         <v>9</v>
       </c>
       <c r="E164" s="3"/>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="54"/>
+      <c r="A165" s="56"/>
       <c r="B165" s="9"/>
-      <c r="C165" s="57" t="s">
+      <c r="C165" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="D165" s="58" t="s">
+      <c r="D165" s="60" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="166" hidden="1" spans="1:4">
-      <c r="A166" s="54"/>
+      <c r="A166" s="56"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11" t="s">
         <v>6</v>
@@ -4593,1310 +4599,1310 @@
       </c>
     </row>
     <row r="167" ht="13.8" spans="1:4">
-      <c r="A167" s="54"/>
-      <c r="B167" s="59">
+      <c r="A167" s="56"/>
+      <c r="B167" s="61">
         <v>1327</v>
       </c>
-      <c r="C167" s="59" t="s">
+      <c r="C167" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="D167" s="60" t="s">
+      <c r="D167" s="62" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="168" ht="13.8" spans="1:4">
-      <c r="A168" s="54"/>
-      <c r="B168" s="59">
+      <c r="A168" s="56"/>
+      <c r="B168" s="61">
         <v>1330</v>
       </c>
-      <c r="C168" s="59" t="s">
+      <c r="C168" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="D168" s="60" t="s">
+      <c r="D168" s="62" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="169" ht="13.8" spans="1:4">
-      <c r="A169" s="54"/>
-      <c r="B169" s="59">
+      <c r="A169" s="56"/>
+      <c r="B169" s="61">
         <v>1342</v>
       </c>
-      <c r="C169" s="59" t="s">
+      <c r="C169" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="D169" s="60" t="s">
+      <c r="D169" s="62" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="170" ht="13.8" spans="1:4">
-      <c r="A170" s="54"/>
-      <c r="B170" s="59">
+      <c r="A170" s="56"/>
+      <c r="B170" s="61">
         <v>1355</v>
       </c>
-      <c r="C170" s="59" t="s">
+      <c r="C170" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="D170" s="60" t="s">
+      <c r="D170" s="62" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="171" ht="13.8" spans="1:4">
-      <c r="A171" s="54"/>
-      <c r="B171" s="61">
+      <c r="A171" s="56"/>
+      <c r="B171" s="63">
         <v>1375</v>
       </c>
-      <c r="C171" s="61" t="s">
+      <c r="C171" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="D171" s="62" t="s">
+      <c r="D171" s="64" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="54"/>
+      <c r="A172" s="56"/>
       <c r="B172" s="3">
         <v>1391</v>
       </c>
-      <c r="C172" s="30" t="s">
+      <c r="C172" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="D172" s="56" t="s">
+      <c r="D172" s="58" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="54"/>
+      <c r="A173" s="56"/>
       <c r="B173" s="3">
         <v>1395</v>
       </c>
-      <c r="C173" s="30" t="s">
+      <c r="C173" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="D173" s="56" t="s">
+      <c r="D173" s="58" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="54"/>
+      <c r="A174" s="56"/>
       <c r="B174" s="3">
         <v>1397</v>
       </c>
-      <c r="C174" s="63" t="s">
+      <c r="C174" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="D174" s="56" t="s">
+      <c r="D174" s="58" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="54"/>
+      <c r="A175" s="56"/>
       <c r="B175" s="3">
         <v>1409</v>
       </c>
-      <c r="C175" s="30" t="s">
+      <c r="C175" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="D175" s="56" t="s">
+      <c r="D175" s="58" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="54"/>
+      <c r="A176" s="56"/>
       <c r="B176" s="3">
         <v>1413</v>
       </c>
-      <c r="C176" s="30" t="s">
+      <c r="C176" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="D176" s="56" t="s">
+      <c r="D176" s="58" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="54"/>
+      <c r="A177" s="56"/>
       <c r="B177" s="3">
         <v>1417</v>
       </c>
-      <c r="C177" s="30" t="s">
+      <c r="C177" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="D177" s="56" t="s">
+      <c r="D177" s="58" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="54"/>
+      <c r="A178" s="56"/>
       <c r="B178" s="3">
         <v>1429</v>
       </c>
-      <c r="C178" s="30" t="s">
+      <c r="C178" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="D178" s="56" t="s">
+      <c r="D178" s="58" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="179" hidden="1" spans="1:4">
-      <c r="A179" s="54"/>
-      <c r="B179" s="38">
+      <c r="A179" s="56"/>
+      <c r="B179" s="40">
         <v>1413</v>
       </c>
-      <c r="C179" s="35" t="s">
+      <c r="C179" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D179" s="64" t="s">
+      <c r="D179" s="66" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="180" hidden="1" spans="1:4">
-      <c r="A180" s="54"/>
-      <c r="B180" s="38">
+      <c r="A180" s="56"/>
+      <c r="B180" s="40">
         <v>1417</v>
       </c>
-      <c r="C180" s="35" t="s">
+      <c r="C180" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D180" s="64" t="s">
+      <c r="D180" s="66" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="181" hidden="1" spans="1:4">
-      <c r="A181" s="54"/>
-      <c r="B181" s="38">
+      <c r="A181" s="56"/>
+      <c r="B181" s="40">
         <v>1424</v>
       </c>
-      <c r="C181" s="35" t="s">
+      <c r="C181" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D181" s="64" t="s">
+      <c r="D181" s="66" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="54"/>
+      <c r="A182" s="56"/>
       <c r="B182" s="3">
         <v>1435</v>
       </c>
-      <c r="C182" s="30" t="s">
+      <c r="C182" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="D182" s="56" t="s">
+      <c r="D182" s="58" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="54"/>
+      <c r="A183" s="56"/>
       <c r="B183" s="3">
         <v>1437</v>
       </c>
-      <c r="C183" s="30" t="s">
+      <c r="C183" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="D183" s="56" t="s">
+      <c r="D183" s="58" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="54"/>
+      <c r="A184" s="56"/>
       <c r="B184" s="3">
         <v>1441</v>
       </c>
-      <c r="C184" s="30" t="s">
+      <c r="C184" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="D184" s="56" t="s">
+      <c r="D184" s="58" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="185" spans="1:4">
-      <c r="A185" s="54"/>
+      <c r="A185" s="56"/>
       <c r="B185" s="3">
         <v>1446</v>
       </c>
-      <c r="C185" s="30" t="s">
+      <c r="C185" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="D185" s="56" t="s">
+      <c r="D185" s="58" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="186" hidden="1" spans="1:4">
-      <c r="A186" s="54"/>
-      <c r="B186" s="35">
+      <c r="A186" s="56"/>
+      <c r="B186" s="37">
         <v>1451</v>
       </c>
-      <c r="C186" s="35" t="s">
+      <c r="C186" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D186" s="64" t="s">
+      <c r="D186" s="66" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="187" spans="1:4">
-      <c r="A187" s="54"/>
-      <c r="B187" s="49">
+      <c r="A187" s="56"/>
+      <c r="B187" s="51">
         <v>1453</v>
       </c>
-      <c r="C187" s="49" t="s">
+      <c r="C187" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="D187" s="65" t="s">
+      <c r="D187" s="67" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="188" spans="1:4">
-      <c r="A188" s="54"/>
-      <c r="B188" s="30" t="s">
+      <c r="A188" s="56"/>
+      <c r="B188" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C188" s="30" t="s">
+      <c r="C188" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="D188" s="56" t="s">
+      <c r="D188" s="58" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="54"/>
-      <c r="B189" s="30" t="s">
+      <c r="A189" s="56"/>
+      <c r="B189" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C189" s="30" t="s">
+      <c r="C189" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="D189" s="56" t="s">
+      <c r="D189" s="58" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="190" spans="1:4">
-      <c r="A190" s="54"/>
-      <c r="B190" s="30">
+      <c r="A190" s="56"/>
+      <c r="B190" s="32">
         <v>1462</v>
       </c>
-      <c r="C190" s="30" t="s">
+      <c r="C190" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="D190" s="56" t="s">
+      <c r="D190" s="58" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="191" spans="1:4">
-      <c r="A191" s="54"/>
-      <c r="B191" s="30">
+      <c r="A191" s="56"/>
+      <c r="B191" s="32">
         <v>1466</v>
       </c>
-      <c r="C191" s="30" t="s">
+      <c r="C191" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D191" s="56" t="s">
+      <c r="D191" s="58" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="192" spans="1:4">
-      <c r="A192" s="54"/>
-      <c r="B192" s="30">
+      <c r="A192" s="56"/>
+      <c r="B192" s="32">
         <v>1467</v>
       </c>
-      <c r="C192" s="30" t="s">
+      <c r="C192" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D192" s="56" t="s">
+      <c r="D192" s="58" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" s="54"/>
-      <c r="B193" s="30">
+      <c r="A193" s="56"/>
+      <c r="B193" s="32">
         <v>1469</v>
       </c>
-      <c r="C193" s="30" t="s">
+      <c r="C193" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D193" s="56" t="s">
+      <c r="D193" s="58" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="194" spans="1:4">
-      <c r="A194" s="54"/>
-      <c r="B194" s="30">
+      <c r="A194" s="56"/>
+      <c r="B194" s="32">
         <v>1470</v>
       </c>
-      <c r="C194" s="30" t="s">
+      <c r="C194" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="D194" s="56" t="s">
+      <c r="D194" s="58" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="195" spans="1:4">
-      <c r="A195" s="54"/>
-      <c r="B195" s="30">
+      <c r="A195" s="56"/>
+      <c r="B195" s="32">
         <v>1472</v>
       </c>
-      <c r="C195" s="30" t="s">
+      <c r="C195" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="D195" s="56" t="s">
+      <c r="D195" s="58" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="196" spans="1:4">
-      <c r="A196" s="54"/>
-      <c r="B196" s="30">
+      <c r="A196" s="56"/>
+      <c r="B196" s="32">
         <v>1474</v>
       </c>
-      <c r="C196" s="30" t="s">
+      <c r="C196" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="D196" s="56" t="s">
+      <c r="D196" s="58" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="197" spans="1:4">
-      <c r="A197" s="54"/>
-      <c r="B197" s="30">
+      <c r="A197" s="56"/>
+      <c r="B197" s="32">
         <v>1477</v>
       </c>
-      <c r="C197" s="30" t="s">
+      <c r="C197" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D197" s="56" t="s">
+      <c r="D197" s="58" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="198" spans="1:4">
-      <c r="A198" s="54"/>
-      <c r="B198" s="30">
+      <c r="A198" s="56"/>
+      <c r="B198" s="32">
         <v>1480</v>
       </c>
-      <c r="C198" s="30" t="s">
+      <c r="C198" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="D198" s="56" t="s">
+      <c r="D198" s="58" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="199" spans="1:4">
-      <c r="A199" s="54"/>
-      <c r="B199" s="30">
+      <c r="A199" s="56"/>
+      <c r="B199" s="32">
         <v>1481</v>
       </c>
-      <c r="C199" s="30" t="s">
+      <c r="C199" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="D199" s="56" t="s">
+      <c r="D199" s="58" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="200" spans="1:4">
-      <c r="A200" s="54"/>
-      <c r="B200" s="30">
+      <c r="A200" s="56"/>
+      <c r="B200" s="32">
         <v>1482</v>
       </c>
-      <c r="C200" s="30" t="s">
+      <c r="C200" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="D200" s="56" t="s">
+      <c r="D200" s="58" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="201" spans="1:4">
-      <c r="A201" s="54"/>
-      <c r="B201" s="30">
+      <c r="A201" s="56"/>
+      <c r="B201" s="32">
         <v>1483</v>
       </c>
-      <c r="C201" s="30" t="s">
+      <c r="C201" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="D201" s="56" t="s">
+      <c r="D201" s="58" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="202" spans="1:4">
-      <c r="A202" s="54"/>
-      <c r="B202" s="30">
+      <c r="A202" s="56"/>
+      <c r="B202" s="32">
         <v>1486</v>
       </c>
-      <c r="C202" s="30" t="s">
+      <c r="C202" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="D202" s="56" t="s">
+      <c r="D202" s="58" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="54"/>
-      <c r="B203" s="30">
+      <c r="A203" s="56"/>
+      <c r="B203" s="32">
         <v>1490</v>
       </c>
-      <c r="C203" s="30" t="s">
+      <c r="C203" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="D203" s="56" t="s">
+      <c r="D203" s="58" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="204" spans="1:4">
-      <c r="A204" s="54"/>
-      <c r="B204" s="30">
+      <c r="A204" s="56"/>
+      <c r="B204" s="32">
         <v>1491</v>
       </c>
-      <c r="C204" s="30" t="s">
+      <c r="C204" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="D204" s="56" t="s">
+      <c r="D204" s="58" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="205" spans="1:4">
-      <c r="A205" s="54"/>
-      <c r="B205" s="30">
+      <c r="A205" s="56"/>
+      <c r="B205" s="32">
         <v>1493</v>
       </c>
-      <c r="C205" s="30" t="s">
+      <c r="C205" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="D205" s="56" t="s">
+      <c r="D205" s="58" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="206" spans="1:4">
-      <c r="A206" s="54"/>
-      <c r="B206" s="30">
+      <c r="A206" s="56"/>
+      <c r="B206" s="32">
         <v>1494</v>
       </c>
-      <c r="C206" s="30" t="s">
+      <c r="C206" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="D206" s="56" t="s">
+      <c r="D206" s="58" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="207" spans="1:4">
-      <c r="A207" s="54"/>
-      <c r="B207" s="30">
+      <c r="A207" s="56"/>
+      <c r="B207" s="32">
         <v>1496</v>
       </c>
-      <c r="C207" s="30" t="s">
+      <c r="C207" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="D207" s="56" t="s">
+      <c r="D207" s="58" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="208" spans="1:4">
-      <c r="A208" s="54"/>
-      <c r="B208" s="30">
+      <c r="A208" s="56"/>
+      <c r="B208" s="32">
         <v>1501</v>
       </c>
-      <c r="C208" s="30" t="s">
+      <c r="C208" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="D208" s="56" t="s">
+      <c r="D208" s="58" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="209" spans="1:4">
-      <c r="A209" s="54"/>
-      <c r="B209" s="30">
+      <c r="A209" s="56"/>
+      <c r="B209" s="32">
         <v>1502</v>
       </c>
-      <c r="C209" s="30" t="s">
+      <c r="C209" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D209" s="56" t="s">
+      <c r="D209" s="58" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="210" spans="1:4">
-      <c r="A210" s="54"/>
-      <c r="B210" s="30">
+      <c r="A210" s="56"/>
+      <c r="B210" s="32">
         <v>1503</v>
       </c>
-      <c r="C210" s="30" t="s">
+      <c r="C210" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="D210" s="56" t="s">
+      <c r="D210" s="58" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="211" spans="1:4">
-      <c r="A211" s="54"/>
-      <c r="B211" s="30">
+      <c r="A211" s="56"/>
+      <c r="B211" s="32">
         <v>1506</v>
       </c>
-      <c r="C211" s="30" t="s">
+      <c r="C211" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="D211" s="56" t="s">
+      <c r="D211" s="58" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="212" spans="1:4">
-      <c r="A212" s="54"/>
-      <c r="B212" s="30">
+      <c r="A212" s="56"/>
+      <c r="B212" s="32">
         <v>1508</v>
       </c>
-      <c r="C212" s="30" t="s">
+      <c r="C212" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="D212" s="56" t="s">
+      <c r="D212" s="58" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="213" spans="1:4">
-      <c r="A213" s="54"/>
-      <c r="B213" s="30">
+      <c r="A213" s="56"/>
+      <c r="B213" s="32">
         <v>1509</v>
       </c>
-      <c r="C213" s="30" t="s">
+      <c r="C213" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="D213" s="56" t="s">
+      <c r="D213" s="58" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="214" spans="1:4">
-      <c r="A214" s="54"/>
-      <c r="B214" s="30">
+      <c r="A214" s="56"/>
+      <c r="B214" s="32">
         <v>1510</v>
       </c>
-      <c r="C214" s="30" t="s">
+      <c r="C214" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="D214" s="56" t="s">
+      <c r="D214" s="58" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="215" spans="1:4">
-      <c r="A215" s="54"/>
-      <c r="B215" s="34">
+      <c r="A215" s="56"/>
+      <c r="B215" s="36">
         <v>1518</v>
       </c>
-      <c r="C215" s="34" t="s">
+      <c r="C215" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="D215" s="56" t="s">
+      <c r="D215" s="58" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="216" spans="1:4">
-      <c r="A216" s="54"/>
-      <c r="B216" s="34">
+      <c r="A216" s="56"/>
+      <c r="B216" s="36">
         <v>1530</v>
       </c>
-      <c r="C216" s="34" t="s">
+      <c r="C216" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="D216" s="56" t="s">
+      <c r="D216" s="58" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="217" spans="1:4">
-      <c r="A217" s="54"/>
-      <c r="B217" s="40">
+      <c r="A217" s="56"/>
+      <c r="B217" s="42">
         <v>1543</v>
       </c>
-      <c r="C217" s="40" t="s">
+      <c r="C217" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="D217" s="55" t="s">
+      <c r="D217" s="57" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="218" spans="1:4">
-      <c r="A218" s="54"/>
-      <c r="B218" s="34">
+      <c r="A218" s="56"/>
+      <c r="B218" s="36">
         <v>1545</v>
       </c>
-      <c r="C218" s="34" t="s">
+      <c r="C218" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="D218" s="56" t="s">
+      <c r="D218" s="58" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="219" spans="1:4">
-      <c r="A219" s="54"/>
-      <c r="B219" s="34">
+      <c r="A219" s="56"/>
+      <c r="B219" s="36">
         <v>1550</v>
       </c>
-      <c r="C219" s="34" t="s">
+      <c r="C219" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="D219" s="56" t="s">
+      <c r="D219" s="58" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="220" spans="1:4">
-      <c r="A220" s="54"/>
-      <c r="B220" s="34">
+      <c r="A220" s="56"/>
+      <c r="B220" s="36">
         <v>1565</v>
       </c>
-      <c r="C220" s="34" t="s">
+      <c r="C220" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="D220" s="56" t="s">
+      <c r="D220" s="58" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="221" spans="1:4">
-      <c r="A221" s="54"/>
-      <c r="B221" s="34">
+      <c r="A221" s="56"/>
+      <c r="B221" s="36">
         <v>1591</v>
       </c>
-      <c r="C221" s="34" t="s">
+      <c r="C221" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="D221" s="56" t="s">
+      <c r="D221" s="58" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="222" spans="1:4">
-      <c r="A222" s="54"/>
-      <c r="B222" s="34">
+      <c r="A222" s="56"/>
+      <c r="B222" s="36">
         <v>1596</v>
       </c>
-      <c r="C222" s="34" t="s">
+      <c r="C222" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="D222" s="56" t="s">
+      <c r="D222" s="58" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="54"/>
-      <c r="B223" s="34">
+      <c r="A223" s="56"/>
+      <c r="B223" s="36">
         <v>1597</v>
       </c>
-      <c r="C223" s="34" t="s">
+      <c r="C223" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="D223" s="56" t="s">
+      <c r="D223" s="58" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="224" hidden="1" spans="1:4">
-      <c r="A224" s="54"/>
-      <c r="B224" s="35">
+      <c r="A224" s="56"/>
+      <c r="B224" s="37">
         <v>1559</v>
       </c>
-      <c r="C224" s="35" t="s">
+      <c r="C224" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="D224" s="64" t="s">
+      <c r="D224" s="66" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="225" hidden="1" spans="1:4">
-      <c r="A225" s="54"/>
-      <c r="B225" s="39">
+      <c r="A225" s="56"/>
+      <c r="B225" s="41">
         <v>1572</v>
       </c>
-      <c r="C225" s="39" t="s">
+      <c r="C225" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="D225" s="66" t="s">
+      <c r="D225" s="68" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="226" hidden="1" spans="1:4">
-      <c r="A226" s="54"/>
-      <c r="B226" s="38">
+      <c r="A226" s="56"/>
+      <c r="B226" s="40">
         <v>1613</v>
       </c>
-      <c r="C226" s="38" t="s">
+      <c r="C226" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="D226" s="64" t="s">
+      <c r="D226" s="66" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="227" hidden="1" spans="1:4">
-      <c r="A227" s="54"/>
-      <c r="B227" s="38">
+      <c r="A227" s="56"/>
+      <c r="B227" s="40">
         <v>1624</v>
       </c>
-      <c r="C227" s="38" t="s">
+      <c r="C227" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="D227" s="64" t="s">
+      <c r="D227" s="66" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="228" hidden="1" spans="1:4">
-      <c r="A228" s="54"/>
-      <c r="B228" s="38">
+      <c r="A228" s="56"/>
+      <c r="B228" s="40">
         <v>1658</v>
       </c>
-      <c r="C228" s="38" t="s">
+      <c r="C228" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="D228" s="64" t="s">
+      <c r="D228" s="66" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="229" hidden="1" spans="1:4">
-      <c r="A229" s="54"/>
-      <c r="B229" s="35">
+      <c r="A229" s="56"/>
+      <c r="B229" s="37">
         <v>1663</v>
       </c>
-      <c r="C229" s="35" t="s">
+      <c r="C229" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="D229" s="64" t="s">
+      <c r="D229" s="66" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="230" hidden="1" spans="1:4">
-      <c r="A230" s="54"/>
-      <c r="B230" s="39">
+      <c r="A230" s="56"/>
+      <c r="B230" s="41">
         <v>1669</v>
       </c>
-      <c r="C230" s="39" t="s">
+      <c r="C230" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="D230" s="66" t="s">
+      <c r="D230" s="68" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="231" hidden="1" spans="1:4">
-      <c r="A231" s="54"/>
+      <c r="A231" s="56"/>
       <c r="B231" s="15">
         <v>1677</v>
       </c>
       <c r="C231" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D231" s="67" t="s">
+      <c r="D231" s="69" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="232" spans="1:4">
-      <c r="A232" s="54"/>
-      <c r="B232" s="68">
+      <c r="A232" s="56"/>
+      <c r="B232" s="70">
         <v>1694</v>
       </c>
-      <c r="C232" s="68" t="s">
+      <c r="C232" s="70" t="s">
         <v>179</v>
       </c>
-      <c r="D232" s="55" t="s">
+      <c r="D232" s="57" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="233" spans="1:4">
-      <c r="A233" s="54"/>
+      <c r="A233" s="56"/>
       <c r="B233" s="3">
         <v>1704</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D233" s="56" t="s">
+      <c r="D233" s="58" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="234" spans="1:4">
-      <c r="A234" s="54"/>
+      <c r="A234" s="56"/>
       <c r="B234" s="3">
         <v>1708</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D234" s="56" t="s">
+      <c r="D234" s="58" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="235" spans="1:4">
-      <c r="A235" s="54"/>
+      <c r="A235" s="56"/>
       <c r="B235" s="3">
         <v>1709</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D235" s="56" t="s">
+      <c r="D235" s="58" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="236" spans="1:4">
-      <c r="A236" s="54"/>
+      <c r="A236" s="56"/>
       <c r="B236" s="3">
         <v>1710</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D236" s="56" t="s">
+      <c r="D236" s="58" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="237" hidden="1" spans="1:4">
-      <c r="A237" s="54"/>
-      <c r="B237" s="38">
+      <c r="A237" s="56"/>
+      <c r="B237" s="40">
         <v>1718</v>
       </c>
-      <c r="C237" s="38" t="s">
+      <c r="C237" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="D237" s="64" t="s">
+      <c r="D237" s="66" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="238" spans="1:4">
-      <c r="A238" s="54"/>
+      <c r="A238" s="56"/>
       <c r="B238" s="3">
         <v>1719</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D238" s="56" t="s">
+      <c r="D238" s="58" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="239" spans="1:4">
-      <c r="A239" s="54"/>
+      <c r="A239" s="56"/>
       <c r="B239" s="3">
         <v>1720</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D239" s="56" t="s">
+      <c r="D239" s="58" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="240" spans="1:4">
-      <c r="A240" s="54"/>
+      <c r="A240" s="56"/>
       <c r="B240" s="3">
         <v>1722</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D240" s="56" t="s">
+      <c r="D240" s="58" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="241" spans="1:4">
-      <c r="A241" s="54"/>
+      <c r="A241" s="56"/>
       <c r="B241" s="3">
         <v>1726</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D241" s="56" t="s">
+      <c r="D241" s="58" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="242" spans="1:4">
-      <c r="A242" s="54"/>
+      <c r="A242" s="56"/>
       <c r="B242" s="3">
         <v>1732</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D242" s="56" t="s">
+      <c r="D242" s="58" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="243" spans="1:4">
-      <c r="A243" s="54"/>
-      <c r="B243" s="30">
+      <c r="A243" s="56"/>
+      <c r="B243" s="32">
         <v>1734</v>
       </c>
-      <c r="C243" s="30" t="s">
+      <c r="C243" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="D243" s="56" t="s">
+      <c r="D243" s="58" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="244" spans="1:4">
-      <c r="A244" s="54"/>
-      <c r="B244" s="49">
+      <c r="A244" s="56"/>
+      <c r="B244" s="51">
         <v>1736</v>
       </c>
-      <c r="C244" s="49" t="s">
+      <c r="C244" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="D244" s="65" t="s">
+      <c r="D244" s="67" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="245" hidden="1" spans="1:4">
-      <c r="A245" s="54"/>
-      <c r="B245" s="35" t="s">
+      <c r="A245" s="56"/>
+      <c r="B245" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="C245" s="39" t="s">
+      <c r="C245" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D245" s="64" t="s">
+      <c r="D245" s="66" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="246" s="1" customFormat="1" ht="13.8" spans="1:4">
-      <c r="A246" s="69"/>
-      <c r="B246" s="34">
+      <c r="A246" s="71"/>
+      <c r="B246" s="36">
         <v>1812</v>
       </c>
-      <c r="C246" s="34" t="s">
+      <c r="C246" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D246" s="56" t="s">
+      <c r="D246" s="58" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="247" s="1" customFormat="1" ht="13.8" spans="1:4">
-      <c r="A247" s="69"/>
-      <c r="B247" s="30">
+      <c r="A247" s="71"/>
+      <c r="B247" s="32">
         <v>1829</v>
       </c>
-      <c r="C247" s="31" t="s">
+      <c r="C247" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="D247" s="56" t="s">
+      <c r="D247" s="58" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="248" s="1" customFormat="1" ht="13.8" spans="1:4">
-      <c r="A248" s="69"/>
-      <c r="B248" s="30">
+      <c r="A248" s="71"/>
+      <c r="B248" s="32">
         <v>1831</v>
       </c>
-      <c r="C248" s="31" t="s">
+      <c r="C248" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="D248" s="56" t="s">
+      <c r="D248" s="58" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="249" s="1" customFormat="1" ht="13.8" spans="1:4">
-      <c r="A249" s="69"/>
-      <c r="B249" s="34">
+      <c r="A249" s="71"/>
+      <c r="B249" s="36">
         <v>1846</v>
       </c>
-      <c r="C249" s="34" t="s">
+      <c r="C249" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D249" s="56" t="s">
+      <c r="D249" s="58" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="250" s="1" customFormat="1" ht="13.8" spans="1:4">
-      <c r="A250" s="69"/>
-      <c r="B250" s="48">
+      <c r="A250" s="71"/>
+      <c r="B250" s="50">
         <v>1852</v>
       </c>
-      <c r="C250" s="48" t="s">
+      <c r="C250" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="D250" s="65" t="s">
+      <c r="D250" s="67" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="251" ht="13.8" hidden="1" spans="1:4">
-      <c r="A251" s="54"/>
-      <c r="B251" s="45">
+      <c r="A251" s="56"/>
+      <c r="B251" s="47">
         <v>1881</v>
       </c>
-      <c r="C251" s="46" t="s">
+      <c r="C251" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="D251" s="70" t="s">
+      <c r="D251" s="72" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="252" hidden="1" spans="1:4">
-      <c r="A252" s="54"/>
-      <c r="B252" s="45">
+      <c r="A252" s="56"/>
+      <c r="B252" s="47">
         <v>1895</v>
       </c>
-      <c r="C252" s="46" t="s">
+      <c r="C252" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="D252" s="70" t="s">
+      <c r="D252" s="72" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="253" ht="13.8" hidden="1" spans="1:4">
-      <c r="A253" s="54"/>
-      <c r="B253" s="45">
+      <c r="A253" s="56"/>
+      <c r="B253" s="47">
         <v>1897</v>
       </c>
-      <c r="C253" s="46" t="s">
+      <c r="C253" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="D253" s="70" t="s">
+      <c r="D253" s="72" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="254" hidden="1" spans="1:4">
-      <c r="A254" s="54"/>
-      <c r="B254" s="45">
+      <c r="A254" s="56"/>
+      <c r="B254" s="47">
         <v>1906</v>
       </c>
-      <c r="C254" s="46" t="s">
+      <c r="C254" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="D254" s="70" t="s">
+      <c r="D254" s="72" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="255" ht="13.8" hidden="1" spans="1:4">
-      <c r="A255" s="54"/>
-      <c r="B255" s="45">
+      <c r="A255" s="56"/>
+      <c r="B255" s="47">
         <v>1910</v>
       </c>
-      <c r="C255" s="71" t="s">
+      <c r="C255" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="D255" s="70" t="s">
+      <c r="D255" s="72" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="256" ht="13.8" hidden="1" spans="1:4">
-      <c r="A256" s="54"/>
-      <c r="B256" s="72">
+      <c r="A256" s="56"/>
+      <c r="B256" s="74">
         <v>1924</v>
       </c>
-      <c r="C256" s="73" t="s">
+      <c r="C256" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="D256" s="74" t="s">
+      <c r="D256" s="76" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="257" ht="13.8" spans="1:4">
-      <c r="A257" s="54"/>
-      <c r="B257" s="34">
+      <c r="A257" s="56"/>
+      <c r="B257" s="36">
         <v>1955</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D257" s="56" t="s">
+      <c r="D257" s="58" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="258" spans="1:4">
-      <c r="A258" s="54"/>
-      <c r="B258" s="34">
+      <c r="A258" s="56"/>
+      <c r="B258" s="36">
         <v>1957</v>
       </c>
-      <c r="C258" s="75" t="s">
+      <c r="C258" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="D258" s="56" t="s">
+      <c r="D258" s="58" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="259" spans="1:4">
-      <c r="A259" s="54"/>
-      <c r="B259" s="34">
+      <c r="A259" s="56"/>
+      <c r="B259" s="36">
         <v>1958</v>
       </c>
-      <c r="C259" s="75" t="s">
+      <c r="C259" s="77" t="s">
         <v>195</v>
       </c>
-      <c r="D259" s="56" t="s">
+      <c r="D259" s="58" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="260" spans="1:4">
-      <c r="A260" s="54"/>
-      <c r="B260" s="34">
+      <c r="A260" s="56"/>
+      <c r="B260" s="36">
         <v>1960</v>
       </c>
-      <c r="C260" s="75" t="s">
+      <c r="C260" s="77" t="s">
         <v>196</v>
       </c>
-      <c r="D260" s="56" t="s">
+      <c r="D260" s="58" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="261" spans="1:4">
-      <c r="A261" s="54"/>
-      <c r="B261" s="34">
+      <c r="A261" s="56"/>
+      <c r="B261" s="36">
         <v>1963</v>
       </c>
-      <c r="C261" s="75" t="s">
+      <c r="C261" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="D261" s="56" t="s">
+      <c r="D261" s="58" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="262" spans="1:4">
-      <c r="A262" s="54"/>
-      <c r="B262" s="34">
+      <c r="A262" s="56"/>
+      <c r="B262" s="36">
         <v>1970</v>
       </c>
-      <c r="C262" s="75" t="s">
+      <c r="C262" s="77" t="s">
         <v>197</v>
       </c>
-      <c r="D262" s="56" t="s">
+      <c r="D262" s="58" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="263" spans="1:4">
-      <c r="A263" s="54"/>
-      <c r="B263" s="34">
+      <c r="A263" s="56"/>
+      <c r="B263" s="36">
         <v>1980</v>
       </c>
-      <c r="C263" s="75" t="s">
+      <c r="C263" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="D263" s="56" t="s">
+      <c r="D263" s="58" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="264" spans="1:4">
-      <c r="A264" s="54"/>
-      <c r="B264" s="34">
+      <c r="A264" s="56"/>
+      <c r="B264" s="36">
         <v>1982</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D264" s="56" t="s">
+      <c r="D264" s="58" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="265" spans="1:4">
-      <c r="A265" s="54"/>
-      <c r="B265" s="34">
+      <c r="A265" s="56"/>
+      <c r="B265" s="36">
         <v>1983</v>
       </c>
-      <c r="C265" s="75" t="s">
+      <c r="C265" s="77" t="s">
         <v>198</v>
       </c>
-      <c r="D265" s="56" t="s">
+      <c r="D265" s="58" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="266" spans="1:4">
-      <c r="A266" s="54"/>
-      <c r="B266" s="34">
+      <c r="A266" s="56"/>
+      <c r="B266" s="36">
         <v>1987</v>
       </c>
-      <c r="C266" s="75" t="s">
+      <c r="C266" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="D266" s="56" t="s">
+      <c r="D266" s="58" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="267" spans="1:4">
-      <c r="A267" s="54"/>
-      <c r="B267" s="34">
+      <c r="A267" s="56"/>
+      <c r="B267" s="36">
         <v>1988</v>
       </c>
-      <c r="C267" s="75" t="s">
+      <c r="C267" s="77" t="s">
         <v>200</v>
       </c>
-      <c r="D267" s="56" t="s">
+      <c r="D267" s="58" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="268" spans="1:4">
-      <c r="A268" s="54"/>
-      <c r="B268" s="34">
+      <c r="A268" s="56"/>
+      <c r="B268" s="36">
         <v>1989</v>
       </c>
-      <c r="C268" s="75" t="s">
+      <c r="C268" s="77" t="s">
         <v>201</v>
       </c>
-      <c r="D268" s="56" t="s">
+      <c r="D268" s="58" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="269" spans="1:4">
-      <c r="A269" s="54"/>
-      <c r="B269" s="34">
+      <c r="A269" s="56"/>
+      <c r="B269" s="36">
         <v>1992</v>
       </c>
-      <c r="C269" s="75" t="s">
+      <c r="C269" s="77" t="s">
         <v>195</v>
       </c>
-      <c r="D269" s="56" t="s">
+      <c r="D269" s="58" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="270" spans="1:4">
-      <c r="A270" s="54"/>
-      <c r="B270" s="34">
+      <c r="A270" s="56"/>
+      <c r="B270" s="36">
         <v>1995</v>
       </c>
-      <c r="C270" s="75" t="s">
+      <c r="C270" s="77" t="s">
         <v>195</v>
       </c>
-      <c r="D270" s="56" t="s">
+      <c r="D270" s="58" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="271" spans="1:4">
-      <c r="A271" s="54"/>
-      <c r="B271" s="34">
+      <c r="A271" s="56"/>
+      <c r="B271" s="36">
         <v>1996</v>
       </c>
-      <c r="C271" s="75" t="s">
+      <c r="C271" s="77" t="s">
         <v>202</v>
       </c>
-      <c r="D271" s="56" t="s">
+      <c r="D271" s="58" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="272" spans="1:4">
-      <c r="A272" s="54"/>
-      <c r="B272" s="34">
+      <c r="A272" s="56"/>
+      <c r="B272" s="36">
         <v>2001</v>
       </c>
-      <c r="C272" s="75" t="s">
+      <c r="C272" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="D272" s="56" t="s">
+      <c r="D272" s="58" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="273" spans="1:4">
-      <c r="A273" s="54"/>
-      <c r="B273" s="34">
+      <c r="A273" s="56"/>
+      <c r="B273" s="36">
         <v>2007</v>
       </c>
-      <c r="C273" s="75" t="s">
+      <c r="C273" s="77" t="s">
         <v>195</v>
       </c>
-      <c r="D273" s="56" t="s">
+      <c r="D273" s="58" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="274" spans="1:4">
-      <c r="A274" s="54"/>
-      <c r="B274" s="34">
+      <c r="A274" s="56"/>
+      <c r="B274" s="36">
         <v>2008</v>
       </c>
-      <c r="C274" s="75" t="s">
+      <c r="C274" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="D274" s="56" t="s">
+      <c r="D274" s="58" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="275" spans="1:4">
-      <c r="A275" s="51"/>
-      <c r="B275" s="48">
+      <c r="A275" s="53"/>
+      <c r="B275" s="50">
         <v>2012</v>
       </c>
-      <c r="C275" s="76" t="s">
+      <c r="C275" s="78" t="s">
         <v>205</v>
       </c>
-      <c r="D275" s="65" t="s">
+      <c r="D275" s="67" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5904,432 +5910,432 @@
       <c r="A276" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B276" s="39"/>
-      <c r="C276" s="39" t="s">
+      <c r="B276" s="41"/>
+      <c r="C276" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D276" s="39" t="s">
+      <c r="D276" s="41" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="277" spans="1:4">
-      <c r="A277" s="54"/>
-      <c r="B277" s="34">
+      <c r="A277" s="56"/>
+      <c r="B277" s="36">
         <v>2123</v>
       </c>
-      <c r="C277" s="34" t="s">
+      <c r="C277" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="D277" s="34" t="s">
+      <c r="D277" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="278" spans="1:4">
-      <c r="A278" s="54"/>
-      <c r="B278" s="34">
+      <c r="A278" s="56"/>
+      <c r="B278" s="36">
         <v>2124</v>
       </c>
-      <c r="C278" s="34" t="s">
+      <c r="C278" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="D278" s="34" t="s">
+      <c r="D278" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="279" spans="1:4">
-      <c r="A279" s="54"/>
-      <c r="B279" s="34">
+      <c r="A279" s="56"/>
+      <c r="B279" s="36">
         <v>2134</v>
       </c>
-      <c r="C279" s="34" t="s">
+      <c r="C279" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="D279" s="34" t="s">
+      <c r="D279" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="280" spans="1:4">
-      <c r="A280" s="54"/>
-      <c r="B280" s="34">
+      <c r="A280" s="56"/>
+      <c r="B280" s="36">
         <v>2135</v>
       </c>
-      <c r="C280" s="34" t="s">
+      <c r="C280" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="D280" s="34" t="s">
+      <c r="D280" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:4">
-      <c r="A281" s="54"/>
-      <c r="B281" s="34">
+      <c r="A281" s="56"/>
+      <c r="B281" s="36">
         <v>2138</v>
       </c>
-      <c r="C281" s="34" t="s">
+      <c r="C281" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="D281" s="34" t="s">
+      <c r="D281" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:4">
-      <c r="A282" s="54"/>
-      <c r="B282" s="34">
+      <c r="A282" s="56"/>
+      <c r="B282" s="36">
         <v>2139</v>
       </c>
-      <c r="C282" s="34" t="s">
+      <c r="C282" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="D282" s="34" t="s">
+      <c r="D282" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="54"/>
-      <c r="B283" s="34">
+      <c r="A283" s="56"/>
+      <c r="B283" s="36">
         <v>2154</v>
       </c>
-      <c r="C283" s="34" t="s">
+      <c r="C283" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="D283" s="34" t="s">
+      <c r="D283" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="284" spans="1:4">
-      <c r="A284" s="54"/>
-      <c r="B284" s="34">
+      <c r="A284" s="56"/>
+      <c r="B284" s="36">
         <v>2165</v>
       </c>
-      <c r="C284" s="34" t="s">
+      <c r="C284" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="D284" s="34" t="s">
+      <c r="D284" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="285" spans="1:4">
-      <c r="A285" s="54"/>
-      <c r="B285" s="48">
+      <c r="A285" s="56"/>
+      <c r="B285" s="50">
         <v>2181</v>
       </c>
-      <c r="C285" s="48" t="s">
+      <c r="C285" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="D285" s="48" t="s">
+      <c r="D285" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="286" spans="1:4">
-      <c r="A286" s="54"/>
-      <c r="B286" s="49"/>
-      <c r="C286" s="49" t="s">
+      <c r="A286" s="56"/>
+      <c r="B286" s="51"/>
+      <c r="C286" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D286" s="49" t="s">
+      <c r="D286" s="51" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="287" spans="1:4">
-      <c r="A287" s="54"/>
-      <c r="B287" s="30">
+      <c r="A287" s="56"/>
+      <c r="B287" s="32">
         <v>2268</v>
       </c>
-      <c r="C287" s="30" t="s">
+      <c r="C287" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="D287" s="30" t="s">
+      <c r="D287" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:4">
-      <c r="A288" s="54"/>
-      <c r="B288" s="30">
+      <c r="A288" s="56"/>
+      <c r="B288" s="32">
         <v>2275</v>
       </c>
-      <c r="C288" s="30" t="s">
+      <c r="C288" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="D288" s="30" t="s">
+      <c r="D288" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="289" spans="1:4">
-      <c r="A289" s="54"/>
-      <c r="B289" s="35">
+      <c r="A289" s="56"/>
+      <c r="B289" s="37">
         <v>2276</v>
       </c>
-      <c r="C289" s="35" t="s">
+      <c r="C289" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="D289" s="35" t="s">
+      <c r="D289" s="37" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="290" spans="1:4">
-      <c r="A290" s="54"/>
-      <c r="B290" s="39">
+      <c r="A290" s="56"/>
+      <c r="B290" s="41">
         <v>2295</v>
       </c>
-      <c r="C290" s="39" t="s">
+      <c r="C290" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="D290" s="39" t="s">
+      <c r="D290" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="291" spans="1:4">
-      <c r="A291" s="54"/>
-      <c r="B291" s="49"/>
-      <c r="C291" s="49" t="s">
+      <c r="A291" s="56"/>
+      <c r="B291" s="51"/>
+      <c r="C291" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D291" s="49" t="s">
+      <c r="D291" s="51" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="292" spans="1:4">
-      <c r="A292" s="54"/>
-      <c r="B292" s="30">
+      <c r="A292" s="56"/>
+      <c r="B292" s="32">
         <v>2404</v>
       </c>
-      <c r="C292" s="30" t="s">
+      <c r="C292" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="D292" s="30" t="s">
+      <c r="D292" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="293" spans="1:4">
-      <c r="A293" s="54"/>
-      <c r="B293" s="30">
+      <c r="A293" s="56"/>
+      <c r="B293" s="32">
         <v>2407</v>
       </c>
-      <c r="C293" s="30" t="s">
+      <c r="C293" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="D293" s="30" t="s">
+      <c r="D293" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="294" spans="1:4">
-      <c r="A294" s="54"/>
-      <c r="B294" s="30">
+      <c r="A294" s="56"/>
+      <c r="B294" s="32">
         <v>2434</v>
       </c>
-      <c r="C294" s="30" t="s">
+      <c r="C294" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="D294" s="30" t="s">
+      <c r="D294" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="295" spans="1:4">
-      <c r="A295" s="54"/>
-      <c r="B295" s="30">
+      <c r="A295" s="56"/>
+      <c r="B295" s="32">
         <v>2437</v>
       </c>
-      <c r="C295" s="30" t="s">
+      <c r="C295" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="D295" s="30" t="s">
+      <c r="D295" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="296" spans="1:4">
-      <c r="A296" s="54"/>
-      <c r="B296" s="30">
+      <c r="A296" s="56"/>
+      <c r="B296" s="32">
         <v>2440</v>
       </c>
-      <c r="C296" s="30" t="s">
+      <c r="C296" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="D296" s="30" t="s">
+      <c r="D296" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="297" spans="1:4">
-      <c r="A297" s="54"/>
-      <c r="B297" s="30">
+      <c r="A297" s="56"/>
+      <c r="B297" s="32">
         <v>2449</v>
       </c>
-      <c r="C297" s="30" t="s">
+      <c r="C297" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="D297" s="30" t="s">
+      <c r="D297" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="298" spans="1:4">
-      <c r="A298" s="54"/>
-      <c r="B298" s="30">
+      <c r="A298" s="56"/>
+      <c r="B298" s="32">
         <v>2453</v>
       </c>
-      <c r="C298" s="30" t="s">
+      <c r="C298" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="D298" s="30" t="s">
+      <c r="D298" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="299" spans="1:4">
-      <c r="A299" s="54"/>
-      <c r="B299" s="30">
+      <c r="A299" s="56"/>
+      <c r="B299" s="32">
         <v>2457</v>
       </c>
-      <c r="C299" s="30" t="s">
+      <c r="C299" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="D299" s="30" t="s">
+      <c r="D299" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="300" spans="1:4">
-      <c r="A300" s="54"/>
-      <c r="B300" s="49">
+      <c r="A300" s="56"/>
+      <c r="B300" s="51">
         <v>2461</v>
       </c>
-      <c r="C300" s="49" t="s">
+      <c r="C300" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="D300" s="49" t="s">
+      <c r="D300" s="51" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="301" spans="1:4">
-      <c r="A301" s="54"/>
-      <c r="B301" s="30">
+      <c r="A301" s="56"/>
+      <c r="B301" s="32">
         <v>2474</v>
       </c>
-      <c r="C301" s="30" t="s">
+      <c r="C301" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="D301" s="30" t="s">
+      <c r="D301" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="302" spans="1:4">
-      <c r="A302" s="54"/>
-      <c r="B302" s="30">
+      <c r="A302" s="56"/>
+      <c r="B302" s="32">
         <v>2477</v>
       </c>
-      <c r="C302" s="30" t="s">
+      <c r="C302" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="D302" s="30" t="s">
+      <c r="D302" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="303" spans="1:4">
-      <c r="A303" s="54"/>
-      <c r="B303" s="49" t="s">
+      <c r="A303" s="56"/>
+      <c r="B303" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C303" s="49" t="s">
+      <c r="C303" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="D303" s="49" t="s">
+      <c r="D303" s="51" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="304" spans="1:4">
-      <c r="A304" s="54"/>
-      <c r="B304" s="30">
+      <c r="A304" s="56"/>
+      <c r="B304" s="32">
         <v>2560</v>
       </c>
-      <c r="C304" s="30" t="s">
+      <c r="C304" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="D304" s="30" t="s">
+      <c r="D304" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="305" spans="1:4">
-      <c r="A305" s="54"/>
-      <c r="B305" s="30">
+      <c r="A305" s="56"/>
+      <c r="B305" s="32">
         <v>2564</v>
       </c>
-      <c r="C305" s="30" t="s">
+      <c r="C305" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="D305" s="30" t="s">
+      <c r="D305" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="306" spans="1:4">
-      <c r="A306" s="54"/>
-      <c r="B306" s="30">
+      <c r="A306" s="56"/>
+      <c r="B306" s="32">
         <v>2568</v>
       </c>
-      <c r="C306" s="30" t="s">
+      <c r="C306" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="D306" s="30" t="s">
+      <c r="D306" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="307" spans="1:4">
-      <c r="A307" s="54"/>
-      <c r="B307" s="30">
+      <c r="A307" s="56"/>
+      <c r="B307" s="32">
         <v>2578</v>
       </c>
-      <c r="C307" s="30" t="s">
+      <c r="C307" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="D307" s="30" t="s">
+      <c r="D307" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="308" spans="1:4">
-      <c r="A308" s="54"/>
-      <c r="B308" s="30">
+      <c r="A308" s="56"/>
+      <c r="B308" s="32">
         <v>2581</v>
       </c>
-      <c r="C308" s="30" t="s">
+      <c r="C308" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="D308" s="30" t="s">
+      <c r="D308" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="309" spans="1:4">
-      <c r="A309" s="54"/>
-      <c r="B309" s="30">
+      <c r="A309" s="56"/>
+      <c r="B309" s="32">
         <v>2591</v>
       </c>
-      <c r="C309" s="30" t="s">
+      <c r="C309" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="D309" s="30" t="s">
+      <c r="D309" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="310" spans="1:4">
-      <c r="A310" s="54"/>
-      <c r="B310" s="30">
+      <c r="A310" s="56"/>
+      <c r="B310" s="32">
         <v>2597</v>
       </c>
-      <c r="C310" s="30" t="s">
+      <c r="C310" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="D310" s="30" t="s">
+      <c r="D310" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="311" ht="13.8" spans="1:4">
-      <c r="A311" s="54"/>
-      <c r="B311" s="49">
+      <c r="A311" s="56"/>
+      <c r="B311" s="51">
         <v>2603</v>
       </c>
-      <c r="C311" s="49" t="s">
+      <c r="C311" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="D311" s="49" t="s">
+      <c r="D311" s="51" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="312" hidden="1" spans="1:4">
-      <c r="A312" s="54"/>
+      <c r="A312" s="56"/>
       <c r="B312" s="15" t="s">
         <v>29</v>
       </c>
@@ -6341,530 +6347,530 @@
       </c>
     </row>
     <row r="313" hidden="1" spans="1:4">
-      <c r="A313" s="54"/>
-      <c r="B313" s="39">
+      <c r="A313" s="56"/>
+      <c r="B313" s="41">
         <v>2642</v>
       </c>
-      <c r="C313" s="39" t="s">
+      <c r="C313" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="D313" s="39" t="s">
+      <c r="D313" s="41" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="314" ht="13.8" hidden="1" spans="1:4">
-      <c r="A314" s="54"/>
-      <c r="B314" s="35">
+      <c r="A314" s="56"/>
+      <c r="B314" s="37">
         <v>2692</v>
       </c>
-      <c r="C314" s="35" t="s">
+      <c r="C314" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="D314" s="35" t="s">
+      <c r="D314" s="37" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="315" hidden="1" spans="1:4">
-      <c r="A315" s="54"/>
-      <c r="B315" s="35">
+      <c r="A315" s="56"/>
+      <c r="B315" s="37">
         <v>2695</v>
       </c>
-      <c r="C315" s="35" t="s">
+      <c r="C315" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="D315" s="35" t="s">
+      <c r="D315" s="37" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="316" hidden="1" spans="1:4">
-      <c r="A316" s="54"/>
-      <c r="B316" s="35">
+      <c r="A316" s="56"/>
+      <c r="B316" s="37">
         <v>2724</v>
       </c>
-      <c r="C316" s="35" t="s">
+      <c r="C316" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="D316" s="35" t="s">
+      <c r="D316" s="37" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="317" hidden="1" spans="1:4">
-      <c r="A317" s="54"/>
-      <c r="B317" s="35">
+      <c r="A317" s="56"/>
+      <c r="B317" s="37">
         <v>2726</v>
       </c>
-      <c r="C317" s="35" t="s">
+      <c r="C317" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="D317" s="35" t="s">
+      <c r="D317" s="37" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="318" hidden="1" spans="1:4">
-      <c r="A318" s="54"/>
-      <c r="B318" s="35">
+      <c r="A318" s="56"/>
+      <c r="B318" s="37">
         <v>2727</v>
       </c>
-      <c r="C318" s="35" t="s">
+      <c r="C318" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="D318" s="35" t="s">
+      <c r="D318" s="37" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="319" hidden="1" spans="1:4">
-      <c r="A319" s="54"/>
-      <c r="B319" s="35">
+      <c r="A319" s="56"/>
+      <c r="B319" s="37">
         <v>2729</v>
       </c>
-      <c r="C319" s="35" t="s">
+      <c r="C319" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="D319" s="35" t="s">
+      <c r="D319" s="37" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="320" hidden="1" spans="1:4">
-      <c r="A320" s="54"/>
-      <c r="B320" s="35">
+      <c r="A320" s="56"/>
+      <c r="B320" s="37">
         <v>2731</v>
       </c>
-      <c r="C320" s="35" t="s">
+      <c r="C320" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="D320" s="35" t="s">
+      <c r="D320" s="37" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="321" hidden="1" spans="1:4">
-      <c r="A321" s="54"/>
-      <c r="B321" s="35">
+      <c r="A321" s="56"/>
+      <c r="B321" s="37">
         <v>2735</v>
       </c>
-      <c r="C321" s="35" t="s">
+      <c r="C321" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D321" s="35" t="s">
+      <c r="D321" s="37" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="322" hidden="1" spans="1:4">
-      <c r="A322" s="54"/>
-      <c r="B322" s="35">
+      <c r="A322" s="56"/>
+      <c r="B322" s="37">
         <v>2736</v>
       </c>
-      <c r="C322" s="35" t="s">
+      <c r="C322" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="D322" s="35" t="s">
+      <c r="D322" s="37" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="323" hidden="1" spans="1:4">
-      <c r="A323" s="54"/>
-      <c r="B323" s="39">
+      <c r="A323" s="56"/>
+      <c r="B323" s="41">
         <v>2739</v>
       </c>
-      <c r="C323" s="39" t="s">
+      <c r="C323" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="D323" s="39" t="s">
+      <c r="D323" s="41" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="324" ht="13.8" spans="1:4">
-      <c r="A324" s="54"/>
-      <c r="B324" s="30">
+      <c r="A324" s="56"/>
+      <c r="B324" s="32">
         <v>2770</v>
       </c>
-      <c r="C324" s="30" t="s">
+      <c r="C324" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="D324" s="30" t="s">
+      <c r="D324" s="32" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="325" spans="1:4">
-      <c r="A325" s="54"/>
-      <c r="B325" s="30">
+      <c r="A325" s="56"/>
+      <c r="B325" s="32">
         <v>2805</v>
       </c>
-      <c r="C325" s="30" t="s">
+      <c r="C325" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="D325" s="30" t="s">
+      <c r="D325" s="32" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="326" spans="1:4">
-      <c r="A326" s="54"/>
-      <c r="B326" s="49">
+      <c r="A326" s="56"/>
+      <c r="B326" s="51">
         <v>2807</v>
       </c>
-      <c r="C326" s="49" t="s">
+      <c r="C326" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="D326" s="49" t="s">
+      <c r="D326" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="327" spans="1:4">
-      <c r="A327" s="54"/>
-      <c r="B327" s="30">
+      <c r="A327" s="56"/>
+      <c r="B327" s="32">
         <v>2823</v>
       </c>
-      <c r="C327" s="30" t="s">
+      <c r="C327" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="D327" s="30" t="s">
+      <c r="D327" s="32" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="328" spans="1:4">
-      <c r="A328" s="54"/>
-      <c r="B328" s="30">
+      <c r="A328" s="56"/>
+      <c r="B328" s="32">
         <v>2826</v>
       </c>
-      <c r="C328" s="30" t="s">
+      <c r="C328" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="D328" s="30" t="s">
+      <c r="D328" s="32" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="329" spans="1:4">
-      <c r="A329" s="54"/>
-      <c r="B329" s="30">
+      <c r="A329" s="56"/>
+      <c r="B329" s="32">
         <v>2839</v>
       </c>
-      <c r="C329" s="30" t="s">
+      <c r="C329" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="D329" s="30" t="s">
+      <c r="D329" s="32" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="330" spans="1:4">
-      <c r="A330" s="54"/>
-      <c r="B330" s="30">
+      <c r="A330" s="56"/>
+      <c r="B330" s="32">
         <v>2844</v>
       </c>
-      <c r="C330" s="30" t="s">
+      <c r="C330" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="D330" s="30" t="s">
+      <c r="D330" s="32" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="331" spans="1:4">
-      <c r="A331" s="54"/>
-      <c r="B331" s="30">
+      <c r="A331" s="56"/>
+      <c r="B331" s="32">
         <v>2852</v>
       </c>
-      <c r="C331" s="30" t="s">
+      <c r="C331" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="D331" s="30" t="s">
+      <c r="D331" s="32" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="332" spans="1:4">
-      <c r="A332" s="54"/>
-      <c r="B332" s="30">
+      <c r="A332" s="56"/>
+      <c r="B332" s="32">
         <v>2867</v>
       </c>
-      <c r="C332" s="30" t="s">
+      <c r="C332" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="D332" s="30" t="s">
+      <c r="D332" s="32" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="333" ht="13.8" spans="1:4">
-      <c r="A333" s="54"/>
-      <c r="B333" s="49">
+      <c r="A333" s="56"/>
+      <c r="B333" s="51">
         <v>2890</v>
       </c>
-      <c r="C333" s="49" t="s">
+      <c r="C333" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="D333" s="49" t="s">
+      <c r="D333" s="51" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="334" hidden="1" spans="1:4">
-      <c r="A334" s="54"/>
-      <c r="B334" s="35">
+      <c r="A334" s="56"/>
+      <c r="B334" s="37">
         <v>2892</v>
       </c>
-      <c r="C334" s="35" t="s">
+      <c r="C334" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="D334" s="35" t="s">
+      <c r="D334" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="335" hidden="1" spans="1:4">
-      <c r="A335" s="54"/>
-      <c r="B335" s="35">
+      <c r="A335" s="56"/>
+      <c r="B335" s="37">
         <v>2894</v>
       </c>
-      <c r="C335" s="35" t="s">
+      <c r="C335" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="D335" s="35" t="s">
+      <c r="D335" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="336" hidden="1" spans="1:4">
-      <c r="A336" s="54"/>
-      <c r="B336" s="35">
+      <c r="A336" s="56"/>
+      <c r="B336" s="37">
         <v>2896</v>
       </c>
-      <c r="C336" s="35" t="s">
+      <c r="C336" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="D336" s="35" t="s">
+      <c r="D336" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="337" hidden="1" spans="1:4">
-      <c r="A337" s="54"/>
-      <c r="B337" s="35">
+      <c r="A337" s="56"/>
+      <c r="B337" s="37">
         <v>2907</v>
       </c>
-      <c r="C337" s="35" t="s">
+      <c r="C337" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="D337" s="35" t="s">
+      <c r="D337" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="338" hidden="1" spans="1:4">
-      <c r="A338" s="54"/>
-      <c r="B338" s="35">
+      <c r="A338" s="56"/>
+      <c r="B338" s="37">
         <v>2918</v>
       </c>
-      <c r="C338" s="35" t="s">
+      <c r="C338" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="D338" s="35" t="s">
+      <c r="D338" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="339" hidden="1" spans="1:4">
-      <c r="A339" s="54"/>
-      <c r="B339" s="35">
+      <c r="A339" s="56"/>
+      <c r="B339" s="37">
         <v>2923</v>
       </c>
-      <c r="C339" s="35" t="s">
+      <c r="C339" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="D339" s="35" t="s">
+      <c r="D339" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="340" hidden="1" spans="1:4">
-      <c r="A340" s="54"/>
-      <c r="B340" s="35">
+      <c r="A340" s="56"/>
+      <c r="B340" s="37">
         <v>2929</v>
       </c>
-      <c r="C340" s="35" t="s">
+      <c r="C340" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="D340" s="35" t="s">
+      <c r="D340" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="341" hidden="1" spans="1:4">
-      <c r="A341" s="54"/>
-      <c r="B341" s="35">
+      <c r="A341" s="56"/>
+      <c r="B341" s="37">
         <v>2938</v>
       </c>
-      <c r="C341" s="35" t="s">
+      <c r="C341" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="D341" s="35" t="s">
+      <c r="D341" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="342" hidden="1" spans="1:4">
-      <c r="A342" s="54"/>
-      <c r="B342" s="35">
+      <c r="A342" s="56"/>
+      <c r="B342" s="37">
         <v>2946</v>
       </c>
-      <c r="C342" s="35" t="s">
+      <c r="C342" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="D342" s="35" t="s">
+      <c r="D342" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="343" hidden="1" spans="1:4">
-      <c r="A343" s="54"/>
-      <c r="B343" s="35">
+      <c r="A343" s="56"/>
+      <c r="B343" s="37">
         <v>2952</v>
       </c>
-      <c r="C343" s="35" t="s">
+      <c r="C343" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="D343" s="35" t="s">
+      <c r="D343" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="344" hidden="1" spans="1:4">
-      <c r="A344" s="54"/>
-      <c r="B344" s="35">
+      <c r="A344" s="56"/>
+      <c r="B344" s="37">
         <v>2956</v>
       </c>
-      <c r="C344" s="35" t="s">
+      <c r="C344" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="D344" s="35" t="s">
+      <c r="D344" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="345" hidden="1" spans="1:4">
-      <c r="A345" s="54"/>
-      <c r="B345" s="39">
+      <c r="A345" s="56"/>
+      <c r="B345" s="41">
         <v>2960</v>
       </c>
-      <c r="C345" s="39" t="s">
+      <c r="C345" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="D345" s="39" t="s">
+      <c r="D345" s="41" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="346" ht="13.8" spans="1:4">
-      <c r="A346" s="54"/>
-      <c r="B346" s="30">
+      <c r="A346" s="56"/>
+      <c r="B346" s="32">
         <v>2962</v>
       </c>
-      <c r="C346" s="30" t="s">
+      <c r="C346" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="D346" s="30" t="s">
+      <c r="D346" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="347" spans="1:4">
-      <c r="A347" s="54"/>
-      <c r="B347" s="30">
+      <c r="A347" s="56"/>
+      <c r="B347" s="32">
         <v>2963</v>
       </c>
-      <c r="C347" s="30" t="s">
+      <c r="C347" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="D347" s="30" t="s">
+      <c r="D347" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="348" spans="1:4">
-      <c r="A348" s="54"/>
-      <c r="B348" s="30">
+      <c r="A348" s="56"/>
+      <c r="B348" s="32">
         <v>2966</v>
       </c>
-      <c r="C348" s="30" t="s">
+      <c r="C348" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="D348" s="30" t="s">
+      <c r="D348" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="349" spans="1:4">
-      <c r="A349" s="54"/>
-      <c r="B349" s="30">
+      <c r="A349" s="56"/>
+      <c r="B349" s="32">
         <v>2991</v>
       </c>
-      <c r="C349" s="30" t="s">
+      <c r="C349" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="D349" s="30" t="s">
+      <c r="D349" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="350" spans="1:4">
-      <c r="A350" s="54"/>
-      <c r="B350" s="30">
+      <c r="A350" s="56"/>
+      <c r="B350" s="32">
         <v>2994</v>
       </c>
-      <c r="C350" s="30" t="s">
+      <c r="C350" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="D350" s="30" t="s">
+      <c r="D350" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="351" spans="1:4">
-      <c r="A351" s="54"/>
-      <c r="B351" s="30">
+      <c r="A351" s="56"/>
+      <c r="B351" s="32">
         <v>2999</v>
       </c>
-      <c r="C351" s="30" t="s">
+      <c r="C351" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="D351" s="30" t="s">
+      <c r="D351" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="352" spans="1:4">
-      <c r="A352" s="54"/>
-      <c r="B352" s="30">
+      <c r="A352" s="56"/>
+      <c r="B352" s="32">
         <v>3001</v>
       </c>
-      <c r="C352" s="30" t="s">
+      <c r="C352" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="D352" s="30" t="s">
+      <c r="D352" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="353" spans="1:4">
-      <c r="A353" s="54"/>
-      <c r="B353" s="30">
+      <c r="A353" s="56"/>
+      <c r="B353" s="32">
         <v>3005</v>
       </c>
-      <c r="C353" s="30" t="s">
+      <c r="C353" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="D353" s="30" t="s">
+      <c r="D353" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="354" spans="1:4">
-      <c r="A354" s="54"/>
-      <c r="B354" s="30">
+      <c r="A354" s="56"/>
+      <c r="B354" s="32">
         <v>3009</v>
       </c>
-      <c r="C354" s="30" t="s">
+      <c r="C354" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="D354" s="30" t="s">
+      <c r="D354" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="355" spans="1:4">
-      <c r="A355" s="54"/>
-      <c r="B355" s="30">
+      <c r="A355" s="56"/>
+      <c r="B355" s="32">
         <v>3015</v>
       </c>
-      <c r="C355" s="30" t="s">
+      <c r="C355" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="D355" s="30" t="s">
+      <c r="D355" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="356" spans="1:4">
-      <c r="A356" s="51"/>
-      <c r="B356" s="49">
+      <c r="A356" s="53"/>
+      <c r="B356" s="51">
         <v>3024</v>
       </c>
-      <c r="C356" s="49" t="s">
+      <c r="C356" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="D356" s="49" t="s">
+      <c r="D356" s="51" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6872,115 +6878,115 @@
       <c r="A357" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="B357" s="77"/>
-      <c r="C357" s="78" t="s">
+      <c r="B357" s="79"/>
+      <c r="C357" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="D357" s="78" t="s">
+      <c r="D357" s="80" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="14"/>
-      <c r="B358" s="79">
+      <c r="B358" s="81">
         <v>3146</v>
       </c>
-      <c r="C358" s="79" t="s">
+      <c r="C358" s="81" t="s">
         <v>269</v>
       </c>
-      <c r="D358" s="79" t="s">
+      <c r="D358" s="81" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="14"/>
-      <c r="B359" s="79">
+      <c r="B359" s="81">
         <v>3149</v>
       </c>
-      <c r="C359" s="79" t="s">
+      <c r="C359" s="81" t="s">
         <v>213</v>
       </c>
-      <c r="D359" s="79" t="s">
+      <c r="D359" s="81" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="14"/>
-      <c r="B360" s="79">
+      <c r="B360" s="81">
         <v>3167</v>
       </c>
-      <c r="C360" s="79" t="s">
+      <c r="C360" s="81" t="s">
         <v>270</v>
       </c>
-      <c r="D360" s="79" t="s">
+      <c r="D360" s="81" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="14"/>
-      <c r="B361" s="79">
+      <c r="B361" s="81">
         <v>3175</v>
       </c>
-      <c r="C361" s="79" t="s">
+      <c r="C361" s="81" t="s">
         <v>271</v>
       </c>
-      <c r="D361" s="79" t="s">
+      <c r="D361" s="81" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="14"/>
-      <c r="B362" s="79">
+      <c r="B362" s="81">
         <v>3182</v>
       </c>
-      <c r="C362" s="79" t="s">
+      <c r="C362" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="D362" s="79" t="s">
+      <c r="D362" s="81" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="14"/>
-      <c r="B363" s="80">
+      <c r="B363" s="82">
         <v>3190</v>
       </c>
-      <c r="C363" s="80" t="s">
+      <c r="C363" s="82" t="s">
         <v>272</v>
       </c>
-      <c r="D363" s="80" t="s">
+      <c r="D363" s="82" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="14"/>
-      <c r="B364" s="49"/>
-      <c r="C364" s="49" t="s">
+      <c r="B364" s="51"/>
+      <c r="C364" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D364" s="48" t="s">
+      <c r="D364" s="50" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="14"/>
-      <c r="B365" s="49">
+      <c r="B365" s="51">
         <v>3284</v>
       </c>
-      <c r="C365" s="49" t="s">
+      <c r="C365" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="D365" s="48" t="s">
+      <c r="D365" s="50" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="14"/>
-      <c r="B366" s="49"/>
-      <c r="C366" s="49" t="s">
+      <c r="B366" s="51"/>
+      <c r="C366" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D366" s="48" t="s">
+      <c r="D366" s="50" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6989,7 +6995,7 @@
       <c r="B367" s="3">
         <v>3419</v>
       </c>
-      <c r="C367" s="30" t="s">
+      <c r="C367" s="32" t="s">
         <v>195</v>
       </c>
       <c r="D367" s="17" t="s">
@@ -7001,7 +7007,7 @@
       <c r="B368" s="3">
         <v>3422</v>
       </c>
-      <c r="C368" s="30" t="s">
+      <c r="C368" s="32" t="s">
         <v>210</v>
       </c>
       <c r="D368" s="17" t="s">
@@ -7013,7 +7019,7 @@
       <c r="B369" s="3">
         <v>3424</v>
       </c>
-      <c r="C369" s="30" t="s">
+      <c r="C369" s="32" t="s">
         <v>274</v>
       </c>
       <c r="D369" s="17" t="s">
@@ -7025,7 +7031,7 @@
       <c r="B370" s="3">
         <v>3428</v>
       </c>
-      <c r="C370" s="30" t="s">
+      <c r="C370" s="32" t="s">
         <v>11</v>
       </c>
       <c r="D370" s="17" t="s">
@@ -7037,7 +7043,7 @@
       <c r="B371" s="3">
         <v>3430</v>
       </c>
-      <c r="C371" s="30" t="s">
+      <c r="C371" s="32" t="s">
         <v>275</v>
       </c>
       <c r="D371" s="17" t="s">
@@ -7049,7 +7055,7 @@
       <c r="B372" s="3">
         <v>3442</v>
       </c>
-      <c r="C372" s="30" t="s">
+      <c r="C372" s="32" t="s">
         <v>276</v>
       </c>
       <c r="D372" s="17" t="s">
@@ -7061,7 +7067,7 @@
       <c r="B373" s="3">
         <v>3450</v>
       </c>
-      <c r="C373" s="30" t="s">
+      <c r="C373" s="32" t="s">
         <v>276</v>
       </c>
       <c r="D373" s="17" t="s">
@@ -7073,7 +7079,7 @@
       <c r="B374" s="3">
         <v>3456</v>
       </c>
-      <c r="C374" s="30" t="s">
+      <c r="C374" s="32" t="s">
         <v>277</v>
       </c>
       <c r="D374" s="17" t="s">
@@ -7085,7 +7091,7 @@
       <c r="B375" s="3">
         <v>3457</v>
       </c>
-      <c r="C375" s="30" t="s">
+      <c r="C375" s="32" t="s">
         <v>278</v>
       </c>
       <c r="D375" s="17" t="s">
@@ -7097,7 +7103,7 @@
       <c r="B376" s="3">
         <v>3472</v>
       </c>
-      <c r="C376" s="30" t="s">
+      <c r="C376" s="32" t="s">
         <v>279</v>
       </c>
       <c r="D376" s="17" t="s">
@@ -7106,217 +7112,217 @@
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="14"/>
-      <c r="B377" s="49">
+      <c r="B377" s="51">
         <v>3476</v>
       </c>
-      <c r="C377" s="49" t="s">
+      <c r="C377" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="D377" s="48" t="s">
+      <c r="D377" s="50" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="14"/>
-      <c r="B378" s="30">
+      <c r="B378" s="32">
         <v>3489</v>
       </c>
-      <c r="C378" s="30" t="s">
+      <c r="C378" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="D378" s="34" t="s">
+      <c r="D378" s="36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="14"/>
-      <c r="B379" s="30">
+      <c r="B379" s="32">
         <v>3498</v>
       </c>
-      <c r="C379" s="30" t="s">
+      <c r="C379" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="D379" s="34" t="s">
+      <c r="D379" s="36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="14"/>
-      <c r="B380" s="30">
+      <c r="B380" s="32">
         <v>3501</v>
       </c>
-      <c r="C380" s="30" t="s">
+      <c r="C380" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="D380" s="34" t="s">
+      <c r="D380" s="36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="14"/>
-      <c r="B381" s="30">
+      <c r="B381" s="32">
         <v>3504</v>
       </c>
-      <c r="C381" s="30" t="s">
+      <c r="C381" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="D381" s="34" t="s">
+      <c r="D381" s="36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="14"/>
-      <c r="B382" s="30">
+      <c r="B382" s="32">
         <v>3505</v>
       </c>
-      <c r="C382" s="30" t="s">
+      <c r="C382" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="D382" s="34" t="s">
+      <c r="D382" s="36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="14"/>
-      <c r="B383" s="30">
+      <c r="B383" s="32">
         <v>3515</v>
       </c>
-      <c r="C383" s="30" t="s">
+      <c r="C383" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="D383" s="34" t="s">
+      <c r="D383" s="36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="14"/>
-      <c r="B384" s="30">
+      <c r="B384" s="32">
         <v>3519</v>
       </c>
-      <c r="C384" s="30" t="s">
+      <c r="C384" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="D384" s="34" t="s">
+      <c r="D384" s="36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="14"/>
-      <c r="B385" s="30">
+      <c r="B385" s="32">
         <v>3520</v>
       </c>
-      <c r="C385" s="30" t="s">
+      <c r="C385" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="D385" s="34" t="s">
+      <c r="D385" s="36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="14"/>
-      <c r="B386" s="30">
+      <c r="B386" s="32">
         <v>3523</v>
       </c>
-      <c r="C386" s="30" t="s">
+      <c r="C386" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="D386" s="34" t="s">
+      <c r="D386" s="36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="14"/>
-      <c r="B387" s="30">
+      <c r="B387" s="32">
         <v>3534</v>
       </c>
-      <c r="C387" s="30" t="s">
+      <c r="C387" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="D387" s="34" t="s">
+      <c r="D387" s="36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="14"/>
-      <c r="B388" s="30">
+      <c r="B388" s="32">
         <v>3536</v>
       </c>
-      <c r="C388" s="30" t="s">
+      <c r="C388" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="D388" s="34" t="s">
+      <c r="D388" s="36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="14"/>
-      <c r="B389" s="49">
+      <c r="B389" s="51">
         <v>3550</v>
       </c>
-      <c r="C389" s="49" t="s">
+      <c r="C389" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="D389" s="48" t="s">
+      <c r="D389" s="50" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="14"/>
-      <c r="B390" s="30">
+      <c r="B390" s="32">
         <v>3553</v>
       </c>
-      <c r="C390" s="30" t="s">
+      <c r="C390" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="D390" s="34" t="s">
+      <c r="D390" s="36" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="14"/>
-      <c r="B391" s="30">
+      <c r="B391" s="32">
         <v>3554</v>
       </c>
-      <c r="C391" s="30" t="s">
+      <c r="C391" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="D391" s="34" t="s">
+      <c r="D391" s="36" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="14"/>
-      <c r="B392" s="30">
+      <c r="B392" s="32">
         <v>3555</v>
       </c>
-      <c r="C392" s="30" t="s">
+      <c r="C392" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="D392" s="34" t="s">
+      <c r="D392" s="36" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="14"/>
-      <c r="B393" s="30">
+      <c r="B393" s="32">
         <v>3558</v>
       </c>
-      <c r="C393" s="30" t="s">
+      <c r="C393" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="D393" s="34" t="s">
+      <c r="D393" s="36" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="14"/>
-      <c r="B394" s="30">
+      <c r="B394" s="32">
         <v>3561</v>
       </c>
-      <c r="C394" s="30" t="s">
+      <c r="C394" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="D394" s="34" t="s">
+      <c r="D394" s="36" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7325,10 +7331,10 @@
       <c r="B395" s="3">
         <v>3563</v>
       </c>
-      <c r="C395" s="30" t="s">
+      <c r="C395" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="D395" s="34" t="s">
+      <c r="D395" s="36" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7337,10 +7343,10 @@
       <c r="B396" s="3">
         <v>3564</v>
       </c>
-      <c r="C396" s="30" t="s">
+      <c r="C396" s="32" t="s">
         <v>291</v>
       </c>
-      <c r="D396" s="34" t="s">
+      <c r="D396" s="36" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7349,10 +7355,10 @@
       <c r="B397" s="3">
         <v>3565</v>
       </c>
-      <c r="C397" s="30" t="s">
+      <c r="C397" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="D397" s="34" t="s">
+      <c r="D397" s="36" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7361,10 +7367,10 @@
       <c r="B398" s="3">
         <v>3567</v>
       </c>
-      <c r="C398" s="30" t="s">
+      <c r="C398" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="D398" s="34" t="s">
+      <c r="D398" s="36" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7373,10 +7379,10 @@
       <c r="B399" s="3">
         <v>3570</v>
       </c>
-      <c r="C399" s="30" t="s">
+      <c r="C399" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="D399" s="34" t="s">
+      <c r="D399" s="36" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7385,10 +7391,10 @@
       <c r="B400" s="3">
         <v>3574</v>
       </c>
-      <c r="C400" s="30" t="s">
+      <c r="C400" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="D400" s="34" t="s">
+      <c r="D400" s="36" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7397,10 +7403,10 @@
       <c r="B401" s="3">
         <v>3576</v>
       </c>
-      <c r="C401" s="30" t="s">
+      <c r="C401" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="D401" s="34" t="s">
+      <c r="D401" s="36" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7409,10 +7415,10 @@
       <c r="B402" s="3">
         <v>3581</v>
       </c>
-      <c r="C402" s="30" t="s">
+      <c r="C402" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="D402" s="34" t="s">
+      <c r="D402" s="36" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7421,10 +7427,10 @@
       <c r="B403" s="3">
         <v>3584</v>
       </c>
-      <c r="C403" s="30" t="s">
+      <c r="C403" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="D403" s="34" t="s">
+      <c r="D403" s="36" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7433,10 +7439,10 @@
       <c r="B404" s="3">
         <v>3585</v>
       </c>
-      <c r="C404" s="30" t="s">
+      <c r="C404" s="32" t="s">
         <v>294</v>
       </c>
-      <c r="D404" s="34" t="s">
+      <c r="D404" s="36" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7445,10 +7451,10 @@
       <c r="B405" s="3">
         <v>3586</v>
       </c>
-      <c r="C405" s="30" t="s">
+      <c r="C405" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="D405" s="34" t="s">
+      <c r="D405" s="36" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7457,10 +7463,10 @@
       <c r="B406" s="3">
         <v>3587</v>
       </c>
-      <c r="C406" s="30" t="s">
+      <c r="C406" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="D406" s="34" t="s">
+      <c r="D406" s="36" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7469,10 +7475,10 @@
       <c r="B407" s="3">
         <v>3589</v>
       </c>
-      <c r="C407" s="30" t="s">
+      <c r="C407" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="D407" s="34" t="s">
+      <c r="D407" s="36" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7481,10 +7487,10 @@
       <c r="B408" s="3">
         <v>3596</v>
       </c>
-      <c r="C408" s="30" t="s">
+      <c r="C408" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="D408" s="34" t="s">
+      <c r="D408" s="36" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7493,10 +7499,10 @@
       <c r="B409" s="3">
         <v>3611</v>
       </c>
-      <c r="C409" s="30" t="s">
+      <c r="C409" s="32" t="s">
         <v>294</v>
       </c>
-      <c r="D409" s="34" t="s">
+      <c r="D409" s="36" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7505,3248 +7511,3248 @@
       <c r="B410" s="3">
         <v>3615</v>
       </c>
-      <c r="C410" s="30" t="s">
+      <c r="C410" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="D410" s="34" t="s">
+      <c r="D410" s="36" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="411" ht="13.8" spans="1:4">
       <c r="A411" s="14"/>
-      <c r="B411" s="49">
+      <c r="B411" s="51">
         <v>3516</v>
       </c>
-      <c r="C411" s="49" t="s">
+      <c r="C411" s="51" t="s">
         <v>298</v>
       </c>
-      <c r="D411" s="48" t="s">
+      <c r="D411" s="50" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="412" hidden="1" spans="1:4">
       <c r="A412" s="14"/>
-      <c r="B412" s="35" t="s">
+      <c r="B412" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C412" s="35" t="s">
+      <c r="C412" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="D412" s="35" t="s">
+      <c r="D412" s="37" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="413" hidden="1" spans="1:4">
       <c r="A413" s="14"/>
-      <c r="B413" s="35">
+      <c r="B413" s="37">
         <v>3628</v>
       </c>
-      <c r="C413" s="35" t="s">
+      <c r="C413" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="D413" s="35" t="s">
+      <c r="D413" s="37" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="414" hidden="1" spans="1:4">
       <c r="A414" s="14"/>
-      <c r="B414" s="35">
+      <c r="B414" s="37">
         <v>3640</v>
       </c>
-      <c r="C414" s="35" t="s">
+      <c r="C414" s="37" t="s">
         <v>300</v>
       </c>
-      <c r="D414" s="35" t="s">
+      <c r="D414" s="37" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="415" hidden="1" spans="1:4">
       <c r="A415" s="14"/>
-      <c r="B415" s="38">
+      <c r="B415" s="40">
         <v>3647</v>
       </c>
-      <c r="C415" s="35" t="s">
+      <c r="C415" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="D415" s="35" t="s">
+      <c r="D415" s="37" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="416" hidden="1" spans="1:4">
       <c r="A416" s="14"/>
-      <c r="B416" s="38">
+      <c r="B416" s="40">
         <v>3660</v>
       </c>
-      <c r="C416" s="35" t="s">
+      <c r="C416" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="D416" s="35" t="s">
+      <c r="D416" s="37" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="417" hidden="1" spans="1:4">
       <c r="A417" s="14"/>
-      <c r="B417" s="39">
+      <c r="B417" s="41">
         <v>3666</v>
       </c>
-      <c r="C417" s="39" t="s">
+      <c r="C417" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="D417" s="39" t="s">
+      <c r="D417" s="41" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="418" ht="13.8" hidden="1" spans="1:4">
       <c r="A418" s="14"/>
-      <c r="B418" s="35">
+      <c r="B418" s="37">
         <v>3693</v>
       </c>
-      <c r="C418" s="35" t="s">
+      <c r="C418" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="D418" s="35" t="s">
+      <c r="D418" s="37" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="419" hidden="1" spans="1:4">
       <c r="A419" s="14"/>
-      <c r="B419" s="35">
+      <c r="B419" s="37">
         <v>3702</v>
       </c>
-      <c r="C419" s="35" t="s">
+      <c r="C419" s="37" t="s">
         <v>302</v>
       </c>
-      <c r="D419" s="35" t="s">
+      <c r="D419" s="37" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="420" hidden="1" spans="1:4">
       <c r="A420" s="14"/>
-      <c r="B420" s="35">
+      <c r="B420" s="37">
         <v>3704</v>
       </c>
-      <c r="C420" s="35" t="s">
+      <c r="C420" s="37" t="s">
         <v>303</v>
       </c>
-      <c r="D420" s="35" t="s">
+      <c r="D420" s="37" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="421" hidden="1" spans="1:4">
       <c r="A421" s="14"/>
-      <c r="B421" s="35">
+      <c r="B421" s="37">
         <v>3711</v>
       </c>
-      <c r="C421" s="35" t="s">
+      <c r="C421" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="D421" s="35" t="s">
+      <c r="D421" s="37" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="422" hidden="1" spans="1:4">
       <c r="A422" s="14"/>
-      <c r="B422" s="35">
+      <c r="B422" s="37">
         <v>3712</v>
       </c>
-      <c r="C422" s="35" t="s">
+      <c r="C422" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="D422" s="35" t="s">
+      <c r="D422" s="37" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="423" hidden="1" spans="1:4">
       <c r="A423" s="14"/>
-      <c r="B423" s="35">
+      <c r="B423" s="37">
         <v>3713</v>
       </c>
-      <c r="C423" s="35" t="s">
+      <c r="C423" s="37" t="s">
         <v>306</v>
       </c>
-      <c r="D423" s="35" t="s">
+      <c r="D423" s="37" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="424" hidden="1" spans="1:4">
       <c r="A424" s="14"/>
-      <c r="B424" s="35">
+      <c r="B424" s="37">
         <v>3719</v>
       </c>
-      <c r="C424" s="35" t="s">
+      <c r="C424" s="37" t="s">
         <v>307</v>
       </c>
-      <c r="D424" s="35" t="s">
+      <c r="D424" s="37" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="425" hidden="1" spans="1:4">
       <c r="A425" s="14"/>
-      <c r="B425" s="35">
+      <c r="B425" s="37">
         <v>3736</v>
       </c>
-      <c r="C425" s="35" t="s">
+      <c r="C425" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="D425" s="35" t="s">
+      <c r="D425" s="37" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="426" hidden="1" spans="1:4">
       <c r="A426" s="14"/>
-      <c r="B426" s="35">
+      <c r="B426" s="37">
         <v>3738</v>
       </c>
-      <c r="C426" s="35" t="s">
+      <c r="C426" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="D426" s="35" t="s">
+      <c r="D426" s="37" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="427" hidden="1" spans="1:4">
       <c r="A427" s="14"/>
-      <c r="B427" s="39">
+      <c r="B427" s="41">
         <v>3750</v>
       </c>
-      <c r="C427" s="39" t="s">
+      <c r="C427" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="D427" s="39" t="s">
+      <c r="D427" s="41" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="428" ht="13.8" spans="1:4">
       <c r="A428" s="14"/>
-      <c r="B428" s="30">
+      <c r="B428" s="32">
         <v>3763</v>
       </c>
-      <c r="C428" s="30" t="s">
+      <c r="C428" s="32" t="s">
         <v>309</v>
       </c>
-      <c r="D428" s="34" t="s">
+      <c r="D428" s="36" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="14"/>
-      <c r="B429" s="30">
+      <c r="B429" s="32">
         <v>3782</v>
       </c>
-      <c r="C429" s="30" t="s">
+      <c r="C429" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="D429" s="34" t="s">
+      <c r="D429" s="36" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="14"/>
-      <c r="B430" s="30">
+      <c r="B430" s="32">
         <v>2820</v>
       </c>
-      <c r="C430" s="30" t="s">
+      <c r="C430" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="D430" s="34" t="s">
+      <c r="D430" s="36" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="14"/>
-      <c r="B431" s="49">
+      <c r="B431" s="51">
         <v>3825</v>
       </c>
-      <c r="C431" s="49" t="s">
+      <c r="C431" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="D431" s="48" t="s">
+      <c r="D431" s="50" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="14"/>
-      <c r="B432" s="30">
+      <c r="B432" s="32">
         <v>3832</v>
       </c>
-      <c r="C432" s="30" t="s">
+      <c r="C432" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="D432" s="34" t="s">
+      <c r="D432" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="14"/>
-      <c r="B433" s="30">
+      <c r="B433" s="32">
         <v>3838</v>
       </c>
-      <c r="C433" s="30" t="s">
+      <c r="C433" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="D433" s="34" t="s">
+      <c r="D433" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="14"/>
-      <c r="B434" s="30">
+      <c r="B434" s="32">
         <v>3841</v>
       </c>
-      <c r="C434" s="30" t="s">
+      <c r="C434" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="D434" s="34" t="s">
+      <c r="D434" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="14"/>
-      <c r="B435" s="30">
+      <c r="B435" s="32">
         <v>3844</v>
       </c>
-      <c r="C435" s="30" t="s">
+      <c r="C435" s="32" t="s">
         <v>315</v>
       </c>
-      <c r="D435" s="34" t="s">
+      <c r="D435" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="14"/>
-      <c r="B436" s="30">
+      <c r="B436" s="32">
         <v>3846</v>
       </c>
-      <c r="C436" s="30" t="s">
+      <c r="C436" s="32" t="s">
         <v>316</v>
       </c>
-      <c r="D436" s="34" t="s">
+      <c r="D436" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="14"/>
-      <c r="B437" s="30">
+      <c r="B437" s="32">
         <v>3849</v>
       </c>
-      <c r="C437" s="30" t="s">
+      <c r="C437" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="D437" s="34" t="s">
+      <c r="D437" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="14"/>
-      <c r="B438" s="30">
+      <c r="B438" s="32">
         <v>3850</v>
       </c>
-      <c r="C438" s="30" t="s">
+      <c r="C438" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="D438" s="34" t="s">
+      <c r="D438" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="14"/>
-      <c r="B439" s="30">
+      <c r="B439" s="32">
         <v>3855</v>
       </c>
-      <c r="C439" s="30" t="s">
+      <c r="C439" s="32" t="s">
         <v>318</v>
       </c>
-      <c r="D439" s="34" t="s">
+      <c r="D439" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="14"/>
-      <c r="B440" s="30">
+      <c r="B440" s="32">
         <v>3857</v>
       </c>
-      <c r="C440" s="30" t="s">
+      <c r="C440" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="D440" s="34" t="s">
+      <c r="D440" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="14"/>
-      <c r="B441" s="30">
+      <c r="B441" s="32">
         <v>3858</v>
       </c>
-      <c r="C441" s="30" t="s">
+      <c r="C441" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="D441" s="34" t="s">
+      <c r="D441" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="14"/>
-      <c r="B442" s="30">
+      <c r="B442" s="32">
         <v>3865</v>
       </c>
-      <c r="C442" s="30" t="s">
+      <c r="C442" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="D442" s="34" t="s">
+      <c r="D442" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="14"/>
-      <c r="B443" s="30">
+      <c r="B443" s="32">
         <v>3868</v>
       </c>
-      <c r="C443" s="30" t="s">
+      <c r="C443" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="D443" s="34" t="s">
+      <c r="D443" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="14"/>
-      <c r="B444" s="30">
+      <c r="B444" s="32">
         <v>3872</v>
       </c>
-      <c r="C444" s="30" t="s">
+      <c r="C444" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="D444" s="34" t="s">
+      <c r="D444" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="14"/>
-      <c r="B445" s="30">
+      <c r="B445" s="32">
         <v>3873</v>
       </c>
-      <c r="C445" s="30" t="s">
+      <c r="C445" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="D445" s="34" t="s">
+      <c r="D445" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="14"/>
-      <c r="B446" s="30">
+      <c r="B446" s="32">
         <v>3874</v>
       </c>
-      <c r="C446" s="30" t="s">
+      <c r="C446" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="D446" s="34" t="s">
+      <c r="D446" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="14"/>
-      <c r="B447" s="30">
+      <c r="B447" s="32">
         <v>3875</v>
       </c>
-      <c r="C447" s="30" t="s">
+      <c r="C447" s="32" t="s">
         <v>323</v>
       </c>
-      <c r="D447" s="34" t="s">
+      <c r="D447" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="14"/>
-      <c r="B448" s="30">
+      <c r="B448" s="32">
         <v>3876</v>
       </c>
-      <c r="C448" s="30" t="s">
+      <c r="C448" s="32" t="s">
         <v>324</v>
       </c>
-      <c r="D448" s="34" t="s">
+      <c r="D448" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="14"/>
-      <c r="B449" s="30">
+      <c r="B449" s="32">
         <v>3881</v>
       </c>
-      <c r="C449" s="30" t="s">
+      <c r="C449" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="D449" s="34" t="s">
+      <c r="D449" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="14"/>
-      <c r="B450" s="30">
+      <c r="B450" s="32">
         <v>3884</v>
       </c>
-      <c r="C450" s="30" t="s">
+      <c r="C450" s="32" t="s">
         <v>325</v>
       </c>
-      <c r="D450" s="34" t="s">
+      <c r="D450" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="14"/>
-      <c r="B451" s="30">
+      <c r="B451" s="32">
         <v>3886</v>
       </c>
-      <c r="C451" s="30" t="s">
+      <c r="C451" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="D451" s="34" t="s">
+      <c r="D451" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="14"/>
-      <c r="B452" s="30">
+      <c r="B452" s="32">
         <v>3888</v>
       </c>
-      <c r="C452" s="30" t="s">
+      <c r="C452" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="D452" s="34" t="s">
+      <c r="D452" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="14"/>
-      <c r="B453" s="30">
+      <c r="B453" s="32">
         <v>3889</v>
       </c>
-      <c r="C453" s="30" t="s">
+      <c r="C453" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="D453" s="34" t="s">
+      <c r="D453" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="14"/>
-      <c r="B454" s="30">
+      <c r="B454" s="32">
         <v>3891</v>
       </c>
-      <c r="C454" s="30" t="s">
+      <c r="C454" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="D454" s="34" t="s">
+      <c r="D454" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="14"/>
-      <c r="B455" s="30">
+      <c r="B455" s="32">
         <v>3893</v>
       </c>
-      <c r="C455" s="30" t="s">
+      <c r="C455" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="D455" s="34" t="s">
+      <c r="D455" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="14"/>
-      <c r="B456" s="30">
+      <c r="B456" s="32">
         <v>3896</v>
       </c>
-      <c r="C456" s="30" t="s">
+      <c r="C456" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="D456" s="34" t="s">
+      <c r="D456" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="14"/>
-      <c r="B457" s="30">
+      <c r="B457" s="32">
         <v>3897</v>
       </c>
-      <c r="C457" s="30" t="s">
+      <c r="C457" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="D457" s="34" t="s">
+      <c r="D457" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="14"/>
-      <c r="B458" s="30">
+      <c r="B458" s="32">
         <v>3898</v>
       </c>
-      <c r="C458" s="30" t="s">
+      <c r="C458" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="D458" s="34" t="s">
+      <c r="D458" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="14"/>
-      <c r="B459" s="30">
+      <c r="B459" s="32">
         <v>3899</v>
       </c>
-      <c r="C459" s="30" t="s">
+      <c r="C459" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="D459" s="34" t="s">
+      <c r="D459" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="460" ht="13.8" spans="1:4">
       <c r="A460" s="14"/>
-      <c r="B460" s="49">
+      <c r="B460" s="51">
         <v>3900</v>
       </c>
-      <c r="C460" s="49" t="s">
+      <c r="C460" s="51" t="s">
         <v>328</v>
       </c>
-      <c r="D460" s="48" t="s">
+      <c r="D460" s="50" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="461" hidden="1" spans="1:4">
       <c r="A461" s="14"/>
-      <c r="B461" s="35">
+      <c r="B461" s="37">
         <v>3901</v>
       </c>
-      <c r="C461" s="35" t="s">
+      <c r="C461" s="37" t="s">
         <v>329</v>
       </c>
-      <c r="D461" s="35" t="s">
+      <c r="D461" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="462" hidden="1" spans="1:4">
       <c r="A462" s="14"/>
-      <c r="B462" s="35">
+      <c r="B462" s="37">
         <v>3902</v>
       </c>
-      <c r="C462" s="35" t="s">
+      <c r="C462" s="37" t="s">
         <v>330</v>
       </c>
-      <c r="D462" s="35" t="s">
+      <c r="D462" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="463" hidden="1" spans="1:4">
       <c r="A463" s="14"/>
-      <c r="B463" s="35">
+      <c r="B463" s="37">
         <v>3904</v>
       </c>
-      <c r="C463" s="35" t="s">
+      <c r="C463" s="37" t="s">
         <v>331</v>
       </c>
-      <c r="D463" s="35" t="s">
+      <c r="D463" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="464" hidden="1" spans="1:4">
       <c r="A464" s="14"/>
-      <c r="B464" s="35">
+      <c r="B464" s="37">
         <v>3906</v>
       </c>
-      <c r="C464" s="35" t="s">
+      <c r="C464" s="37" t="s">
         <v>332</v>
       </c>
-      <c r="D464" s="35" t="s">
+      <c r="D464" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="465" hidden="1" spans="1:4">
       <c r="A465" s="14"/>
-      <c r="B465" s="35">
+      <c r="B465" s="37">
         <v>3908</v>
       </c>
-      <c r="C465" s="35" t="s">
+      <c r="C465" s="37" t="s">
         <v>333</v>
       </c>
-      <c r="D465" s="35" t="s">
+      <c r="D465" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="466" hidden="1" spans="1:4">
       <c r="A466" s="14"/>
-      <c r="B466" s="35">
+      <c r="B466" s="37">
         <v>3910</v>
       </c>
-      <c r="C466" s="35" t="s">
+      <c r="C466" s="37" t="s">
         <v>330</v>
       </c>
-      <c r="D466" s="35" t="s">
+      <c r="D466" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="467" hidden="1" spans="1:4">
       <c r="A467" s="14"/>
-      <c r="B467" s="35">
+      <c r="B467" s="37">
         <v>3911</v>
       </c>
-      <c r="C467" s="35" t="s">
+      <c r="C467" s="37" t="s">
         <v>330</v>
       </c>
-      <c r="D467" s="35" t="s">
+      <c r="D467" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="468" hidden="1" spans="1:4">
       <c r="A468" s="14"/>
-      <c r="B468" s="35">
+      <c r="B468" s="37">
         <v>3912</v>
       </c>
-      <c r="C468" s="35" t="s">
+      <c r="C468" s="37" t="s">
         <v>330</v>
       </c>
-      <c r="D468" s="35" t="s">
+      <c r="D468" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="469" hidden="1" spans="1:4">
       <c r="A469" s="14"/>
-      <c r="B469" s="35">
+      <c r="B469" s="37">
         <v>3914</v>
       </c>
-      <c r="C469" s="35" t="s">
+      <c r="C469" s="37" t="s">
         <v>334</v>
       </c>
-      <c r="D469" s="35" t="s">
+      <c r="D469" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="470" hidden="1" spans="1:4">
       <c r="A470" s="14"/>
-      <c r="B470" s="35">
+      <c r="B470" s="37">
         <v>3918</v>
       </c>
-      <c r="C470" s="35" t="s">
+      <c r="C470" s="37" t="s">
         <v>335</v>
       </c>
-      <c r="D470" s="35" t="s">
+      <c r="D470" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="471" hidden="1" spans="1:4">
       <c r="A471" s="14"/>
-      <c r="B471" s="35">
+      <c r="B471" s="37">
         <v>3920</v>
       </c>
-      <c r="C471" s="35" t="s">
+      <c r="C471" s="37" t="s">
         <v>336</v>
       </c>
-      <c r="D471" s="35" t="s">
+      <c r="D471" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="472" hidden="1" spans="1:4">
       <c r="A472" s="14"/>
-      <c r="B472" s="35">
+      <c r="B472" s="37">
         <v>3922</v>
       </c>
-      <c r="C472" s="35" t="s">
+      <c r="C472" s="37" t="s">
         <v>336</v>
       </c>
-      <c r="D472" s="35" t="s">
+      <c r="D472" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="473" hidden="1" spans="1:4">
       <c r="A473" s="14"/>
-      <c r="B473" s="35">
+      <c r="B473" s="37">
         <v>3924</v>
       </c>
-      <c r="C473" s="35" t="s">
+      <c r="C473" s="37" t="s">
         <v>336</v>
       </c>
-      <c r="D473" s="35" t="s">
+      <c r="D473" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="474" hidden="1" spans="1:4">
       <c r="A474" s="14"/>
-      <c r="B474" s="35">
+      <c r="B474" s="37">
         <v>3925</v>
       </c>
-      <c r="C474" s="35" t="s">
+      <c r="C474" s="37" t="s">
         <v>336</v>
       </c>
-      <c r="D474" s="35" t="s">
+      <c r="D474" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="475" hidden="1" spans="1:4">
       <c r="A475" s="14"/>
-      <c r="B475" s="35">
+      <c r="B475" s="37">
         <v>3929</v>
       </c>
-      <c r="C475" s="35" t="s">
+      <c r="C475" s="37" t="s">
         <v>317</v>
       </c>
-      <c r="D475" s="35" t="s">
+      <c r="D475" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="476" hidden="1" spans="1:4">
       <c r="A476" s="14"/>
-      <c r="B476" s="35">
+      <c r="B476" s="37">
         <v>3933</v>
       </c>
-      <c r="C476" s="35" t="s">
+      <c r="C476" s="37" t="s">
         <v>317</v>
       </c>
-      <c r="D476" s="35" t="s">
+      <c r="D476" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="477" hidden="1" spans="1:4">
       <c r="A477" s="14"/>
-      <c r="B477" s="35">
+      <c r="B477" s="37">
         <v>3934</v>
       </c>
-      <c r="C477" s="35" t="s">
+      <c r="C477" s="37" t="s">
         <v>330</v>
       </c>
-      <c r="D477" s="35" t="s">
+      <c r="D477" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="478" hidden="1" spans="1:4">
       <c r="A478" s="14"/>
-      <c r="B478" s="35">
+      <c r="B478" s="37">
         <v>3935</v>
       </c>
-      <c r="C478" s="35" t="s">
+      <c r="C478" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="D478" s="35" t="s">
+      <c r="D478" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="479" hidden="1" spans="1:4">
       <c r="A479" s="14"/>
-      <c r="B479" s="35">
+      <c r="B479" s="37">
         <v>3936</v>
       </c>
-      <c r="C479" s="35" t="s">
+      <c r="C479" s="37" t="s">
         <v>330</v>
       </c>
-      <c r="D479" s="35" t="s">
+      <c r="D479" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="480" hidden="1" spans="1:4">
       <c r="A480" s="14"/>
-      <c r="B480" s="35">
+      <c r="B480" s="37">
         <v>3937</v>
       </c>
-      <c r="C480" s="35" t="s">
+      <c r="C480" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="D480" s="35" t="s">
+      <c r="D480" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="481" hidden="1" spans="1:4">
       <c r="A481" s="14"/>
-      <c r="B481" s="35">
+      <c r="B481" s="37">
         <v>3938</v>
       </c>
-      <c r="C481" s="35" t="s">
+      <c r="C481" s="37" t="s">
         <v>318</v>
       </c>
-      <c r="D481" s="35" t="s">
+      <c r="D481" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="482" hidden="1" spans="1:4">
       <c r="A482" s="14"/>
-      <c r="B482" s="35">
+      <c r="B482" s="37">
         <v>3939</v>
       </c>
-      <c r="C482" s="35" t="s">
+      <c r="C482" s="37" t="s">
         <v>339</v>
       </c>
-      <c r="D482" s="35" t="s">
+      <c r="D482" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="483" hidden="1" spans="1:4">
       <c r="A483" s="14"/>
-      <c r="B483" s="35">
+      <c r="B483" s="37">
         <v>3944</v>
       </c>
-      <c r="C483" s="35" t="s">
+      <c r="C483" s="37" t="s">
         <v>340</v>
       </c>
-      <c r="D483" s="35" t="s">
+      <c r="D483" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="484" hidden="1" spans="1:4">
       <c r="A484" s="14"/>
-      <c r="B484" s="35">
+      <c r="B484" s="37">
         <v>3945</v>
       </c>
-      <c r="C484" s="35" t="s">
+      <c r="C484" s="37" t="s">
         <v>341</v>
       </c>
-      <c r="D484" s="35" t="s">
+      <c r="D484" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="485" hidden="1" spans="1:4">
       <c r="A485" s="14"/>
-      <c r="B485" s="35">
+      <c r="B485" s="37">
         <v>3949</v>
       </c>
-      <c r="C485" s="35" t="s">
+      <c r="C485" s="37" t="s">
         <v>342</v>
       </c>
-      <c r="D485" s="35" t="s">
+      <c r="D485" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="486" hidden="1" spans="1:4">
       <c r="A486" s="14"/>
-      <c r="B486" s="35">
+      <c r="B486" s="37">
         <v>3952</v>
       </c>
-      <c r="C486" s="35" t="s">
+      <c r="C486" s="37" t="s">
         <v>343</v>
       </c>
-      <c r="D486" s="35" t="s">
+      <c r="D486" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="487" hidden="1" spans="1:4">
       <c r="A487" s="14"/>
-      <c r="B487" s="35">
+      <c r="B487" s="37">
         <v>3963</v>
       </c>
-      <c r="C487" s="35" t="s">
+      <c r="C487" s="37" t="s">
         <v>295</v>
       </c>
-      <c r="D487" s="35" t="s">
+      <c r="D487" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="488" hidden="1" spans="1:4">
       <c r="A488" s="14"/>
-      <c r="B488" s="35">
+      <c r="B488" s="37">
         <v>3964</v>
       </c>
-      <c r="C488" s="35" t="s">
+      <c r="C488" s="37" t="s">
         <v>344</v>
       </c>
-      <c r="D488" s="35" t="s">
+      <c r="D488" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="489" hidden="1" spans="1:4">
       <c r="A489" s="14"/>
-      <c r="B489" s="39">
+      <c r="B489" s="41">
         <v>3969</v>
       </c>
-      <c r="C489" s="39" t="s">
+      <c r="C489" s="41" t="s">
         <v>340</v>
       </c>
-      <c r="D489" s="39" t="s">
+      <c r="D489" s="41" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="490" ht="13.8" spans="1:4">
       <c r="A490" s="14"/>
-      <c r="B490" s="30">
+      <c r="B490" s="32">
         <v>3972</v>
       </c>
-      <c r="C490" s="30" t="s">
+      <c r="C490" s="32" t="s">
         <v>345</v>
       </c>
-      <c r="D490" s="34" t="s">
+      <c r="D490" s="36" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="14"/>
-      <c r="B491" s="30">
+      <c r="B491" s="32">
         <v>3978</v>
       </c>
-      <c r="C491" s="30" t="s">
+      <c r="C491" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="D491" s="34" t="s">
+      <c r="D491" s="36" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="14"/>
-      <c r="B492" s="30">
+      <c r="B492" s="32">
         <v>3984</v>
       </c>
-      <c r="C492" s="30" t="s">
+      <c r="C492" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="D492" s="34" t="s">
+      <c r="D492" s="36" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="14"/>
-      <c r="B493" s="30" t="s">
+      <c r="B493" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C493" s="30" t="s">
+      <c r="C493" s="32" t="s">
         <v>346</v>
       </c>
-      <c r="D493" s="34" t="s">
+      <c r="D493" s="36" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="14"/>
-      <c r="B494" s="30">
+      <c r="B494" s="32">
         <v>3991</v>
       </c>
-      <c r="C494" s="30" t="s">
+      <c r="C494" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D494" s="34" t="s">
+      <c r="D494" s="36" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="14"/>
-      <c r="B495" s="30">
+      <c r="B495" s="32">
         <v>3996</v>
       </c>
-      <c r="C495" s="30" t="s">
+      <c r="C495" s="32" t="s">
         <v>347</v>
       </c>
-      <c r="D495" s="34" t="s">
+      <c r="D495" s="36" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="14"/>
-      <c r="B496" s="30">
+      <c r="B496" s="32">
         <v>3999</v>
       </c>
-      <c r="C496" s="30" t="s">
+      <c r="C496" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="D496" s="34" t="s">
+      <c r="D496" s="36" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="14"/>
-      <c r="B497" s="30">
+      <c r="B497" s="32">
         <v>4005</v>
       </c>
-      <c r="C497" s="30" t="s">
+      <c r="C497" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="D497" s="34" t="s">
+      <c r="D497" s="36" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="14"/>
-      <c r="B498" s="30">
+      <c r="B498" s="32">
         <v>4008</v>
       </c>
-      <c r="C498" s="30" t="s">
+      <c r="C498" s="32" t="s">
         <v>348</v>
       </c>
-      <c r="D498" s="34" t="s">
+      <c r="D498" s="36" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="14"/>
-      <c r="B499" s="30">
+      <c r="B499" s="32">
         <v>4019</v>
       </c>
-      <c r="C499" s="30" t="s">
+      <c r="C499" s="32" t="s">
         <v>343</v>
       </c>
-      <c r="D499" s="34" t="s">
+      <c r="D499" s="36" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="14"/>
-      <c r="B500" s="30">
+      <c r="B500" s="32">
         <v>4026</v>
       </c>
-      <c r="C500" s="30" t="s">
+      <c r="C500" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="D500" s="34" t="s">
+      <c r="D500" s="36" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="501" ht="13.8" spans="1:4">
-      <c r="A501" s="51"/>
-      <c r="B501" s="49">
+      <c r="A501" s="53"/>
+      <c r="B501" s="51">
         <v>4034</v>
       </c>
-      <c r="C501" s="49" t="s">
+      <c r="C501" s="51" t="s">
         <v>349</v>
       </c>
-      <c r="D501" s="48" t="s">
+      <c r="D501" s="50" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="502" ht="13.8" hidden="1" spans="1:4">
-      <c r="A502" s="81" t="s">
+      <c r="A502" s="83" t="s">
         <v>350</v>
       </c>
-      <c r="B502" s="82"/>
-      <c r="C502" s="82" t="s">
+      <c r="B502" s="84"/>
+      <c r="C502" s="84" t="s">
         <v>351</v>
       </c>
-      <c r="D502" s="83" t="s">
+      <c r="D502" s="85" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="503" ht="13.8" spans="1:4">
-      <c r="A503" s="84"/>
-      <c r="B503" s="85"/>
-      <c r="C503" s="85" t="s">
+      <c r="A503" s="86"/>
+      <c r="B503" s="87"/>
+      <c r="C503" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D503" s="49" t="s">
+      <c r="D503" s="51" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="504" ht="13.8" spans="1:4">
-      <c r="A504" s="84"/>
-      <c r="B504" s="85"/>
-      <c r="C504" s="85" t="s">
+      <c r="A504" s="86"/>
+      <c r="B504" s="87"/>
+      <c r="C504" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D504" s="49" t="s">
+      <c r="D504" s="51" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="505" ht="13.8" spans="1:4">
-      <c r="A505" s="84"/>
-      <c r="B505" s="86">
+      <c r="A505" s="86"/>
+      <c r="B505" s="88">
         <v>4253</v>
       </c>
-      <c r="C505" s="86" t="s">
+      <c r="C505" s="88" t="s">
         <v>313</v>
       </c>
-      <c r="D505" s="30" t="s">
+      <c r="D505" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="506" ht="13.8" spans="1:4">
-      <c r="A506" s="84"/>
-      <c r="B506" s="87">
+      <c r="A506" s="86"/>
+      <c r="B506" s="89">
         <v>4256</v>
       </c>
-      <c r="C506" s="87" t="s">
+      <c r="C506" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="D506" s="30" t="s">
+      <c r="D506" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="507" ht="13.8" spans="1:4">
-      <c r="A507" s="84"/>
-      <c r="B507" s="88">
+      <c r="A507" s="86"/>
+      <c r="B507" s="90">
         <v>4310</v>
       </c>
-      <c r="C507" s="88" t="s">
+      <c r="C507" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="D507" s="49" t="s">
+      <c r="D507" s="51" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="508" ht="13.8" spans="1:4">
-      <c r="A508" s="84"/>
-      <c r="B508" s="85"/>
-      <c r="C508" s="85" t="s">
+      <c r="A508" s="86"/>
+      <c r="B508" s="87"/>
+      <c r="C508" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D508" s="49" t="s">
+      <c r="D508" s="51" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="509" ht="13.8" spans="1:4">
-      <c r="A509" s="84"/>
-      <c r="B509" s="86">
+      <c r="A509" s="86"/>
+      <c r="B509" s="88">
         <v>4397</v>
       </c>
-      <c r="C509" s="86" t="s">
+      <c r="C509" s="88" t="s">
         <v>352</v>
       </c>
-      <c r="D509" s="30" t="s">
+      <c r="D509" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="510" ht="13.8" spans="1:4">
-      <c r="A510" s="84"/>
-      <c r="B510" s="87">
+      <c r="A510" s="86"/>
+      <c r="B510" s="89">
         <v>4414</v>
       </c>
-      <c r="C510" s="87" t="s">
+      <c r="C510" s="89" t="s">
         <v>353</v>
       </c>
-      <c r="D510" s="30" t="s">
+      <c r="D510" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="511" ht="13.8" spans="1:4">
-      <c r="A511" s="84"/>
-      <c r="B511" s="87">
+      <c r="A511" s="86"/>
+      <c r="B511" s="89">
         <v>4417</v>
       </c>
-      <c r="C511" s="87" t="s">
+      <c r="C511" s="89" t="s">
         <v>354</v>
       </c>
-      <c r="D511" s="30" t="s">
+      <c r="D511" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="512" ht="13.8" spans="1:4">
-      <c r="A512" s="84"/>
-      <c r="B512" s="87">
+      <c r="A512" s="86"/>
+      <c r="B512" s="89">
         <v>4419</v>
       </c>
-      <c r="C512" s="87" t="s">
+      <c r="C512" s="89" t="s">
         <v>355</v>
       </c>
-      <c r="D512" s="30" t="s">
+      <c r="D512" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="513" ht="13.8" spans="1:4">
-      <c r="A513" s="84"/>
-      <c r="B513" s="87">
+      <c r="A513" s="86"/>
+      <c r="B513" s="89">
         <v>4424</v>
       </c>
-      <c r="C513" s="87" t="s">
+      <c r="C513" s="89" t="s">
         <v>356</v>
       </c>
-      <c r="D513" s="30" t="s">
+      <c r="D513" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="514" ht="13.8" spans="1:4">
-      <c r="A514" s="84"/>
+      <c r="A514" s="86"/>
       <c r="B514" s="3">
         <v>4457</v>
       </c>
       <c r="C514" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D514" s="30" t="s">
+      <c r="D514" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="515" ht="13.8" spans="1:4">
-      <c r="A515" s="84"/>
-      <c r="B515" s="85">
+      <c r="A515" s="86"/>
+      <c r="B515" s="87">
         <v>4460</v>
       </c>
-      <c r="C515" s="85" t="s">
+      <c r="C515" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="D515" s="49" t="s">
+      <c r="D515" s="51" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="516" ht="13.8" spans="1:4">
-      <c r="A516" s="84"/>
-      <c r="B516" s="86">
+      <c r="A516" s="86"/>
+      <c r="B516" s="88">
         <v>4463</v>
       </c>
-      <c r="C516" s="86" t="s">
+      <c r="C516" s="88" t="s">
         <v>358</v>
       </c>
-      <c r="D516" s="30" t="s">
+      <c r="D516" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="517" ht="13.8" spans="1:4">
-      <c r="A517" s="84"/>
-      <c r="B517" s="87">
+      <c r="A517" s="86"/>
+      <c r="B517" s="89">
         <v>4464</v>
       </c>
-      <c r="C517" s="87" t="s">
+      <c r="C517" s="89" t="s">
         <v>359</v>
       </c>
-      <c r="D517" s="30" t="s">
+      <c r="D517" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="518" ht="13.8" spans="1:4">
-      <c r="A518" s="84"/>
-      <c r="B518" s="87">
+      <c r="A518" s="86"/>
+      <c r="B518" s="89">
         <v>4465</v>
       </c>
-      <c r="C518" s="87" t="s">
+      <c r="C518" s="89" t="s">
         <v>360</v>
       </c>
-      <c r="D518" s="30" t="s">
+      <c r="D518" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="519" ht="13.8" spans="1:4">
-      <c r="A519" s="84"/>
-      <c r="B519" s="87">
+      <c r="A519" s="86"/>
+      <c r="B519" s="89">
         <v>4477</v>
       </c>
-      <c r="C519" s="87" t="s">
+      <c r="C519" s="89" t="s">
         <v>361</v>
       </c>
-      <c r="D519" s="30" t="s">
+      <c r="D519" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="520" ht="13.8" spans="1:4">
-      <c r="A520" s="84"/>
-      <c r="B520" s="87">
+      <c r="A520" s="86"/>
+      <c r="B520" s="89">
         <v>4486</v>
       </c>
-      <c r="C520" s="87" t="s">
+      <c r="C520" s="89" t="s">
         <v>321</v>
       </c>
-      <c r="D520" s="30" t="s">
+      <c r="D520" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="521" ht="13.8" spans="1:4">
-      <c r="A521" s="84"/>
+      <c r="A521" s="86"/>
       <c r="B521" s="3">
         <v>4487</v>
       </c>
       <c r="C521" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="D521" s="30" t="s">
+      <c r="D521" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="522" ht="13.8" spans="1:4">
-      <c r="A522" s="84"/>
+      <c r="A522" s="86"/>
       <c r="B522" s="3">
         <v>4489</v>
       </c>
       <c r="C522" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="D522" s="30" t="s">
+      <c r="D522" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="523" ht="13.8" spans="1:4">
-      <c r="A523" s="84"/>
+      <c r="A523" s="86"/>
       <c r="B523" s="3">
         <v>4496</v>
       </c>
       <c r="C523" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="D523" s="30" t="s">
+      <c r="D523" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="524" ht="13.8" spans="1:4">
-      <c r="A524" s="84"/>
+      <c r="A524" s="86"/>
       <c r="B524" s="3">
         <v>4499</v>
       </c>
       <c r="C524" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D524" s="30" t="s">
+      <c r="D524" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="525" ht="13.8" spans="1:4">
-      <c r="A525" s="84"/>
+      <c r="A525" s="86"/>
       <c r="B525" s="3">
         <v>4500</v>
       </c>
       <c r="C525" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D525" s="30" t="s">
+      <c r="D525" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="526" ht="13.8" spans="1:4">
-      <c r="A526" s="84"/>
+      <c r="A526" s="86"/>
       <c r="B526" s="3">
         <v>4510</v>
       </c>
       <c r="C526" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D526" s="30" t="s">
+      <c r="D526" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="527" ht="13.8" spans="1:4">
-      <c r="A527" s="84"/>
+      <c r="A527" s="86"/>
       <c r="B527" s="3">
         <v>4526</v>
       </c>
       <c r="C527" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D527" s="30" t="s">
+      <c r="D527" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="528" ht="13.8" spans="1:4">
-      <c r="A528" s="84"/>
-      <c r="B528" s="85">
+      <c r="A528" s="86"/>
+      <c r="B528" s="87">
         <v>4528</v>
       </c>
-      <c r="C528" s="85" t="s">
+      <c r="C528" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="D528" s="49" t="s">
+      <c r="D528" s="51" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="529" ht="13.8" spans="1:4">
-      <c r="A529" s="84"/>
-      <c r="B529" s="86">
+      <c r="A529" s="86"/>
+      <c r="B529" s="88">
         <v>4538</v>
       </c>
-      <c r="C529" s="86" t="s">
+      <c r="C529" s="88" t="s">
         <v>365</v>
       </c>
-      <c r="D529" s="30" t="s">
+      <c r="D529" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="530" ht="13.8" spans="1:4">
-      <c r="A530" s="84"/>
-      <c r="B530" s="87">
+      <c r="A530" s="86"/>
+      <c r="B530" s="89">
         <v>4546</v>
       </c>
-      <c r="C530" s="87" t="s">
+      <c r="C530" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="D530" s="30" t="s">
+      <c r="D530" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="531" ht="13.8" spans="1:4">
-      <c r="A531" s="84"/>
-      <c r="B531" s="87">
+      <c r="A531" s="86"/>
+      <c r="B531" s="89">
         <v>4547</v>
       </c>
-      <c r="C531" s="87" t="s">
+      <c r="C531" s="89" t="s">
         <v>295</v>
       </c>
-      <c r="D531" s="30" t="s">
+      <c r="D531" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="532" ht="13.8" spans="1:4">
-      <c r="A532" s="84"/>
-      <c r="B532" s="87">
+      <c r="A532" s="86"/>
+      <c r="B532" s="89">
         <v>4551</v>
       </c>
-      <c r="C532" s="87" t="s">
+      <c r="C532" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="D532" s="30" t="s">
+      <c r="D532" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="533" ht="13.8" spans="1:4">
-      <c r="A533" s="84"/>
-      <c r="B533" s="87">
+      <c r="A533" s="86"/>
+      <c r="B533" s="89">
         <v>4554</v>
       </c>
-      <c r="C533" s="87" t="s">
+      <c r="C533" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="D533" s="30" t="s">
+      <c r="D533" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="534" ht="13.8" spans="1:4">
-      <c r="A534" s="84"/>
+      <c r="A534" s="86"/>
       <c r="B534" s="3">
         <v>4558</v>
       </c>
       <c r="C534" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="D534" s="30" t="s">
+      <c r="D534" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="535" ht="13.8" spans="1:4">
-      <c r="A535" s="84"/>
+      <c r="A535" s="86"/>
       <c r="B535" s="3">
         <v>4559</v>
       </c>
       <c r="C535" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="D535" s="30" t="s">
+      <c r="D535" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="536" ht="13.8" spans="1:4">
-      <c r="A536" s="84"/>
+      <c r="A536" s="86"/>
       <c r="B536" s="3">
         <v>4562</v>
       </c>
-      <c r="C536" s="87" t="s">
+      <c r="C536" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="D536" s="30" t="s">
+      <c r="D536" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="537" ht="13.8" spans="1:4">
-      <c r="A537" s="84"/>
+      <c r="A537" s="86"/>
       <c r="B537" s="3">
         <v>4563</v>
       </c>
       <c r="C537" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D537" s="30" t="s">
+      <c r="D537" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="538" ht="13.8" spans="1:4">
-      <c r="A538" s="84"/>
+      <c r="A538" s="86"/>
       <c r="B538" s="3">
         <v>4564</v>
       </c>
-      <c r="C538" s="87" t="s">
+      <c r="C538" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="D538" s="30" t="s">
+      <c r="D538" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="539" ht="13.8" spans="1:4">
-      <c r="A539" s="84"/>
+      <c r="A539" s="86"/>
       <c r="B539" s="3">
         <v>4567</v>
       </c>
       <c r="C539" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D539" s="30" t="s">
+      <c r="D539" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="540" ht="13.8" spans="1:4">
-      <c r="A540" s="84"/>
+      <c r="A540" s="86"/>
       <c r="B540" s="3">
         <v>4570</v>
       </c>
-      <c r="C540" s="87" t="s">
+      <c r="C540" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="D540" s="30" t="s">
+      <c r="D540" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="541" ht="13.8" spans="1:4">
-      <c r="A541" s="84"/>
+      <c r="A541" s="86"/>
       <c r="B541" s="3">
         <v>4572</v>
       </c>
       <c r="C541" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="D541" s="30" t="s">
+      <c r="D541" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="542" ht="13.8" spans="1:4">
-      <c r="A542" s="84"/>
+      <c r="A542" s="86"/>
       <c r="B542" s="3">
         <v>4573</v>
       </c>
       <c r="C542" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D542" s="30" t="s">
+      <c r="D542" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="543" ht="13.8" spans="1:4">
-      <c r="A543" s="84"/>
+      <c r="A543" s="86"/>
       <c r="B543" s="3">
         <v>4578</v>
       </c>
       <c r="C543" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="D543" s="30" t="s">
+      <c r="D543" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="544" ht="13.8" spans="1:4">
-      <c r="A544" s="84"/>
+      <c r="A544" s="86"/>
       <c r="B544" s="3">
         <v>4582</v>
       </c>
-      <c r="C544" s="87" t="s">
+      <c r="C544" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="D544" s="30" t="s">
+      <c r="D544" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="545" ht="13.8" spans="1:4">
-      <c r="A545" s="84"/>
+      <c r="A545" s="86"/>
       <c r="B545" s="3">
         <v>4584</v>
       </c>
       <c r="C545" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D545" s="30" t="s">
+      <c r="D545" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="546" ht="13.8" spans="1:4">
-      <c r="A546" s="84"/>
+      <c r="A546" s="86"/>
       <c r="B546" s="3">
         <v>4585</v>
       </c>
       <c r="C546" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D546" s="30" t="s">
+      <c r="D546" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="547" ht="13.8" spans="1:4">
-      <c r="A547" s="84"/>
+      <c r="A547" s="86"/>
       <c r="B547" s="3">
         <v>4587</v>
       </c>
       <c r="C547" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D547" s="30" t="s">
+      <c r="D547" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="548" ht="13.8" spans="1:4">
-      <c r="A548" s="84"/>
+      <c r="A548" s="86"/>
       <c r="B548" s="3">
         <v>4589</v>
       </c>
-      <c r="C548" s="87" t="s">
+      <c r="C548" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="D548" s="30" t="s">
+      <c r="D548" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="549" ht="13.8" spans="1:4">
-      <c r="A549" s="84"/>
+      <c r="A549" s="86"/>
       <c r="B549" s="3">
         <v>4590</v>
       </c>
-      <c r="C549" s="87" t="s">
+      <c r="C549" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="D549" s="30" t="s">
+      <c r="D549" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="550" ht="13.8" spans="1:4">
-      <c r="A550" s="84"/>
+      <c r="A550" s="86"/>
       <c r="B550" s="3">
         <v>4592</v>
       </c>
-      <c r="C550" s="87" t="s">
+      <c r="C550" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="D550" s="30" t="s">
+      <c r="D550" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="551" ht="13.8" spans="1:4">
-      <c r="A551" s="84"/>
+      <c r="A551" s="86"/>
       <c r="B551" s="3">
         <v>4593</v>
       </c>
       <c r="C551" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D551" s="30" t="s">
+      <c r="D551" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="552" ht="13.8" spans="1:4">
-      <c r="A552" s="84"/>
+      <c r="A552" s="86"/>
       <c r="B552" s="3">
         <v>4595</v>
       </c>
       <c r="C552" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D552" s="30" t="s">
+      <c r="D552" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="553" ht="13.8" spans="1:4">
-      <c r="A553" s="84"/>
+      <c r="A553" s="86"/>
       <c r="B553" s="3">
         <v>4599</v>
       </c>
-      <c r="C553" s="87" t="s">
+      <c r="C553" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="D553" s="30" t="s">
+      <c r="D553" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="554" ht="13.8" spans="1:4">
-      <c r="A554" s="84"/>
-      <c r="B554" s="85">
+      <c r="A554" s="86"/>
+      <c r="B554" s="87">
         <v>4600</v>
       </c>
-      <c r="C554" s="85" t="s">
+      <c r="C554" s="87" t="s">
         <v>369</v>
       </c>
-      <c r="D554" s="49" t="s">
+      <c r="D554" s="51" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="555" ht="13.8" spans="1:4">
-      <c r="A555" s="84"/>
-      <c r="B555" s="86">
+      <c r="A555" s="86"/>
+      <c r="B555" s="88">
         <v>4639</v>
       </c>
-      <c r="C555" s="86" t="s">
+      <c r="C555" s="88" t="s">
         <v>370</v>
       </c>
-      <c r="D555" s="30" t="s">
+      <c r="D555" s="32" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="556" ht="13.8" spans="1:4">
-      <c r="A556" s="84"/>
-      <c r="B556" s="87">
+      <c r="A556" s="86"/>
+      <c r="B556" s="89">
         <v>4652</v>
       </c>
-      <c r="C556" s="87" t="s">
+      <c r="C556" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="D556" s="30" t="s">
+      <c r="D556" s="32" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="557" ht="13.8" spans="1:4">
-      <c r="A557" s="84"/>
-      <c r="B557" s="87">
+      <c r="A557" s="86"/>
+      <c r="B557" s="89">
         <v>4666</v>
       </c>
-      <c r="C557" s="87" t="s">
+      <c r="C557" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="D557" s="30" t="s">
+      <c r="D557" s="32" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="558" ht="13.8" spans="1:4">
-      <c r="A558" s="84"/>
-      <c r="B558" s="88">
+      <c r="A558" s="86"/>
+      <c r="B558" s="90">
         <v>4667</v>
       </c>
-      <c r="C558" s="88" t="s">
+      <c r="C558" s="90" t="s">
         <v>371</v>
       </c>
-      <c r="D558" s="49" t="s">
+      <c r="D558" s="51" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="559" ht="13.8" spans="1:4">
-      <c r="A559" s="84"/>
-      <c r="B559" s="86">
+      <c r="A559" s="86"/>
+      <c r="B559" s="88">
         <v>4674</v>
       </c>
-      <c r="C559" s="86" t="s">
+      <c r="C559" s="88" t="s">
         <v>372</v>
       </c>
-      <c r="D559" s="30" t="s">
+      <c r="D559" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="560" ht="13.8" spans="1:4">
-      <c r="A560" s="84"/>
-      <c r="B560" s="87">
+      <c r="A560" s="86"/>
+      <c r="B560" s="89">
         <v>4680</v>
       </c>
-      <c r="C560" s="87" t="s">
+      <c r="C560" s="89" t="s">
         <v>373</v>
       </c>
-      <c r="D560" s="30" t="s">
+      <c r="D560" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="561" ht="13.8" spans="1:4">
-      <c r="A561" s="84"/>
-      <c r="B561" s="87">
+      <c r="A561" s="86"/>
+      <c r="B561" s="89">
         <v>4682</v>
       </c>
-      <c r="C561" s="87" t="s">
+      <c r="C561" s="89" t="s">
         <v>344</v>
       </c>
-      <c r="D561" s="30" t="s">
+      <c r="D561" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="562" ht="13.8" spans="1:4">
-      <c r="A562" s="84"/>
-      <c r="B562" s="87">
+      <c r="A562" s="86"/>
+      <c r="B562" s="89">
         <v>4683</v>
       </c>
-      <c r="C562" s="87" t="s">
+      <c r="C562" s="89" t="s">
         <v>368</v>
       </c>
-      <c r="D562" s="30" t="s">
+      <c r="D562" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="563" ht="13.8" spans="1:4">
-      <c r="A563" s="84"/>
-      <c r="B563" s="87">
+      <c r="A563" s="86"/>
+      <c r="B563" s="89">
         <v>4684</v>
       </c>
-      <c r="C563" s="87" t="s">
+      <c r="C563" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="D563" s="30" t="s">
+      <c r="D563" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="564" ht="13.8" spans="1:4">
-      <c r="A564" s="84"/>
+      <c r="A564" s="86"/>
       <c r="B564" s="3">
         <v>4689</v>
       </c>
       <c r="C564" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D564" s="30" t="s">
+      <c r="D564" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="565" ht="13.8" spans="1:4">
-      <c r="A565" s="84"/>
+      <c r="A565" s="86"/>
       <c r="B565" s="3">
         <v>4692</v>
       </c>
       <c r="C565" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D565" s="30" t="s">
+      <c r="D565" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="566" ht="13.8" spans="1:4">
-      <c r="A566" s="84"/>
+      <c r="A566" s="86"/>
       <c r="B566" s="3">
         <v>4694</v>
       </c>
       <c r="C566" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="D566" s="30" t="s">
+      <c r="D566" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="567" ht="13.8" spans="1:4">
-      <c r="A567" s="84"/>
+      <c r="A567" s="86"/>
       <c r="B567" s="3">
         <v>4695</v>
       </c>
       <c r="C567" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="D567" s="30" t="s">
+      <c r="D567" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="568" ht="13.8" spans="1:4">
-      <c r="A568" s="84"/>
+      <c r="A568" s="86"/>
       <c r="B568" s="3">
         <v>4696</v>
       </c>
       <c r="C568" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="D568" s="30" t="s">
+      <c r="D568" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="569" ht="13.8" spans="1:4">
-      <c r="A569" s="84"/>
+      <c r="A569" s="86"/>
       <c r="B569" s="3">
         <v>4698</v>
       </c>
-      <c r="C569" s="87" t="s">
+      <c r="C569" s="89" t="s">
         <v>373</v>
       </c>
-      <c r="D569" s="30" t="s">
+      <c r="D569" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="570" ht="13.8" spans="1:4">
-      <c r="A570" s="84"/>
+      <c r="A570" s="86"/>
       <c r="B570" s="3">
         <v>4700</v>
       </c>
       <c r="C570" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="D570" s="30" t="s">
+      <c r="D570" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="571" ht="13.8" spans="1:4">
-      <c r="A571" s="84"/>
+      <c r="A571" s="86"/>
       <c r="B571" s="3">
         <v>4701</v>
       </c>
-      <c r="C571" s="87" t="s">
+      <c r="C571" s="89" t="s">
         <v>373</v>
       </c>
-      <c r="D571" s="30" t="s">
+      <c r="D571" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="572" ht="13.8" spans="1:4">
-      <c r="A572" s="84"/>
+      <c r="A572" s="86"/>
       <c r="B572" s="3">
         <v>4703</v>
       </c>
       <c r="C572" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D572" s="30" t="s">
+      <c r="D572" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="573" ht="13.8" spans="1:4">
-      <c r="A573" s="84"/>
+      <c r="A573" s="86"/>
       <c r="B573" s="3">
         <v>4704</v>
       </c>
       <c r="C573" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D573" s="30" t="s">
+      <c r="D573" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="574" ht="13.8" spans="1:4">
-      <c r="A574" s="84"/>
+      <c r="A574" s="86"/>
       <c r="B574" s="3">
         <v>4705</v>
       </c>
-      <c r="C574" s="87" t="s">
+      <c r="C574" s="89" t="s">
         <v>373</v>
       </c>
-      <c r="D574" s="30" t="s">
+      <c r="D574" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="575" ht="13.8" spans="1:4">
-      <c r="A575" s="84"/>
+      <c r="A575" s="86"/>
       <c r="B575" s="3">
         <v>4707</v>
       </c>
-      <c r="C575" s="87" t="s">
+      <c r="C575" s="89" t="s">
         <v>368</v>
       </c>
-      <c r="D575" s="30" t="s">
+      <c r="D575" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="576" ht="13.8" spans="1:4">
-      <c r="A576" s="84"/>
+      <c r="A576" s="86"/>
       <c r="B576" s="3">
         <v>4709</v>
       </c>
-      <c r="C576" s="87" t="s">
+      <c r="C576" s="89" t="s">
         <v>340</v>
       </c>
-      <c r="D576" s="30" t="s">
+      <c r="D576" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="577" ht="13.8" spans="1:4">
-      <c r="A577" s="84"/>
+      <c r="A577" s="86"/>
       <c r="B577" s="3">
         <v>4711</v>
       </c>
-      <c r="C577" s="87" t="s">
+      <c r="C577" s="89" t="s">
         <v>340</v>
       </c>
-      <c r="D577" s="30" t="s">
+      <c r="D577" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="578" ht="13.8" spans="1:4">
-      <c r="A578" s="84"/>
+      <c r="A578" s="86"/>
       <c r="B578" s="3">
         <v>4713</v>
       </c>
-      <c r="C578" s="87" t="s">
+      <c r="C578" s="89" t="s">
         <v>377</v>
       </c>
-      <c r="D578" s="30" t="s">
+      <c r="D578" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="579" ht="13.8" spans="1:4">
-      <c r="A579" s="84"/>
+      <c r="A579" s="86"/>
       <c r="B579" s="3">
         <v>4714</v>
       </c>
       <c r="C579" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D579" s="30" t="s">
+      <c r="D579" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="580" ht="13.8" spans="1:4">
-      <c r="A580" s="84"/>
+      <c r="A580" s="86"/>
       <c r="B580" s="3">
         <v>4718</v>
       </c>
-      <c r="C580" s="87" t="s">
+      <c r="C580" s="89" t="s">
         <v>368</v>
       </c>
-      <c r="D580" s="30" t="s">
+      <c r="D580" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="581" ht="13.8" spans="1:4">
-      <c r="A581" s="84"/>
+      <c r="A581" s="86"/>
       <c r="B581" s="3">
         <v>4719</v>
       </c>
-      <c r="C581" s="87" t="s">
+      <c r="C581" s="89" t="s">
         <v>340</v>
       </c>
-      <c r="D581" s="30" t="s">
+      <c r="D581" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="582" ht="13.8" spans="1:4">
-      <c r="A582" s="84"/>
+      <c r="A582" s="86"/>
       <c r="B582" s="3">
         <v>4720</v>
       </c>
-      <c r="C582" s="87" t="s">
+      <c r="C582" s="89" t="s">
         <v>368</v>
       </c>
-      <c r="D582" s="30" t="s">
+      <c r="D582" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="583" ht="13.8" spans="1:4">
-      <c r="A583" s="84"/>
+      <c r="A583" s="86"/>
       <c r="B583" s="3">
         <v>4722</v>
       </c>
       <c r="C583" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D583" s="30" t="s">
+      <c r="D583" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="584" ht="13.8" spans="1:4">
-      <c r="A584" s="84"/>
+      <c r="A584" s="86"/>
       <c r="B584" s="3">
         <v>4723</v>
       </c>
       <c r="C584" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="D584" s="30" t="s">
+      <c r="D584" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="585" ht="13.8" spans="1:4">
-      <c r="A585" s="84"/>
+      <c r="A585" s="86"/>
       <c r="B585" s="3">
         <v>4725</v>
       </c>
       <c r="C585" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D585" s="30" t="s">
+      <c r="D585" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="586" ht="13.8" spans="1:4">
-      <c r="A586" s="84"/>
+      <c r="A586" s="86"/>
       <c r="B586" s="3">
         <v>4727</v>
       </c>
       <c r="C586" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D586" s="30" t="s">
+      <c r="D586" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="587" ht="13.8" spans="1:4">
-      <c r="A587" s="84"/>
+      <c r="A587" s="86"/>
       <c r="B587" s="3">
         <v>4729</v>
       </c>
       <c r="C587" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="D587" s="30" t="s">
+      <c r="D587" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="588" ht="13.8" spans="1:4">
-      <c r="A588" s="84"/>
+      <c r="A588" s="86"/>
       <c r="B588" s="3">
         <v>4730</v>
       </c>
       <c r="C588" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="D588" s="30" t="s">
+      <c r="D588" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="589" ht="13.8" spans="1:4">
-      <c r="A589" s="84"/>
+      <c r="A589" s="86"/>
       <c r="B589" s="3">
         <v>4731</v>
       </c>
       <c r="C589" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D589" s="30" t="s">
+      <c r="D589" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="590" ht="13.8" spans="1:4">
-      <c r="A590" s="84"/>
+      <c r="A590" s="86"/>
       <c r="B590" s="3">
         <v>4733</v>
       </c>
-      <c r="C590" s="87" t="s">
+      <c r="C590" s="89" t="s">
         <v>368</v>
       </c>
-      <c r="D590" s="30" t="s">
+      <c r="D590" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="591" ht="13.8" spans="1:4">
-      <c r="A591" s="84"/>
+      <c r="A591" s="86"/>
       <c r="B591" s="3">
         <v>4736</v>
       </c>
       <c r="C591" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D591" s="30" t="s">
+      <c r="D591" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="592" ht="13.8" spans="1:4">
-      <c r="A592" s="84"/>
+      <c r="A592" s="86"/>
       <c r="B592" s="3">
         <v>4737</v>
       </c>
       <c r="C592" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="D592" s="30" t="s">
+      <c r="D592" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="593" ht="13.8" spans="1:4">
-      <c r="A593" s="84"/>
+      <c r="A593" s="86"/>
       <c r="B593" s="3">
         <v>4738</v>
       </c>
       <c r="C593" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="D593" s="30" t="s">
+      <c r="D593" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="594" ht="13.8" spans="1:4">
-      <c r="A594" s="84"/>
-      <c r="B594" s="85">
+      <c r="A594" s="86"/>
+      <c r="B594" s="87">
         <v>4739</v>
       </c>
-      <c r="C594" s="85" t="s">
+      <c r="C594" s="87" t="s">
         <v>381</v>
       </c>
-      <c r="D594" s="49" t="s">
+      <c r="D594" s="51" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="595" ht="13.8" spans="1:4">
-      <c r="A595" s="84"/>
-      <c r="B595" s="86">
+      <c r="A595" s="86"/>
+      <c r="B595" s="88">
         <v>4742</v>
       </c>
-      <c r="C595" s="86" t="s">
+      <c r="C595" s="88" t="s">
         <v>382</v>
       </c>
-      <c r="D595" s="30" t="s">
+      <c r="D595" s="32" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="596" ht="13.8" spans="1:4">
-      <c r="A596" s="84"/>
-      <c r="B596" s="87">
+      <c r="A596" s="86"/>
+      <c r="B596" s="89">
         <v>4750</v>
       </c>
       <c r="C596" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D596" s="30" t="s">
+      <c r="D596" s="32" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="597" ht="13.8" spans="1:4">
-      <c r="A597" s="84"/>
-      <c r="B597" s="87">
+      <c r="A597" s="86"/>
+      <c r="B597" s="89">
         <v>4759</v>
       </c>
       <c r="C597" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D597" s="30" t="s">
+      <c r="D597" s="32" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="598" ht="13.8" spans="1:4">
-      <c r="A598" s="84"/>
-      <c r="B598" s="88">
+      <c r="A598" s="86"/>
+      <c r="B598" s="90">
         <v>4778</v>
       </c>
-      <c r="C598" s="85" t="s">
+      <c r="C598" s="87" t="s">
         <v>344</v>
       </c>
-      <c r="D598" s="49" t="s">
+      <c r="D598" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="599" ht="13.8" spans="1:4">
-      <c r="A599" s="84"/>
-      <c r="B599" s="85"/>
-      <c r="C599" s="85" t="s">
+      <c r="A599" s="86"/>
+      <c r="B599" s="87"/>
+      <c r="C599" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D599" s="49" t="s">
+      <c r="D599" s="51" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="600" ht="13.8" spans="1:4">
-      <c r="A600" s="84"/>
-      <c r="B600" s="87">
+      <c r="A600" s="86"/>
+      <c r="B600" s="89">
         <v>4882</v>
       </c>
-      <c r="C600" s="87" t="s">
+      <c r="C600" s="89" t="s">
         <v>343</v>
       </c>
-      <c r="D600" s="30" t="s">
+      <c r="D600" s="32" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="601" ht="13.8" spans="1:4">
-      <c r="A601" s="84"/>
-      <c r="B601" s="87">
+      <c r="A601" s="86"/>
+      <c r="B601" s="89">
         <v>4883</v>
       </c>
       <c r="C601" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D601" s="30" t="s">
+      <c r="D601" s="32" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="602" ht="13.8" spans="1:4">
-      <c r="A602" s="84"/>
-      <c r="B602" s="87">
+      <c r="A602" s="86"/>
+      <c r="B602" s="89">
         <v>4884</v>
       </c>
       <c r="C602" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="D602" s="30" t="s">
+      <c r="D602" s="32" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="603" ht="13.8" spans="1:4">
-      <c r="A603" s="84"/>
-      <c r="B603" s="87">
+      <c r="A603" s="86"/>
+      <c r="B603" s="89">
         <v>4886</v>
       </c>
-      <c r="C603" s="87" t="s">
+      <c r="C603" s="89" t="s">
         <v>384</v>
       </c>
-      <c r="D603" s="30" t="s">
+      <c r="D603" s="32" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="604" ht="13.8" spans="1:4">
-      <c r="A604" s="84"/>
-      <c r="B604" s="87">
+      <c r="A604" s="86"/>
+      <c r="B604" s="89">
         <v>4888</v>
       </c>
       <c r="C604" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="D604" s="30" t="s">
+      <c r="D604" s="32" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="605" ht="13.8" spans="1:4">
-      <c r="A605" s="84"/>
+      <c r="A605" s="86"/>
       <c r="B605" s="3">
         <v>4889</v>
       </c>
-      <c r="C605" s="87" t="s">
+      <c r="C605" s="89" t="s">
         <v>368</v>
       </c>
-      <c r="D605" s="30" t="s">
+      <c r="D605" s="32" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="606" ht="13.8" spans="1:4">
-      <c r="A606" s="84"/>
+      <c r="A606" s="86"/>
       <c r="B606" s="3">
         <v>4891</v>
       </c>
       <c r="C606" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D606" s="30" t="s">
+      <c r="D606" s="32" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="607" ht="13.8" spans="1:4">
-      <c r="A607" s="84"/>
+      <c r="A607" s="86"/>
       <c r="B607" s="3">
         <v>4892</v>
       </c>
       <c r="C607" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="D607" s="30" t="s">
+      <c r="D607" s="32" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="608" ht="13.8" spans="1:4">
-      <c r="A608" s="84"/>
+      <c r="A608" s="86"/>
       <c r="B608" s="3">
         <v>4894</v>
       </c>
-      <c r="C608" s="87" t="s">
+      <c r="C608" s="89" t="s">
         <v>373</v>
       </c>
-      <c r="D608" s="30" t="s">
+      <c r="D608" s="32" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="609" ht="13.8" spans="1:4">
-      <c r="A609" s="84"/>
+      <c r="A609" s="86"/>
       <c r="B609" s="3">
         <v>4895</v>
       </c>
       <c r="C609" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="D609" s="30" t="s">
+      <c r="D609" s="32" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="610" ht="13.8" spans="1:4">
-      <c r="A610" s="84"/>
+      <c r="A610" s="86"/>
       <c r="B610" s="3">
         <v>4897</v>
       </c>
       <c r="C610" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D610" s="30" t="s">
+      <c r="D610" s="32" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="611" ht="13.8" spans="1:4">
-      <c r="A611" s="84"/>
+      <c r="A611" s="86"/>
       <c r="B611" s="3">
         <v>4901</v>
       </c>
       <c r="C611" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D611" s="30" t="s">
+      <c r="D611" s="32" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="612" ht="13.8" spans="1:4">
-      <c r="A612" s="84"/>
+      <c r="A612" s="86"/>
       <c r="B612" s="3">
         <v>4902</v>
       </c>
       <c r="C612" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="D612" s="30" t="s">
+      <c r="D612" s="32" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="613" ht="13.8" spans="1:4">
-      <c r="A613" s="84"/>
+      <c r="A613" s="86"/>
       <c r="B613" s="3">
         <v>4903</v>
       </c>
       <c r="C613" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D613" s="30" t="s">
+      <c r="D613" s="32" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="614" ht="13.8" spans="1:4">
-      <c r="A614" s="84"/>
+      <c r="A614" s="86"/>
       <c r="B614" s="3">
         <v>4906</v>
       </c>
       <c r="C614" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="D614" s="30" t="s">
+      <c r="D614" s="32" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="615" ht="13.8" spans="1:4">
-      <c r="A615" s="84"/>
+      <c r="A615" s="86"/>
       <c r="B615" s="3">
         <v>4907</v>
       </c>
       <c r="C615" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D615" s="30" t="s">
+      <c r="D615" s="32" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="616" ht="13.8" spans="1:4">
-      <c r="A616" s="84"/>
+      <c r="A616" s="86"/>
       <c r="B616" s="3">
         <v>4909</v>
       </c>
       <c r="C616" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D616" s="30" t="s">
+      <c r="D616" s="32" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="617" ht="13.8" spans="1:4">
-      <c r="A617" s="84"/>
+      <c r="A617" s="86"/>
       <c r="B617" s="3">
         <v>4910</v>
       </c>
       <c r="C617" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D617" s="30" t="s">
+      <c r="D617" s="32" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="618" ht="13.8" spans="1:4">
-      <c r="A618" s="84"/>
+      <c r="A618" s="86"/>
       <c r="B618" s="3">
         <v>4911</v>
       </c>
       <c r="C618" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="D618" s="30" t="s">
+      <c r="D618" s="32" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="619" ht="13.8" spans="1:4">
-      <c r="A619" s="84"/>
+      <c r="A619" s="86"/>
       <c r="B619" s="3">
         <v>4913</v>
       </c>
       <c r="C619" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D619" s="30" t="s">
+      <c r="D619" s="32" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="620" ht="13.8" spans="1:4">
-      <c r="A620" s="84"/>
-      <c r="B620" s="85">
+      <c r="A620" s="86"/>
+      <c r="B620" s="87">
         <v>4916</v>
       </c>
-      <c r="C620" s="85" t="s">
+      <c r="C620" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="D620" s="49" t="s">
+      <c r="D620" s="51" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="621" ht="13.8" spans="1:4">
-      <c r="A621" s="89"/>
-      <c r="B621" s="85"/>
-      <c r="C621" s="85" t="s">
+      <c r="A621" s="91"/>
+      <c r="B621" s="87"/>
+      <c r="C621" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D621" s="49" t="s">
+      <c r="D621" s="51" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="622" ht="13.8" spans="1:4">
-      <c r="A622" s="81" t="s">
+      <c r="A622" s="83" t="s">
         <v>391</v>
       </c>
-      <c r="B622" s="85"/>
-      <c r="C622" s="85" t="s">
+      <c r="B622" s="87"/>
+      <c r="C622" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D622" s="49" t="s">
+      <c r="D622" s="51" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="623" ht="13.8" spans="1:4">
-      <c r="A623" s="84"/>
-      <c r="B623" s="85"/>
-      <c r="C623" s="85" t="s">
+      <c r="A623" s="86"/>
+      <c r="B623" s="87"/>
+      <c r="C623" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D623" s="49" t="s">
+      <c r="D623" s="51" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="624" ht="13.8" spans="1:4">
-      <c r="A624" s="84"/>
-      <c r="B624" s="85"/>
-      <c r="C624" s="85" t="s">
+      <c r="A624" s="86"/>
+      <c r="B624" s="87"/>
+      <c r="C624" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D624" s="49" t="s">
+      <c r="D624" s="51" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="625" ht="13.8" spans="1:4">
-      <c r="A625" s="84"/>
-      <c r="B625" s="86"/>
-      <c r="C625" s="86"/>
-      <c r="D625" s="30"/>
+      <c r="A625" s="86"/>
+      <c r="B625" s="88"/>
+      <c r="C625" s="88"/>
+      <c r="D625" s="32"/>
     </row>
     <row r="626" ht="13.8" spans="1:4">
-      <c r="A626" s="84"/>
-      <c r="B626" s="87"/>
-      <c r="C626" s="87"/>
-      <c r="D626" s="30"/>
+      <c r="A626" s="86"/>
+      <c r="B626" s="89"/>
+      <c r="C626" s="89"/>
+      <c r="D626" s="32"/>
     </row>
     <row r="627" ht="13.8" spans="1:4">
-      <c r="A627" s="84"/>
-      <c r="B627" s="87"/>
-      <c r="C627" s="87"/>
-      <c r="D627" s="30"/>
+      <c r="A627" s="86"/>
+      <c r="B627" s="89"/>
+      <c r="C627" s="89"/>
+      <c r="D627" s="32"/>
     </row>
     <row r="628" ht="13.8" spans="1:4">
-      <c r="A628" s="84"/>
-      <c r="B628" s="87"/>
-      <c r="C628" s="87"/>
-      <c r="D628" s="30"/>
+      <c r="A628" s="86"/>
+      <c r="B628" s="89"/>
+      <c r="C628" s="89"/>
+      <c r="D628" s="32"/>
     </row>
     <row r="629" ht="13.8" spans="1:4">
-      <c r="A629" s="84"/>
-      <c r="B629" s="87"/>
-      <c r="C629" s="87"/>
-      <c r="D629" s="30"/>
+      <c r="A629" s="86"/>
+      <c r="B629" s="89"/>
+      <c r="C629" s="89"/>
+      <c r="D629" s="32"/>
     </row>
     <row r="630" ht="13.8" spans="1:4">
-      <c r="A630" s="84"/>
-      <c r="B630" s="88"/>
-      <c r="C630" s="88"/>
-      <c r="D630" s="49" t="s">
+      <c r="A630" s="86"/>
+      <c r="B630" s="90"/>
+      <c r="C630" s="90"/>
+      <c r="D630" s="51" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="631" ht="13.8" spans="1:4">
-      <c r="A631" s="84"/>
-      <c r="B631" s="85"/>
-      <c r="C631" s="85" t="s">
+      <c r="A631" s="86"/>
+      <c r="B631" s="87"/>
+      <c r="C631" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D631" s="49" t="s">
+      <c r="D631" s="51" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="632" ht="13.8" spans="1:4">
-      <c r="A632" s="84"/>
-      <c r="B632" s="86"/>
-      <c r="C632" s="86"/>
-      <c r="D632" s="30" t="s">
+      <c r="A632" s="86"/>
+      <c r="B632" s="88"/>
+      <c r="C632" s="88"/>
+      <c r="D632" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="633" ht="13.8" spans="1:4">
-      <c r="A633" s="84"/>
-      <c r="D633" s="90"/>
+      <c r="A633" s="86"/>
+      <c r="D633" s="92"/>
     </row>
     <row r="634" ht="13.8" spans="1:4">
-      <c r="A634" s="84"/>
-      <c r="D634" s="90"/>
+      <c r="A634" s="86"/>
+      <c r="D634" s="92"/>
     </row>
     <row r="635" ht="13.8" spans="1:4">
-      <c r="A635" s="84"/>
-      <c r="D635" s="90"/>
+      <c r="A635" s="86"/>
+      <c r="D635" s="92"/>
     </row>
     <row r="636" ht="13.8" spans="1:4">
-      <c r="A636" s="84"/>
-      <c r="D636" s="90"/>
+      <c r="A636" s="86"/>
+      <c r="D636" s="92"/>
     </row>
     <row r="637" ht="13.8" spans="1:4">
-      <c r="A637" s="84"/>
-      <c r="B637" s="85"/>
-      <c r="C637" s="85"/>
-      <c r="D637" s="49"/>
+      <c r="A637" s="86"/>
+      <c r="B637" s="87"/>
+      <c r="C637" s="87"/>
+      <c r="D637" s="51"/>
     </row>
     <row r="638" ht="13.8" spans="1:4">
-      <c r="A638" s="84"/>
-      <c r="D638" s="90"/>
+      <c r="A638" s="86"/>
+      <c r="D638" s="92"/>
     </row>
     <row r="639" ht="13.8" spans="1:4">
-      <c r="A639" s="84"/>
-      <c r="D639" s="90"/>
+      <c r="A639" s="86"/>
+      <c r="D639" s="92"/>
     </row>
     <row r="640" ht="13.8" spans="1:4">
-      <c r="A640" s="84"/>
-      <c r="D640" s="90"/>
+      <c r="A640" s="86"/>
+      <c r="D640" s="92"/>
     </row>
     <row r="641" ht="13.8" spans="1:4">
-      <c r="A641" s="84"/>
-      <c r="D641" s="90"/>
+      <c r="A641" s="86"/>
+      <c r="D641" s="92"/>
     </row>
     <row r="642" ht="13.8" spans="1:4">
-      <c r="A642" s="84"/>
-      <c r="D642" s="90"/>
+      <c r="A642" s="86"/>
+      <c r="D642" s="92"/>
     </row>
     <row r="643" ht="13.8" spans="1:4">
-      <c r="A643" s="84"/>
-      <c r="B643" s="85"/>
-      <c r="C643" s="85"/>
-      <c r="D643" s="49" t="s">
+      <c r="A643" s="86"/>
+      <c r="B643" s="87"/>
+      <c r="C643" s="87"/>
+      <c r="D643" s="51" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="644" ht="13.8" spans="1:4">
-      <c r="A644" s="84"/>
-      <c r="B644" s="86"/>
-      <c r="C644" s="86"/>
-      <c r="D644" s="30"/>
+      <c r="A644" s="86"/>
+      <c r="B644" s="88"/>
+      <c r="C644" s="88"/>
+      <c r="D644" s="32"/>
     </row>
     <row r="645" ht="13.8" spans="1:4">
-      <c r="A645" s="84"/>
-      <c r="B645" s="87"/>
-      <c r="C645" s="87"/>
-      <c r="D645" s="30"/>
+      <c r="A645" s="86"/>
+      <c r="B645" s="89"/>
+      <c r="C645" s="89"/>
+      <c r="D645" s="32"/>
     </row>
     <row r="646" ht="13.8" spans="1:4">
-      <c r="A646" s="84"/>
-      <c r="B646" s="87"/>
-      <c r="C646" s="87"/>
-      <c r="D646" s="30"/>
+      <c r="A646" s="86"/>
+      <c r="B646" s="89"/>
+      <c r="C646" s="89"/>
+      <c r="D646" s="32"/>
     </row>
     <row r="647" ht="13.8" spans="1:4">
-      <c r="A647" s="84"/>
-      <c r="B647" s="87"/>
-      <c r="C647" s="87"/>
-      <c r="D647" s="30"/>
+      <c r="A647" s="86"/>
+      <c r="B647" s="89"/>
+      <c r="C647" s="89"/>
+      <c r="D647" s="32"/>
     </row>
     <row r="648" ht="13.8" spans="1:4">
-      <c r="A648" s="84"/>
-      <c r="B648" s="87"/>
-      <c r="C648" s="87"/>
-      <c r="D648" s="30"/>
+      <c r="A648" s="86"/>
+      <c r="B648" s="89"/>
+      <c r="C648" s="89"/>
+      <c r="D648" s="32"/>
     </row>
     <row r="649" ht="13.8" spans="1:4">
-      <c r="A649" s="84"/>
-      <c r="B649" s="85"/>
-      <c r="C649" s="85" t="s">
+      <c r="A649" s="86"/>
+      <c r="B649" s="87"/>
+      <c r="C649" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D649" s="49" t="s">
+      <c r="D649" s="51" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="650" ht="13.8" spans="1:4">
-      <c r="A650" s="84"/>
-      <c r="B650" s="86"/>
-      <c r="C650" s="86"/>
-      <c r="D650" s="30"/>
+      <c r="A650" s="86"/>
+      <c r="B650" s="88"/>
+      <c r="C650" s="88"/>
+      <c r="D650" s="32"/>
     </row>
     <row r="651" ht="13.8" spans="1:4">
-      <c r="A651" s="84"/>
-      <c r="B651" s="87"/>
-      <c r="C651" s="87"/>
-      <c r="D651" s="30"/>
+      <c r="A651" s="86"/>
+      <c r="B651" s="89"/>
+      <c r="C651" s="89"/>
+      <c r="D651" s="32"/>
     </row>
     <row r="652" ht="13.8" spans="1:4">
-      <c r="A652" s="84"/>
-      <c r="B652" s="87"/>
-      <c r="C652" s="87"/>
-      <c r="D652" s="30"/>
+      <c r="A652" s="86"/>
+      <c r="B652" s="89"/>
+      <c r="C652" s="89"/>
+      <c r="D652" s="32"/>
     </row>
     <row r="653" ht="13.8" spans="1:4">
-      <c r="A653" s="84"/>
-      <c r="B653" s="87"/>
-      <c r="C653" s="87"/>
-      <c r="D653" s="30"/>
+      <c r="A653" s="86"/>
+      <c r="B653" s="89"/>
+      <c r="C653" s="89"/>
+      <c r="D653" s="32"/>
     </row>
     <row r="654" ht="13.8" spans="1:4">
-      <c r="A654" s="84"/>
-      <c r="B654" s="87"/>
-      <c r="C654" s="87"/>
-      <c r="D654" s="30"/>
+      <c r="A654" s="86"/>
+      <c r="B654" s="89"/>
+      <c r="C654" s="89"/>
+      <c r="D654" s="32"/>
     </row>
     <row r="655" ht="13.8" spans="1:4">
-      <c r="A655" s="84"/>
-      <c r="B655" s="85"/>
-      <c r="C655" s="85" t="s">
+      <c r="A655" s="86"/>
+      <c r="B655" s="87"/>
+      <c r="C655" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D655" s="49" t="s">
+      <c r="D655" s="51" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="656" ht="13.8" spans="1:4">
-      <c r="A656" s="84"/>
-      <c r="B656" s="86"/>
-      <c r="C656" s="86"/>
-      <c r="D656" s="30"/>
+      <c r="A656" s="86"/>
+      <c r="B656" s="88"/>
+      <c r="C656" s="88"/>
+      <c r="D656" s="32"/>
     </row>
     <row r="657" ht="13.8" spans="1:4">
-      <c r="A657" s="84"/>
-      <c r="B657" s="87"/>
-      <c r="C657" s="87"/>
-      <c r="D657" s="30"/>
+      <c r="A657" s="86"/>
+      <c r="B657" s="89"/>
+      <c r="C657" s="89"/>
+      <c r="D657" s="32"/>
     </row>
     <row r="658" ht="13.8" spans="1:4">
-      <c r="A658" s="84"/>
-      <c r="B658" s="87"/>
-      <c r="C658" s="87"/>
-      <c r="D658" s="30"/>
+      <c r="A658" s="86"/>
+      <c r="B658" s="89"/>
+      <c r="C658" s="89"/>
+      <c r="D658" s="32"/>
     </row>
     <row r="659" ht="13.8" spans="1:4">
-      <c r="A659" s="84"/>
-      <c r="B659" s="87"/>
-      <c r="C659" s="87"/>
-      <c r="D659" s="30"/>
+      <c r="A659" s="86"/>
+      <c r="B659" s="89"/>
+      <c r="C659" s="89"/>
+      <c r="D659" s="32"/>
     </row>
     <row r="660" ht="13.8" spans="1:4">
-      <c r="A660" s="84"/>
-      <c r="B660" s="87"/>
-      <c r="C660" s="87"/>
-      <c r="D660" s="30"/>
+      <c r="A660" s="86"/>
+      <c r="B660" s="89"/>
+      <c r="C660" s="89"/>
+      <c r="D660" s="32"/>
     </row>
     <row r="661" ht="13.8" spans="1:4">
-      <c r="A661" s="84"/>
-      <c r="B661" s="85"/>
-      <c r="C661" s="85" t="s">
+      <c r="A661" s="86"/>
+      <c r="B661" s="87"/>
+      <c r="C661" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D661" s="49" t="s">
+      <c r="D661" s="51" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="662" ht="13.8" spans="1:4">
-      <c r="A662" s="84"/>
-      <c r="B662" s="86"/>
-      <c r="C662" s="86"/>
-      <c r="D662" s="30"/>
+      <c r="A662" s="86"/>
+      <c r="B662" s="88"/>
+      <c r="C662" s="88"/>
+      <c r="D662" s="32"/>
     </row>
     <row r="663" ht="13.8" spans="1:4">
-      <c r="A663" s="84"/>
-      <c r="B663" s="87"/>
-      <c r="C663" s="87"/>
-      <c r="D663" s="30"/>
+      <c r="A663" s="86"/>
+      <c r="B663" s="89"/>
+      <c r="C663" s="89"/>
+      <c r="D663" s="32"/>
     </row>
     <row r="664" ht="13.8" spans="1:4">
-      <c r="A664" s="84"/>
-      <c r="B664" s="87"/>
-      <c r="C664" s="87"/>
-      <c r="D664" s="30"/>
+      <c r="A664" s="86"/>
+      <c r="B664" s="89"/>
+      <c r="C664" s="89"/>
+      <c r="D664" s="32"/>
     </row>
     <row r="665" ht="13.8" spans="1:4">
-      <c r="A665" s="84"/>
-      <c r="B665" s="87"/>
-      <c r="C665" s="87"/>
-      <c r="D665" s="30"/>
+      <c r="A665" s="86"/>
+      <c r="B665" s="89"/>
+      <c r="C665" s="89"/>
+      <c r="D665" s="32"/>
     </row>
     <row r="666" ht="13.8" spans="1:4">
-      <c r="A666" s="84"/>
-      <c r="B666" s="87"/>
-      <c r="C666" s="87"/>
-      <c r="D666" s="30"/>
+      <c r="A666" s="86"/>
+      <c r="B666" s="89"/>
+      <c r="C666" s="89"/>
+      <c r="D666" s="32"/>
     </row>
     <row r="667" ht="13.8" spans="1:4">
-      <c r="A667" s="84"/>
-      <c r="B667" s="85"/>
-      <c r="C667" s="85" t="s">
+      <c r="A667" s="86"/>
+      <c r="B667" s="87"/>
+      <c r="C667" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D667" s="49" t="s">
+      <c r="D667" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="668" ht="13.8" spans="1:4">
-      <c r="A668" s="84"/>
-      <c r="B668" s="85"/>
-      <c r="C668" s="85" t="s">
+      <c r="A668" s="86"/>
+      <c r="B668" s="87"/>
+      <c r="C668" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D668" s="49" t="s">
+      <c r="D668" s="51" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="669" ht="13.8" spans="1:4">
-      <c r="A669" s="84"/>
-      <c r="B669" s="87"/>
-      <c r="C669" s="87"/>
-      <c r="D669" s="30"/>
+      <c r="A669" s="86"/>
+      <c r="B669" s="89"/>
+      <c r="C669" s="89"/>
+      <c r="D669" s="32"/>
     </row>
     <row r="670" ht="13.8" spans="1:4">
-      <c r="A670" s="84"/>
-      <c r="B670" s="87"/>
-      <c r="C670" s="87"/>
-      <c r="D670" s="30"/>
+      <c r="A670" s="86"/>
+      <c r="B670" s="89"/>
+      <c r="C670" s="89"/>
+      <c r="D670" s="32"/>
     </row>
     <row r="671" ht="13.8" spans="1:4">
-      <c r="A671" s="84"/>
-      <c r="B671" s="87"/>
-      <c r="C671" s="87"/>
-      <c r="D671" s="30"/>
+      <c r="A671" s="86"/>
+      <c r="B671" s="89"/>
+      <c r="C671" s="89"/>
+      <c r="D671" s="32"/>
     </row>
     <row r="672" ht="13.8" spans="1:4">
-      <c r="A672" s="84"/>
-      <c r="B672" s="87"/>
-      <c r="C672" s="87"/>
-      <c r="D672" s="30"/>
+      <c r="A672" s="86"/>
+      <c r="B672" s="89"/>
+      <c r="C672" s="89"/>
+      <c r="D672" s="32"/>
     </row>
     <row r="673" ht="13.8" spans="1:4">
-      <c r="A673" s="84"/>
-      <c r="B673" s="87"/>
-      <c r="C673" s="87"/>
-      <c r="D673" s="30"/>
+      <c r="A673" s="86"/>
+      <c r="B673" s="89"/>
+      <c r="C673" s="89"/>
+      <c r="D673" s="32"/>
     </row>
     <row r="674" ht="13.8" spans="1:4">
-      <c r="A674" s="84"/>
-      <c r="B674" s="85"/>
-      <c r="C674" s="85" t="s">
+      <c r="A674" s="86"/>
+      <c r="B674" s="87"/>
+      <c r="C674" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D674" s="49" t="s">
+      <c r="D674" s="51" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="675" ht="13.8" spans="1:4">
-      <c r="A675" s="89"/>
-      <c r="B675" s="85"/>
-      <c r="C675" s="85" t="s">
+      <c r="A675" s="91"/>
+      <c r="B675" s="87"/>
+      <c r="C675" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D675" s="49" t="s">
+      <c r="D675" s="51" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="676" ht="13.8" spans="1:4">
-      <c r="A676" s="81" t="s">
+      <c r="A676" s="83" t="s">
         <v>391</v>
       </c>
-      <c r="B676" s="85"/>
-      <c r="C676" s="85" t="s">
+      <c r="B676" s="87"/>
+      <c r="C676" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D676" s="49" t="s">
+      <c r="D676" s="51" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="677" ht="13.8" spans="1:4">
-      <c r="A677" s="84"/>
-      <c r="B677" s="85"/>
-      <c r="C677" s="85" t="s">
+      <c r="A677" s="86"/>
+      <c r="B677" s="87"/>
+      <c r="C677" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D677" s="49" t="s">
+      <c r="D677" s="51" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="678" ht="13.8" spans="1:4">
-      <c r="A678" s="84"/>
-      <c r="B678" s="85"/>
-      <c r="C678" s="85" t="s">
+      <c r="A678" s="86"/>
+      <c r="B678" s="87"/>
+      <c r="C678" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D678" s="49" t="s">
+      <c r="D678" s="51" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="679" ht="13.8" spans="1:4">
-      <c r="A679" s="84"/>
-      <c r="B679" s="86"/>
-      <c r="C679" s="86"/>
-      <c r="D679" s="30"/>
+      <c r="A679" s="86"/>
+      <c r="B679" s="88"/>
+      <c r="C679" s="88"/>
+      <c r="D679" s="32"/>
     </row>
     <row r="680" ht="13.8" spans="1:4">
-      <c r="A680" s="84"/>
-      <c r="B680" s="87"/>
-      <c r="C680" s="87"/>
-      <c r="D680" s="30"/>
+      <c r="A680" s="86"/>
+      <c r="B680" s="89"/>
+      <c r="C680" s="89"/>
+      <c r="D680" s="32"/>
     </row>
     <row r="681" ht="13.8" spans="1:4">
-      <c r="A681" s="84"/>
-      <c r="B681" s="87"/>
-      <c r="C681" s="87"/>
-      <c r="D681" s="30"/>
+      <c r="A681" s="86"/>
+      <c r="B681" s="89"/>
+      <c r="C681" s="89"/>
+      <c r="D681" s="32"/>
     </row>
     <row r="682" ht="13.8" spans="1:4">
-      <c r="A682" s="84"/>
-      <c r="B682" s="87"/>
-      <c r="C682" s="87"/>
-      <c r="D682" s="30"/>
+      <c r="A682" s="86"/>
+      <c r="B682" s="89"/>
+      <c r="C682" s="89"/>
+      <c r="D682" s="32"/>
     </row>
     <row r="683" ht="13.8" spans="1:4">
-      <c r="A683" s="84"/>
-      <c r="B683" s="87"/>
-      <c r="C683" s="87"/>
-      <c r="D683" s="30"/>
+      <c r="A683" s="86"/>
+      <c r="B683" s="89"/>
+      <c r="C683" s="89"/>
+      <c r="D683" s="32"/>
     </row>
     <row r="684" ht="13.8" spans="1:4">
-      <c r="A684" s="84"/>
-      <c r="B684" s="88"/>
-      <c r="C684" s="88"/>
-      <c r="D684" s="49" t="s">
+      <c r="A684" s="86"/>
+      <c r="B684" s="90"/>
+      <c r="C684" s="90"/>
+      <c r="D684" s="51" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="685" ht="13.8" spans="1:4">
-      <c r="A685" s="84"/>
-      <c r="B685" s="85"/>
-      <c r="C685" s="85" t="s">
+      <c r="A685" s="86"/>
+      <c r="B685" s="87"/>
+      <c r="C685" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D685" s="49" t="s">
+      <c r="D685" s="51" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="686" ht="13.8" spans="1:4">
-      <c r="A686" s="84"/>
-      <c r="B686" s="86"/>
-      <c r="C686" s="86"/>
-      <c r="D686" s="30" t="s">
+      <c r="A686" s="86"/>
+      <c r="B686" s="88"/>
+      <c r="C686" s="88"/>
+      <c r="D686" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="687" ht="13.8" spans="1:4">
-      <c r="A687" s="84"/>
-      <c r="D687" s="90"/>
+      <c r="A687" s="86"/>
+      <c r="D687" s="92"/>
     </row>
     <row r="688" ht="13.8" spans="1:4">
-      <c r="A688" s="84"/>
-      <c r="D688" s="90"/>
+      <c r="A688" s="86"/>
+      <c r="D688" s="92"/>
     </row>
     <row r="689" ht="13.8" spans="1:4">
-      <c r="A689" s="84"/>
-      <c r="D689" s="90"/>
+      <c r="A689" s="86"/>
+      <c r="D689" s="92"/>
     </row>
     <row r="690" ht="13.8" spans="1:4">
-      <c r="A690" s="84"/>
-      <c r="D690" s="90"/>
+      <c r="A690" s="86"/>
+      <c r="D690" s="92"/>
     </row>
     <row r="691" ht="13.8" spans="1:4">
-      <c r="A691" s="84"/>
-      <c r="B691" s="85"/>
-      <c r="C691" s="85"/>
-      <c r="D691" s="49"/>
+      <c r="A691" s="86"/>
+      <c r="B691" s="87"/>
+      <c r="C691" s="87"/>
+      <c r="D691" s="51"/>
     </row>
     <row r="692" ht="13.8" spans="1:4">
-      <c r="A692" s="84"/>
-      <c r="D692" s="90"/>
+      <c r="A692" s="86"/>
+      <c r="D692" s="92"/>
     </row>
     <row r="693" ht="13.8" spans="1:4">
-      <c r="A693" s="84"/>
-      <c r="D693" s="90"/>
+      <c r="A693" s="86"/>
+      <c r="D693" s="92"/>
     </row>
     <row r="694" ht="13.8" spans="1:4">
-      <c r="A694" s="84"/>
-      <c r="D694" s="90"/>
+      <c r="A694" s="86"/>
+      <c r="D694" s="92"/>
     </row>
     <row r="695" ht="13.8" spans="1:4">
-      <c r="A695" s="84"/>
-      <c r="D695" s="90"/>
+      <c r="A695" s="86"/>
+      <c r="D695" s="92"/>
     </row>
     <row r="696" ht="13.8" spans="1:4">
-      <c r="A696" s="84"/>
-      <c r="D696" s="90"/>
+      <c r="A696" s="86"/>
+      <c r="D696" s="92"/>
     </row>
     <row r="697" ht="13.8" spans="1:4">
-      <c r="A697" s="84"/>
-      <c r="B697" s="85"/>
-      <c r="C697" s="85"/>
-      <c r="D697" s="49" t="s">
+      <c r="A697" s="86"/>
+      <c r="B697" s="87"/>
+      <c r="C697" s="87"/>
+      <c r="D697" s="51" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="698" ht="13.8" spans="1:4">
-      <c r="A698" s="84"/>
-      <c r="B698" s="86"/>
-      <c r="C698" s="86"/>
-      <c r="D698" s="30"/>
+      <c r="A698" s="86"/>
+      <c r="B698" s="88"/>
+      <c r="C698" s="88"/>
+      <c r="D698" s="32"/>
     </row>
     <row r="699" ht="13.8" spans="1:4">
-      <c r="A699" s="84"/>
-      <c r="B699" s="87"/>
-      <c r="C699" s="87"/>
-      <c r="D699" s="30"/>
+      <c r="A699" s="86"/>
+      <c r="B699" s="89"/>
+      <c r="C699" s="89"/>
+      <c r="D699" s="32"/>
     </row>
     <row r="700" ht="13.8" spans="1:4">
-      <c r="A700" s="84"/>
-      <c r="B700" s="87"/>
-      <c r="C700" s="87"/>
-      <c r="D700" s="30"/>
+      <c r="A700" s="86"/>
+      <c r="B700" s="89"/>
+      <c r="C700" s="89"/>
+      <c r="D700" s="32"/>
     </row>
     <row r="701" ht="13.8" spans="1:4">
-      <c r="A701" s="84"/>
-      <c r="B701" s="87"/>
-      <c r="C701" s="87"/>
-      <c r="D701" s="30"/>
+      <c r="A701" s="86"/>
+      <c r="B701" s="89"/>
+      <c r="C701" s="89"/>
+      <c r="D701" s="32"/>
     </row>
     <row r="702" ht="13.8" spans="1:4">
-      <c r="A702" s="84"/>
-      <c r="B702" s="87"/>
-      <c r="C702" s="87"/>
-      <c r="D702" s="30"/>
+      <c r="A702" s="86"/>
+      <c r="B702" s="89"/>
+      <c r="C702" s="89"/>
+      <c r="D702" s="32"/>
     </row>
     <row r="703" ht="13.8" spans="1:4">
-      <c r="A703" s="84"/>
-      <c r="B703" s="85"/>
-      <c r="C703" s="85" t="s">
+      <c r="A703" s="86"/>
+      <c r="B703" s="87"/>
+      <c r="C703" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D703" s="49" t="s">
+      <c r="D703" s="51" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="704" ht="13.8" spans="1:4">
-      <c r="A704" s="84"/>
-      <c r="B704" s="86"/>
-      <c r="C704" s="86"/>
-      <c r="D704" s="30"/>
+      <c r="A704" s="86"/>
+      <c r="B704" s="88"/>
+      <c r="C704" s="88"/>
+      <c r="D704" s="32"/>
     </row>
     <row r="705" ht="13.8" spans="1:4">
-      <c r="A705" s="84"/>
-      <c r="B705" s="87"/>
-      <c r="C705" s="87"/>
-      <c r="D705" s="30"/>
+      <c r="A705" s="86"/>
+      <c r="B705" s="89"/>
+      <c r="C705" s="89"/>
+      <c r="D705" s="32"/>
     </row>
     <row r="706" ht="13.8" spans="1:4">
-      <c r="A706" s="84"/>
-      <c r="B706" s="87"/>
-      <c r="C706" s="87"/>
-      <c r="D706" s="30"/>
+      <c r="A706" s="86"/>
+      <c r="B706" s="89"/>
+      <c r="C706" s="89"/>
+      <c r="D706" s="32"/>
     </row>
     <row r="707" ht="13.8" spans="1:4">
-      <c r="A707" s="84"/>
-      <c r="B707" s="87"/>
-      <c r="C707" s="87"/>
-      <c r="D707" s="30"/>
+      <c r="A707" s="86"/>
+      <c r="B707" s="89"/>
+      <c r="C707" s="89"/>
+      <c r="D707" s="32"/>
     </row>
     <row r="708" ht="13.8" spans="1:4">
-      <c r="A708" s="84"/>
-      <c r="B708" s="87"/>
-      <c r="C708" s="87"/>
-      <c r="D708" s="30"/>
+      <c r="A708" s="86"/>
+      <c r="B708" s="89"/>
+      <c r="C708" s="89"/>
+      <c r="D708" s="32"/>
     </row>
     <row r="709" ht="13.8" spans="1:4">
-      <c r="A709" s="84"/>
-      <c r="B709" s="85"/>
-      <c r="C709" s="85" t="s">
+      <c r="A709" s="86"/>
+      <c r="B709" s="87"/>
+      <c r="C709" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D709" s="49" t="s">
+      <c r="D709" s="51" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="710" ht="13.8" spans="1:4">
-      <c r="A710" s="84"/>
-      <c r="B710" s="86"/>
-      <c r="C710" s="86"/>
-      <c r="D710" s="30"/>
+      <c r="A710" s="86"/>
+      <c r="B710" s="88"/>
+      <c r="C710" s="88"/>
+      <c r="D710" s="32"/>
     </row>
     <row r="711" ht="13.8" spans="1:4">
-      <c r="A711" s="84"/>
-      <c r="B711" s="87"/>
-      <c r="C711" s="87"/>
-      <c r="D711" s="30"/>
+      <c r="A711" s="86"/>
+      <c r="B711" s="89"/>
+      <c r="C711" s="89"/>
+      <c r="D711" s="32"/>
     </row>
     <row r="712" ht="13.8" spans="1:4">
-      <c r="A712" s="84"/>
-      <c r="B712" s="87"/>
-      <c r="C712" s="87"/>
-      <c r="D712" s="30"/>
+      <c r="A712" s="86"/>
+      <c r="B712" s="89"/>
+      <c r="C712" s="89"/>
+      <c r="D712" s="32"/>
     </row>
     <row r="713" ht="13.8" spans="1:4">
-      <c r="A713" s="84"/>
-      <c r="B713" s="87"/>
-      <c r="C713" s="87"/>
-      <c r="D713" s="30"/>
+      <c r="A713" s="86"/>
+      <c r="B713" s="89"/>
+      <c r="C713" s="89"/>
+      <c r="D713" s="32"/>
     </row>
     <row r="714" ht="13.8" spans="1:4">
-      <c r="A714" s="84"/>
-      <c r="B714" s="87"/>
-      <c r="C714" s="87"/>
-      <c r="D714" s="30"/>
+      <c r="A714" s="86"/>
+      <c r="B714" s="89"/>
+      <c r="C714" s="89"/>
+      <c r="D714" s="32"/>
     </row>
     <row r="715" ht="13.8" spans="1:4">
-      <c r="A715" s="84"/>
-      <c r="B715" s="85"/>
-      <c r="C715" s="85" t="s">
+      <c r="A715" s="86"/>
+      <c r="B715" s="87"/>
+      <c r="C715" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D715" s="49" t="s">
+      <c r="D715" s="51" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="716" ht="13.8" spans="1:4">
-      <c r="A716" s="84"/>
-      <c r="B716" s="86"/>
-      <c r="C716" s="86"/>
-      <c r="D716" s="30"/>
+      <c r="A716" s="86"/>
+      <c r="B716" s="88"/>
+      <c r="C716" s="88"/>
+      <c r="D716" s="32"/>
     </row>
     <row r="717" ht="13.8" spans="1:4">
-      <c r="A717" s="84"/>
-      <c r="B717" s="87"/>
-      <c r="C717" s="87"/>
-      <c r="D717" s="30"/>
+      <c r="A717" s="86"/>
+      <c r="B717" s="89"/>
+      <c r="C717" s="89"/>
+      <c r="D717" s="32"/>
     </row>
     <row r="718" ht="13.8" spans="1:4">
-      <c r="A718" s="84"/>
-      <c r="B718" s="87"/>
-      <c r="C718" s="87"/>
-      <c r="D718" s="30"/>
+      <c r="A718" s="86"/>
+      <c r="B718" s="89"/>
+      <c r="C718" s="89"/>
+      <c r="D718" s="32"/>
     </row>
     <row r="719" ht="13.8" spans="1:4">
-      <c r="A719" s="84"/>
-      <c r="B719" s="87"/>
-      <c r="C719" s="87"/>
-      <c r="D719" s="30"/>
+      <c r="A719" s="86"/>
+      <c r="B719" s="89"/>
+      <c r="C719" s="89"/>
+      <c r="D719" s="32"/>
     </row>
     <row r="720" ht="13.8" spans="1:4">
-      <c r="A720" s="84"/>
-      <c r="B720" s="87"/>
-      <c r="C720" s="87"/>
-      <c r="D720" s="30"/>
+      <c r="A720" s="86"/>
+      <c r="B720" s="89"/>
+      <c r="C720" s="89"/>
+      <c r="D720" s="32"/>
     </row>
     <row r="721" ht="13.8" spans="1:4">
-      <c r="A721" s="84"/>
-      <c r="B721" s="85"/>
-      <c r="C721" s="85" t="s">
+      <c r="A721" s="86"/>
+      <c r="B721" s="87"/>
+      <c r="C721" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D721" s="49" t="s">
+      <c r="D721" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="722" ht="13.8" spans="1:4">
-      <c r="A722" s="84"/>
-      <c r="B722" s="85"/>
-      <c r="C722" s="85" t="s">
+      <c r="A722" s="86"/>
+      <c r="B722" s="87"/>
+      <c r="C722" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D722" s="49" t="s">
+      <c r="D722" s="51" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="723" ht="13.8" spans="1:4">
-      <c r="A723" s="84"/>
-      <c r="B723" s="87"/>
-      <c r="C723" s="87"/>
-      <c r="D723" s="30"/>
+      <c r="A723" s="86"/>
+      <c r="B723" s="89"/>
+      <c r="C723" s="89"/>
+      <c r="D723" s="32"/>
     </row>
     <row r="724" ht="13.8" spans="1:4">
-      <c r="A724" s="84"/>
-      <c r="B724" s="87"/>
-      <c r="C724" s="87"/>
-      <c r="D724" s="30"/>
+      <c r="A724" s="86"/>
+      <c r="B724" s="89"/>
+      <c r="C724" s="89"/>
+      <c r="D724" s="32"/>
     </row>
     <row r="725" ht="13.8" spans="1:4">
-      <c r="A725" s="84"/>
-      <c r="B725" s="87"/>
-      <c r="C725" s="87"/>
-      <c r="D725" s="30"/>
+      <c r="A725" s="86"/>
+      <c r="B725" s="89"/>
+      <c r="C725" s="89"/>
+      <c r="D725" s="32"/>
     </row>
     <row r="726" ht="13.8" spans="1:4">
-      <c r="A726" s="84"/>
-      <c r="B726" s="87"/>
-      <c r="C726" s="87"/>
-      <c r="D726" s="30"/>
+      <c r="A726" s="86"/>
+      <c r="B726" s="89"/>
+      <c r="C726" s="89"/>
+      <c r="D726" s="32"/>
     </row>
     <row r="727" ht="13.8" spans="1:4">
-      <c r="A727" s="84"/>
-      <c r="B727" s="87"/>
-      <c r="C727" s="87"/>
-      <c r="D727" s="30"/>
+      <c r="A727" s="86"/>
+      <c r="B727" s="89"/>
+      <c r="C727" s="89"/>
+      <c r="D727" s="32"/>
     </row>
     <row r="728" ht="13.8" spans="1:4">
-      <c r="A728" s="84"/>
-      <c r="B728" s="85"/>
-      <c r="C728" s="85" t="s">
+      <c r="A728" s="86"/>
+      <c r="B728" s="87"/>
+      <c r="C728" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D728" s="49" t="s">
+      <c r="D728" s="51" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="729" ht="13.8" spans="1:4">
-      <c r="A729" s="89"/>
-      <c r="B729" s="85"/>
-      <c r="C729" s="85" t="s">
+      <c r="A729" s="91"/>
+      <c r="B729" s="87"/>
+      <c r="C729" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D729" s="49" t="s">
+      <c r="D729" s="51" t="s">
         <v>113</v>
       </c>
     </row>

--- a/revision.xlsx
+++ b/revision.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leeyoung/Documents/GitHub/Datasets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768A0251-DE98-494F-8D6F-9A51577B61C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9555"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="21600" windowHeight="9560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,7 +439,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>NKJ</t>
     </r>
@@ -442,6 +448,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>未在左上角标出</t>
@@ -586,14 +593,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,173 +606,39 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -780,198 +647,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1008,269 +701,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1284,22 +726,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1312,12 +748,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1335,67 +765,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1404,134 +789,48 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1789,3030 +1088,3030 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.6637168141593" style="2" customWidth="1"/>
-    <col min="3" max="3" width="62.5575221238938" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.5575221238938" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="62.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:4">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:4" hidden="1">
+      <c r="A4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:4">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12">
+    <row r="5" spans="1:4" hidden="1">
+      <c r="A5" s="34"/>
+      <c r="B5" s="8">
         <v>110</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="11"/>
-      <c r="B6" s="14">
+      <c r="A6" s="34"/>
+      <c r="B6" s="1">
         <v>101</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="11"/>
-      <c r="B7" s="2">
+      <c r="A7" s="34"/>
+      <c r="B7" s="1">
         <v>145</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="11"/>
-      <c r="B8" s="17">
+      <c r="A8" s="34"/>
+      <c r="B8" s="12">
         <v>146</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="11"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="1:4">
-      <c r="A10" s="11"/>
-      <c r="B10" s="8">
+    <row r="10" spans="1:4" hidden="1">
+      <c r="A10" s="34"/>
+      <c r="B10" s="5">
         <v>241</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:4">
-      <c r="A11" s="11"/>
-      <c r="B11" s="20">
+    <row r="11" spans="1:4" hidden="1">
+      <c r="A11" s="34"/>
+      <c r="B11" s="6">
         <v>242</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:4">
-      <c r="A12" s="11"/>
-      <c r="B12" s="20">
+    <row r="12" spans="1:4" hidden="1">
+      <c r="A12" s="34"/>
+      <c r="B12" s="6">
         <v>243</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:4">
-      <c r="A13" s="11"/>
-      <c r="B13" s="20">
+    <row r="13" spans="1:4" hidden="1">
+      <c r="A13" s="34"/>
+      <c r="B13" s="6">
         <v>246</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:4">
-      <c r="A14" s="11"/>
-      <c r="B14" s="23">
+    <row r="14" spans="1:4" hidden="1">
+      <c r="A14" s="34"/>
+      <c r="B14" s="16">
         <v>265</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="11"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="24" t="s">
+      <c r="A15" s="34"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="11"/>
-      <c r="B16" s="26">
+      <c r="A16" s="34"/>
+      <c r="B16" s="1">
         <v>393</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="11"/>
-      <c r="B17" s="26">
+      <c r="A17" s="34"/>
+      <c r="B17" s="1">
         <v>398</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:4">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31">
+    <row r="18" spans="1:4">
+      <c r="A18" s="34"/>
+      <c r="B18" s="1">
         <v>410</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:4">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31">
+    <row r="19" spans="1:4">
+      <c r="A19" s="34"/>
+      <c r="B19" s="1">
         <v>415</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:4">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31">
+    <row r="20" spans="1:4">
+      <c r="A20" s="34"/>
+      <c r="B20" s="1">
         <v>420</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:4">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31">
+    <row r="21" spans="1:4">
+      <c r="A21" s="34"/>
+      <c r="B21" s="1">
         <v>427</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:4">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31">
+    <row r="22" spans="1:4">
+      <c r="A22" s="34"/>
+      <c r="B22" s="1">
         <v>428</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" customFormat="1" spans="1:4">
-      <c r="A23" s="11"/>
-      <c r="B23" s="31">
+    <row r="23" spans="1:4">
+      <c r="A23" s="34"/>
+      <c r="B23" s="1">
         <v>431</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" customFormat="1" spans="1:4">
-      <c r="A24" s="11"/>
-      <c r="B24" s="31">
+    <row r="24" spans="1:4">
+      <c r="A24" s="34"/>
+      <c r="B24" s="1">
         <v>441</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" customFormat="1" spans="1:4">
-      <c r="A25" s="11"/>
-      <c r="B25" s="31">
+    <row r="25" spans="1:4">
+      <c r="A25" s="34"/>
+      <c r="B25" s="1">
         <v>443</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" customFormat="1" spans="1:4">
-      <c r="A26" s="11"/>
-      <c r="B26" s="31">
+    <row r="26" spans="1:4">
+      <c r="A26" s="34"/>
+      <c r="B26" s="1">
         <v>449</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:4">
-      <c r="A27" s="11"/>
-      <c r="B27" s="33" t="s">
+    <row r="27" spans="1:4" hidden="1">
+      <c r="A27" s="34"/>
+      <c r="B27" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:4">
-      <c r="A28" s="11"/>
-      <c r="B28" s="33">
+    <row r="28" spans="1:4" hidden="1">
+      <c r="A28" s="34"/>
+      <c r="B28" s="20">
         <v>381</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="1:4">
-      <c r="A29" s="11"/>
-      <c r="B29" s="33">
+    <row r="29" spans="1:4" hidden="1">
+      <c r="A29" s="34"/>
+      <c r="B29" s="20">
         <v>383</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:4">
-      <c r="A30" s="11"/>
-      <c r="B30" s="33">
+    <row r="30" spans="1:4" hidden="1">
+      <c r="A30" s="34"/>
+      <c r="B30" s="20">
         <v>388</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:4">
-      <c r="A31" s="11"/>
-      <c r="B31" s="33">
+    <row r="31" spans="1:4" hidden="1">
+      <c r="A31" s="34"/>
+      <c r="B31" s="20">
         <v>395</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D31" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="1:4">
-      <c r="A32" s="11"/>
-      <c r="B32" s="33">
+    <row r="32" spans="1:4" hidden="1">
+      <c r="A32" s="34"/>
+      <c r="B32" s="20">
         <v>396</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:4">
-      <c r="A33" s="11"/>
-      <c r="B33" s="33">
+    <row r="33" spans="1:14" hidden="1">
+      <c r="A33" s="34"/>
+      <c r="B33" s="20">
         <v>425</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:4">
-      <c r="A34" s="11"/>
-      <c r="B34" s="33">
+    <row r="34" spans="1:14" hidden="1">
+      <c r="A34" s="34"/>
+      <c r="B34" s="20">
         <v>426</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:4">
-      <c r="A35" s="11"/>
-      <c r="B35" s="33">
+    <row r="35" spans="1:14" hidden="1">
+      <c r="A35" s="34"/>
+      <c r="B35" s="20">
         <v>427</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:4">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12" t="s">
+    <row r="36" spans="1:14" hidden="1">
+      <c r="A36" s="34"/>
+      <c r="B36" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:4">
-      <c r="A37" s="11"/>
-      <c r="B37" s="36" t="s">
+    <row r="37" spans="1:14" hidden="1">
+      <c r="A37" s="34"/>
+      <c r="B37" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:4">
-      <c r="A38" s="11"/>
-      <c r="B38" s="36" t="s">
+    <row r="38" spans="1:14" hidden="1">
+      <c r="A38" s="34"/>
+      <c r="B38" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:4">
-      <c r="A39" s="11"/>
-      <c r="B39" s="36">
+    <row r="39" spans="1:14" hidden="1">
+      <c r="A39" s="34"/>
+      <c r="B39" s="20">
         <v>462</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:14">
-      <c r="A40" s="11"/>
-      <c r="B40" s="36">
+    <row r="40" spans="1:14" hidden="1">
+      <c r="A40" s="34"/>
+      <c r="B40" s="20">
         <v>464</v>
       </c>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-    </row>
-    <row r="41" hidden="1" spans="1:4">
-      <c r="A41" s="11"/>
-      <c r="B41" s="36">
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="1:14" hidden="1">
+      <c r="A41" s="34"/>
+      <c r="B41" s="20">
         <v>478</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="1:4">
-      <c r="A42" s="11"/>
-      <c r="B42" s="37">
+    <row r="42" spans="1:14" hidden="1">
+      <c r="A42" s="34"/>
+      <c r="B42" s="23">
         <v>484</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="11"/>
-      <c r="B43" s="38">
+    <row r="43" spans="1:14">
+      <c r="A43" s="34"/>
+      <c r="B43" s="4">
         <v>524</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="38" t="s">
+      <c r="D43" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="11"/>
-      <c r="B44" s="39">
+    <row r="44" spans="1:14">
+      <c r="A44" s="34"/>
+      <c r="B44" s="1">
         <v>544</v>
       </c>
-      <c r="C44" s="39" t="s">
+      <c r="C44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="39" t="s">
+      <c r="D44" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="11"/>
-      <c r="B45" s="39">
+    <row r="45" spans="1:14">
+      <c r="A45" s="34"/>
+      <c r="B45" s="1">
         <v>546</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="39" t="s">
+      <c r="D45" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="11"/>
-      <c r="B46" s="39">
+    <row r="46" spans="1:14">
+      <c r="A46" s="34"/>
+      <c r="B46" s="1">
         <v>556</v>
       </c>
-      <c r="C46" s="39" t="s">
+      <c r="C46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="39" t="s">
+      <c r="D46" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="11"/>
-      <c r="B47" s="39">
+    <row r="47" spans="1:14">
+      <c r="A47" s="34"/>
+      <c r="B47" s="1">
         <v>571</v>
       </c>
-      <c r="C47" s="39" t="s">
+      <c r="C47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="39" t="s">
+      <c r="D47" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:4">
-      <c r="A48" s="11"/>
-      <c r="B48" s="20" t="s">
+    <row r="48" spans="1:14" hidden="1">
+      <c r="A48" s="34"/>
+      <c r="B48" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:4">
-      <c r="A49" s="11"/>
-      <c r="B49" s="20" t="s">
+    <row r="49" spans="1:4" hidden="1">
+      <c r="A49" s="34"/>
+      <c r="B49" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:4">
-      <c r="A50" s="11"/>
-      <c r="B50" s="20" t="s">
+    <row r="50" spans="1:4" hidden="1">
+      <c r="A50" s="34"/>
+      <c r="B50" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="D50" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:4">
-      <c r="A51" s="11"/>
-      <c r="B51" s="20">
+    <row r="51" spans="1:4" hidden="1">
+      <c r="A51" s="34"/>
+      <c r="B51" s="6">
         <v>523</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="D51" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:4">
-      <c r="A52" s="11"/>
-      <c r="B52" s="20">
+    <row r="52" spans="1:4" hidden="1">
+      <c r="A52" s="34"/>
+      <c r="B52" s="6">
         <v>532</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:4">
-      <c r="A53" s="11"/>
-      <c r="B53" s="20">
+    <row r="53" spans="1:4" hidden="1">
+      <c r="A53" s="34"/>
+      <c r="B53" s="6">
         <v>534</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:4">
-      <c r="A54" s="11"/>
-      <c r="B54" s="20">
+    <row r="54" spans="1:4" hidden="1">
+      <c r="A54" s="34"/>
+      <c r="B54" s="6">
         <v>545</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D54" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="1:4">
-      <c r="A55" s="11"/>
-      <c r="B55" s="20">
+    <row r="55" spans="1:4" hidden="1">
+      <c r="A55" s="34"/>
+      <c r="B55" s="6">
         <v>566</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="D55" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="1:4">
-      <c r="A56" s="11"/>
-      <c r="B56" s="23">
+    <row r="56" spans="1:4" hidden="1">
+      <c r="A56" s="34"/>
+      <c r="B56" s="16">
         <v>569</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D56" s="40" t="s">
+      <c r="D56" s="24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:4">
-      <c r="A57" s="11"/>
-      <c r="B57" s="20" t="s">
+    <row r="57" spans="1:4" hidden="1">
+      <c r="A57" s="34"/>
+      <c r="B57" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="1:4">
-      <c r="A58" s="11"/>
-      <c r="B58" s="20" t="s">
+    <row r="58" spans="1:4" hidden="1">
+      <c r="A58" s="34"/>
+      <c r="B58" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="59" hidden="1" spans="1:4">
-      <c r="A59" s="11"/>
-      <c r="B59" s="20">
+    <row r="59" spans="1:4" hidden="1">
+      <c r="A59" s="34"/>
+      <c r="B59" s="6">
         <v>593</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D59" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" hidden="1" spans="1:4">
-      <c r="A60" s="11"/>
-      <c r="B60" s="20">
+    <row r="60" spans="1:4" hidden="1">
+      <c r="A60" s="34"/>
+      <c r="B60" s="6">
         <v>603</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="20" t="s">
+      <c r="D60" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:4">
-      <c r="A61" s="11"/>
-      <c r="B61" s="20">
+    <row r="61" spans="1:4" hidden="1">
+      <c r="A61" s="34"/>
+      <c r="B61" s="6">
         <v>606</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="D61" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="62" hidden="1" spans="1:4">
-      <c r="A62" s="11"/>
-      <c r="B62" s="20">
+    <row r="62" spans="1:4" hidden="1">
+      <c r="A62" s="34"/>
+      <c r="B62" s="6">
         <v>607</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="D62" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="1:4">
-      <c r="A63" s="11"/>
-      <c r="B63" s="20">
+    <row r="63" spans="1:4" hidden="1">
+      <c r="A63" s="34"/>
+      <c r="B63" s="6">
         <v>653</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="20" t="s">
+      <c r="D63" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="11"/>
-      <c r="B64" s="41">
+      <c r="A64" s="34"/>
+      <c r="B64" s="4">
         <v>663</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="41" t="s">
+      <c r="D64" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="11"/>
-      <c r="B65" s="42">
+      <c r="A65" s="34"/>
+      <c r="B65" s="1">
         <v>671</v>
       </c>
-      <c r="C65" s="43" t="s">
+      <c r="C65" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D65" s="42" t="s">
+      <c r="D65" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="11"/>
-      <c r="B66" s="42">
+      <c r="A66" s="34"/>
+      <c r="B66" s="1">
         <v>711</v>
       </c>
-      <c r="C66" s="43" t="s">
+      <c r="C66" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D66" s="42" t="s">
+      <c r="D66" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="67" hidden="1" spans="1:4">
-      <c r="A67" s="11"/>
-      <c r="B67" s="9" t="s">
+    <row r="67" spans="1:4" hidden="1">
+      <c r="A67" s="34"/>
+      <c r="B67" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D67" s="44" t="s">
+      <c r="D67" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="1:4">
-      <c r="A68" s="11"/>
-      <c r="B68" s="20" t="s">
+    <row r="68" spans="1:4" hidden="1">
+      <c r="A68" s="34"/>
+      <c r="B68" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D68" s="21" t="s">
+      <c r="D68" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="69" hidden="1" spans="1:4">
-      <c r="A69" s="11"/>
-      <c r="B69" s="20" t="s">
+    <row r="69" spans="1:4" hidden="1">
+      <c r="A69" s="34"/>
+      <c r="B69" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D69" s="21" t="s">
+      <c r="D69" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="70" hidden="1" spans="1:4">
-      <c r="A70" s="11"/>
-      <c r="B70" s="20" t="s">
+    <row r="70" spans="1:4" hidden="1">
+      <c r="A70" s="34"/>
+      <c r="B70" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D70" s="21" t="s">
+      <c r="D70" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="71" hidden="1" spans="1:4">
-      <c r="A71" s="11"/>
-      <c r="B71" s="20" t="s">
+    <row r="71" spans="1:4" hidden="1">
+      <c r="A71" s="34"/>
+      <c r="B71" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D71" s="21" t="s">
+      <c r="D71" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="72" hidden="1" spans="1:4">
-      <c r="A72" s="11"/>
-      <c r="B72" s="20" t="s">
+    <row r="72" spans="1:4" hidden="1">
+      <c r="A72" s="34"/>
+      <c r="B72" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C72" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D72" s="21" t="s">
+      <c r="D72" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="73" hidden="1" spans="1:4">
-      <c r="A73" s="11"/>
-      <c r="B73" s="20">
+    <row r="73" spans="1:4" hidden="1">
+      <c r="A73" s="34"/>
+      <c r="B73" s="6">
         <v>664</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D73" s="21" t="s">
+      <c r="D73" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="74" hidden="1" spans="1:4">
-      <c r="A74" s="11"/>
-      <c r="B74" s="20">
+    <row r="74" spans="1:4" hidden="1">
+      <c r="A74" s="34"/>
+      <c r="B74" s="6">
         <v>666</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D74" s="21" t="s">
+      <c r="D74" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:4">
-      <c r="A75" s="11"/>
-      <c r="B75" s="20">
+    <row r="75" spans="1:4" hidden="1">
+      <c r="A75" s="34"/>
+      <c r="B75" s="6">
         <v>697</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D75" s="21" t="s">
+      <c r="D75" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="76" hidden="1" spans="1:4">
-      <c r="A76" s="11"/>
-      <c r="B76" s="20">
+    <row r="76" spans="1:4" hidden="1">
+      <c r="A76" s="34"/>
+      <c r="B76" s="6">
         <v>711</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D76" s="21" t="s">
+      <c r="D76" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="1:4">
-      <c r="A77" s="11"/>
-      <c r="B77" s="20">
+    <row r="77" spans="1:4" hidden="1">
+      <c r="A77" s="34"/>
+      <c r="B77" s="6">
         <v>716</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D77" s="21" t="s">
+      <c r="D77" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="78" hidden="1" spans="1:4">
-      <c r="A78" s="11"/>
-      <c r="B78" s="20">
+    <row r="78" spans="1:4" hidden="1">
+      <c r="A78" s="34"/>
+      <c r="B78" s="6">
         <v>717</v>
       </c>
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D78" s="21" t="s">
+      <c r="D78" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="1:4">
-      <c r="A79" s="11"/>
-      <c r="B79" s="23">
+    <row r="79" spans="1:4" hidden="1">
+      <c r="A79" s="34"/>
+      <c r="B79" s="16">
         <v>719</v>
       </c>
-      <c r="C79" s="23" t="s">
+      <c r="C79" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D79" s="40" t="s">
+      <c r="D79" s="24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="1:4">
-      <c r="A80" s="11"/>
-      <c r="B80" s="36" t="s">
+    <row r="80" spans="1:4" hidden="1">
+      <c r="A80" s="34"/>
+      <c r="B80" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C80" s="36" t="s">
+      <c r="C80" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D80" s="36" t="s">
+      <c r="D80" s="20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="1:4">
-      <c r="A81" s="11"/>
-      <c r="B81" s="36">
+    <row r="81" spans="1:5" hidden="1">
+      <c r="A81" s="34"/>
+      <c r="B81" s="20">
         <v>730</v>
       </c>
-      <c r="C81" s="36" t="s">
+      <c r="C81" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D81" s="36" t="s">
+      <c r="D81" s="20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:4">
-      <c r="A82" s="11"/>
-      <c r="B82" s="36">
+    <row r="82" spans="1:5" hidden="1">
+      <c r="A82" s="34"/>
+      <c r="B82" s="20">
         <v>763</v>
       </c>
-      <c r="C82" s="36" t="s">
+      <c r="C82" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D82" s="36" t="s">
+      <c r="D82" s="20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="1:4">
-      <c r="A83" s="11"/>
-      <c r="B83" s="36">
+    <row r="83" spans="1:5" hidden="1">
+      <c r="A83" s="34"/>
+      <c r="B83" s="20">
         <v>772</v>
       </c>
-      <c r="C83" s="36" t="s">
+      <c r="C83" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D83" s="36" t="s">
+      <c r="D83" s="20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="1:4">
-      <c r="A84" s="11"/>
-      <c r="B84" s="37">
+    <row r="84" spans="1:5" hidden="1">
+      <c r="A84" s="34"/>
+      <c r="B84" s="23">
         <v>792</v>
       </c>
-      <c r="C84" s="37" t="s">
+      <c r="C84" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D84" s="36" t="s">
+      <c r="D84" s="20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="11"/>
-      <c r="B85" s="45" t="s">
+    <row r="85" spans="1:5">
+      <c r="A85" s="34"/>
+      <c r="B85" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C85" s="45" t="s">
+      <c r="C85" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D85" s="45" t="s">
+      <c r="D85" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="11"/>
-      <c r="B86" s="2">
+    <row r="86" spans="1:5">
+      <c r="A86" s="34"/>
+      <c r="B86" s="1">
         <v>801</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="11"/>
-      <c r="B87" s="14">
+      <c r="A87" s="34"/>
+      <c r="B87" s="1">
         <v>803</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D87" s="14" t="s">
+      <c r="D87" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="11"/>
-      <c r="B88" s="2">
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="34"/>
+      <c r="B88" s="1">
         <v>805</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C88" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="11"/>
-      <c r="B89" s="2">
+    <row r="89" spans="1:5">
+      <c r="A89" s="34"/>
+      <c r="B89" s="1">
         <v>806</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="90" hidden="1" spans="1:4">
-      <c r="A90" s="11"/>
-      <c r="B90" s="36">
+    <row r="90" spans="1:5" hidden="1">
+      <c r="A90" s="34"/>
+      <c r="B90" s="20">
         <v>808</v>
       </c>
-      <c r="C90" s="36" t="s">
+      <c r="C90" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D90" s="36" t="s">
+      <c r="D90" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="1:4">
-      <c r="A91" s="11"/>
-      <c r="B91" s="36">
+    <row r="91" spans="1:5" hidden="1">
+      <c r="A91" s="34"/>
+      <c r="B91" s="20">
         <v>814</v>
       </c>
-      <c r="C91" s="36" t="s">
+      <c r="C91" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D91" s="36" t="s">
+      <c r="D91" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="11"/>
-      <c r="B92" s="14">
+    <row r="92" spans="1:5">
+      <c r="A92" s="34"/>
+      <c r="B92" s="1">
         <v>815</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C92" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="11"/>
-      <c r="B93" s="14">
+    <row r="93" spans="1:5">
+      <c r="A93" s="34"/>
+      <c r="B93" s="1">
         <v>916</v>
       </c>
-      <c r="C93" s="14" t="s">
+      <c r="C93" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="11"/>
-      <c r="B94" s="14">
+    <row r="94" spans="1:5">
+      <c r="A94" s="34"/>
+      <c r="B94" s="1">
         <v>833</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="C94" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D94" s="14" t="s">
+      <c r="D94" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="11"/>
-      <c r="B95" s="14">
+    <row r="95" spans="1:5">
+      <c r="A95" s="34"/>
+      <c r="B95" s="1">
         <v>836</v>
       </c>
-      <c r="C95" s="14" t="s">
+      <c r="C95" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="11"/>
-      <c r="B96" s="14">
+    <row r="96" spans="1:5">
+      <c r="A96" s="34"/>
+      <c r="B96" s="1">
         <v>851</v>
       </c>
-      <c r="C96" s="14" t="s">
+      <c r="C96" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="11"/>
-      <c r="B97" s="14">
+      <c r="A97" s="34"/>
+      <c r="B97" s="1">
         <v>852</v>
       </c>
-      <c r="C97" s="14" t="s">
+      <c r="C97" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="11"/>
-      <c r="B98" s="14">
+      <c r="A98" s="34"/>
+      <c r="B98" s="1">
         <v>862</v>
       </c>
-      <c r="C98" s="14" t="s">
+      <c r="C98" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="11"/>
-      <c r="B99" s="14">
+      <c r="A99" s="34"/>
+      <c r="B99" s="1">
         <v>869</v>
       </c>
-      <c r="C99" s="14" t="s">
+      <c r="C99" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="11"/>
-      <c r="B100" s="46">
+      <c r="A100" s="34"/>
+      <c r="B100" s="25">
         <v>870</v>
       </c>
-      <c r="C100" s="46" t="s">
+      <c r="C100" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="D100" s="47" t="s">
+      <c r="D100" s="25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="101" hidden="1" spans="1:4">
-      <c r="A101" s="11"/>
-      <c r="B101" s="37">
+    <row r="101" spans="1:4" hidden="1">
+      <c r="A101" s="34"/>
+      <c r="B101" s="23">
         <v>843</v>
       </c>
-      <c r="C101" s="37" t="s">
+      <c r="C101" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D101" s="37" t="s">
+      <c r="D101" s="23" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="102" hidden="1" spans="1:4">
-      <c r="A102" s="11"/>
-      <c r="B102" s="36" t="s">
+    <row r="102" spans="1:4" hidden="1">
+      <c r="A102" s="34"/>
+      <c r="B102" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C102" s="12" t="s">
+      <c r="C102" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D102" s="36" t="s">
+      <c r="D102" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="103" hidden="1" spans="1:4">
-      <c r="A103" s="11"/>
-      <c r="B103" s="36" t="s">
+    <row r="103" spans="1:4" hidden="1">
+      <c r="A103" s="34"/>
+      <c r="B103" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="36" t="s">
+      <c r="C103" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D103" s="36" t="s">
+      <c r="D103" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="104" hidden="1" spans="1:4">
-      <c r="A104" s="11"/>
-      <c r="B104" s="36" t="s">
+    <row r="104" spans="1:4" hidden="1">
+      <c r="A104" s="34"/>
+      <c r="B104" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C104" s="36" t="s">
+      <c r="C104" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D104" s="36" t="s">
+      <c r="D104" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="105" hidden="1" spans="1:4">
-      <c r="A105" s="11"/>
-      <c r="B105" s="36" t="s">
+    <row r="105" spans="1:4" hidden="1">
+      <c r="A105" s="34"/>
+      <c r="B105" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C105" s="36" t="s">
+      <c r="C105" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D105" s="36" t="s">
+      <c r="D105" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="106" hidden="1" spans="1:4">
-      <c r="A106" s="11"/>
-      <c r="B106" s="36">
+    <row r="106" spans="1:4" hidden="1">
+      <c r="A106" s="34"/>
+      <c r="B106" s="20">
         <v>872</v>
       </c>
-      <c r="C106" s="36" t="s">
+      <c r="C106" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D106" s="36" t="s">
+      <c r="D106" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="107" hidden="1" spans="1:4">
-      <c r="A107" s="11"/>
-      <c r="B107" s="36">
+    <row r="107" spans="1:4" hidden="1">
+      <c r="A107" s="34"/>
+      <c r="B107" s="20">
         <v>873</v>
       </c>
-      <c r="C107" s="36" t="s">
+      <c r="C107" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D107" s="36" t="s">
+      <c r="D107" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="108" hidden="1" spans="1:4">
-      <c r="A108" s="11"/>
-      <c r="B108" s="36">
+    <row r="108" spans="1:4" hidden="1">
+      <c r="A108" s="34"/>
+      <c r="B108" s="20">
         <v>875</v>
       </c>
-      <c r="C108" s="36" t="s">
+      <c r="C108" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D108" s="36" t="s">
+      <c r="D108" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="109" hidden="1" spans="1:4">
-      <c r="A109" s="11"/>
-      <c r="B109" s="36">
+    <row r="109" spans="1:4" hidden="1">
+      <c r="A109" s="34"/>
+      <c r="B109" s="20">
         <v>881</v>
       </c>
-      <c r="C109" s="36" t="s">
+      <c r="C109" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D109" s="36" t="s">
+      <c r="D109" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="110" hidden="1" spans="1:4">
-      <c r="A110" s="11"/>
-      <c r="B110" s="36">
+    <row r="110" spans="1:4" hidden="1">
+      <c r="A110" s="34"/>
+      <c r="B110" s="20">
         <v>882</v>
       </c>
-      <c r="C110" s="36" t="s">
+      <c r="C110" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D110" s="36" t="s">
+      <c r="D110" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="111" hidden="1" spans="1:4">
-      <c r="A111" s="11"/>
-      <c r="B111" s="36">
+    <row r="111" spans="1:4" hidden="1">
+      <c r="A111" s="34"/>
+      <c r="B111" s="20">
         <v>888</v>
       </c>
-      <c r="C111" s="36" t="s">
+      <c r="C111" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D111" s="36" t="s">
+      <c r="D111" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="112" hidden="1" spans="1:4">
-      <c r="A112" s="11"/>
-      <c r="B112" s="36">
+    <row r="112" spans="1:4" hidden="1">
+      <c r="A112" s="34"/>
+      <c r="B112" s="20">
         <v>896</v>
       </c>
-      <c r="C112" s="36" t="s">
+      <c r="C112" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D112" s="36" t="s">
+      <c r="D112" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="113" hidden="1" spans="1:5">
-      <c r="A113" s="11"/>
-      <c r="B113" s="36">
+    <row r="113" spans="1:5" hidden="1">
+      <c r="A113" s="34"/>
+      <c r="B113" s="20">
         <v>894</v>
       </c>
-      <c r="C113" s="36" t="s">
+      <c r="C113" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D113" s="36" t="s">
+      <c r="D113" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E113" s="2"/>
-    </row>
-    <row r="114" hidden="1" spans="1:5">
-      <c r="A114" s="11"/>
-      <c r="B114" s="33">
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="1:5" hidden="1">
+      <c r="A114" s="34"/>
+      <c r="B114" s="20">
         <v>939</v>
       </c>
-      <c r="C114" s="33" t="s">
+      <c r="C114" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D114" s="33" t="s">
+      <c r="D114" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E114" s="2"/>
-    </row>
-    <row r="115" hidden="1" spans="1:5">
-      <c r="A115" s="11"/>
-      <c r="B115" s="33">
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="1:5" hidden="1">
+      <c r="A115" s="34"/>
+      <c r="B115" s="20">
         <v>877</v>
       </c>
-      <c r="C115" s="33" t="s">
+      <c r="C115" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D115" s="33" t="s">
+      <c r="D115" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E115" s="2"/>
-    </row>
-    <row r="116" hidden="1" spans="1:5">
-      <c r="A116" s="11"/>
-      <c r="B116" s="36">
+      <c r="E115" s="1"/>
+    </row>
+    <row r="116" spans="1:5" hidden="1">
+      <c r="A116" s="34"/>
+      <c r="B116" s="20">
         <v>879</v>
       </c>
-      <c r="C116" s="36" t="s">
+      <c r="C116" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D116" s="33" t="s">
+      <c r="D116" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E116" s="2"/>
-    </row>
-    <row r="117" hidden="1" spans="1:5">
-      <c r="A117" s="11"/>
-      <c r="B117" s="36">
+      <c r="E116" s="1"/>
+    </row>
+    <row r="117" spans="1:5" hidden="1">
+      <c r="A117" s="34"/>
+      <c r="B117" s="20">
         <v>881</v>
       </c>
-      <c r="C117" s="36" t="s">
+      <c r="C117" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D117" s="33" t="s">
+      <c r="D117" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E117" s="2"/>
-    </row>
-    <row r="118" hidden="1" spans="1:5">
-      <c r="A118" s="11"/>
-      <c r="B118" s="36">
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="1:5" hidden="1">
+      <c r="A118" s="34"/>
+      <c r="B118" s="20">
         <v>887</v>
       </c>
-      <c r="C118" s="36" t="s">
+      <c r="C118" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D118" s="33" t="s">
+      <c r="D118" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E118" s="2"/>
-    </row>
-    <row r="119" hidden="1" spans="1:5">
-      <c r="A119" s="11"/>
-      <c r="B119" s="36">
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" spans="1:5" hidden="1">
+      <c r="A119" s="34"/>
+      <c r="B119" s="20">
         <v>890</v>
       </c>
-      <c r="C119" s="36" t="s">
+      <c r="C119" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D119" s="33" t="s">
+      <c r="D119" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E119" s="2"/>
-    </row>
-    <row r="120" hidden="1" spans="1:5">
-      <c r="A120" s="11"/>
-      <c r="B120" s="36">
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="1:5" hidden="1">
+      <c r="A120" s="34"/>
+      <c r="B120" s="20">
         <v>901</v>
       </c>
-      <c r="C120" s="36" t="s">
+      <c r="C120" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D120" s="33" t="s">
+      <c r="D120" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E120" s="2"/>
-    </row>
-    <row r="121" hidden="1" spans="1:5">
-      <c r="A121" s="11"/>
-      <c r="B121" s="36">
+      <c r="E120" s="1"/>
+    </row>
+    <row r="121" spans="1:5" hidden="1">
+      <c r="A121" s="34"/>
+      <c r="B121" s="20">
         <v>903</v>
       </c>
-      <c r="C121" s="36" t="s">
+      <c r="C121" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D121" s="33" t="s">
+      <c r="D121" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E121" s="2"/>
-    </row>
-    <row r="122" hidden="1" spans="1:5">
-      <c r="A122" s="11"/>
-      <c r="B122" s="36">
+      <c r="E121" s="1"/>
+    </row>
+    <row r="122" spans="1:5" hidden="1">
+      <c r="A122" s="34"/>
+      <c r="B122" s="20">
         <v>919</v>
       </c>
-      <c r="C122" s="36" t="s">
+      <c r="C122" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D122" s="33" t="s">
+      <c r="D122" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E122" s="2"/>
-    </row>
-    <row r="123" hidden="1" spans="1:5">
-      <c r="A123" s="11"/>
-      <c r="B123" s="36">
+      <c r="E122" s="1"/>
+    </row>
+    <row r="123" spans="1:5" hidden="1">
+      <c r="A123" s="34"/>
+      <c r="B123" s="20">
         <v>921</v>
       </c>
-      <c r="C123" s="36" t="s">
+      <c r="C123" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="D123" s="33" t="s">
+      <c r="D123" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E123" s="2"/>
-    </row>
-    <row r="124" hidden="1" spans="1:5">
-      <c r="A124" s="11"/>
-      <c r="B124" s="36">
+      <c r="E123" s="1"/>
+    </row>
+    <row r="124" spans="1:5" hidden="1">
+      <c r="A124" s="34"/>
+      <c r="B124" s="20">
         <v>926</v>
       </c>
-      <c r="C124" s="36" t="s">
+      <c r="C124" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D124" s="33" t="s">
+      <c r="D124" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E124" s="2"/>
-    </row>
-    <row r="125" hidden="1" spans="1:5">
-      <c r="A125" s="11"/>
-      <c r="B125" s="36">
+      <c r="E124" s="1"/>
+    </row>
+    <row r="125" spans="1:5" hidden="1">
+      <c r="A125" s="34"/>
+      <c r="B125" s="20">
         <v>928</v>
       </c>
-      <c r="C125" s="36" t="s">
+      <c r="C125" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D125" s="33" t="s">
+      <c r="D125" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E125" s="2"/>
-    </row>
-    <row r="126" hidden="1" spans="1:5">
-      <c r="A126" s="11"/>
-      <c r="B126" s="37">
+      <c r="E125" s="1"/>
+    </row>
+    <row r="126" spans="1:5" hidden="1">
+      <c r="A126" s="34"/>
+      <c r="B126" s="23">
         <v>938</v>
       </c>
-      <c r="C126" s="37" t="s">
+      <c r="C126" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="D126" s="37" t="s">
+      <c r="D126" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E126" s="2"/>
+      <c r="E126" s="1"/>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="11"/>
-      <c r="B127" s="2" t="s">
+      <c r="A127" s="34"/>
+      <c r="B127" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D127" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E127" s="2"/>
+      <c r="E127" s="1"/>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="11"/>
-      <c r="B128" s="2" t="s">
+      <c r="A128" s="34"/>
+      <c r="B128" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E128" s="2"/>
+      <c r="E128" s="1"/>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="11"/>
-      <c r="B129" s="2" t="s">
+      <c r="A129" s="34"/>
+      <c r="B129" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D129" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E129" s="2"/>
+      <c r="E129" s="1"/>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="11"/>
-      <c r="B130" s="2">
+      <c r="A130" s="34"/>
+      <c r="B130" s="1">
         <v>941</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D130" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E130" s="2"/>
+      <c r="E130" s="1"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="11"/>
-      <c r="B131" s="2">
+      <c r="A131" s="34"/>
+      <c r="B131" s="1">
         <v>950</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D131" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E131" s="2"/>
+      <c r="E131" s="1"/>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="11"/>
-      <c r="B132" s="2">
+      <c r="A132" s="34"/>
+      <c r="B132" s="1">
         <v>951</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D132" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E132" s="2"/>
+      <c r="E132" s="1"/>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="11"/>
-      <c r="B133" s="2">
+      <c r="A133" s="34"/>
+      <c r="B133" s="1">
         <v>975</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D133" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E133" s="2"/>
+      <c r="E133" s="1"/>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="11"/>
-      <c r="B134" s="2">
+      <c r="A134" s="34"/>
+      <c r="B134" s="1">
         <v>987</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D134" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E134" s="2"/>
+      <c r="E134" s="1"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="11"/>
-      <c r="B135" s="2">
+      <c r="A135" s="34"/>
+      <c r="B135" s="1">
         <v>1007</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D135" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E135" s="2"/>
+      <c r="E135" s="1"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="11"/>
-      <c r="B136" s="2">
+      <c r="A136" s="34"/>
+      <c r="B136" s="1">
         <v>1008</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D136" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E136" s="2"/>
+      <c r="E136" s="1"/>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="47"/>
-      <c r="B137" s="47">
+      <c r="A137" s="35"/>
+      <c r="B137" s="25">
         <v>1010</v>
       </c>
-      <c r="C137" s="47" t="s">
+      <c r="C137" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="D137" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E137" s="2"/>
-    </row>
-    <row r="138" hidden="1" spans="1:5">
-      <c r="A138" s="2" t="s">
+      <c r="E137" s="1"/>
+    </row>
+    <row r="138" spans="1:5" hidden="1">
+      <c r="A138" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B138" s="48"/>
-      <c r="C138" s="48" t="s">
+      <c r="B138" s="26"/>
+      <c r="C138" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D138" s="49" t="s">
+      <c r="D138" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E138" s="2"/>
+      <c r="E138" s="1"/>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="2"/>
-      <c r="B139" s="50">
+      <c r="A139" s="34"/>
+      <c r="B139" s="4">
         <v>1111</v>
       </c>
-      <c r="C139" s="14" t="s">
+      <c r="C139" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D139" s="51" t="s">
+      <c r="D139" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E139" s="2"/>
+      <c r="E139" s="1"/>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="2"/>
-      <c r="B140" s="52">
+      <c r="A140" s="34"/>
+      <c r="B140" s="1">
         <v>1115</v>
       </c>
-      <c r="C140" s="52" t="s">
+      <c r="C140" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D140" s="53" t="s">
+      <c r="D140" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E140" s="2"/>
+      <c r="E140" s="1"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="2"/>
-      <c r="B141" s="52">
+      <c r="A141" s="34"/>
+      <c r="B141" s="1">
         <v>1125</v>
       </c>
-      <c r="C141" s="52" t="s">
+      <c r="C141" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D141" s="53" t="s">
+      <c r="D141" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E141" s="2"/>
+      <c r="E141" s="1"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="2"/>
-      <c r="B142" s="52">
+      <c r="A142" s="34"/>
+      <c r="B142" s="1">
         <v>1126</v>
       </c>
-      <c r="C142" s="52" t="s">
+      <c r="C142" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D142" s="53" t="s">
+      <c r="D142" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E142" s="2"/>
+      <c r="E142" s="1"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="2"/>
-      <c r="B143" s="52">
+      <c r="A143" s="34"/>
+      <c r="B143" s="1">
         <v>1129</v>
       </c>
-      <c r="C143" s="52" t="s">
+      <c r="C143" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D143" s="53" t="s">
+      <c r="D143" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E143" s="2"/>
+      <c r="E143" s="1"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="2"/>
-      <c r="B144" s="32">
+      <c r="A144" s="34"/>
+      <c r="B144" s="1">
         <v>1134</v>
       </c>
-      <c r="C144" s="32" t="s">
+      <c r="C144" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D144" s="53" t="s">
+      <c r="D144" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E144" s="2"/>
+      <c r="E144" s="1"/>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="2"/>
-      <c r="B145" s="32">
+      <c r="A145" s="34"/>
+      <c r="B145" s="1">
         <v>1143</v>
       </c>
-      <c r="C145" s="32" t="s">
+      <c r="C145" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D145" s="53" t="s">
+      <c r="D145" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E145" s="2"/>
+      <c r="E145" s="1"/>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="2"/>
-      <c r="B146" s="32">
+      <c r="A146" s="34"/>
+      <c r="B146" s="1">
         <v>1150</v>
       </c>
-      <c r="C146" s="32" t="s">
+      <c r="C146" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D146" s="53" t="s">
+      <c r="D146" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E146" s="2"/>
+      <c r="E146" s="1"/>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="2"/>
-      <c r="B147" s="32">
+      <c r="A147" s="34"/>
+      <c r="B147" s="1">
         <v>1167</v>
       </c>
-      <c r="C147" s="32" t="s">
+      <c r="C147" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D147" s="53" t="s">
+      <c r="D147" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E147" s="2"/>
+      <c r="E147" s="1"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="2"/>
-      <c r="B148" s="32">
+      <c r="A148" s="34"/>
+      <c r="B148" s="1">
         <v>1171</v>
       </c>
-      <c r="C148" s="32" t="s">
+      <c r="C148" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D148" s="53" t="s">
+      <c r="D148" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E148" s="2"/>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="2"/>
-      <c r="B149" s="6"/>
-      <c r="C149" s="24" t="s">
+      <c r="E148" s="1"/>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="34"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D149" s="54" t="s">
+      <c r="D149" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="150" hidden="1" spans="1:4">
-      <c r="A150" s="2"/>
-      <c r="B150" s="48"/>
-      <c r="C150" s="48" t="s">
+    <row r="150" spans="1:5" hidden="1">
+      <c r="A150" s="34"/>
+      <c r="B150" s="26"/>
+      <c r="C150" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D150" s="49" t="s">
+      <c r="D150" s="27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="2"/>
-      <c r="B151" s="6"/>
-      <c r="C151" s="24" t="s">
+    <row r="151" spans="1:5">
+      <c r="A151" s="34"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D151" s="54" t="s">
+      <c r="D151" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2">
+    <row r="152" spans="1:5">
+      <c r="A152" s="34"/>
+      <c r="B152" s="1">
         <v>1391</v>
       </c>
-      <c r="C152" s="26" t="s">
+      <c r="C152" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D152" s="55" t="s">
+      <c r="D152" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="2"/>
-      <c r="B153" s="2">
+    <row r="153" spans="1:5">
+      <c r="A153" s="34"/>
+      <c r="B153" s="1">
         <v>1395</v>
       </c>
-      <c r="C153" s="26" t="s">
+      <c r="C153" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D153" s="55" t="s">
+      <c r="D153" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="154" ht="15.75" spans="1:4">
-      <c r="A154" s="2"/>
-      <c r="B154" s="2">
+    <row r="154" spans="1:5" ht="16">
+      <c r="A154" s="34"/>
+      <c r="B154" s="1">
         <v>1397</v>
       </c>
-      <c r="C154" s="56" t="s">
+      <c r="C154" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D154" s="57" t="s">
+      <c r="D154" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2">
+    <row r="155" spans="1:5">
+      <c r="A155" s="34"/>
+      <c r="B155" s="1">
         <v>1409</v>
       </c>
-      <c r="C155" s="26" t="s">
+      <c r="C155" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D155" s="57" t="s">
+      <c r="D155" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2">
+    <row r="156" spans="1:5">
+      <c r="A156" s="34"/>
+      <c r="B156" s="1">
         <v>1413</v>
       </c>
-      <c r="C156" s="26" t="s">
+      <c r="C156" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D156" s="57" t="s">
+      <c r="D156" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2">
+    <row r="157" spans="1:5">
+      <c r="A157" s="34"/>
+      <c r="B157" s="1">
         <v>1417</v>
       </c>
-      <c r="C157" s="26" t="s">
+      <c r="C157" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D157" s="57" t="s">
+      <c r="D157" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="2"/>
-      <c r="B158" s="2">
+    <row r="158" spans="1:5">
+      <c r="A158" s="34"/>
+      <c r="B158" s="1">
         <v>1429</v>
       </c>
-      <c r="C158" s="26" t="s">
+      <c r="C158" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D158" s="57" t="s">
+      <c r="D158" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="159" hidden="1" spans="1:4">
-      <c r="A159" s="2"/>
-      <c r="B159" s="36">
+    <row r="159" spans="1:5" hidden="1">
+      <c r="A159" s="34"/>
+      <c r="B159" s="20">
         <v>1413</v>
       </c>
-      <c r="C159" s="33" t="s">
+      <c r="C159" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D159" s="58" t="s">
+      <c r="D159" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="160" hidden="1" spans="1:4">
-      <c r="A160" s="2"/>
-      <c r="B160" s="36">
+    <row r="160" spans="1:5" hidden="1">
+      <c r="A160" s="34"/>
+      <c r="B160" s="20">
         <v>1417</v>
       </c>
-      <c r="C160" s="33" t="s">
+      <c r="C160" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D160" s="58" t="s">
+      <c r="D160" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="161" hidden="1" spans="1:4">
-      <c r="A161" s="2"/>
-      <c r="B161" s="36">
+    <row r="161" spans="1:4" hidden="1">
+      <c r="A161" s="34"/>
+      <c r="B161" s="20">
         <v>1424</v>
       </c>
-      <c r="C161" s="33" t="s">
+      <c r="C161" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D161" s="58" t="s">
+      <c r="D161" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2">
+      <c r="A162" s="34"/>
+      <c r="B162" s="1">
         <v>1435</v>
       </c>
-      <c r="C162" s="11" t="s">
+      <c r="C162" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D162" s="57" t="s">
+      <c r="D162" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2">
+      <c r="A163" s="34"/>
+      <c r="B163" s="1">
         <v>1437</v>
       </c>
-      <c r="C163" s="11" t="s">
+      <c r="C163" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D163" s="57" t="s">
+      <c r="D163" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2">
+      <c r="A164" s="34"/>
+      <c r="B164" s="1">
         <v>1441</v>
       </c>
-      <c r="C164" s="11" t="s">
+      <c r="C164" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D164" s="57" t="s">
+      <c r="D164" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2">
+      <c r="A165" s="34"/>
+      <c r="B165" s="1">
         <v>1446</v>
       </c>
-      <c r="C165" s="11" t="s">
+      <c r="C165" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D165" s="57" t="s">
+      <c r="D165" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="166" hidden="1" spans="1:4">
-      <c r="A166" s="2"/>
-      <c r="B166" s="33">
+    <row r="166" spans="1:4" hidden="1">
+      <c r="A166" s="34"/>
+      <c r="B166" s="20">
         <v>1451</v>
       </c>
-      <c r="C166" s="33" t="s">
+      <c r="C166" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D166" s="58" t="s">
+      <c r="D166" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="2"/>
-      <c r="B167" s="47">
+      <c r="A167" s="34"/>
+      <c r="B167" s="25">
         <v>1453</v>
       </c>
-      <c r="C167" s="47" t="s">
+      <c r="C167" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="D167" s="59" t="s">
+      <c r="D167" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="2"/>
-      <c r="B168" s="11" t="s">
+      <c r="A168" s="34"/>
+      <c r="B168" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C168" s="11" t="s">
+      <c r="C168" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D168" s="57" t="s">
+      <c r="D168" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="2"/>
-      <c r="B169" s="11" t="s">
+      <c r="A169" s="34"/>
+      <c r="B169" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C169" s="11" t="s">
+      <c r="C169" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D169" s="57" t="s">
+      <c r="D169" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="2"/>
-      <c r="B170" s="11">
+      <c r="A170" s="34"/>
+      <c r="B170" s="36">
         <v>1462</v>
       </c>
-      <c r="C170" s="11" t="s">
+      <c r="C170" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D170" s="57" t="s">
+      <c r="D170" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="2"/>
-      <c r="B171" s="11">
+      <c r="A171" s="34"/>
+      <c r="B171" s="36">
         <v>1466</v>
       </c>
-      <c r="C171" s="11" t="s">
+      <c r="C171" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D171" s="57" t="s">
+      <c r="D171" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="2"/>
-      <c r="B172" s="11">
+      <c r="A172" s="34"/>
+      <c r="B172" s="36">
         <v>1467</v>
       </c>
-      <c r="C172" s="11" t="s">
+      <c r="C172" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D172" s="57" t="s">
+      <c r="D172" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="2"/>
-      <c r="B173" s="11">
+      <c r="A173" s="34"/>
+      <c r="B173" s="36">
         <v>1469</v>
       </c>
-      <c r="C173" s="11" t="s">
+      <c r="C173" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D173" s="57" t="s">
+      <c r="D173" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="2"/>
-      <c r="B174" s="11">
+      <c r="A174" s="34"/>
+      <c r="B174" s="1">
         <v>1470</v>
       </c>
-      <c r="C174" s="11" t="s">
+      <c r="C174" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D174" s="57" t="s">
+      <c r="D174" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="2"/>
-      <c r="B175" s="11">
+      <c r="A175" s="34"/>
+      <c r="B175" s="1">
         <v>1472</v>
       </c>
-      <c r="C175" s="11" t="s">
+      <c r="C175" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D175" s="57" t="s">
+      <c r="D175" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="2"/>
-      <c r="B176" s="11">
+      <c r="A176" s="34"/>
+      <c r="B176" s="1">
         <v>1474</v>
       </c>
-      <c r="C176" s="11" t="s">
+      <c r="C176" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D176" s="57" t="s">
+      <c r="D176" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="2"/>
-      <c r="B177" s="11">
+      <c r="A177" s="34"/>
+      <c r="B177" s="1">
         <v>1477</v>
       </c>
-      <c r="C177" s="11" t="s">
+      <c r="C177" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D177" s="57" t="s">
+      <c r="D177" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="2"/>
-      <c r="B178" s="11">
+      <c r="A178" s="34"/>
+      <c r="B178" s="1">
         <v>1480</v>
       </c>
-      <c r="C178" s="11" t="s">
+      <c r="C178" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D178" s="57" t="s">
+      <c r="D178" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="179" spans="1:4">
-      <c r="A179" s="2"/>
-      <c r="B179" s="11">
+      <c r="A179" s="34"/>
+      <c r="B179" s="1">
         <v>1481</v>
       </c>
-      <c r="C179" s="11" t="s">
+      <c r="C179" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D179" s="57" t="s">
+      <c r="D179" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="2"/>
-      <c r="B180" s="11">
+      <c r="A180" s="34"/>
+      <c r="B180" s="1">
         <v>1482</v>
       </c>
-      <c r="C180" s="11" t="s">
+      <c r="C180" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D180" s="57" t="s">
+      <c r="D180" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" s="2"/>
-      <c r="B181" s="11">
+      <c r="A181" s="34"/>
+      <c r="B181" s="1">
         <v>1483</v>
       </c>
-      <c r="C181" s="11" t="s">
+      <c r="C181" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D181" s="57" t="s">
+      <c r="D181" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="2"/>
-      <c r="B182" s="11">
+      <c r="A182" s="34"/>
+      <c r="B182" s="1">
         <v>1486</v>
       </c>
-      <c r="C182" s="11" t="s">
+      <c r="C182" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D182" s="57" t="s">
+      <c r="D182" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="2"/>
-      <c r="B183" s="11">
+      <c r="A183" s="34"/>
+      <c r="B183" s="1">
         <v>1490</v>
       </c>
-      <c r="C183" s="11" t="s">
+      <c r="C183" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D183" s="57" t="s">
+      <c r="D183" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="2"/>
-      <c r="B184" s="11">
+      <c r="A184" s="34"/>
+      <c r="B184" s="1">
         <v>1491</v>
       </c>
-      <c r="C184" s="11" t="s">
+      <c r="C184" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D184" s="57" t="s">
+      <c r="D184" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="185" spans="1:4">
-      <c r="A185" s="2"/>
-      <c r="B185" s="11">
+      <c r="A185" s="34"/>
+      <c r="B185" s="1">
         <v>1493</v>
       </c>
-      <c r="C185" s="11" t="s">
+      <c r="C185" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D185" s="57" t="s">
+      <c r="D185" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="186" spans="1:4">
-      <c r="A186" s="2"/>
-      <c r="B186" s="11">
+      <c r="A186" s="34"/>
+      <c r="B186" s="1">
         <v>1494</v>
       </c>
-      <c r="C186" s="11" t="s">
+      <c r="C186" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D186" s="57" t="s">
+      <c r="D186" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="187" spans="1:4">
-      <c r="A187" s="2"/>
-      <c r="B187" s="11">
+      <c r="A187" s="34"/>
+      <c r="B187" s="1">
         <v>1496</v>
       </c>
-      <c r="C187" s="11" t="s">
+      <c r="C187" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D187" s="57" t="s">
+      <c r="D187" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="188" spans="1:4">
-      <c r="A188" s="2"/>
-      <c r="B188" s="11">
+      <c r="A188" s="34"/>
+      <c r="B188" s="1">
         <v>1501</v>
       </c>
-      <c r="C188" s="11" t="s">
+      <c r="C188" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D188" s="57" t="s">
+      <c r="D188" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="2"/>
-      <c r="B189" s="11">
+      <c r="A189" s="34"/>
+      <c r="B189" s="1">
         <v>1502</v>
       </c>
-      <c r="C189" s="11" t="s">
+      <c r="C189" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D189" s="57" t="s">
+      <c r="D189" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="190" spans="1:4">
-      <c r="A190" s="2"/>
-      <c r="B190" s="11">
+      <c r="A190" s="34"/>
+      <c r="B190" s="1">
         <v>1503</v>
       </c>
-      <c r="C190" s="11" t="s">
+      <c r="C190" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D190" s="57" t="s">
+      <c r="D190" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="191" spans="1:4">
-      <c r="A191" s="2"/>
-      <c r="B191" s="11">
+      <c r="A191" s="34"/>
+      <c r="B191" s="1">
         <v>1506</v>
       </c>
-      <c r="C191" s="11" t="s">
+      <c r="C191" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D191" s="57" t="s">
+      <c r="D191" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="192" spans="1:4">
-      <c r="A192" s="2"/>
-      <c r="B192" s="11">
+      <c r="A192" s="34"/>
+      <c r="B192" s="1">
         <v>1508</v>
       </c>
-      <c r="C192" s="11" t="s">
+      <c r="C192" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D192" s="57" t="s">
+      <c r="D192" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" s="2"/>
-      <c r="B193" s="11">
+      <c r="A193" s="34"/>
+      <c r="B193" s="1">
         <v>1509</v>
       </c>
-      <c r="C193" s="11" t="s">
+      <c r="C193" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D193" s="57" t="s">
+      <c r="D193" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="194" spans="1:4">
-      <c r="A194" s="2"/>
-      <c r="B194" s="11">
+      <c r="A194" s="34"/>
+      <c r="B194" s="1">
         <v>1510</v>
       </c>
-      <c r="C194" s="11" t="s">
+      <c r="C194" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D194" s="57" t="s">
+      <c r="D194" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="195" spans="1:4">
-      <c r="A195" s="2"/>
-      <c r="B195" s="60">
+      <c r="A195" s="34"/>
+      <c r="B195" s="1">
         <v>1518</v>
       </c>
-      <c r="C195" s="60" t="s">
+      <c r="C195" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D195" s="61" t="s">
+      <c r="D195" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="196" spans="1:4">
-      <c r="A196" s="2"/>
-      <c r="B196" s="60">
+      <c r="A196" s="34"/>
+      <c r="B196" s="1">
         <v>1530</v>
       </c>
-      <c r="C196" s="60" t="s">
+      <c r="C196" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D196" s="61" t="s">
+      <c r="D196" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="197" spans="1:4">
-      <c r="A197" s="2"/>
-      <c r="B197" s="50">
+      <c r="A197" s="34"/>
+      <c r="B197" s="4">
         <v>1543</v>
       </c>
-      <c r="C197" s="50" t="s">
+      <c r="C197" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D197" s="51" t="s">
+      <c r="D197" s="28" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="198" spans="1:4">
-      <c r="A198" s="2"/>
-      <c r="B198" s="60">
+      <c r="A198" s="34"/>
+      <c r="B198" s="1">
         <v>1545</v>
       </c>
-      <c r="C198" s="60" t="s">
+      <c r="C198" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D198" s="61" t="s">
+      <c r="D198" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="199" spans="1:4">
-      <c r="A199" s="2"/>
-      <c r="B199" s="60">
+      <c r="A199" s="34"/>
+      <c r="B199" s="1">
         <v>1550</v>
       </c>
-      <c r="C199" s="60" t="s">
+      <c r="C199" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D199" s="61" t="s">
+      <c r="D199" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="200" spans="1:4">
-      <c r="A200" s="2"/>
-      <c r="B200" s="60">
+      <c r="A200" s="34"/>
+      <c r="B200" s="1">
         <v>1565</v>
       </c>
-      <c r="C200" s="60" t="s">
+      <c r="C200" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D200" s="61" t="s">
+      <c r="D200" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="201" spans="1:4">
-      <c r="A201" s="2"/>
-      <c r="B201" s="60">
+      <c r="A201" s="34"/>
+      <c r="B201" s="1">
         <v>1591</v>
       </c>
-      <c r="C201" s="60" t="s">
+      <c r="C201" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D201" s="61" t="s">
+      <c r="D201" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="202" spans="1:4">
-      <c r="A202" s="2"/>
-      <c r="B202" s="60">
+      <c r="A202" s="34"/>
+      <c r="B202" s="1">
         <v>1596</v>
       </c>
-      <c r="C202" s="32" t="s">
+      <c r="C202" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D202" s="61" t="s">
+      <c r="D202" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="2"/>
-      <c r="B203" s="60">
+      <c r="A203" s="34"/>
+      <c r="B203" s="1">
         <v>1597</v>
       </c>
-      <c r="C203" s="32" t="s">
+      <c r="C203" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D203" s="61" t="s">
+      <c r="D203" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="204" hidden="1" spans="1:4">
-      <c r="A204" s="2"/>
-      <c r="B204" s="33">
+    <row r="204" spans="1:4" hidden="1">
+      <c r="A204" s="34"/>
+      <c r="B204" s="20">
         <v>1559</v>
       </c>
-      <c r="C204" s="33" t="s">
+      <c r="C204" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="D204" s="58" t="s">
+      <c r="D204" s="21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="205" hidden="1" spans="1:4">
-      <c r="A205" s="2"/>
-      <c r="B205" s="37">
+    <row r="205" spans="1:4" hidden="1">
+      <c r="A205" s="34"/>
+      <c r="B205" s="23">
         <v>1572</v>
       </c>
-      <c r="C205" s="37" t="s">
+      <c r="C205" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="D205" s="62" t="s">
+      <c r="D205" s="29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="206" hidden="1" spans="1:4">
-      <c r="A206" s="2"/>
-      <c r="B206" s="36">
+    <row r="206" spans="1:4" hidden="1">
+      <c r="A206" s="34"/>
+      <c r="B206" s="20">
         <v>1613</v>
       </c>
-      <c r="C206" s="36" t="s">
+      <c r="C206" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="D206" s="58" t="s">
+      <c r="D206" s="21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="207" hidden="1" spans="1:4">
-      <c r="A207" s="2"/>
-      <c r="B207" s="36">
+    <row r="207" spans="1:4" hidden="1">
+      <c r="A207" s="34"/>
+      <c r="B207" s="20">
         <v>1624</v>
       </c>
-      <c r="C207" s="36" t="s">
+      <c r="C207" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="D207" s="58" t="s">
+      <c r="D207" s="21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="208" hidden="1" spans="1:4">
-      <c r="A208" s="2"/>
-      <c r="B208" s="36">
+    <row r="208" spans="1:4" hidden="1">
+      <c r="A208" s="34"/>
+      <c r="B208" s="20">
         <v>1658</v>
       </c>
-      <c r="C208" s="36" t="s">
+      <c r="C208" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="D208" s="58" t="s">
+      <c r="D208" s="21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="209" hidden="1" spans="1:4">
-      <c r="A209" s="2"/>
-      <c r="B209" s="33">
+    <row r="209" spans="1:4" hidden="1">
+      <c r="A209" s="34"/>
+      <c r="B209" s="20">
         <v>1663</v>
       </c>
-      <c r="C209" s="33" t="s">
+      <c r="C209" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="D209" s="58" t="s">
+      <c r="D209" s="21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="210" hidden="1" spans="1:4">
-      <c r="A210" s="2"/>
-      <c r="B210" s="37">
+    <row r="210" spans="1:4" hidden="1">
+      <c r="A210" s="34"/>
+      <c r="B210" s="23">
         <v>1669</v>
       </c>
-      <c r="C210" s="37" t="s">
+      <c r="C210" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="D210" s="62" t="s">
+      <c r="D210" s="29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="211" hidden="1" spans="1:4">
-      <c r="A211" s="2"/>
-      <c r="B211" s="12">
+    <row r="211" spans="1:4" hidden="1">
+      <c r="A211" s="34"/>
+      <c r="B211" s="8">
         <v>1677</v>
       </c>
-      <c r="C211" s="12" t="s">
+      <c r="C211" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D211" s="63" t="s">
+      <c r="D211" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="212" spans="1:4">
-      <c r="A212" s="2"/>
-      <c r="B212" s="64">
+      <c r="A212" s="34"/>
+      <c r="B212" s="4">
         <v>1694</v>
       </c>
-      <c r="C212" s="64" t="s">
+      <c r="C212" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D212" s="65" t="s">
+      <c r="D212" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="213" spans="1:4">
-      <c r="A213" s="2"/>
-      <c r="B213" s="2">
+      <c r="A213" s="34"/>
+      <c r="B213" s="1">
         <v>1704</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="C213" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D213" s="57" t="s">
+      <c r="D213" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="214" spans="1:4">
-      <c r="A214" s="2"/>
-      <c r="B214" s="2">
+      <c r="A214" s="34"/>
+      <c r="B214" s="1">
         <v>1708</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="C214" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D214" s="57" t="s">
+      <c r="D214" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="215" spans="1:4">
-      <c r="A215" s="2"/>
-      <c r="B215" s="2">
+      <c r="A215" s="34"/>
+      <c r="B215" s="1">
         <v>1709</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="C215" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D215" s="57" t="s">
+      <c r="D215" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="216" spans="1:4">
-      <c r="A216" s="2"/>
-      <c r="B216" s="2">
+      <c r="A216" s="34"/>
+      <c r="B216" s="1">
         <v>1710</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="C216" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D216" s="57" t="s">
+      <c r="D216" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="217" hidden="1" spans="1:4">
-      <c r="A217" s="2"/>
-      <c r="B217" s="36">
+    <row r="217" spans="1:4" hidden="1">
+      <c r="A217" s="34"/>
+      <c r="B217" s="20">
         <v>1718</v>
       </c>
-      <c r="C217" s="36" t="s">
+      <c r="C217" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="D217" s="58" t="s">
+      <c r="D217" s="21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="218" spans="1:4">
-      <c r="A218" s="2"/>
-      <c r="B218" s="2">
+      <c r="A218" s="34"/>
+      <c r="B218" s="1">
         <v>1719</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="C218" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D218" s="57" t="s">
+      <c r="D218" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="219" spans="1:4">
-      <c r="A219" s="2"/>
-      <c r="B219" s="2">
+      <c r="A219" s="34"/>
+      <c r="B219" s="1">
         <v>1720</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="C219" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D219" s="57" t="s">
+      <c r="D219" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="220" spans="1:4">
-      <c r="A220" s="2"/>
-      <c r="B220" s="2">
+      <c r="A220" s="34"/>
+      <c r="B220" s="1">
         <v>1722</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C220" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D220" s="57" t="s">
+      <c r="D220" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="221" spans="1:4">
-      <c r="A221" s="2"/>
-      <c r="B221" s="2">
+      <c r="A221" s="34"/>
+      <c r="B221" s="1">
         <v>1726</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="C221" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D221" s="57" t="s">
+      <c r="D221" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="222" spans="1:4">
-      <c r="A222" s="2"/>
-      <c r="B222" s="2">
+      <c r="A222" s="34"/>
+      <c r="B222" s="1">
         <v>1732</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="C222" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D222" s="57" t="s">
+      <c r="D222" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="2"/>
-      <c r="B223" s="11">
+      <c r="A223" s="34"/>
+      <c r="B223" s="1">
         <v>1734</v>
       </c>
-      <c r="C223" s="11" t="s">
+      <c r="C223" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D223" s="57" t="s">
+      <c r="D223" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="224" spans="1:4">
-      <c r="A224" s="2"/>
-      <c r="B224" s="47">
+      <c r="A224" s="34"/>
+      <c r="B224" s="25">
         <v>1736</v>
       </c>
-      <c r="C224" s="47" t="s">
+      <c r="C224" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="D224" s="59" t="s">
+      <c r="D224" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="225" hidden="1" spans="1:4">
-      <c r="A225" s="2"/>
-      <c r="B225" s="33" t="s">
+    <row r="225" spans="1:4" hidden="1">
+      <c r="A225" s="34"/>
+      <c r="B225" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="C225" s="37" t="s">
+      <c r="C225" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D225" s="58" t="s">
+      <c r="D225" s="21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="226" s="1" customFormat="1" spans="1:4">
-      <c r="A226" s="66"/>
-      <c r="B226" s="60">
+    <row r="226" spans="1:4">
+      <c r="A226" s="34"/>
+      <c r="B226" s="1">
         <v>1812</v>
       </c>
-      <c r="C226" s="32" t="s">
+      <c r="C226" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D226" s="61" t="s">
+      <c r="D226" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="227" s="1" customFormat="1" spans="1:4">
-      <c r="A227" s="66"/>
-      <c r="B227" s="11">
+    <row r="227" spans="1:4">
+      <c r="A227" s="34"/>
+      <c r="B227" s="1">
         <v>1829</v>
       </c>
-      <c r="C227" s="67" t="s">
+      <c r="C227" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D227" s="57" t="s">
+      <c r="D227" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="228" s="1" customFormat="1" spans="1:4">
-      <c r="A228" s="66"/>
-      <c r="B228" s="11">
+    <row r="228" spans="1:4">
+      <c r="A228" s="34"/>
+      <c r="B228" s="1">
         <v>1831</v>
       </c>
-      <c r="C228" s="67" t="s">
+      <c r="C228" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D228" s="57" t="s">
+      <c r="D228" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="229" s="1" customFormat="1" spans="1:4">
-      <c r="A229" s="66"/>
-      <c r="B229" s="60">
+    <row r="229" spans="1:4">
+      <c r="A229" s="34"/>
+      <c r="B229" s="1">
         <v>1846</v>
       </c>
-      <c r="C229" s="32" t="s">
+      <c r="C229" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D229" s="61" t="s">
+      <c r="D229" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="230" s="1" customFormat="1" spans="1:4">
-      <c r="A230" s="66"/>
-      <c r="B230" s="68">
+    <row r="230" spans="1:4">
+      <c r="A230" s="34"/>
+      <c r="B230" s="25">
         <v>1852</v>
       </c>
-      <c r="C230" s="69" t="s">
+      <c r="C230" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="D230" s="70" t="s">
+      <c r="D230" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="231" spans="1:4">
-      <c r="A231" s="2"/>
-      <c r="B231" s="11">
+      <c r="A231" s="34"/>
+      <c r="B231" s="1">
         <v>1881</v>
       </c>
-      <c r="C231" s="67" t="s">
+      <c r="C231" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D231" s="57" t="s">
+      <c r="D231" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="232" spans="1:4">
-      <c r="A232" s="2"/>
-      <c r="B232" s="11">
+      <c r="A232" s="34"/>
+      <c r="B232" s="1">
         <v>1895</v>
       </c>
-      <c r="C232" s="67" t="s">
+      <c r="C232" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D232" s="57" t="s">
+      <c r="D232" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="233" spans="1:4">
-      <c r="A233" s="2"/>
-      <c r="B233" s="11">
+      <c r="A233" s="34"/>
+      <c r="B233" s="1">
         <v>1897</v>
       </c>
-      <c r="C233" s="67" t="s">
+      <c r="C233" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="D233" s="57" t="s">
+      <c r="D233" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="234" spans="1:4">
-      <c r="A234" s="2"/>
-      <c r="B234" s="11">
+      <c r="A234" s="34"/>
+      <c r="B234" s="1">
         <v>1906</v>
       </c>
-      <c r="C234" s="67" t="s">
+      <c r="C234" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D234" s="57" t="s">
+      <c r="D234" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="235" spans="1:4">
-      <c r="A235" s="2"/>
-      <c r="B235" s="71">
+      <c r="A235" s="34"/>
+      <c r="B235" s="1">
         <v>1910</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="C235" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D235" s="57" t="s">
+      <c r="D235" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="236" spans="1:4">
-      <c r="A236" s="2"/>
-      <c r="B236" s="47">
+      <c r="A236" s="34"/>
+      <c r="B236" s="25">
         <v>1924</v>
       </c>
-      <c r="C236" s="17" t="s">
+      <c r="C236" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D236" s="59" t="s">
+      <c r="D236" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="237" spans="1:4">
-      <c r="A237" s="47"/>
-      <c r="B237" s="47"/>
-      <c r="C237" s="17" t="s">
+      <c r="A237" s="35"/>
+      <c r="B237" s="25"/>
+      <c r="C237" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D237" s="59" t="s">
+      <c r="D237" s="13" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="238" spans="1:4">
-      <c r="A238" s="2" t="s">
+      <c r="A238" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B238" s="37"/>
-      <c r="C238" s="37" t="s">
+      <c r="B238" s="23"/>
+      <c r="C238" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D238" s="72" t="s">
+      <c r="D238" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="239" spans="1:4">
-      <c r="A239" s="2"/>
-      <c r="B239" s="47"/>
-      <c r="C239" s="47" t="s">
+      <c r="A239" s="34"/>
+      <c r="B239" s="25"/>
+      <c r="C239" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D239" s="47" t="s">
+      <c r="D239" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="240" spans="1:4">
-      <c r="A240" s="2"/>
-      <c r="B240" s="47"/>
-      <c r="C240" s="47" t="s">
+      <c r="A240" s="34"/>
+      <c r="B240" s="25"/>
+      <c r="C240" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D240" s="47" t="s">
+      <c r="D240" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="241" spans="1:4">
-      <c r="A241" s="2"/>
-      <c r="B241" s="47"/>
-      <c r="C241" s="47" t="s">
+      <c r="A241" s="34"/>
+      <c r="B241" s="25"/>
+      <c r="C241" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D241" s="47" t="s">
+      <c r="D241" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="242" spans="1:4">
-      <c r="A242" s="2"/>
-      <c r="B242" s="47"/>
-      <c r="C242" s="47" t="s">
+      <c r="A242" s="34"/>
+      <c r="B242" s="25"/>
+      <c r="C242" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D242" s="47" t="s">
+      <c r="D242" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="243" spans="1:4">
-      <c r="A243" s="2"/>
-      <c r="B243" s="47"/>
-      <c r="C243" s="47" t="s">
+      <c r="A243" s="34"/>
+      <c r="B243" s="25"/>
+      <c r="C243" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D243" s="47" t="s">
+      <c r="D243" s="25" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="244" spans="1:4">
-      <c r="A244" s="2"/>
-      <c r="B244" s="47"/>
-      <c r="C244" s="47" t="s">
+      <c r="A244" s="34"/>
+      <c r="B244" s="25"/>
+      <c r="C244" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D244" s="47" t="s">
+      <c r="D244" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="245" spans="1:4">
-      <c r="A245" s="2"/>
-      <c r="B245" s="47"/>
-      <c r="C245" s="47" t="s">
+      <c r="A245" s="34"/>
+      <c r="B245" s="25"/>
+      <c r="C245" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D245" s="47" t="s">
+      <c r="D245" s="25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="246" spans="1:4">
-      <c r="A246" s="2"/>
-      <c r="B246" s="47" t="s">
+      <c r="A246" s="34"/>
+      <c r="B246" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C246" s="47" t="s">
+      <c r="C246" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="D246" s="47" t="s">
+      <c r="D246" s="25" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="247" spans="1:4">
-      <c r="A247" s="2"/>
-      <c r="B247" s="47"/>
-      <c r="C247" s="47" t="s">
+      <c r="A247" s="34"/>
+      <c r="B247" s="25"/>
+      <c r="C247" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D247" s="47" t="s">
+      <c r="D247" s="25" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="248" spans="1:4">
-      <c r="A248" s="2"/>
-      <c r="B248" s="47"/>
-      <c r="C248" s="47" t="s">
+      <c r="A248" s="34"/>
+      <c r="B248" s="25"/>
+      <c r="C248" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D248" s="47" t="s">
+      <c r="D248" s="25" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="249" spans="1:4">
-      <c r="A249" s="2"/>
-      <c r="B249" s="47"/>
-      <c r="C249" s="47" t="s">
+      <c r="A249" s="34"/>
+      <c r="B249" s="25"/>
+      <c r="C249" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D249" s="47" t="s">
+      <c r="D249" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="250" spans="1:4">
-      <c r="A250" s="2"/>
-      <c r="B250" s="47"/>
-      <c r="C250" s="47" t="s">
+      <c r="A250" s="34"/>
+      <c r="B250" s="25"/>
+      <c r="C250" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D250" s="47" t="s">
+      <c r="D250" s="25" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="251" spans="1:4">
-      <c r="A251" s="47"/>
-      <c r="B251" s="47"/>
-      <c r="C251" s="47" t="s">
+      <c r="A251" s="35"/>
+      <c r="B251" s="25"/>
+      <c r="C251" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D251" s="47" t="s">
+      <c r="D251" s="25" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4824,7 +4123,7 @@
     <mergeCell ref="A138:A237"/>
     <mergeCell ref="A238:A251"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/revision.xlsx
+++ b/revision.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="417">
   <si>
     <t>（填充为蓝色表示已修订）</t>
   </si>
@@ -1302,6 +1302,27 @@
   </si>
   <si>
     <t>长度数值标反了</t>
+  </si>
+  <si>
+    <t>与构图语句不符，还有个H</t>
+  </si>
+  <si>
+    <t>BC长度没标</t>
+  </si>
+  <si>
+    <t>AB是9</t>
+  </si>
+  <si>
+    <t>多对平行要用不同的符号</t>
+  </si>
+  <si>
+    <t>B点没标出</t>
+  </si>
+  <si>
+    <t>多表DE=4</t>
+  </si>
+  <si>
+    <t>文本标90°不要用垂直符号</t>
   </si>
 </sst>
 </file>
@@ -2565,10 +2586,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N727"/>
+  <dimension ref="A1:N729"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A639" workbookViewId="0">
-      <selection activeCell="C660" sqref="C660"/>
+    <sheetView tabSelected="1" topLeftCell="A651" workbookViewId="0">
+      <selection activeCell="C657" sqref="C657"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -10529,7 +10550,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="666" spans="1:4">
+    <row r="666" ht="13.8" spans="1:4">
       <c r="A666" s="54"/>
       <c r="B666" s="49"/>
       <c r="C666" s="49" t="s">
@@ -10539,99 +10560,143 @@
         <v>74</v>
       </c>
     </row>
-    <row r="667" spans="1:4">
+    <row r="667" ht="13.8" spans="1:4">
       <c r="A667" s="54"/>
-      <c r="B667" s="30"/>
-      <c r="C667" s="30"/>
-      <c r="D667" s="30"/>
-    </row>
-    <row r="668" spans="1:4">
+      <c r="B667" s="30">
+        <v>5861</v>
+      </c>
+      <c r="C667" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="D667" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="668" ht="13.8" spans="1:4">
       <c r="A668" s="54"/>
-      <c r="B668" s="30"/>
-      <c r="C668" s="30"/>
-      <c r="D668" s="30"/>
-    </row>
-    <row r="669" spans="1:4">
+      <c r="B668" s="30">
+        <v>5864</v>
+      </c>
+      <c r="C668" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="D668" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="669" ht="13.8" spans="1:4">
       <c r="A669" s="54"/>
-      <c r="B669" s="30"/>
-      <c r="C669" s="30"/>
-      <c r="D669" s="30"/>
+      <c r="B669" s="30">
+        <v>5865</v>
+      </c>
+      <c r="C669" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="D669" s="30" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="670" ht="13.8" spans="1:4">
       <c r="A670" s="54"/>
-      <c r="B670" s="30"/>
-      <c r="C670" s="30"/>
-      <c r="D670" s="30"/>
+      <c r="B670" s="30">
+        <v>5876</v>
+      </c>
+      <c r="C670" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="D670" s="30" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="671" ht="13.8" spans="1:4">
       <c r="A671" s="54"/>
-      <c r="B671" s="30"/>
-      <c r="C671" s="30"/>
-      <c r="D671" s="30"/>
+      <c r="B671" s="30">
+        <v>5891</v>
+      </c>
+      <c r="C671" s="30" t="s">
+        <v>414</v>
+      </c>
+      <c r="D671" s="30" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="672" ht="13.8" spans="1:4">
       <c r="A672" s="54"/>
-      <c r="B672" s="49"/>
-      <c r="C672" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D672" s="49" t="s">
+      <c r="B672" s="78">
+        <v>5892</v>
+      </c>
+      <c r="C672" s="78" t="s">
+        <v>415</v>
+      </c>
+      <c r="D672" s="30" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="673" ht="13.8" spans="1:4">
-      <c r="A673" s="51"/>
-      <c r="B673" s="49"/>
-      <c r="C673" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D673" s="49" t="s">
-        <v>113</v>
+      <c r="A673" s="54"/>
+      <c r="B673" s="78">
+        <v>5906</v>
+      </c>
+      <c r="C673" s="78" t="s">
+        <v>416</v>
+      </c>
+      <c r="D673" s="30" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="674" ht="13.8" spans="1:4">
-      <c r="A674" s="54" t="s">
-        <v>391</v>
-      </c>
-      <c r="B674" s="49"/>
+      <c r="A674" s="54"/>
+      <c r="B674" s="49">
+        <v>5907</v>
+      </c>
       <c r="C674" s="49" t="s">
-        <v>12</v>
+        <v>416</v>
       </c>
       <c r="D674" s="49" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="675" ht="13.8" spans="1:4">
-      <c r="A675" s="54"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4">
+      <c r="A675" s="51"/>
       <c r="B675" s="49"/>
       <c r="C675" s="49" t="s">
         <v>12</v>
       </c>
       <c r="D675" s="49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="676" ht="13.8" spans="1:4">
-      <c r="A676" s="54"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4">
+      <c r="A676" s="54" t="s">
+        <v>391</v>
+      </c>
       <c r="B676" s="49"/>
       <c r="C676" s="49" t="s">
         <v>12</v>
       </c>
       <c r="D676" s="49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4">
+      <c r="A677" s="54"/>
+      <c r="B677" s="49"/>
+      <c r="C677" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D677" s="49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4">
+      <c r="A678" s="54"/>
+      <c r="B678" s="49"/>
+      <c r="C678" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D678" s="49" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="677" ht="13.8" spans="1:4">
-      <c r="A677" s="54"/>
-      <c r="B677" s="30"/>
-      <c r="C677" s="30"/>
-      <c r="D677" s="30"/>
-    </row>
-    <row r="678" ht="13.8" spans="1:4">
-      <c r="A678" s="54"/>
-      <c r="B678" s="30"/>
-      <c r="C678" s="30"/>
-      <c r="D678" s="30"/>
     </row>
     <row r="679" ht="13.8" spans="1:4">
       <c r="A679" s="54"/>
@@ -10653,37 +10718,41 @@
     </row>
     <row r="682" ht="13.8" spans="1:4">
       <c r="A682" s="54"/>
-      <c r="B682" s="49"/>
-      <c r="C682" s="49"/>
-      <c r="D682" s="49" t="s">
-        <v>15</v>
-      </c>
+      <c r="B682" s="30"/>
+      <c r="C682" s="30"/>
+      <c r="D682" s="30"/>
     </row>
     <row r="683" ht="13.8" spans="1:4">
       <c r="A683" s="54"/>
-      <c r="B683" s="49"/>
-      <c r="C683" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D683" s="49" t="s">
-        <v>20</v>
-      </c>
+      <c r="B683" s="30"/>
+      <c r="C683" s="30"/>
+      <c r="D683" s="30"/>
     </row>
     <row r="684" ht="13.8" spans="1:4">
       <c r="A684" s="54"/>
-      <c r="B684" s="30"/>
-      <c r="C684" s="30"/>
-      <c r="D684" s="30" t="s">
-        <v>22</v>
+      <c r="B684" s="49"/>
+      <c r="C684" s="49"/>
+      <c r="D684" s="49" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="685" ht="13.8" spans="1:4">
       <c r="A685" s="54"/>
-      <c r="D685" s="30"/>
+      <c r="B685" s="49"/>
+      <c r="C685" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D685" s="49" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="686" ht="13.8" spans="1:4">
       <c r="A686" s="54"/>
-      <c r="D686" s="30"/>
+      <c r="B686" s="30"/>
+      <c r="C686" s="30"/>
+      <c r="D686" s="30" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="687" ht="13.8" spans="1:4">
       <c r="A687" s="54"/>
@@ -10695,9 +10764,7 @@
     </row>
     <row r="689" ht="13.8" spans="1:4">
       <c r="A689" s="54"/>
-      <c r="B689" s="49"/>
-      <c r="C689" s="49"/>
-      <c r="D689" s="49"/>
+      <c r="D689" s="30"/>
     </row>
     <row r="690" ht="13.8" spans="1:4">
       <c r="A690" s="54"/>
@@ -10705,7 +10772,9 @@
     </row>
     <row r="691" ht="13.8" spans="1:4">
       <c r="A691" s="54"/>
-      <c r="D691" s="30"/>
+      <c r="B691" s="49"/>
+      <c r="C691" s="49"/>
+      <c r="D691" s="49"/>
     </row>
     <row r="692" ht="13.8" spans="1:4">
       <c r="A692" s="54"/>
@@ -10721,23 +10790,19 @@
     </row>
     <row r="695" ht="13.8" spans="1:4">
       <c r="A695" s="54"/>
-      <c r="B695" s="49"/>
-      <c r="C695" s="49"/>
-      <c r="D695" s="49" t="s">
-        <v>35</v>
-      </c>
+      <c r="D695" s="30"/>
     </row>
     <row r="696" ht="13.8" spans="1:4">
       <c r="A696" s="54"/>
-      <c r="B696" s="30"/>
-      <c r="C696" s="30"/>
       <c r="D696" s="30"/>
     </row>
     <row r="697" ht="13.8" spans="1:4">
       <c r="A697" s="54"/>
-      <c r="B697" s="30"/>
-      <c r="C697" s="30"/>
-      <c r="D697" s="30"/>
+      <c r="B697" s="49"/>
+      <c r="C697" s="49"/>
+      <c r="D697" s="49" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="698" ht="13.8" spans="1:4">
       <c r="A698" s="54"/>
@@ -10759,13 +10824,9 @@
     </row>
     <row r="701" ht="13.8" spans="1:4">
       <c r="A701" s="54"/>
-      <c r="B701" s="49"/>
-      <c r="C701" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D701" s="49" t="s">
-        <v>42</v>
-      </c>
+      <c r="B701" s="30"/>
+      <c r="C701" s="30"/>
+      <c r="D701" s="30"/>
     </row>
     <row r="702" ht="13.8" spans="1:4">
       <c r="A702" s="54"/>
@@ -10775,9 +10836,13 @@
     </row>
     <row r="703" ht="13.8" spans="1:4">
       <c r="A703" s="54"/>
-      <c r="B703" s="30"/>
-      <c r="C703" s="30"/>
-      <c r="D703" s="30"/>
+      <c r="B703" s="49"/>
+      <c r="C703" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D703" s="49" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="704" ht="13.8" spans="1:4">
       <c r="A704" s="54"/>
@@ -10799,13 +10864,9 @@
     </row>
     <row r="707" ht="13.8" spans="1:4">
       <c r="A707" s="54"/>
-      <c r="B707" s="49"/>
-      <c r="C707" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D707" s="49" t="s">
-        <v>54</v>
-      </c>
+      <c r="B707" s="30"/>
+      <c r="C707" s="30"/>
+      <c r="D707" s="30"/>
     </row>
     <row r="708" ht="13.8" spans="1:4">
       <c r="A708" s="54"/>
@@ -10815,9 +10876,13 @@
     </row>
     <row r="709" ht="13.8" spans="1:4">
       <c r="A709" s="54"/>
-      <c r="B709" s="30"/>
-      <c r="C709" s="30"/>
-      <c r="D709" s="30"/>
+      <c r="B709" s="49"/>
+      <c r="C709" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D709" s="49" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="710" ht="13.8" spans="1:4">
       <c r="A710" s="54"/>
@@ -10839,13 +10904,9 @@
     </row>
     <row r="713" ht="13.8" spans="1:4">
       <c r="A713" s="54"/>
-      <c r="B713" s="49"/>
-      <c r="C713" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D713" s="49" t="s">
-        <v>59</v>
-      </c>
+      <c r="B713" s="30"/>
+      <c r="C713" s="30"/>
+      <c r="D713" s="30"/>
     </row>
     <row r="714" ht="13.8" spans="1:4">
       <c r="A714" s="54"/>
@@ -10855,9 +10916,13 @@
     </row>
     <row r="715" ht="13.8" spans="1:4">
       <c r="A715" s="54"/>
-      <c r="B715" s="30"/>
-      <c r="C715" s="30"/>
-      <c r="D715" s="30"/>
+      <c r="B715" s="49"/>
+      <c r="C715" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D715" s="49" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="716" ht="13.8" spans="1:4">
       <c r="A716" s="54"/>
@@ -10879,35 +10944,35 @@
     </row>
     <row r="719" ht="13.8" spans="1:4">
       <c r="A719" s="54"/>
-      <c r="B719" s="49"/>
-      <c r="C719" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D719" s="49" t="s">
-        <v>71</v>
-      </c>
+      <c r="B719" s="30"/>
+      <c r="C719" s="30"/>
+      <c r="D719" s="30"/>
     </row>
     <row r="720" ht="13.8" spans="1:4">
       <c r="A720" s="54"/>
-      <c r="B720" s="49"/>
-      <c r="C720" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D720" s="49" t="s">
-        <v>74</v>
-      </c>
+      <c r="B720" s="30"/>
+      <c r="C720" s="30"/>
+      <c r="D720" s="30"/>
     </row>
     <row r="721" ht="13.8" spans="1:4">
       <c r="A721" s="54"/>
-      <c r="B721" s="30"/>
-      <c r="C721" s="30"/>
-      <c r="D721" s="30"/>
+      <c r="B721" s="49"/>
+      <c r="C721" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D721" s="49" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="722" ht="13.8" spans="1:4">
       <c r="A722" s="54"/>
-      <c r="B722" s="30"/>
-      <c r="C722" s="30"/>
-      <c r="D722" s="30"/>
+      <c r="B722" s="49"/>
+      <c r="C722" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D722" s="49" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="723" ht="13.8" spans="1:4">
       <c r="A723" s="54"/>
@@ -10929,21 +10994,33 @@
     </row>
     <row r="726" ht="13.8" spans="1:4">
       <c r="A726" s="54"/>
-      <c r="B726" s="49"/>
-      <c r="C726" s="49" t="s">
+      <c r="B726" s="30"/>
+      <c r="C726" s="30"/>
+      <c r="D726" s="30"/>
+    </row>
+    <row r="727" ht="13.8" spans="1:4">
+      <c r="A727" s="54"/>
+      <c r="B727" s="30"/>
+      <c r="C727" s="30"/>
+      <c r="D727" s="30"/>
+    </row>
+    <row r="728" ht="13.8" spans="1:4">
+      <c r="A728" s="54"/>
+      <c r="B728" s="49"/>
+      <c r="C728" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D726" s="49" t="s">
+      <c r="D728" s="49" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="727" ht="13.8" spans="1:4">
-      <c r="A727" s="51"/>
-      <c r="B727" s="49"/>
-      <c r="C727" s="49" t="s">
+    <row r="729" ht="13.8" spans="1:4">
+      <c r="A729" s="51"/>
+      <c r="B729" s="49"/>
+      <c r="C729" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D727" s="49" t="s">
+      <c r="D729" s="49" t="s">
         <v>113</v>
       </c>
     </row>
@@ -10956,8 +11033,8 @@
     <mergeCell ref="A276:A356"/>
     <mergeCell ref="A357:A501"/>
     <mergeCell ref="A502:A621"/>
-    <mergeCell ref="A622:A673"/>
-    <mergeCell ref="A674:A727"/>
+    <mergeCell ref="A622:A675"/>
+    <mergeCell ref="A676:A729"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
